--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C4288-374F-4DF6-873D-DEBA63D77A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
     <sheet name="2909-1005" sheetId="2" r:id="rId2"/>
+    <sheet name="1008-1010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="410">
   <si>
     <t>Div</t>
   </si>
@@ -1260,7 +1268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1589,10 +1597,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A157" sqref="A157:XFD157"/>
     </sheetView>
   </sheetViews>
@@ -10705,11 +10713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20319,4 +20327,2370 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88832EC-F636-43FB-BE3C-0BC0F9DD8ED0}">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.54951335847795557</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.21327568406915384</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.22344462311207067</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.66329363965260968</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.33007815722445061</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.6415274880203885</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.19954611926188734</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.15115893141584474</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.61030732991638148</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.38214231770395135</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.30689064301484109</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.29941675298476805</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.36393794973474275</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.34648834032400666</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.65327444916694111</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.35946460128159646</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.29476290548159712</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.32247697211538234</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.36637333766116359</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.63335946191532611</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.30819630401610187</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.23891674710065408</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.41307803075356853</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.58047782084569199</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.41727608919300396</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.63397024359804754</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.31271071166098491</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5.3037846414225126E-2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.15607463081161191</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.84369200306599523</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.29513730940331806</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.19992223424637309</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.45964953833647815</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.76117400256539269</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.22692723666145001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.48796743653448743</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.23227300090214831</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.26274904212244299</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.60380104598457751</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.39306129316240118</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.27838171973625336</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.32933554379035801</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.36475271756906796</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.26202740609296599</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.7378761593305545</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.82219700101710813</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.12072152171681116</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4.2811348657909573E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.63037550520608954</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.3426471381643364</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.43795715365942123</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.24844394052349156</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.29303564501154727</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.54364946290729921</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.45475868345202108</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.77351223766594335</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.17652052596667381</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4.7814106960658666E-2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.39510874069716606</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.60064365592633961</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.36166788695290819</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.2625855669234986</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.34724977232577547</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.48896072817252867</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.51016858542707966</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.43043474799092779</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.23700449402428098</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.30978856918388903</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.60549168799950459</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.39193187107281907</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.17863887389371408</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.24897436892522432</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.50705983522392895</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.42207247726304153</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.57655848315481706</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.52547116254786685</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.26533593365711938</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.20015909888356453</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.40474349624705791</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.59437216515951208</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.11599499884270288</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.18860256046004345</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.59736108782743869</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.53595071325838972</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.45788545756356336</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.52728340884217761</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.28790220198582633</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.17853637244752327</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.31624821616661031</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.68330370559109477</v>
+      </c>
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.41272658787247024</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.24450747459087113</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.31868552769730196</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.57069498894209758</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.42745257478237575</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.83058204321075013</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.12781985219639877</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3.4156692957580607E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.51887933090423077</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.46764102682907033</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.40601743710753585</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.26654869057487085</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.30546153637552692</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.46846102492727637</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.53077416036017044</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="5">
+        <v>7.172894132323282E-2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.28271770471994506</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.56604441645208226</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.21135939369253112</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.78819686529908972</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.41444496126079339</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.36000675594584614</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.21804785650222053</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.19095781962606953</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.80899227981442423</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.768112820988476</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.16150727163853429</v>
+      </c>
+      <c r="P13" s="5">
+        <v>6.5986381327827082E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.52591915587291849</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.46470281311718464</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.51475799948675804</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.27877513115591634</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.19809904420378405</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.35953527049498618</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.639886279127163</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.6876140884540699</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.20228891538524565</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.10653988754644303</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.4819014969156864</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.51377737237712806</v>
+      </c>
+      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.28598954991406095</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.31755854913172193</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.36747938614634307</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.29170865393937606</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.7081545082016717</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.386722551446818</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.29266883314425401</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.30045649655099743</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.37092506502823569</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.62878026286438571</v>
+      </c>
+      <c r="T15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.65142331897682137</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.24504542773916863</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.10152390691388959</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.32972588303182826</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.6690546098486948</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.4120892704617426</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.41709126316952638</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.16779753621597435</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.10992012485699187</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.89006417107147906</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.31300600284943997</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.24323791027052896</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.40522008574112661</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.56276621999893428</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.43534591520562249</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.417240618899196</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.34596782597301545</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.227928989080595</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.21783664789342991</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.78209294490233561</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.3666988873478893</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.28374589420401808</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.3252528920285363</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.40462766754126339</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.59497777378629924</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.25366426121097624</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.30699624403576414</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.40305566359177919</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.30811312865491208</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.69167358643720778</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.43511842094129638</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.26213180083731025</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.28369219690247988</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.47925671644595386</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.51981312271421565</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.40065268453592651</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.20778601146853151</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.36172214518573298</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.76539230258911795</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.22434029286407406</v>
+      </c>
+      <c r="T19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.67454180410226405</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.21427843607169667</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.10806756554210252</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.43842415863382828</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.55857111440587615</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.4093115155641564</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.46516688339351886</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.12440735431447052</v>
+      </c>
+      <c r="R20" s="5">
+        <v>6.8236153891286011E-2</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.9317568243930302</v>
+      </c>
+      <c r="T20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.34653429396474889</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.20481228519490485</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.41171901454185145</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.76726331158586725</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.22181895872908536</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.52458448457594142</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.24107000985980501</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.22214099038570648</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.52380394840828914</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.47409536391627954</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.6495628424751726</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.21047006155783396</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.1347187692569739</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.51702420753353717</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.47868774982099765</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.39746883897707863</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.33906193084489106</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.25189696364350539</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.23817359554680434</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.76175039257260713</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.23211462195824978</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.37674878584384913</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.36727150596636443</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.16772958318695921</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.83224080096135467</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.5080186347571134</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.24221810287268533</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.23605117098048486</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.53293209445108514</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.46502574794733098</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.44484302055892549</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.28298301332659398</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.25733404805069759</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.38824298673292246</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.61130229066439346</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.71936223708925429</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.1887017064334901</v>
+      </c>
+      <c r="P24" s="5">
+        <v>8.8713418723274803E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.48711124215801033</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.50745473378375527</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.59583425838326509</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.20499690669050349</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.1881425892721674</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.65600216691171731</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.33597706449925452</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.25322471749430786</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.23717644617880751</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.45919837041825196</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.54919840333503922</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.44850483083491133</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.24372206571355148</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.24487646969724483</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.46007662087277218</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.50790031714221051</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.49038234597995395</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.66390882170597498</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.21088950374605336</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.12105820300603866</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.48285280736167452</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.51339349395787304</v>
+      </c>
+      <c r="T26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.31987516640089991</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.2916583844898219</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.359053495141891</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.37351623496086794</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.62617998797035834</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.3452554725267602</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.4149783441069726</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.2327087977790184</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.12302366225634015</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.87696695678830061</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.20914908969785362</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.22631868418154735</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.5026639023247077</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.54815011861931962</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.4487476570841214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.79224606407939746</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.12570635188470716</v>
+      </c>
+      <c r="P28" s="5">
+        <v>5.6547549085862431E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.71916054760232295</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.23448899024174996</v>
+      </c>
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.3952386282899879</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.23508100890297004</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.34241071611319324</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.62114659169240538</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.37608309993786532</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.13615678302350348</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.45125858883215364</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.39124606391965616</v>
+      </c>
+      <c r="R29" s="5">
+        <v>7.8014599964736295E-2</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.92197645981455634</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.51610431313037897</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.2405946890931171</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.23019521553312761</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.53449069432743779</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.46334768694931155</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.77724711890828269</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.10360606772035033</v>
+      </c>
+      <c r="P30" s="5">
+        <v>3.3189047532380167E-2</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.75011387925494732</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.12412264328540171</v>
+      </c>
+      <c r="T30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.34184607737586092</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.25898733172809707</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.36724857220515</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.50183438696515426</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.49716146765276142</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.18359793816774722</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.45260966598357666</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.34758776898437771</v>
+      </c>
+      <c r="R31" s="5">
+        <v>8.4462840960727287E-2</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.91553167427015325</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.15777809274523852</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.26205167701182913</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.51335911970058801</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.35626610114841312</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.64283551689286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.15386260651381758</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.30400243460623338</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.48737386312136954</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.25339631860570955</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.74631055336266705</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.52739447478224466</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.26525062107391223</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.19848769587122544</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.40331679133830795</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.59579664591312154</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.15250005718674214</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.21225064156514306</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.55489845938357596</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.51810663647661548</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.47802814609838351</v>
+      </c>
+      <c r="T33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.22921340732597995</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.19244739789346402</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.51919971579434365</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.73076431001307485</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.25692058353951175</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.53252473284145352</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.41663279369263789</v>
+      </c>
+      <c r="P34" s="5">
+        <v>5.0725060151436671E-2</v>
+      </c>
+      <c r="R34" s="5">
+        <v>7.5976698757835082E-2</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.92399164787661969</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.46990441382309034</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.24183727551044593</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.27049210004526458</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.56255848239114681</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.43533661599306972</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.47158112841299543</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.23672781974932641</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.27349141487387413</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.58927278742922606</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.40811768182421615</v>
+      </c>
+      <c r="T35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44478</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.32115878422038135</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.27425880272254205</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.37204208281151896</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.43513461379124141</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.56429819769247014</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.1236567108658836</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.33215301474359615</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.49258113394630165</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.18513451827235228</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.81471183428736382</v>
+      </c>
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K37" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.15339944123370816</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.31560073799083854</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.47969192714236608</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.2313372730482405</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.76844435545030465</v>
+      </c>
+      <c r="T37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K38" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.43758008034308765</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.21975742611605245</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.31883740508420944</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.69835720020897263</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.2959130257561684</v>
+      </c>
+      <c r="T38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.2991287320054894</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.31396652696431648</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.35905576543477635</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.30378668446852058</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.69606503595092417</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.53688624212051028</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.34904085121532191</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.11266636563348763</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.15814959193833769</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.84174349146703165</v>
+      </c>
+      <c r="T39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.55338131653275136</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.30483718705406992</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.13872584699022281</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.24297124573161097</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.75673613782579585</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.15581995133375071</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.46169239652634297</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.36489583869792586</v>
+      </c>
+      <c r="R40" s="5">
+        <v>7.4883359306565381E-2</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.92511090640812754</v>
+      </c>
+      <c r="T40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.72274103846890403</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.1892022355254325</v>
+      </c>
+      <c r="H41" s="5">
+        <v>8.5093986531056098E-2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.47340932798595503</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.52150269685107986</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.82340548451526019</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.13292884826027146</v>
+      </c>
+      <c r="P41" s="5">
+        <v>3.7062004531528636E-2</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.51272247209421873</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.4749313460008962</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.30308564740960858</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.31295383328912751</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.35646290592088026</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.30722236584920198</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.69262577554096372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.41419120119995556</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.29066803609204456</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.2779890157199284</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.37161383934803116</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.62805479696218613</v>
+      </c>
+      <c r="T42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.27299898801163874</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.29891892320810948</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.39303045825467509</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.33787052198277223</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.66186803906782288</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.83075866570753099</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.12350139152701065</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3.6367986736746342E-2</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.55741912520627257</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.42527842842769104</v>
+      </c>
+      <c r="T43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F44" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J44" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K44" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.34873053012592714</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.37821951158757755</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.2621436105284391</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.17194212406494039</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.82803555085124503</v>
+      </c>
+      <c r="T44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F45" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.64521921174221353</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.31509799560693158</v>
+      </c>
+      <c r="P45" s="5">
+        <v>3.949685168955952E-2</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.1423224980390542</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.85745961388356395</v>
+      </c>
+      <c r="T45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F46" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J46" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.4633897413816459</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.35645426453590584</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.17573592144216749</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.18080091069245849</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.81912854491202081</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F47" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J47" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.42305633038621199</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.27888565589335468</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.28008397774977911</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.4127451348768203</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.58675403393741055</v>
+      </c>
+      <c r="T47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C4288-374F-4DF6-873D-DEBA63D77A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
     <sheet name="2909-1005" sheetId="2" r:id="rId2"/>
     <sheet name="1008-1010" sheetId="3" r:id="rId3"/>
+    <sheet name="1510-1810" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="411">
   <si>
     <t>Div</t>
   </si>
@@ -1263,12 +1263,15 @@
   </si>
   <si>
     <t>4-3</t>
+  </si>
+  <si>
+    <t>3-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1597,7 +1600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10713,7 +10716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -20330,11 +20333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88832EC-F636-43FB-BE3C-0BC0F9DD8ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22693,4 +22696,7773 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.60343711786356957</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.31054824362952288</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8.5191792406568392E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.18660137199687762</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.8131447260982807</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.60343711786356957</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.31054824362952288</v>
+      </c>
+      <c r="P2" s="5">
+        <v>8.5191792406568392E-2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.18660137199687762</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.8131447260982807</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.22261608782664832</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.34391241631656078</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.40118037338579121</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.21667913733688424</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.78324075501529078</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.22261608782664832</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.34391241631656078</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.40118037338579121</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.21667913733688424</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.78324075501529078</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.44045832869799917</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.25483061835853044</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.28527106932953356</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.51125197264456779</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.48751225391426661</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.44045832869799917</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.25483061835853044</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.28527106932953356</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.51125197264456779</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.48751225391426661</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.62532796652584044</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.33431049872252544</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.0211920855203594E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.12590707996953149</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.87394048128276924</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.62532796652584044</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.33431049872252544</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4.0211920855203594E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.12590707996953149</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.87394048128276924</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.73874553877782378</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.23322147230051393</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.7399386180147121E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.22413470628311896</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.77489759493393984</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.73874553877782378</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.23322147230051393</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2.7399386180147121E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.22413470628311896</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.77489759493393984</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.38018996081071232</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.41519499829250678</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.19981922326030785</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.11810396398675804</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.88188358155290647</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.38018996081071232</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.41519499829250678</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.19981922326030785</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.11810396398675804</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.88188358155290647</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.29068137273338657</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.2205780115876633</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.44438638207687431</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.65762976433362863</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.33765391183037458</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.29068137273338657</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.2205780115876633</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.44438638207687431</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.65762976433362863</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.33765391183037458</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.62821148950907857</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.27423316465649117</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9.6140188756918626E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.25658740333065655</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.7428289570007155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.62821148950907857</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.27423316465649117</v>
+      </c>
+      <c r="P9" s="5">
+        <v>9.6140188756918626E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.25658740333065655</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.7428289570007155</v>
+      </c>
+      <c r="T9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.6748129659307146</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.20875507449677436</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.11277840797770244</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.47136928479296464</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.5249011841947786</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.6748129659307146</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.20875507449677436</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.11277840797770244</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.47136928479296464</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.5249011841947786</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.17219478915125211</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.27702680612850455</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.4915728102302141</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.33105623945565155</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.66834402479577948</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.17219478915125211</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.27702680612850455</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.4915728102302141</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.33105623945565155</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.66834402479577948</v>
+      </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7.0363012409525333E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9.2605542482924103E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.67646782873513145</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.78544066382908773</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.11159134588826017</v>
+      </c>
+      <c r="L12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="5">
+        <v>7.0363012409525333E-2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>9.2605542482924103E-2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.67646782873513145</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.78544066382908773</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.11159134588826017</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.24999777347848839</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.24672526523215549</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.45353273941836697</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.50580818133213645</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.49257744274635085</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.24999777347848839</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.24672526523215549</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.45353273941836697</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.50580818133213645</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.49257744274635085</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.27406376975095448</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.19092007015607676</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.48439803128633813</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.78472492756857337</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.19875879950695519</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.27406376975095448</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.19092007015607676</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.48439803128633813</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.78472492756857337</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.19875879950695519</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.4118980015520361</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.24694241549553786</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.3172609790703701</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.55862582539624772</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.43970265045937895</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.4118980015520361</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.24694241549553786</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.3172609790703701</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.55862582539624772</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.43970265045937895</v>
+      </c>
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.51638748816665014</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.25772418184008367</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.21502331627365442</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.44736586482658558</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.55149006100394515</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.51638748816665014</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.25772418184008367</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.21502331627365442</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.44736586482658558</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.55149006100394515</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.24930455935293025</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.63873270230865931</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.16327484403996767</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.83613050105698772</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.24930455935293025</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.63873270230865931</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.16327484403996767</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.83613050105698772</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.44809820780076659</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.28536535599958324</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.25241002367920029</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.37778817590327579</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.62178790671182127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.44809820780076659</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.28536535599958324</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.25241002367920029</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.37778817590327579</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.62178790671182127</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.84078911974821691</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.12086228883355049</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2.9723591153163791E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.52258014208327308</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.46260111849024976</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.84078911974821691</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.12086228883355049</v>
+      </c>
+      <c r="P19" s="5">
+        <v>2.9723591153163791E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.52258014208327308</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.46260111849024976</v>
+      </c>
+      <c r="T19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6.30287727518066E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.10286929153206191</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.69021617715866745</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.74082784912740118</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.20520356080923327</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="5">
+        <v>6.30287727518066E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.10286929153206191</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.69021617715866745</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.74082784912740118</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.20520356080923327</v>
+      </c>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.29779607501477884</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.56823811674059976</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.13303544773689996</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.9456135381231086E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.970543435908513</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.29779607501477884</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.56823811674059976</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.13303544773689996</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2.9456135381231086E-2</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.970543435908513</v>
+      </c>
+      <c r="T21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.17513513986578741</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.37822240423426429</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.4155318420712909</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.1505332496513089</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.84942556776645373</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.17513513986578741</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.37822240423426429</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.4155318420712909</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.1505332496513089</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.84942556776645373</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.72763539713243452</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.5453252691467832E-3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.62400561440788638</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.10917510799369491</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.72763539713243452</v>
+      </c>
+      <c r="O23" s="5">
+        <v>5.5453252691467832E-3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.62400561440788638</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.10917510799369491</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3.221312152209483E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.12706516039200291</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.67475631948025017</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.48555372998232199</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.50357725027246614</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3.221312152209483E-2</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.12706516039200291</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.67475631948025017</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.48555372998232199</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.50357725027246614</v>
+      </c>
+      <c r="T24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.28486374811667503</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.47469566319127526</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.23467006085490311</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7.3864042826278675E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.92613424585256454</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.28486374811667503</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.47469566319127526</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.23467006085490311</v>
+      </c>
+      <c r="R25" s="5">
+        <v>7.3864042826278675E-2</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.92613424585256454</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6.9888318945075259E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.20796311202971982</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.61064641851981927</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.35787772293918735</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.63977721096281559</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="5">
+        <v>6.9888318945075259E-2</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.20796311202971982</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.61064641851981927</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.35787772293918735</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.63977721096281559</v>
+      </c>
+      <c r="T26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.86333862472608214</v>
+      </c>
+      <c r="G27" s="5">
+        <v>9.0459991957449651E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2.1103746296397084E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.62953482569546293</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.332055339181973</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.86333862472608214</v>
+      </c>
+      <c r="O27" s="5">
+        <v>9.0459991957449651E-2</v>
+      </c>
+      <c r="P27" s="5">
+        <v>2.1103746296397084E-2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.62953482569546293</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.332055339181973</v>
+      </c>
+      <c r="T27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4.6508964093147503E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.54414123277521076</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.3931550111000936</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2.9004342076063585E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.97099324120563046</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4.6508964093147503E-2</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.54414123277521076</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.3931550111000936</v>
+      </c>
+      <c r="R28" s="5">
+        <v>2.9004342076063585E-2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.97099324120563046</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.64162425320815963</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.18478960259610916</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.16073593826782995</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.71880297101638346</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.26459835284507238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.64162425320815963</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.18478960259610916</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.16073593826782995</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.71880297101638346</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.26459835284507238</v>
+      </c>
+      <c r="T29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.55273215868993397</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.23385297801217592</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.20297662192479199</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.53314860466817282</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.46420013848238956</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.55273215868993397</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.23385297801217592</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.20297662192479199</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.53314860466817282</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.46420013848238956</v>
+      </c>
+      <c r="T30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.82578373742655597</v>
+      </c>
+      <c r="G31" s="5">
+        <v>9.4853108978377176E-2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2.704162943476391E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.72085148183788972</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.19847950776209081</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.82578373742655597</v>
+      </c>
+      <c r="O31" s="5">
+        <v>9.4853108978377176E-2</v>
+      </c>
+      <c r="P31" s="5">
+        <v>2.704162943476391E-2</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.72085148183788972</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.19847950776209081</v>
+      </c>
+      <c r="T31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.45467110581539621</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.27266575517592717</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.25738959056373523</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.42451532507445772</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.57483149821227708</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.45467110581539621</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.27266575517592717</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.25738959056373523</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.42451532507445772</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.57483149821227708</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.16133914278995579</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.22677401008334933</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.53695910440212224</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.47672481860484073</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.52071418671560876</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.16133914278995579</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.22677401008334933</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.53695910440212224</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.47672481860484073</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.52071418671560876</v>
+      </c>
+      <c r="T33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.49801047528008896</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.35442213786700405</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.14487437632105674</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.16909172358795815</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.8308229012844317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.49801047528008896</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.35442213786700405</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.14487437632105674</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.16909172358795815</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.8308229012844317</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.70985736149037348</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.17153032266997359</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.11006908532076436</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.65371776573067319</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.33111468165473068</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.70985736149037348</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.17153032266997359</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.11006908532076436</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.65371776573067319</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.33111468165473068</v>
+      </c>
+      <c r="T35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.597097222010602</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.21698587777573469</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.17718805657405112</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.57334685554505349</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.42211011863028364</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.597097222010602</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.21698587777573469</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.17718805657405112</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.57334685554505349</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.42211011863028364</v>
+      </c>
+      <c r="T36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.25674870827216073</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.43628744610012221</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.29529274359600216</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.1036929140109325</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.8963025152043731</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.25674870827216073</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.43628744610012221</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.29529274359600216</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.1036929140109325</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.8963025152043731</v>
+      </c>
+      <c r="T37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.59094999363013201</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.23842874505931469</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.16411303950591211</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.4564614589812333</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.54155466923713813</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.59094999363013201</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.23842874505931469</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.16411303950591211</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.4564614589812333</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.54155466923713813</v>
+      </c>
+      <c r="T38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.47947325538542135</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.25609121174451466</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.24955296548034922</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.48415081659161024</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.51464231343474309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.47947325538542135</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.25609121174451466</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.24955296548034922</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.48415081659161024</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.51464231343474309</v>
+      </c>
+      <c r="T39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.37514169598477692</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.30711163410783093</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.29865817384007715</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.3260668431028188</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.67375320240234893</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.37514169598477692</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.30711163410783093</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.29865817384007715</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.3260668431028188</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.67375320240234893</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.54945290511105438</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.28853946991112595</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.15742423195697008</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.29478418590827227</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.70477102349542087</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.54945290511105438</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.28853946991112595</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.15742423195697008</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.29478418590827227</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.70477102349542087</v>
+      </c>
+      <c r="T41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.41528520841650879</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.27369873242541498</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.29129441153342933</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.43599628570633675</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.56340958460069934</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.41528520841650879</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.27369873242541498</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.29129441153342933</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.43599628570633675</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.56340958460069934</v>
+      </c>
+      <c r="T42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.19973619134320289</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.20137762698076006</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.53242125043144195</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.64727253314136968</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.34536029625672771</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.19973619134320289</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.20137762698076006</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.53242125043144195</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.64727253314136968</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.34536029625672771</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.50562091831823075</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.23714990043760958</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.24262964772686552</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.56274749272451452</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.43474088546994316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.50562091831823075</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.23714990043760958</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.24262964772686552</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.56274749272451452</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.43474088546994316</v>
+      </c>
+      <c r="T44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.58368671474115774</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.25232243854236541</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.15841354858484905</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.3979045013918836</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.60084008561544522</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.58368671474115774</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.25232243854236541</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.15841354858484905</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.3979045013918836</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.60084008561544522</v>
+      </c>
+      <c r="T45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.49986905429082451</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.32880795012783937</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.16693134858999045</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.22007330088271182</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.77977639520776643</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.49986905429082451</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.32880795012783937</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.16693134858999045</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.22007330088271182</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.77977639520776643</v>
+      </c>
+      <c r="T46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.41868003522171121</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.32097785347306496</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.24833378897493374</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.27673274702026524</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.72313219574619236</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.41868003522171121</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.32097785347306496</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.24833378897493374</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.27673274702026524</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.72313219574619236</v>
+      </c>
+      <c r="T47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.39597651017013019</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.26934167208308635</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.31185500733771926</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.45845265121862316</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.54086499728352377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.39597651017013019</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.26934167208308635</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.31185500733771926</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.45845265121862316</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.54086499728352377</v>
+      </c>
+      <c r="T48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.11175413997466027</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.19168776450624145</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.59718506650888281</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.51286292918489607</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.48175438131556347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.11175413997466027</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.19168776450624145</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.59718506650888281</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.51286292918489607</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0.48175438131556347</v>
+      </c>
+      <c r="T49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.36495411134695899</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.38939053616676628</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.237448620720044</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.15326284565651999</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.84671834762027298</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.36495411134695899</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.38939053616676628</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.237448620720044</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.15326284565651999</v>
+      </c>
+      <c r="S50" s="5">
+        <v>0.84671834762027298</v>
+      </c>
+      <c r="T50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.32346010682294418</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.32284269395866549</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.33095341379286847</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.28402112844236221</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.71587275290490049</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.32346010682294418</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.32284269395866549</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.33095341379286847</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0.28402112844236221</v>
+      </c>
+      <c r="S51" s="5">
+        <v>0.71587275290490049</v>
+      </c>
+      <c r="T51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.80222585755090503</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.1291158768235339</v>
+      </c>
+      <c r="H52" s="5">
+        <v>5.3926498279988473E-2</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.65891323917873768</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.31220962312047645</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.80222585755090503</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.1291158768235339</v>
+      </c>
+      <c r="P52" s="5">
+        <v>5.3926498279988473E-2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0.65891323917873768</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0.31220962312047645</v>
+      </c>
+      <c r="T52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F53" s="5">
+        <v>9.5284142231627771E-3</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5.8317083096674889E-2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.70432111015063403</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.61203541644127513</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.34419131956309879</v>
+      </c>
+      <c r="L53" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="5">
+        <v>9.5284142231627771E-3</v>
+      </c>
+      <c r="O53" s="5">
+        <v>5.8317083096674889E-2</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.70432111015063403</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0.61203541644127513</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0.34419131956309879</v>
+      </c>
+      <c r="T53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4.2442415233864675E-2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.19066325081530522</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.63671340254507147</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.33431088376488172</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.66302746921533862</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="5">
+        <v>4.2442415233864675E-2</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.19066325081530522</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.63671340254507147</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.33431088376488172</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0.66302746921533862</v>
+      </c>
+      <c r="T54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.66019045661124642</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.2811080645850258</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5.8248191850493618E-2</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.19942195737003751</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.80013450036827538</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.66019045661124642</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.2811080645850258</v>
+      </c>
+      <c r="P55" s="5">
+        <v>5.8248191850493618E-2</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0.19942195737003751</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0.80013450036827538</v>
+      </c>
+      <c r="T55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.47761383062683871</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.34993556340002935</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.16837495669053862</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.18693527234394089</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.81297819640795232</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.47761383062683871</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.34993556340002935</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.16837495669053862</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0.18693527234394089</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.81297819640795232</v>
+      </c>
+      <c r="T56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.72048589888253101</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.1963381822443068</v>
+      </c>
+      <c r="H57" s="5">
+        <v>8.0824254959638825E-2</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.43270905339621379</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.5634221911020254</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.72048589888253101</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.1963381822443068</v>
+      </c>
+      <c r="P57" s="5">
+        <v>8.0824254959638825E-2</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.43270905339621379</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0.5634221911020254</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.27157164490315261</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.30084314920594163</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.39273918499380239</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.33185619144101475</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.66789744540505147</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.27157164490315261</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.30084314920594163</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.39273918499380239</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.33185619144101475</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0.66789744540505147</v>
+      </c>
+      <c r="T58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.16001914177398988</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.34751429258476657</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.45143853448870624</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.18430246225773303</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.81560120908690648</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.16001914177398988</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.34751429258476657</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.45143853448870624</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.18430246225773303</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0.81560120908690648</v>
+      </c>
+      <c r="T59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.52162739065969033</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.29374814137465743</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.17851250537763105</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.30143336022508843</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.69818748225878646</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.52162739065969033</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.29374814137465743</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.17851250537763105</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0.30143336022508843</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0.69818748225878646</v>
+      </c>
+      <c r="T60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.27267836561724784</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.72732158454769191</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>4.2446583658954651E-3</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.99575529179904421</v>
+      </c>
+      <c r="L61" t="s">
+        <v>133</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.27267836561724784</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.72732158454769191</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5">
+        <v>4.2446583658954651E-3</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.99575529179904421</v>
+      </c>
+      <c r="T61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.83296499391601198</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.132220348332905</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2.8962402241575331E-2</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.46759010489246527</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.5224934714040087</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.83296499391601198</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.132220348332905</v>
+      </c>
+      <c r="P62" s="5">
+        <v>2.8962402241575331E-2</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.46759010489246527</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0.5224934714040087</v>
+      </c>
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.33205857842809744</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.33669432180849307</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.31215661454888338</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.25132864405650768</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.7486029506942351</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.33205857842809744</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.33669432180849307</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.31215661454888338</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.25132864405650768</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0.7486029506942351</v>
+      </c>
+      <c r="T63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.30913684568345773</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.21440845156595192</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.43500964819340587</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0.70075298094687855</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.29283862533050059</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.30913684568345773</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0.21440845156595192</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.43500964819340587</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.70075298094687855</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0.29283862533050059</v>
+      </c>
+      <c r="T64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.26865106689448048</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.2623479096523938</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.42551600459379313</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0.45757868127735918</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.5415000441244765</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.26865106689448048</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0.2623479096523938</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.42551600459379313</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.45757868127735918</v>
+      </c>
+      <c r="S65" s="5">
+        <v>0.5415000441244765</v>
+      </c>
+      <c r="T65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.24496983079188683</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.23682350976848307</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.46601493662213289</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.54305610726215858</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.45464220818771017</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.24496983079188683</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.23682350976848307</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.46601493662213289</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.54305610726215858</v>
+      </c>
+      <c r="S66" s="5">
+        <v>0.45464220818771017</v>
+      </c>
+      <c r="T66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.75983746124095797</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.1997630244591222</v>
+      </c>
+      <c r="H67" s="5">
+        <v>3.918452626923883E-2</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.30880633862547724</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.6890340463021164</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.75983746124095797</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0.1997630244591222</v>
+      </c>
+      <c r="P67" s="5">
+        <v>3.918452626923883E-2</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0.30880633862547724</v>
+      </c>
+      <c r="S67" s="5">
+        <v>0.6890340463021164</v>
+      </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F68" s="5">
+        <v>9.6575905918552848E-2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.23811259859447609</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.57442880631193005</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.33244028667158471</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.66620521969788504</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="5">
+        <v>9.6575905918552848E-2</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0.23811259859447609</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.57442880631193005</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.33244028667158471</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0.66620521969788504</v>
+      </c>
+      <c r="T68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F69" s="5">
+        <v>9.7252003546893548E-2</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.41962085348964651</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.45083322729012337</v>
+      </c>
+      <c r="J69" s="5">
+        <v>8.8862231479739706E-2</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.91111356883206618</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="N69" s="5">
+        <v>9.7252003546893548E-2</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0.41962085348964651</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.45083322729012337</v>
+      </c>
+      <c r="R69" s="5">
+        <v>8.8862231479739706E-2</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0.91111356883206618</v>
+      </c>
+      <c r="T69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.51334812868651358</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.31773727053192524</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.16446290298219093</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.2386077974877073</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.7611899783888374</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0.51334812868651358</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0.31773727053192524</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.16446290298219093</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.2386077974877073</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0.7611899783888374</v>
+      </c>
+      <c r="T70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.50685445008626773</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.25769198162525392</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.22363816391352173</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.45582733506206413</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.54302608808968589</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.50685445008626773</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.25769198162525392</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.22363816391352173</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.45582733506206413</v>
+      </c>
+      <c r="S71" s="5">
+        <v>0.54302608808968589</v>
+      </c>
+      <c r="T71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.1715151700811883</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.30615594098507787</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0.47155665950264836</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.26243958365234499</v>
+      </c>
+      <c r="K72" s="5">
+        <v>0.73728946403694284</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0.1715151700811883</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0.30615594098507787</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.47155665950264836</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.26243958365234499</v>
+      </c>
+      <c r="S72" s="5">
+        <v>0.73728946403694284</v>
+      </c>
+      <c r="T72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2.1693892745655034E-2</v>
+      </c>
+      <c r="G73" s="5">
+        <v>8.0497336354659624E-2</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0.70308687170226447</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.6156144402144591</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0.35021241019252158</v>
+      </c>
+      <c r="L73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="5">
+        <v>2.1693892745655034E-2</v>
+      </c>
+      <c r="O73" s="5">
+        <v>8.0497336354659624E-2</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.70308687170226447</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.6156144402144591</v>
+      </c>
+      <c r="S73" s="5">
+        <v>0.35021241019252158</v>
+      </c>
+      <c r="T73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.46025540972949996</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.17707692264231376</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.30802768171282829</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.86738225282841097</v>
+      </c>
+      <c r="K74" s="5">
+        <v>7.8948413073571491E-2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>410</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0.46025540972949996</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0.17707692264231376</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.30802768171282829</v>
+      </c>
+      <c r="R74" s="5">
+        <v>0.86738225282841097</v>
+      </c>
+      <c r="S74" s="5">
+        <v>7.8948413073571491E-2</v>
+      </c>
+      <c r="T74" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.43482344776683607</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.39226703114172262</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0.16946871250850135</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.13425284010704561</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0.86571796612002672</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.43482344776683607</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.39226703114172262</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.16946871250850135</v>
+      </c>
+      <c r="R75" s="5">
+        <v>0.13425284010704561</v>
+      </c>
+      <c r="S75" s="5">
+        <v>0.86571796612002672</v>
+      </c>
+      <c r="T75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.75059086920621665</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.12772476802508687</v>
+      </c>
+      <c r="H76" s="5">
+        <v>6.5561548807454406E-2</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.77847957896432385</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.13387147640974739</v>
+      </c>
+      <c r="L76" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0.75059086920621665</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0.12772476802508687</v>
+      </c>
+      <c r="P76" s="5">
+        <v>6.5561548807454406E-2</v>
+      </c>
+      <c r="R76" s="5">
+        <v>0.77847957896432385</v>
+      </c>
+      <c r="S76" s="5">
+        <v>0.13387147640974739</v>
+      </c>
+      <c r="T76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.87239989377994542</v>
+      </c>
+      <c r="G77" s="5">
+        <v>6.7929649085793159E-2</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1.1429582550092273E-2</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.66134103609771711</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.27436410847454323</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0.87239989377994542</v>
+      </c>
+      <c r="O77" s="5">
+        <v>6.7929649085793159E-2</v>
+      </c>
+      <c r="P77" s="5">
+        <v>1.1429582550092273E-2</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.66134103609771711</v>
+      </c>
+      <c r="S77" s="5">
+        <v>0.27436410847454323</v>
+      </c>
+      <c r="T77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.80564221545639803</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.19279072592719615</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.22706666056913521</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.77136628081445902</v>
+      </c>
+      <c r="L78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0.80564221545639803</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0.19279072592719615</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0</v>
+      </c>
+      <c r="R78" s="5">
+        <v>0.22706666056913521</v>
+      </c>
+      <c r="S78" s="5">
+        <v>0.77136628081445902</v>
+      </c>
+      <c r="T78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.38614533661305661</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.29246658558383859</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.30112902075578823</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.37171286051976132</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.62799069817460595</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0.38614533661305661</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0.29246658558383859</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0.30112902075578823</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0.37171286051976132</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0.62799069817460595</v>
+      </c>
+      <c r="T79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.60588893540388444</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.2689292789527184</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.12248399944629908</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.30175474276829595</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.69752894962737699</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0.60588893540388444</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.2689292789527184</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.12248399944629908</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.30175474276829595</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0.69752894962737699</v>
+      </c>
+      <c r="T80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.56793306926136566</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.37072221135640737</v>
+      </c>
+      <c r="H81" s="5">
+        <v>6.1099476336124642E-2</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.10941609093547787</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.89050867505358322</v>
+      </c>
+      <c r="L81" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.56793306926136566</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0.37072221135640737</v>
+      </c>
+      <c r="P81" s="5">
+        <v>6.1099476336124642E-2</v>
+      </c>
+      <c r="R81" s="5">
+        <v>0.10941609093547787</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.89050867505358322</v>
+      </c>
+      <c r="T81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.49771999453612614</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.21003186506019939</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.27281740900332457</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.72826512221442175</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.26282339539818322</v>
+      </c>
+      <c r="L82" t="s">
+        <v>11</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0.49771999453612614</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0.21003186506019939</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.27281740900332457</v>
+      </c>
+      <c r="R82" s="5">
+        <v>0.72826512221442175</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0.26282339539818322</v>
+      </c>
+      <c r="T82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.47681677818658064</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.31326132084446595</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.20230757650330572</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.27256704047986841</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.72722793785190809</v>
+      </c>
+      <c r="L83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0.47681677818658064</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0.31326132084446595</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.20230757650330572</v>
+      </c>
+      <c r="R83" s="5">
+        <v>0.27256704047986841</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0.72722793785190809</v>
+      </c>
+      <c r="T83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S84" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T84" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S85" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T85" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.22992548518672384</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.64752249156971631</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.18283630320553446</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.81633893888120379</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.22992548518672384</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.64752249156971631</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0.18283630320553446</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.81633893888120379</v>
+      </c>
+      <c r="T86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T87" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44485</v>
+      </c>
+      <c r="F88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S88" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T88" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.41599151399144796</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.25948271695577835</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.30277294847949549</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.49757745338694637</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.50141142828462948</v>
+      </c>
+      <c r="L89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0.41599151399144796</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.25948271695577835</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.30277294847949549</v>
+      </c>
+      <c r="R89" s="5">
+        <v>0.49757745338694637</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.50141142828462948</v>
+      </c>
+      <c r="T89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.651010488485257</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.22297663519628555</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.12228116855266737</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.43797540213051167</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.55944559206514943</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0.651010488485257</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0.22297663519628555</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0.12228116855266737</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0.43797540213051167</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.55944559206514943</v>
+      </c>
+      <c r="T90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.13516597650977666</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.22248125237043262</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.55843426067675672</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.44748761034557466</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.54995482677414942</v>
+      </c>
+      <c r="L91" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.13516597650977666</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.22248125237043262</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.55843426067675672</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0.44748761034557466</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.54995482677414942</v>
+      </c>
+      <c r="T91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.18410281553360799</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.25542988422045254</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.49802642628903387</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.40715735070010967</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.59170627962866584</v>
+      </c>
+      <c r="L92" t="s">
+        <v>28</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.18410281553360799</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.25542988422045254</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.49802642628903387</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0.40715735070010967</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0.59170627962866584</v>
+      </c>
+      <c r="T92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.66824338331787791</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.20211895632180518</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.12467130032021664</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.53098521691304446</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.46375705784725663</v>
+      </c>
+      <c r="L93" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0.66824338331787791</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0.20211895632180518</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.12467130032021664</v>
+      </c>
+      <c r="R93" s="5">
+        <v>0.53098521691304446</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0.46375705784725663</v>
+      </c>
+      <c r="T93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.18637696415881941</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.19105165735274982</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.55160203165406596</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.67384248044100792</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.31613279228535868</v>
+      </c>
+      <c r="L94" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0.18637696415881941</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0.19105165735274982</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.55160203165406596</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0.67384248044100792</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0.31613279228535868</v>
+      </c>
+      <c r="T94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.12477723173823177</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.2574312259551893</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.54145500753495479</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.32664985590932372</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.67241193890702222</v>
+      </c>
+      <c r="L95" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0.12477723173823177</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0.2574312259551893</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.54145500753495479</v>
+      </c>
+      <c r="R95" s="5">
+        <v>0.32664985590932372</v>
+      </c>
+      <c r="S95" s="5">
+        <v>0.67241193890702222</v>
+      </c>
+      <c r="T95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.44351781586497785</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.38710992163322056</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0.16603807753041447</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.13873697581866512</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0.86122896386660164</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0.44351781586497785</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0.38710992163322056</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.16603807753041447</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0.13873697581866512</v>
+      </c>
+      <c r="S96" s="5">
+        <v>0.86122896386660164</v>
+      </c>
+      <c r="T96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.71935178063988225</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.17476795939997827</v>
+      </c>
+      <c r="H97" s="5">
+        <v>9.9910198394282751E-2</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0.59576122438545587</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0.39338403761988794</v>
+      </c>
+      <c r="L97" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0.71935178063988225</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0.17476795939997827</v>
+      </c>
+      <c r="P97" s="5">
+        <v>9.9910198394282751E-2</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0.59576122438545587</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0.39338403761988794</v>
+      </c>
+      <c r="T97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.58293027039824319</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.23275634344621188</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.17645649689765106</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.49926605082455122</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.49820898384409573</v>
+      </c>
+      <c r="L98" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0.58293027039824319</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0.23275634344621188</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.17645649689765106</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.49926605082455122</v>
+      </c>
+      <c r="S98" s="5">
+        <v>0.49820898384409573</v>
+      </c>
+      <c r="T98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>280</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.63527490892179816</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.19991696640943035</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.15651476094105904</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.62067722061258657</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0.37150943023516042</v>
+      </c>
+      <c r="L99" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0.63527490892179816</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0.19991696640943035</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.15651476094105904</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0.62067722061258657</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0.37150943023516042</v>
+      </c>
+      <c r="T99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.21513568647322512</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.24704452276659628</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0.48065768124083763</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.47118114885895385</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.52727165297397316</v>
+      </c>
+      <c r="L100" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="5">
+        <v>0.21513568647322512</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0.24704452276659628</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.48065768124083763</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.47118114885895385</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0.52727165297397316</v>
+      </c>
+      <c r="T100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.27714349442046304</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.33177500714250208</v>
+      </c>
+      <c r="H101" s="5">
+        <v>0.36389802431608531</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0.2563508142637978</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0.74355945108090538</v>
+      </c>
+      <c r="L101" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.27714349442046304</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0.33177500714250208</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.36389802431608531</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0.2563508142637978</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0.74355945108090538</v>
+      </c>
+      <c r="T101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.41528603610482689</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.25310972127417664</v>
+      </c>
+      <c r="H102" s="5">
+        <v>0.30889843532311961</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.52769482274880508</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.47100482906314012</v>
+      </c>
+      <c r="L102" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0.41528603610482689</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0.25310972127417664</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.30889843532311961</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0.52769482274880508</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0.47100482906314012</v>
+      </c>
+      <c r="T102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.42136572184724458</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.23512366523012274</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0.31947095879817577</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.61776637367782916</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.3794405675801909</v>
+      </c>
+      <c r="L103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0.42136572184724458</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0.23512366523012274</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.31947095879817577</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0.61776637367782916</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0.3794405675801909</v>
+      </c>
+      <c r="T103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0.60950899837448291</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.21788565834277929</v>
+      </c>
+      <c r="H104" s="5">
+        <v>0.16509402042520965</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0.54665355206871447</v>
+      </c>
+      <c r="K104" s="5">
+        <v>0.44925956926247845</v>
+      </c>
+      <c r="L104" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0.60950899837448291</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0.21788565834277929</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.16509402042520965</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0.54665355206871447</v>
+      </c>
+      <c r="S104" s="5">
+        <v>0.44925956926247845</v>
+      </c>
+      <c r="T104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.48876077308823512</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.31415390937329762</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0.19053600438419396</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.26330796575852378</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0.73648444216935749</v>
+      </c>
+      <c r="L105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0.48876077308823512</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0.31415390937329762</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0.19053600438419396</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0.26330796575852378</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0.73648444216935749</v>
+      </c>
+      <c r="T105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.29424222426047403</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.20422915562076605</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0.45666998569732092</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.74018125619072683</v>
+      </c>
+      <c r="K106" s="5">
+        <v>0.25007533091841061</v>
+      </c>
+      <c r="L106" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106" s="5">
+        <v>0.29424222426047403</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0.20422915562076605</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.45666998569732092</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0.74018125619072683</v>
+      </c>
+      <c r="S106" s="5">
+        <v>0.25007533091841061</v>
+      </c>
+      <c r="T106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.56357103939439401</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.27955049221434902</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.15245591821122034</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.31160893046578841</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0.68782340990681146</v>
+      </c>
+      <c r="L107" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0.56357103939439401</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0.27955049221434902</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.15245591821122034</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.31160893046578841</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0.68782340990681146</v>
+      </c>
+      <c r="T107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.73986736939514675</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.16443474940212557</v>
+      </c>
+      <c r="H108" s="5">
+        <v>8.8836306547268748E-2</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.61244929330591447</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0.37382355805946388</v>
+      </c>
+      <c r="L108" t="s">
+        <v>16</v>
+      </c>
+      <c r="N108" s="5">
+        <v>0.73986736939514675</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0.16443474940212557</v>
+      </c>
+      <c r="P108" s="5">
+        <v>8.8836306547268748E-2</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.61244929330591447</v>
+      </c>
+      <c r="S108" s="5">
+        <v>0.37382355805946388</v>
+      </c>
+      <c r="T108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F109" s="5">
+        <v>2.0197143673851326E-2</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.14345143180362241</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0.66931208551414834</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0.38066102828662984</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0.6137191639123899</v>
+      </c>
+      <c r="L109" t="s">
+        <v>12</v>
+      </c>
+      <c r="N109" s="5">
+        <v>2.0197143673851326E-2</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0.14345143180362241</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.66931208551414834</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.38066102828662984</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0.6137191639123899</v>
+      </c>
+      <c r="T109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.13337871946571059</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.20694373355796677</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0.57174520131999429</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.50168845714581956</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0.49428122275649311</v>
+      </c>
+      <c r="L110" t="s">
+        <v>28</v>
+      </c>
+      <c r="N110" s="5">
+        <v>0.13337871946571059</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0.20694373355796677</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.57174520131999429</v>
+      </c>
+      <c r="R110" s="5">
+        <v>0.50168845714581956</v>
+      </c>
+      <c r="S110" s="5">
+        <v>0.49428122275649311</v>
+      </c>
+      <c r="T110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.11543975368895416</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.16576762185311308</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0.61823952576571528</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0.63504770135025523</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0.35194314347707795</v>
+      </c>
+      <c r="L111" t="s">
+        <v>28</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0.11543975368895416</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0.16576762185311308</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.61823952576571528</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0.63504770135025523</v>
+      </c>
+      <c r="S111" s="5">
+        <v>0.35194314347707795</v>
+      </c>
+      <c r="T111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.33584199803130399</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.20021672931095236</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0.42457900840622054</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0.78413429630860332</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0.20254417857141302</v>
+      </c>
+      <c r="L112" t="s">
+        <v>11</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0.33584199803130399</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0.20021672931095236</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.42457900840622054</v>
+      </c>
+      <c r="R112" s="5">
+        <v>0.78413429630860332</v>
+      </c>
+      <c r="S112" s="5">
+        <v>0.20254417857141302</v>
+      </c>
+      <c r="T112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" t="s">
+        <v>303</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.28795102945099271</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.21133374214359762</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0.45531421458079491</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0.70086991546683552</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0.29215616728497185</v>
+      </c>
+      <c r="L113" t="s">
+        <v>11</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0.28795102945099271</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0.21133374214359762</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.45531421458079491</v>
+      </c>
+      <c r="R113" s="5">
+        <v>0.70086991546683552</v>
+      </c>
+      <c r="S113" s="5">
+        <v>0.29215616728497185</v>
+      </c>
+      <c r="T113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" t="s">
+        <v>302</v>
+      </c>
+      <c r="C114" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.43543741278453679</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.18598309077126221</v>
+      </c>
+      <c r="H114" s="5">
+        <v>0.33777100460700504</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0.85485132100126471</v>
+      </c>
+      <c r="K114" s="5">
+        <v>0.11143831921117603</v>
+      </c>
+      <c r="L114" t="s">
+        <v>408</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0.43543741278453679</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0.18598309077126221</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0.33777100460700504</v>
+      </c>
+      <c r="R114" s="5">
+        <v>0.85485132100126471</v>
+      </c>
+      <c r="S114" s="5">
+        <v>0.11143831921117603</v>
+      </c>
+      <c r="T114" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>293</v>
+      </c>
+      <c r="B115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" t="s">
+        <v>297</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.86815410438222174</v>
+      </c>
+      <c r="G115" s="5">
+        <v>8.5252781873053199E-2</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1.8406683727926223E-2</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0.63248408307160764</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0.32590367520292668</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0.86815410438222174</v>
+      </c>
+      <c r="O115" s="5">
+        <v>8.5252781873053199E-2</v>
+      </c>
+      <c r="P115" s="5">
+        <v>1.8406683727926223E-2</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0.63248408307160764</v>
+      </c>
+      <c r="S115" s="5">
+        <v>0.32590367520292668</v>
+      </c>
+      <c r="T115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>293</v>
+      </c>
+      <c r="B116" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.62579710485793827</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.31371623934836507</v>
+      </c>
+      <c r="H116" s="5">
+        <v>6.013273309709171E-2</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0.16103727913079477</v>
+      </c>
+      <c r="K116" s="5">
+        <v>0.83873150108384653</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0.62579710485793827</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0.31371623934836507</v>
+      </c>
+      <c r="P116" s="5">
+        <v>6.013273309709171E-2</v>
+      </c>
+      <c r="R116" s="5">
+        <v>0.16103727913079477</v>
+      </c>
+      <c r="S116" s="5">
+        <v>0.83873150108384653</v>
+      </c>
+      <c r="T116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" t="s">
+        <v>307</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.56190293487995191</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.25413859780813736</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0.17682080523792168</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.41666363416758567</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.58209812913279102</v>
+      </c>
+      <c r="L117" t="s">
+        <v>16</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0.56190293487995191</v>
+      </c>
+      <c r="O117" s="5">
+        <v>0.25413859780813736</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0.17682080523792168</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.41666363416758567</v>
+      </c>
+      <c r="S117" s="5">
+        <v>0.58209812913279102</v>
+      </c>
+      <c r="T117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>293</v>
+      </c>
+      <c r="B118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.67358013705416664</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.1824690964955219</v>
+      </c>
+      <c r="H118" s="5">
+        <v>0.13474468122787037</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.6660052676522118</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.32063824582995037</v>
+      </c>
+      <c r="L118" t="s">
+        <v>16</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0.67358013705416664</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0.1824690964955219</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0.13474468122787037</v>
+      </c>
+      <c r="R118" s="5">
+        <v>0.6660052676522118</v>
+      </c>
+      <c r="S118" s="5">
+        <v>0.32063824582995037</v>
+      </c>
+      <c r="T118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>293</v>
+      </c>
+      <c r="B119" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>133</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0</v>
+      </c>
+      <c r="O119" s="5">
+        <v>1</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0</v>
+      </c>
+      <c r="S119" s="5">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0.53517269352544494</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0.22368777842491669</v>
+      </c>
+      <c r="H120" s="5">
+        <v>0.22767465137411175</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.61356094423756935</v>
+      </c>
+      <c r="K120" s="5">
+        <v>0.3821796525405044</v>
+      </c>
+      <c r="L120" t="s">
+        <v>16</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0.53517269352544494</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0.22368777842491669</v>
+      </c>
+      <c r="P120" s="5">
+        <v>0.22767465137411175</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.61356094423756935</v>
+      </c>
+      <c r="S120" s="5">
+        <v>0.3821796525405044</v>
+      </c>
+      <c r="T120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
+        <v>317</v>
+      </c>
+      <c r="C121" t="s">
+        <v>321</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0.1461064916176365</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.4010227990467149</v>
+      </c>
+      <c r="H121" s="5">
+        <v>0.42292994247836041</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.11784153703550826</v>
+      </c>
+      <c r="K121" s="5">
+        <v>0.88213057076666912</v>
+      </c>
+      <c r="L121" t="s">
+        <v>34</v>
+      </c>
+      <c r="N121" s="5">
+        <v>0.1461064916176365</v>
+      </c>
+      <c r="O121" s="5">
+        <v>0.4010227990467149</v>
+      </c>
+      <c r="P121" s="5">
+        <v>0.42292994247836041</v>
+      </c>
+      <c r="R121" s="5">
+        <v>0.11784153703550826</v>
+      </c>
+      <c r="S121" s="5">
+        <v>0.88213057076666912</v>
+      </c>
+      <c r="T121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.28712079798555401</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.43447541692199737</v>
+      </c>
+      <c r="H122" s="5">
+        <v>0.26902616541544727</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.10587800132303506</v>
+      </c>
+      <c r="K122" s="5">
+        <v>0.89411750692836922</v>
+      </c>
+      <c r="L122" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" s="5">
+        <v>0.28712079798555401</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0.43447541692199737</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0.26902616541544727</v>
+      </c>
+      <c r="R122" s="5">
+        <v>0.10587800132303506</v>
+      </c>
+      <c r="S122" s="5">
+        <v>0.89411750692836922</v>
+      </c>
+      <c r="T122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.40350815324169048</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.34950963625138265</v>
+      </c>
+      <c r="H123" s="5">
+        <v>0.2373495628519362</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.2142508437957604</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0.78568906531961857</v>
+      </c>
+      <c r="L123" t="s">
+        <v>20</v>
+      </c>
+      <c r="N123" s="5">
+        <v>0.40350815324169048</v>
+      </c>
+      <c r="O123" s="5">
+        <v>0.34950963625138265</v>
+      </c>
+      <c r="P123" s="5">
+        <v>0.2373495628519362</v>
+      </c>
+      <c r="R123" s="5">
+        <v>0.2142508437957604</v>
+      </c>
+      <c r="S123" s="5">
+        <v>0.78568906531961857</v>
+      </c>
+      <c r="T123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>350</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F124" s="5">
+        <v>7.7856578200658291E-2</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.18596609274850334</v>
+      </c>
+      <c r="H124" s="5">
+        <v>0.61994992696258144</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.4444698164535596</v>
+      </c>
+      <c r="K124" s="5">
+        <v>0.55105375680937696</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+      <c r="N124" s="5">
+        <v>7.7856578200658291E-2</v>
+      </c>
+      <c r="O124" s="5">
+        <v>0.18596609274850334</v>
+      </c>
+      <c r="P124" s="5">
+        <v>0.61994992696258144</v>
+      </c>
+      <c r="R124" s="5">
+        <v>0.4444698164535596</v>
+      </c>
+      <c r="S124" s="5">
+        <v>0.55105375680937696</v>
+      </c>
+      <c r="T124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.6356047763949676</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.19305613456276452</v>
+      </c>
+      <c r="H125" s="5">
+        <v>0.16122700401139614</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.67038025758195841</v>
+      </c>
+      <c r="K125" s="5">
+        <v>0.31852512942540151</v>
+      </c>
+      <c r="L125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0.6356047763949676</v>
+      </c>
+      <c r="O125" s="5">
+        <v>0.19305613456276452</v>
+      </c>
+      <c r="P125" s="5">
+        <v>0.16122700401139614</v>
+      </c>
+      <c r="R125" s="5">
+        <v>0.67038025758195841</v>
+      </c>
+      <c r="S125" s="5">
+        <v>0.31852512942540151</v>
+      </c>
+      <c r="T125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.16470613933655151</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.53224212878940891</v>
+      </c>
+      <c r="H126" s="5">
+        <v>0.29463693218406056</v>
+      </c>
+      <c r="J126" s="5">
+        <v>4.2193740608185093E-2</v>
+      </c>
+      <c r="K126" s="5">
+        <v>0.95780550420960997</v>
+      </c>
+      <c r="L126" t="s">
+        <v>133</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0.16470613933655151</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0.53224212878940891</v>
+      </c>
+      <c r="P126" s="5">
+        <v>0.29463693218406056</v>
+      </c>
+      <c r="R126" s="5">
+        <v>4.2193740608185093E-2</v>
+      </c>
+      <c r="S126" s="5">
+        <v>0.95780550420960997</v>
+      </c>
+      <c r="T126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="s">
+        <v>259</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.20959875642968834</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.23940572403777619</v>
+      </c>
+      <c r="H127" s="5">
+        <v>0.49117080023300658</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.49466650177257754</v>
+      </c>
+      <c r="K127" s="5">
+        <v>0.50335275895205411</v>
+      </c>
+      <c r="L127" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0.20959875642968834</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0.23940572403777619</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.49117080023300658</v>
+      </c>
+      <c r="R127" s="5">
+        <v>0.49466650177257754</v>
+      </c>
+      <c r="S127" s="5">
+        <v>0.50335275895205411</v>
+      </c>
+      <c r="T127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0.48403679217065659</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.29360821361323142</v>
+      </c>
+      <c r="H128" s="5">
+        <v>0.21301289139711693</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0.32857658406710344</v>
+      </c>
+      <c r="K128" s="5">
+        <v>0.67106610100186204</v>
+      </c>
+      <c r="L128" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="5">
+        <v>0.48403679217065659</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0.29360821361323142</v>
+      </c>
+      <c r="P128" s="5">
+        <v>0.21301289139711693</v>
+      </c>
+      <c r="R128" s="5">
+        <v>0.32857658406710344</v>
+      </c>
+      <c r="S128" s="5">
+        <v>0.67106610100186204</v>
+      </c>
+      <c r="T128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0.76017192059880634</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.17894073159274101</v>
+      </c>
+      <c r="H129" s="5">
+        <v>5.8562532113774934E-2</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0.42413685366165604</v>
+      </c>
+      <c r="K129" s="5">
+        <v>0.57115945068171026</v>
+      </c>
+      <c r="L129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N129" s="5">
+        <v>0.76017192059880634</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0.17894073159274101</v>
+      </c>
+      <c r="P129" s="5">
+        <v>5.8562532113774934E-2</v>
+      </c>
+      <c r="R129" s="5">
+        <v>0.42413685366165604</v>
+      </c>
+      <c r="S129" s="5">
+        <v>0.57115945068171026</v>
+      </c>
+      <c r="T129" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" t="s">
+        <v>261</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0.38522972715706838</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0.43677188441875914</v>
+      </c>
+      <c r="H130" s="5">
+        <v>0.17488522867751535</v>
+      </c>
+      <c r="J130" s="5">
+        <v>9.5190666413655853E-2</v>
+      </c>
+      <c r="K130" s="5">
+        <v>0.90480048683863268</v>
+      </c>
+      <c r="L130" t="s">
+        <v>17</v>
+      </c>
+      <c r="N130" s="5">
+        <v>0.38522972715706838</v>
+      </c>
+      <c r="O130" s="5">
+        <v>0.43677188441875914</v>
+      </c>
+      <c r="P130" s="5">
+        <v>0.17488522867751535</v>
+      </c>
+      <c r="R130" s="5">
+        <v>9.5190666413655853E-2</v>
+      </c>
+      <c r="S130" s="5">
+        <v>0.90480048683863268</v>
+      </c>
+      <c r="T130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" t="s">
+        <v>342</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.78038360546533903</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.21861601122222807</v>
+      </c>
+      <c r="H131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.19530047735354825</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0.80369913933401882</v>
+      </c>
+      <c r="L131" t="s">
+        <v>37</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0.78038360546533903</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0.21861601122222807</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0</v>
+      </c>
+      <c r="R131" s="5">
+        <v>0.19530047735354825</v>
+      </c>
+      <c r="S131" s="5">
+        <v>0.80369913933401882</v>
+      </c>
+      <c r="T131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" t="s">
+        <v>347</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0.87564178694631667</v>
+      </c>
+      <c r="G132" s="5">
+        <v>4.1162731526624086E-2</v>
+      </c>
+      <c r="H132" s="5">
+        <v>3.3954686565209023E-3</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.65989061946866256</v>
+      </c>
+      <c r="K132" s="5">
+        <v>0.24981747188468698</v>
+      </c>
+      <c r="L132" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0.87564178694631667</v>
+      </c>
+      <c r="O132" s="5">
+        <v>4.1162731526624086E-2</v>
+      </c>
+      <c r="P132" s="5">
+        <v>3.3954686565209023E-3</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0.65989061946866256</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0.24981747188468698</v>
+      </c>
+      <c r="T132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0.68249959383393377</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0.20146894992309683</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0.1120309414802588</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.50031601606487297</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0.49497306725960932</v>
+      </c>
+      <c r="L133" t="s">
+        <v>16</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0.68249959383393377</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0.20146894992309683</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.1120309414802588</v>
+      </c>
+      <c r="R133" s="5">
+        <v>0.50031601606487297</v>
+      </c>
+      <c r="S133" s="5">
+        <v>0.49497306725960932</v>
+      </c>
+      <c r="T133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>381</v>
+      </c>
+      <c r="B134" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" t="s">
+        <v>383</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0.26834575019491763</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0.22099892836083909</v>
+      </c>
+      <c r="H135" s="5">
+        <v>0.4619611762767793</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0.63734553418472395</v>
+      </c>
+      <c r="K135" s="5">
+        <v>0.35823111387674184</v>
+      </c>
+      <c r="L135" t="s">
+        <v>28</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0.26834575019491763</v>
+      </c>
+      <c r="O135" s="5">
+        <v>0.22099892836083909</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0.4619611762767793</v>
+      </c>
+      <c r="R135" s="5">
+        <v>0.63734553418472395</v>
+      </c>
+      <c r="S135" s="5">
+        <v>0.35823111387674184</v>
+      </c>
+      <c r="T135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T136" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="s">
+        <v>387</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0.26120278938996294</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0.59027395582648268</v>
+      </c>
+      <c r="H138" s="5">
+        <v>0.14737467180846817</v>
+      </c>
+      <c r="J138" s="5">
+        <v>2.4537169099802712E-2</v>
+      </c>
+      <c r="K138" s="5">
+        <v>0.97546266008538596</v>
+      </c>
+      <c r="L138" t="s">
+        <v>133</v>
+      </c>
+      <c r="N138" s="5">
+        <v>0.26120278938996294</v>
+      </c>
+      <c r="O138" s="5">
+        <v>0.59027395582648268</v>
+      </c>
+      <c r="P138" s="5">
+        <v>0.14737467180846817</v>
+      </c>
+      <c r="R138" s="5">
+        <v>2.4537169099802712E-2</v>
+      </c>
+      <c r="S138" s="5">
+        <v>0.97546266008538596</v>
+      </c>
+      <c r="T138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>381</v>
+      </c>
+      <c r="B139" t="s">
+        <v>382</v>
+      </c>
+      <c r="C139" t="s">
+        <v>398</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0.42431916263885133</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.27816573709302211</v>
+      </c>
+      <c r="H139" s="5">
+        <v>0.27957874871367727</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.41515481266211923</v>
+      </c>
+      <c r="K139" s="5">
+        <v>0.58433064713248251</v>
+      </c>
+      <c r="L139" t="s">
+        <v>20</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0.42431916263885133</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0.27816573709302211</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.27957874871367727</v>
+      </c>
+      <c r="R139" s="5">
+        <v>0.41515481266211923</v>
+      </c>
+      <c r="S139" s="5">
+        <v>0.58433064713248251</v>
+      </c>
+      <c r="T139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>381</v>
+      </c>
+      <c r="B140" t="s">
+        <v>386</v>
+      </c>
+      <c r="C140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0.6059607132652336</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.3174477010770449</v>
+      </c>
+      <c r="H140" s="5">
+        <v>7.6001431575254255E-2</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.17003364443128047</v>
+      </c>
+      <c r="K140" s="5">
+        <v>0.82974845942139186</v>
+      </c>
+      <c r="L140" t="s">
+        <v>17</v>
+      </c>
+      <c r="N140" s="5">
+        <v>0.6059607132652336</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0.3174477010770449</v>
+      </c>
+      <c r="P140" s="5">
+        <v>7.6001431575254255E-2</v>
+      </c>
+      <c r="R140" s="5">
+        <v>0.17003364443128047</v>
+      </c>
+      <c r="S140" s="5">
+        <v>0.82974845942139186</v>
+      </c>
+      <c r="T140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>381</v>
+      </c>
+      <c r="B141" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S141" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>381</v>
+      </c>
+      <c r="B142" t="s">
+        <v>384</v>
+      </c>
+      <c r="C142" t="s">
+        <v>399</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0.48018554948326203</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0.25384269035818918</v>
+      </c>
+      <c r="H142" s="5">
+        <v>0.25086388210196503</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.49457936293813859</v>
+      </c>
+      <c r="K142" s="5">
+        <v>0.50410791677031375</v>
+      </c>
+      <c r="L142" t="s">
+        <v>16</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0.48018554948326203</v>
+      </c>
+      <c r="O142" s="5">
+        <v>0.25384269035818918</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.25086388210196503</v>
+      </c>
+      <c r="R142" s="5">
+        <v>0.49457936293813859</v>
+      </c>
+      <c r="S142" s="5">
+        <v>0.50410791677031375</v>
+      </c>
+      <c r="T142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" t="s">
+        <v>403</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0.37759160787533474</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.3792981226719877</v>
+      </c>
+      <c r="H143" s="5">
+        <v>0.23479687909609012</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0.16634647634230942</v>
+      </c>
+      <c r="K143" s="5">
+        <v>0.83362789266302306</v>
+      </c>
+      <c r="L143" t="s">
+        <v>20</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0.37759160787533474</v>
+      </c>
+      <c r="O143" s="5">
+        <v>0.3792981226719877</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.23479687909609012</v>
+      </c>
+      <c r="R143" s="5">
+        <v>0.16634647634230942</v>
+      </c>
+      <c r="S143" s="5">
+        <v>0.83362789266302306</v>
+      </c>
+      <c r="T143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>381</v>
+      </c>
+      <c r="B144" t="s">
+        <v>388</v>
+      </c>
+      <c r="C144" t="s">
+        <v>392</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0.62143180572491019</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0.37849849519541306</v>
+      </c>
+      <c r="H144" s="5">
+        <v>0</v>
+      </c>
+      <c r="J144" s="5">
+        <v>7.5072536408493165E-2</v>
+      </c>
+      <c r="K144" s="5">
+        <v>0.9248577645118301</v>
+      </c>
+      <c r="L144" t="s">
+        <v>17</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.62143180572491019</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.37849849519541306</v>
+      </c>
+      <c r="P144" s="5">
+        <v>0</v>
+      </c>
+      <c r="R144" s="5">
+        <v>7.5072536408493165E-2</v>
+      </c>
+      <c r="S144" s="5">
+        <v>0.9248577645118301</v>
+      </c>
+      <c r="T144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>352</v>
+      </c>
+      <c r="B145" t="s">
+        <v>353</v>
+      </c>
+      <c r="C145" t="s">
+        <v>368</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S145" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" t="s">
+        <v>355</v>
+      </c>
+      <c r="C146" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.26116647275229421</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.47652241561627945</v>
+      </c>
+      <c r="H146" s="5">
+        <v>0.25522889309105162</v>
+      </c>
+      <c r="J146" s="5">
+        <v>7.2964391106712781E-2</v>
+      </c>
+      <c r="K146" s="5">
+        <v>0.927034083484232</v>
+      </c>
+      <c r="L146" t="s">
+        <v>133</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0.26116647275229421</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0.47652241561627945</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.25522889309105162</v>
+      </c>
+      <c r="R146" s="5">
+        <v>7.2964391106712781E-2</v>
+      </c>
+      <c r="S146" s="5">
+        <v>0.927034083484232</v>
+      </c>
+      <c r="T146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" t="s">
+        <v>360</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0.52909340854477716</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0.24608102853547964</v>
+      </c>
+      <c r="H147" s="5">
+        <v>0.21370351923821521</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0.49269512533823784</v>
+      </c>
+      <c r="K147" s="5">
+        <v>0.50557957686397226</v>
+      </c>
+      <c r="L147" t="s">
+        <v>16</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0.52909340854477716</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0.24608102853547964</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.21370351923821521</v>
+      </c>
+      <c r="R147" s="5">
+        <v>0.49269512533823784</v>
+      </c>
+      <c r="S147" s="5">
+        <v>0.50557957686397226</v>
+      </c>
+      <c r="T147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" t="s">
+        <v>359</v>
+      </c>
+      <c r="C148" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0.30102529871733541</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0.40540454443177687</v>
+      </c>
+      <c r="H148" s="5">
+        <v>0.2818769360657446</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0.13675808116956914</v>
+      </c>
+      <c r="K148" s="5">
+        <v>0.86323224528597553</v>
+      </c>
+      <c r="L148" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" s="5">
+        <v>0.30102529871733541</v>
+      </c>
+      <c r="O148" s="5">
+        <v>0.40540454443177687</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0.2818769360657446</v>
+      </c>
+      <c r="R148" s="5">
+        <v>0.13675808116956914</v>
+      </c>
+      <c r="S148" s="5">
+        <v>0.86323224528597553</v>
+      </c>
+      <c r="T148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" t="s">
+        <v>361</v>
+      </c>
+      <c r="C149" t="s">
+        <v>354</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0.27287945328766677</v>
+      </c>
+      <c r="G149" s="5">
+        <v>0.3195428697089458</v>
+      </c>
+      <c r="H149" s="5">
+        <v>0.37712450364805372</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0.28343478654124421</v>
+      </c>
+      <c r="K149" s="5">
+        <v>0.71643108135716493</v>
+      </c>
+      <c r="L149" t="s">
+        <v>20</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0.27287945328766677</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0.3195428697089458</v>
+      </c>
+      <c r="P149" s="5">
+        <v>0.37712450364805372</v>
+      </c>
+      <c r="R149" s="5">
+        <v>0.28343478654124421</v>
+      </c>
+      <c r="S149" s="5">
+        <v>0.71643108135716493</v>
+      </c>
+      <c r="T149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0.51768935826493123</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0.29551579519085569</v>
+      </c>
+      <c r="H150" s="5">
+        <v>0.18055949349174905</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0.29880751864764743</v>
+      </c>
+      <c r="K150" s="5">
+        <v>0.70083290269343246</v>
+      </c>
+      <c r="L150" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0.51768935826493123</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0.29551579519085569</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0.18055949349174905</v>
+      </c>
+      <c r="R150" s="5">
+        <v>0.29880751864764743</v>
+      </c>
+      <c r="S150" s="5">
+        <v>0.70083290269343246</v>
+      </c>
+      <c r="T150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" t="s">
+        <v>363</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0.77284923488391477</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0.22627312311750505</v>
+      </c>
+      <c r="H151" s="5">
+        <v>0</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0.18677263978853273</v>
+      </c>
+      <c r="K151" s="5">
+        <v>0.81234971821288715</v>
+      </c>
+      <c r="L151" t="s">
+        <v>17</v>
+      </c>
+      <c r="N151" s="5">
+        <v>0.77284923488391477</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0.22627312311750505</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0</v>
+      </c>
+      <c r="R151" s="5">
+        <v>0.18677263978853273</v>
+      </c>
+      <c r="S151" s="5">
+        <v>0.81234971821288715</v>
+      </c>
+      <c r="T151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0.76731579883775558</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.20147280279332588</v>
+      </c>
+      <c r="H152" s="5">
+        <v>3.0056799984208633E-2</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0.28288837419280471</v>
+      </c>
+      <c r="K152" s="5">
+        <v>0.71523524647496128</v>
+      </c>
+      <c r="L152" t="s">
+        <v>37</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0.76731579883775558</v>
+      </c>
+      <c r="O152" s="5">
+        <v>0.20147280279332588</v>
+      </c>
+      <c r="P152" s="5">
+        <v>3.0056799984208633E-2</v>
+      </c>
+      <c r="R152" s="5">
+        <v>0.28288837419280471</v>
+      </c>
+      <c r="S152" s="5">
+        <v>0.71523524647496128</v>
+      </c>
+      <c r="T152" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" t="s">
+        <v>369</v>
+      </c>
+      <c r="C153" t="s">
+        <v>372</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0.51276251392047689</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0.34152118987200841</v>
+      </c>
+      <c r="H153" s="5">
+        <v>0.14295461602573495</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0.18562405186257439</v>
+      </c>
+      <c r="K153" s="5">
+        <v>0.81425838908082449</v>
+      </c>
+      <c r="L153" t="s">
+        <v>17</v>
+      </c>
+      <c r="N153" s="5">
+        <v>0.51276251392047689</v>
+      </c>
+      <c r="O153" s="5">
+        <v>0.34152118987200841</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0.14295461602573495</v>
+      </c>
+      <c r="R153" s="5">
+        <v>0.18562405186257439</v>
+      </c>
+      <c r="S153" s="5">
+        <v>0.81425838908082449</v>
+      </c>
+      <c r="T153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" t="s">
+        <v>371</v>
+      </c>
+      <c r="C154" t="s">
+        <v>366</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44486</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0.72982407479720601</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.17791329967853381</v>
+      </c>
+      <c r="H154" s="5">
+        <v>8.8084107712461057E-2</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0.5347663755143951</v>
+      </c>
+      <c r="K154" s="5">
+        <v>0.45740772225126197</v>
+      </c>
+      <c r="L154" t="s">
+        <v>16</v>
+      </c>
+      <c r="N154" s="5">
+        <v>0.72982407479720601</v>
+      </c>
+      <c r="O154" s="5">
+        <v>0.17791329967853381</v>
+      </c>
+      <c r="P154" s="5">
+        <v>8.8084107712461057E-2</v>
+      </c>
+      <c r="R154" s="5">
+        <v>0.5347663755143951</v>
+      </c>
+      <c r="S154" s="5">
+        <v>0.45740772225126197</v>
+      </c>
+      <c r="T154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44487</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0.79608684723976464</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.1473863400973793</v>
+      </c>
+      <c r="H155" s="5">
+        <v>5.1227863961525323E-2</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0.52349321784277547</v>
+      </c>
+      <c r="K155" s="5">
+        <v>0.46547285331350696</v>
+      </c>
+      <c r="L155" t="s">
+        <v>37</v>
+      </c>
+      <c r="N155" s="5">
+        <v>0.79608684723976464</v>
+      </c>
+      <c r="O155" s="5">
+        <v>0.1473863400973793</v>
+      </c>
+      <c r="P155" s="5">
+        <v>5.1227863961525323E-2</v>
+      </c>
+      <c r="R155" s="5">
+        <v>0.52349321784277547</v>
+      </c>
+      <c r="S155" s="5">
+        <v>0.46547285331350696</v>
+      </c>
+      <c r="T155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="411">
   <si>
     <t>Div</t>
   </si>
@@ -22700,13 +22700,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T155"/>
+  <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22776,22 +22776,22 @@
         <v>44484</v>
       </c>
       <c r="F2" s="5">
-        <v>0.60343711786356957</v>
+        <v>0.39183356415571163</v>
       </c>
       <c r="G2" s="5">
-        <v>0.31054824362952288</v>
+        <v>0.24764030599254036</v>
       </c>
       <c r="H2" s="5">
-        <v>8.5191792406568392E-2</v>
+        <v>0.33414340014276528</v>
       </c>
       <c r="J2" s="5">
-        <v>0.18660137199687762</v>
+        <v>0.5577885621618528</v>
       </c>
       <c r="K2" s="5">
-        <v>0.8131447260982807</v>
+        <v>0.44060326061017874</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5">
         <v>0.60343711786356957</v>
@@ -22826,19 +22826,19 @@
         <v>44484</v>
       </c>
       <c r="F3" s="5">
-        <v>0.22261608782664832</v>
+        <v>0.48360959398996978</v>
       </c>
       <c r="G3" s="5">
-        <v>0.34391241631656078</v>
+        <v>0.29015949775404387</v>
       </c>
       <c r="H3" s="5">
-        <v>0.40118037338579121</v>
+        <v>0.21640717463473605</v>
       </c>
       <c r="J3" s="5">
-        <v>0.21667913733688424</v>
+        <v>0.34067377834963475</v>
       </c>
       <c r="K3" s="5">
-        <v>0.78324075501529078</v>
+        <v>0.65893157889167497</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -22876,19 +22876,19 @@
         <v>44484</v>
       </c>
       <c r="F4" s="5">
-        <v>0.44045832869799917</v>
+        <v>0.59069354995629031</v>
       </c>
       <c r="G4" s="5">
-        <v>0.25483061835853044</v>
+        <v>0.23460692961471988</v>
       </c>
       <c r="H4" s="5">
-        <v>0.28527106932953356</v>
+        <v>0.16772670521575628</v>
       </c>
       <c r="J4" s="5">
-        <v>0.51125197264456779</v>
+        <v>0.47751013190259756</v>
       </c>
       <c r="K4" s="5">
-        <v>0.48751225391426661</v>
+        <v>0.5202031678137643</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -22926,22 +22926,22 @@
         <v>44484</v>
       </c>
       <c r="F5" s="5">
-        <v>0.62532796652584044</v>
+        <v>0.22915301338892213</v>
       </c>
       <c r="G5" s="5">
-        <v>0.33431049872252544</v>
+        <v>0.24338831724184884</v>
       </c>
       <c r="H5" s="5">
-        <v>4.0211920855203594E-2</v>
+        <v>0.47277331998129757</v>
       </c>
       <c r="J5" s="5">
-        <v>0.12590707996953149</v>
+        <v>0.50002288774577131</v>
       </c>
       <c r="K5" s="5">
-        <v>0.87394048128276924</v>
+        <v>0.49819401619550285</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N5" s="5">
         <v>0.62532796652584044</v>
@@ -22976,22 +22976,22 @@
         <v>44484</v>
       </c>
       <c r="F6" s="5">
-        <v>0.73874553877782378</v>
+        <v>0.53643229340418508</v>
       </c>
       <c r="G6" s="5">
-        <v>0.23322147230051393</v>
+        <v>0.21908077293227446</v>
       </c>
       <c r="H6" s="5">
-        <v>2.7399386180147121E-2</v>
+        <v>0.23046237267505446</v>
       </c>
       <c r="J6" s="5">
-        <v>0.22413470628311896</v>
+        <v>0.64073980539030573</v>
       </c>
       <c r="K6" s="5">
-        <v>0.77489759493393984</v>
+        <v>0.35402096087676016</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N6" s="5">
         <v>0.73874553877782378</v>
@@ -23026,22 +23026,22 @@
         <v>44484</v>
       </c>
       <c r="F7" s="5">
-        <v>0.38018996081071232</v>
+        <v>0.37472194528908298</v>
       </c>
       <c r="G7" s="5">
-        <v>0.41519499829250678</v>
+        <v>0.26271398094452703</v>
       </c>
       <c r="H7" s="5">
-        <v>0.19981922326030785</v>
+        <v>0.33590245484936537</v>
       </c>
       <c r="J7" s="5">
-        <v>0.11810396398675804</v>
+        <v>0.48875182981372439</v>
       </c>
       <c r="K7" s="5">
-        <v>0.88188358155290647</v>
+        <v>0.51037944663615975</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N7" s="5">
         <v>0.38018996081071232</v>
@@ -23076,22 +23076,22 @@
         <v>44484</v>
       </c>
       <c r="F8" s="5">
-        <v>0.29068137273338657</v>
+        <v>0.31931467627513987</v>
       </c>
       <c r="G8" s="5">
-        <v>0.2205780115876633</v>
+        <v>0.21802664708218275</v>
       </c>
       <c r="H8" s="5">
-        <v>0.44438638207687431</v>
+        <v>0.42314854881637276</v>
       </c>
       <c r="J8" s="5">
-        <v>0.65762976433362863</v>
+        <v>0.68873105292111847</v>
       </c>
       <c r="K8" s="5">
-        <v>0.33765391183037458</v>
+        <v>0.30570982699893345</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N8" s="5">
         <v>0.29068137273338657</v>
@@ -23126,22 +23126,22 @@
         <v>44484</v>
       </c>
       <c r="F9" s="5">
-        <v>0.62821148950907857</v>
+        <v>0.58011223053870731</v>
       </c>
       <c r="G9" s="5">
-        <v>0.27423316465649117</v>
+        <v>0.24124201065090231</v>
       </c>
       <c r="H9" s="5">
-        <v>9.6140188756918626E-2</v>
+        <v>0.17156371929812428</v>
       </c>
       <c r="J9" s="5">
-        <v>0.25658740333065655</v>
+        <v>0.45703786681950287</v>
       </c>
       <c r="K9" s="5">
-        <v>0.7428289570007155</v>
+        <v>0.54110551674667673</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" s="5">
         <v>0.62821148950907857</v>
@@ -23176,19 +23176,19 @@
         <v>44484</v>
       </c>
       <c r="F10" s="5">
-        <v>0.6748129659307146</v>
+        <v>0.64777369292940268</v>
       </c>
       <c r="G10" s="5">
-        <v>0.20875507449677436</v>
+        <v>0.20143081685967387</v>
       </c>
       <c r="H10" s="5">
-        <v>0.11277840797770244</v>
+        <v>0.14398594098672016</v>
       </c>
       <c r="J10" s="5">
-        <v>0.47136928479296464</v>
+        <v>0.5831193858992697</v>
       </c>
       <c r="K10" s="5">
-        <v>0.5249011841947786</v>
+        <v>0.41034845793837127</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -23226,19 +23226,19 @@
         <v>44485</v>
       </c>
       <c r="F11" s="5">
-        <v>0.17219478915125211</v>
+        <v>0.30534181714234476</v>
       </c>
       <c r="G11" s="5">
-        <v>0.27702680612850455</v>
+        <v>0.2834500122814102</v>
       </c>
       <c r="H11" s="5">
-        <v>0.4915728102302141</v>
+        <v>0.37797101276420891</v>
       </c>
       <c r="J11" s="5">
-        <v>0.33105623945565155</v>
+        <v>0.39760719361878472</v>
       </c>
       <c r="K11" s="5">
-        <v>0.66834402479577948</v>
+        <v>0.60197821774901494</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
@@ -23276,22 +23276,22 @@
         <v>44485</v>
       </c>
       <c r="F12" s="5">
-        <v>7.0363012409525333E-2</v>
+        <v>0.16761108138414402</v>
       </c>
       <c r="G12" s="5">
-        <v>9.2605542482924103E-2</v>
+        <v>0.17985322485952612</v>
       </c>
       <c r="H12" s="5">
-        <v>0.67646782873513145</v>
+        <v>0.57479397454695069</v>
       </c>
       <c r="J12" s="5">
-        <v>0.78544066382908773</v>
+        <v>0.69179589543261089</v>
       </c>
       <c r="K12" s="5">
-        <v>0.11159134588826017</v>
+        <v>0.29492011302575916</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="N12" s="5">
         <v>7.0363012409525333E-2</v>
@@ -23326,22 +23326,22 @@
         <v>44485</v>
       </c>
       <c r="F13" s="5">
-        <v>0.24999777347848839</v>
+        <v>0.63131437495314924</v>
       </c>
       <c r="G13" s="5">
-        <v>0.24672526523215549</v>
+        <v>0.22229007728424829</v>
       </c>
       <c r="H13" s="5">
-        <v>0.45353273941836697</v>
+        <v>0.1412111746561551</v>
       </c>
       <c r="J13" s="5">
-        <v>0.50580818133213645</v>
+        <v>0.47991823857455229</v>
       </c>
       <c r="K13" s="5">
-        <v>0.49257744274635085</v>
+        <v>0.51707743776356074</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N13" s="5">
         <v>0.24999777347848839</v>
@@ -23376,22 +23376,22 @@
         <v>44485</v>
       </c>
       <c r="F14" s="5">
-        <v>0.27406376975095448</v>
+        <v>0.51704462757902148</v>
       </c>
       <c r="G14" s="5">
-        <v>0.19092007015607676</v>
+        <v>0.24924245425350311</v>
       </c>
       <c r="H14" s="5">
-        <v>0.48439803128633813</v>
+        <v>0.22181440200283206</v>
       </c>
       <c r="J14" s="5">
-        <v>0.78472492756857337</v>
+        <v>0.48814033104369697</v>
       </c>
       <c r="K14" s="5">
-        <v>0.19875879950695519</v>
+        <v>0.51030905020381534</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N14" s="5">
         <v>0.27406376975095448</v>
@@ -23426,22 +23426,22 @@
         <v>44485</v>
       </c>
       <c r="F15" s="5">
-        <v>0.4118980015520361</v>
+        <v>0.36056681667883489</v>
       </c>
       <c r="G15" s="5">
-        <v>0.24694241549553786</v>
+        <v>0.28836198855153766</v>
       </c>
       <c r="H15" s="5">
-        <v>0.3172609790703701</v>
+        <v>0.32676336157270808</v>
       </c>
       <c r="J15" s="5">
-        <v>0.55862582539624772</v>
+        <v>0.38821264984440956</v>
       </c>
       <c r="K15" s="5">
-        <v>0.43970265045937895</v>
+        <v>0.61145324866220852</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N15" s="5">
         <v>0.4118980015520361</v>
@@ -23476,19 +23476,19 @@
         <v>44485</v>
       </c>
       <c r="F16" s="5">
-        <v>0.51638748816665014</v>
+        <v>0.6024287279824776</v>
       </c>
       <c r="G16" s="5">
-        <v>0.25772418184008367</v>
+        <v>0.24068953948754687</v>
       </c>
       <c r="H16" s="5">
-        <v>0.21502331627365442</v>
+        <v>0.15152334451225205</v>
       </c>
       <c r="J16" s="5">
-        <v>0.44736586482658558</v>
+        <v>0.42767592888329858</v>
       </c>
       <c r="K16" s="5">
-        <v>0.55149006100394515</v>
+        <v>0.5705695067478056</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -23526,22 +23526,22 @@
         <v>44485</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>0.38297037226912189</v>
       </c>
       <c r="G17" s="5">
-        <v>0.24930455935293025</v>
+        <v>0.22618498946750237</v>
       </c>
       <c r="H17" s="5">
-        <v>0.63873270230865931</v>
+        <v>0.36120369650425843</v>
       </c>
       <c r="J17" s="5">
-        <v>0.16327484403996767</v>
+        <v>0.66745456721898633</v>
       </c>
       <c r="K17" s="5">
-        <v>0.83613050105698772</v>
+        <v>0.32842102338741758</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -23576,22 +23576,22 @@
         <v>44485</v>
       </c>
       <c r="F18" s="5">
-        <v>0.44809820780076659</v>
+        <v>0.52220846647255781</v>
       </c>
       <c r="G18" s="5">
-        <v>0.28536535599958324</v>
+        <v>0.21507597136800674</v>
       </c>
       <c r="H18" s="5">
-        <v>0.25241002367920029</v>
+        <v>0.2466700552581447</v>
       </c>
       <c r="J18" s="5">
-        <v>0.37778817590327579</v>
+        <v>0.67938215536729762</v>
       </c>
       <c r="K18" s="5">
-        <v>0.62178790671182127</v>
+        <v>0.31403950427389105</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N18" s="5">
         <v>0.44809820780076659</v>
@@ -23625,23 +23625,23 @@
       <c r="D19" s="4">
         <v>44485</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.84078911974821691</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.12086228883355049</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2.9723591153163791E-2</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.52258014208327308</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.46260111849024976</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
+      <c r="F19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N19" s="5">
         <v>0.84078911974821691</v>
@@ -23676,22 +23676,22 @@
         <v>44485</v>
       </c>
       <c r="F20" s="5">
-        <v>6.30287727518066E-2</v>
+        <v>0.54870394340998641</v>
       </c>
       <c r="G20" s="5">
-        <v>0.10286929153206191</v>
+        <v>0.23628054029294399</v>
       </c>
       <c r="H20" s="5">
-        <v>0.69021617715866745</v>
+        <v>0.20451290400326924</v>
       </c>
       <c r="J20" s="5">
-        <v>0.74082784912740118</v>
+        <v>0.52419324455117056</v>
       </c>
       <c r="K20" s="5">
-        <v>0.20520356080923327</v>
+        <v>0.47337599861422042</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="N20" s="5">
         <v>6.30287727518066E-2</v>
@@ -23726,22 +23726,22 @@
         <v>44485</v>
       </c>
       <c r="F21" s="5">
-        <v>0.29779607501477884</v>
+        <v>0.55399703896669217</v>
       </c>
       <c r="G21" s="5">
-        <v>0.56823811674059976</v>
+        <v>0.25135106316412564</v>
       </c>
       <c r="H21" s="5">
-        <v>0.13303544773689996</v>
+        <v>0.18650403323048631</v>
       </c>
       <c r="J21" s="5">
-        <v>2.9456135381231086E-2</v>
+        <v>0.4391565672279476</v>
       </c>
       <c r="K21" s="5">
-        <v>0.970543435908513</v>
+        <v>0.55946381164183578</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="N21" s="5">
         <v>0.29779607501477884</v>
@@ -23776,22 +23776,22 @@
         <v>44485</v>
       </c>
       <c r="F22" s="5">
-        <v>0.17513513986578741</v>
+        <v>0.18611786760503776</v>
       </c>
       <c r="G22" s="5">
-        <v>0.37822240423426429</v>
+        <v>0.20041599868619078</v>
       </c>
       <c r="H22" s="5">
-        <v>0.4155318420712909</v>
+        <v>0.54284900123347368</v>
       </c>
       <c r="J22" s="5">
-        <v>0.1505332496513089</v>
+        <v>0.62976704937153438</v>
       </c>
       <c r="K22" s="5">
-        <v>0.84942556776645373</v>
+        <v>0.36316641991862042</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N22" s="5">
         <v>0.17513513986578741</v>
@@ -23826,22 +23826,22 @@
         <v>44485</v>
       </c>
       <c r="F23" s="5">
-        <v>0.72763539713243452</v>
+        <v>0.75551689376595121</v>
       </c>
       <c r="G23" s="5">
-        <v>5.5453252691467832E-3</v>
+        <v>0.15981634585860857</v>
       </c>
       <c r="H23" s="5">
-        <v>0</v>
+        <v>7.8324196139920255E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>0.62400561440788638</v>
+        <v>0.59255235236764192</v>
       </c>
       <c r="K23" s="5">
-        <v>0.10917510799369491</v>
+        <v>0.39418524592804838</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="N23" s="5">
         <v>0.72763539713243452</v>
@@ -23876,22 +23876,22 @@
         <v>44485</v>
       </c>
       <c r="F24" s="5">
-        <v>3.221312152209483E-2</v>
+        <v>0.64605972320972427</v>
       </c>
       <c r="G24" s="5">
-        <v>0.12706516039200291</v>
+        <v>0.23165086612685576</v>
       </c>
       <c r="H24" s="5">
-        <v>0.67475631948025017</v>
+        <v>0.11903644202262148</v>
       </c>
       <c r="J24" s="5">
-        <v>0.48555372998232199</v>
+        <v>0.40098870639285283</v>
       </c>
       <c r="K24" s="5">
-        <v>0.50357725027246614</v>
+        <v>0.59706435145402792</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N24" s="5">
         <v>3.221312152209483E-2</v>
@@ -23926,22 +23926,22 @@
         <v>44485</v>
       </c>
       <c r="F25" s="5">
-        <v>0.28486374811667503</v>
+        <v>0.41573475751070638</v>
       </c>
       <c r="G25" s="5">
-        <v>0.47469566319127526</v>
+        <v>0.22015198535912089</v>
       </c>
       <c r="H25" s="5">
-        <v>0.23467006085490311</v>
+        <v>0.33790027625149194</v>
       </c>
       <c r="J25" s="5">
-        <v>7.3864042826278675E-2</v>
+        <v>0.69983567615649567</v>
       </c>
       <c r="K25" s="5">
-        <v>0.92613424585256454</v>
+        <v>0.29456858391028568</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N25" s="5">
         <v>0.28486374811667503</v>
@@ -23976,22 +23976,22 @@
         <v>44485</v>
       </c>
       <c r="F26" s="5">
-        <v>6.9888318945075259E-2</v>
+        <v>0.39059025481581</v>
       </c>
       <c r="G26" s="5">
-        <v>0.20796311202971982</v>
+        <v>0.27314377490677316</v>
       </c>
       <c r="H26" s="5">
-        <v>0.61064641851981927</v>
+        <v>0.31334246647112773</v>
       </c>
       <c r="J26" s="5">
-        <v>0.35787772293918735</v>
+        <v>0.4435418782590701</v>
       </c>
       <c r="K26" s="5">
-        <v>0.63977721096281559</v>
+        <v>0.55586849997095877</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N26" s="5">
         <v>6.9888318945075259E-2</v>
@@ -24026,22 +24026,22 @@
         <v>44485</v>
       </c>
       <c r="F27" s="5">
-        <v>0.86333862472608214</v>
+        <v>0.64624775523403488</v>
       </c>
       <c r="G27" s="5">
-        <v>9.0459991957449651E-2</v>
+        <v>0.19978154311746482</v>
       </c>
       <c r="H27" s="5">
-        <v>2.1103746296397084E-2</v>
+        <v>0.14670079174222361</v>
       </c>
       <c r="J27" s="5">
-        <v>0.62953482569546293</v>
+        <v>0.59839650789379395</v>
       </c>
       <c r="K27" s="5">
-        <v>0.332055339181973</v>
+        <v>0.39443870217449262</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N27" s="5">
         <v>0.86333862472608214</v>
@@ -24076,22 +24076,22 @@
         <v>44485</v>
       </c>
       <c r="F28" s="5">
-        <v>4.6508964093147503E-2</v>
+        <v>0.11972082182807456</v>
       </c>
       <c r="G28" s="5">
-        <v>0.54414123277521076</v>
+        <v>0.22212454855829691</v>
       </c>
       <c r="H28" s="5">
-        <v>0.3931550111000936</v>
+        <v>0.56913155568496587</v>
       </c>
       <c r="J28" s="5">
-        <v>2.9004342076063585E-2</v>
+        <v>0.42001351074711929</v>
       </c>
       <c r="K28" s="5">
-        <v>0.97099324120563046</v>
+        <v>0.57762715681483634</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N28" s="5">
         <v>4.6508964093147503E-2</v>
@@ -24126,22 +24126,22 @@
         <v>44485</v>
       </c>
       <c r="F29" s="5">
-        <v>0.64162425320815963</v>
+        <v>0.13222212814965686</v>
       </c>
       <c r="G29" s="5">
-        <v>0.18478960259610916</v>
+        <v>0.31221555714549598</v>
       </c>
       <c r="H29" s="5">
-        <v>0.16073593826782995</v>
+        <v>0.49924121032123198</v>
       </c>
       <c r="J29" s="5">
-        <v>0.71880297101638346</v>
+        <v>0.22152221096951122</v>
       </c>
       <c r="K29" s="5">
-        <v>0.26459835284507238</v>
+        <v>0.77823439551971951</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N29" s="5">
         <v>0.64162425320815963</v>
@@ -24176,22 +24176,22 @@
         <v>44485</v>
       </c>
       <c r="F30" s="5">
-        <v>0.55273215868993397</v>
+        <v>0.2165481723066483</v>
       </c>
       <c r="G30" s="5">
-        <v>0.23385297801217592</v>
+        <v>0.24637601472252291</v>
       </c>
       <c r="H30" s="5">
-        <v>0.20297662192479199</v>
+        <v>0.4801061612019013</v>
       </c>
       <c r="J30" s="5">
-        <v>0.53314860466817282</v>
+        <v>0.47523259437045168</v>
       </c>
       <c r="K30" s="5">
-        <v>0.46420013848238956</v>
+        <v>0.52318239004604195</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N30" s="5">
         <v>0.55273215868993397</v>
@@ -24226,22 +24226,22 @@
         <v>44485</v>
       </c>
       <c r="F31" s="5">
-        <v>0.82578373742655597</v>
+        <v>0.31754188068411821</v>
       </c>
       <c r="G31" s="5">
-        <v>9.4853108978377176E-2</v>
+        <v>0.29374885602755352</v>
       </c>
       <c r="H31" s="5">
-        <v>2.704162943476391E-2</v>
+        <v>0.35936954401246202</v>
       </c>
       <c r="J31" s="5">
-        <v>0.72085148183788972</v>
+        <v>0.36629959986111937</v>
       </c>
       <c r="K31" s="5">
-        <v>0.19847950776209081</v>
+        <v>0.63341710878676727</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N31" s="5">
         <v>0.82578373742655597</v>
@@ -24276,19 +24276,19 @@
         <v>44485</v>
       </c>
       <c r="F32" s="5">
-        <v>0.45467110581539621</v>
+        <v>0.43614403746370678</v>
       </c>
       <c r="G32" s="5">
-        <v>0.27266575517592717</v>
+        <v>0.32791028886213786</v>
       </c>
       <c r="H32" s="5">
-        <v>0.25738959056373523</v>
+        <v>0.2265385154230051</v>
       </c>
       <c r="J32" s="5">
-        <v>0.42451532507445772</v>
+        <v>0.25279352515832981</v>
       </c>
       <c r="K32" s="5">
-        <v>0.57483149821227708</v>
+        <v>0.74708572472606993</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
@@ -24326,22 +24326,22 @@
         <v>44485</v>
       </c>
       <c r="F33" s="5">
-        <v>0.16133914278995579</v>
+        <v>0.19110523209693647</v>
       </c>
       <c r="G33" s="5">
-        <v>0.22677401008334933</v>
+        <v>0.33240917529111036</v>
       </c>
       <c r="H33" s="5">
-        <v>0.53695910440212224</v>
+        <v>0.43644413466437776</v>
       </c>
       <c r="J33" s="5">
-        <v>0.47672481860484073</v>
+        <v>0.22385080202264598</v>
       </c>
       <c r="K33" s="5">
-        <v>0.52071418671560876</v>
+        <v>0.77602220337402894</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N33" s="5">
         <v>0.16133914278995579</v>
@@ -24376,22 +24376,22 @@
         <v>44485</v>
       </c>
       <c r="F34" s="5">
-        <v>0.49801047528008896</v>
+        <v>0.42418820154239362</v>
       </c>
       <c r="G34" s="5">
-        <v>0.35442213786700405</v>
+        <v>0.33361167935851366</v>
       </c>
       <c r="H34" s="5">
-        <v>0.14487437632105674</v>
+        <v>0.23242755056214293</v>
       </c>
       <c r="J34" s="5">
-        <v>0.16909172358795815</v>
+        <v>0.24321750951703694</v>
       </c>
       <c r="K34" s="5">
-        <v>0.8308229012844317</v>
+        <v>0.75668351610996598</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" s="5">
         <v>0.49801047528008896</v>
@@ -24426,22 +24426,22 @@
         <v>44485</v>
       </c>
       <c r="F35" s="5">
-        <v>0.70985736149037348</v>
+        <v>0.42313174839009399</v>
       </c>
       <c r="G35" s="5">
-        <v>0.17153032266997359</v>
+        <v>0.24686843957037113</v>
       </c>
       <c r="H35" s="5">
-        <v>0.11006908532076436</v>
+        <v>0.30747353878212674</v>
       </c>
       <c r="J35" s="5">
-        <v>0.65371776573067319</v>
+        <v>0.55637522405697803</v>
       </c>
       <c r="K35" s="5">
-        <v>0.33111468165473068</v>
+        <v>0.44193876092555606</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N35" s="5">
         <v>0.70985736149037348</v>
@@ -24476,22 +24476,22 @@
         <v>44485</v>
       </c>
       <c r="F36" s="5">
-        <v>0.597097222010602</v>
+        <v>0.180899718201528</v>
       </c>
       <c r="G36" s="5">
-        <v>0.21698587777573469</v>
+        <v>0.35734753457032803</v>
       </c>
       <c r="H36" s="5">
-        <v>0.17718805657405112</v>
+        <v>0.42650275054141568</v>
       </c>
       <c r="J36" s="5">
-        <v>0.57334685554505349</v>
+        <v>0.17962564407093165</v>
       </c>
       <c r="K36" s="5">
-        <v>0.42211011863028364</v>
+        <v>0.82030589385705877</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N36" s="5">
         <v>0.597097222010602</v>
@@ -24526,19 +24526,19 @@
         <v>44485</v>
       </c>
       <c r="F37" s="5">
-        <v>0.25674870827216073</v>
+        <v>0.36358861618702648</v>
       </c>
       <c r="G37" s="5">
-        <v>0.43628744610012221</v>
+        <v>0.33188648530299258</v>
       </c>
       <c r="H37" s="5">
-        <v>0.29529274359600216</v>
+        <v>0.28828934380803006</v>
       </c>
       <c r="J37" s="5">
-        <v>0.1036929140109325</v>
+        <v>0.26078768121650514</v>
       </c>
       <c r="K37" s="5">
-        <v>0.8963025152043731</v>
+        <v>0.73913007201895808</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
@@ -24576,22 +24576,22 @@
         <v>44485</v>
       </c>
       <c r="F38" s="5">
-        <v>0.59094999363013201</v>
+        <v>0.17933090092294224</v>
       </c>
       <c r="G38" s="5">
-        <v>0.23842874505931469</v>
+        <v>0.2968689668386193</v>
       </c>
       <c r="H38" s="5">
-        <v>0.16411303950591211</v>
+        <v>0.47179920396252384</v>
       </c>
       <c r="J38" s="5">
-        <v>0.4564614589812333</v>
+        <v>0.28850550356414023</v>
       </c>
       <c r="K38" s="5">
-        <v>0.54155466923713813</v>
+        <v>0.71114992702035507</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N38" s="5">
         <v>0.59094999363013201</v>
@@ -24626,19 +24626,19 @@
         <v>44485</v>
       </c>
       <c r="F39" s="5">
-        <v>0.47947325538542135</v>
+        <v>0.5922557974795094</v>
       </c>
       <c r="G39" s="5">
-        <v>0.25609121174451466</v>
+        <v>0.23783904887255844</v>
       </c>
       <c r="H39" s="5">
-        <v>0.24955296548034922</v>
+        <v>0.16343614139259144</v>
       </c>
       <c r="J39" s="5">
-        <v>0.48415081659161024</v>
+        <v>0.45767462390861419</v>
       </c>
       <c r="K39" s="5">
-        <v>0.51464231343474309</v>
+        <v>0.5403079766595198</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -24676,22 +24676,22 @@
         <v>44485</v>
       </c>
       <c r="F40" s="5">
-        <v>0.37514169598477692</v>
+        <v>0.23249755694899998</v>
       </c>
       <c r="G40" s="5">
-        <v>0.30711163410783093</v>
+        <v>0.25953246676842873</v>
       </c>
       <c r="H40" s="5">
-        <v>0.29865817384007715</v>
+        <v>0.45698717283289603</v>
       </c>
       <c r="J40" s="5">
-        <v>0.3260668431028188</v>
+        <v>0.44138892485655834</v>
       </c>
       <c r="K40" s="5">
-        <v>0.67375320240234893</v>
+        <v>0.55758088757986501</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N40" s="5">
         <v>0.37514169598477692</v>
@@ -24726,19 +24726,19 @@
         <v>44485</v>
       </c>
       <c r="F41" s="5">
-        <v>0.54945290511105438</v>
+        <v>0.48368680418583565</v>
       </c>
       <c r="G41" s="5">
-        <v>0.28853946991112595</v>
+        <v>0.31945993869034611</v>
       </c>
       <c r="H41" s="5">
-        <v>0.15742423195697008</v>
+        <v>0.19046219480991458</v>
       </c>
       <c r="J41" s="5">
-        <v>0.29478418590827227</v>
+        <v>0.25210861408224461</v>
       </c>
       <c r="K41" s="5">
-        <v>0.70477102349542087</v>
+        <v>0.74771242135076277</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
@@ -24776,19 +24776,19 @@
         <v>44485</v>
       </c>
       <c r="F42" s="5">
-        <v>0.41528520841650879</v>
+        <v>0.49152431488838533</v>
       </c>
       <c r="G42" s="5">
-        <v>0.27369873242541498</v>
+        <v>0.29535328792653032</v>
       </c>
       <c r="H42" s="5">
-        <v>0.29129441153342933</v>
+        <v>0.20467818396974655</v>
       </c>
       <c r="J42" s="5">
-        <v>0.43599628570633675</v>
+        <v>0.31793468987526158</v>
       </c>
       <c r="K42" s="5">
-        <v>0.56340958460069934</v>
+        <v>0.68171994062356867</v>
       </c>
       <c r="L42" t="s">
         <v>20</v>
@@ -24826,22 +24826,22 @@
         <v>44485</v>
       </c>
       <c r="F43" s="5">
-        <v>0.19973619134320289</v>
+        <v>0.37921784384371032</v>
       </c>
       <c r="G43" s="5">
-        <v>0.20137762698076006</v>
+        <v>0.26317408142872967</v>
       </c>
       <c r="H43" s="5">
-        <v>0.53242125043144195</v>
+        <v>0.33162657294140252</v>
       </c>
       <c r="J43" s="5">
-        <v>0.64727253314136968</v>
+        <v>0.48661946881213658</v>
       </c>
       <c r="K43" s="5">
-        <v>0.34536029625672771</v>
+        <v>0.51252581854064827</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N43" s="5">
         <v>0.19973619134320289</v>
@@ -24876,22 +24876,22 @@
         <v>44485</v>
       </c>
       <c r="F44" s="5">
-        <v>0.50562091831823075</v>
+        <v>0.25139771292722496</v>
       </c>
       <c r="G44" s="5">
-        <v>0.23714990043760958</v>
+        <v>0.20242465400460857</v>
       </c>
       <c r="H44" s="5">
-        <v>0.24262964772686552</v>
+        <v>0.49285635873564893</v>
       </c>
       <c r="J44" s="5">
-        <v>0.56274749272451452</v>
+        <v>0.70982049901400845</v>
       </c>
       <c r="K44" s="5">
-        <v>0.43474088546994316</v>
+        <v>0.2811542194696201</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N44" s="5">
         <v>0.50562091831823075</v>
@@ -24926,19 +24926,19 @@
         <v>44485</v>
       </c>
       <c r="F45" s="5">
-        <v>0.58368671474115774</v>
+        <v>0.72004133121976621</v>
       </c>
       <c r="G45" s="5">
-        <v>0.25232243854236541</v>
+        <v>0.1797848575310782</v>
       </c>
       <c r="H45" s="5">
-        <v>0.15841354858484905</v>
+        <v>9.5537682769767387E-2</v>
       </c>
       <c r="J45" s="5">
-        <v>0.3979045013918836</v>
+        <v>0.55233355789060212</v>
       </c>
       <c r="K45" s="5">
-        <v>0.60084008561544522</v>
+        <v>0.43942465872205194</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -24976,22 +24976,22 @@
         <v>44485</v>
       </c>
       <c r="F46" s="5">
-        <v>0.49986905429082451</v>
+        <v>0.16571633006510086</v>
       </c>
       <c r="G46" s="5">
-        <v>0.32880795012783937</v>
+        <v>0.1912674916573491</v>
       </c>
       <c r="H46" s="5">
-        <v>0.16693134858999045</v>
+        <v>0.56513554410194777</v>
       </c>
       <c r="J46" s="5">
-        <v>0.22007330088271182</v>
+        <v>0.63504359678224698</v>
       </c>
       <c r="K46" s="5">
-        <v>0.77977639520776643</v>
+        <v>0.3563668886850857</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N46" s="5">
         <v>0.49986905429082451</v>
@@ -25026,22 +25026,22 @@
         <v>44485</v>
       </c>
       <c r="F47" s="5">
-        <v>0.41868003522171121</v>
+        <v>0.6519391116776424</v>
       </c>
       <c r="G47" s="5">
-        <v>0.32097785347306496</v>
+        <v>0.20508648742208455</v>
       </c>
       <c r="H47" s="5">
-        <v>0.24833378897493374</v>
+        <v>0.13714435235838479</v>
       </c>
       <c r="J47" s="5">
-        <v>0.27673274702026524</v>
+        <v>0.54810431459895093</v>
       </c>
       <c r="K47" s="5">
-        <v>0.72313219574619236</v>
+        <v>0.44657208332498555</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N47" s="5">
         <v>0.41868003522171121</v>
@@ -25076,22 +25076,22 @@
         <v>44485</v>
       </c>
       <c r="F48" s="5">
-        <v>0.39597651017013019</v>
+        <v>0.16042450016862148</v>
       </c>
       <c r="G48" s="5">
-        <v>0.26934167208308635</v>
+        <v>0.23750898314664148</v>
       </c>
       <c r="H48" s="5">
-        <v>0.31185500733771926</v>
+        <v>0.5292706642204239</v>
       </c>
       <c r="J48" s="5">
-        <v>0.45845265121862316</v>
+        <v>0.43654699215627984</v>
       </c>
       <c r="K48" s="5">
-        <v>0.54086499728352377</v>
+        <v>0.56161430836285742</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N48" s="5">
         <v>0.39597651017013019</v>
@@ -25126,22 +25126,22 @@
         <v>44485</v>
       </c>
       <c r="F49" s="5">
-        <v>0.11175413997466027</v>
+        <v>0.44019989572300883</v>
       </c>
       <c r="G49" s="5">
-        <v>0.19168776450624145</v>
+        <v>0.26563798515673792</v>
       </c>
       <c r="H49" s="5">
-        <v>0.59718506650888281</v>
+        <v>0.27620827659332381</v>
       </c>
       <c r="J49" s="5">
-        <v>0.51286292918489607</v>
+        <v>0.46148930667847465</v>
       </c>
       <c r="K49" s="5">
-        <v>0.48175438131556347</v>
+        <v>0.53768918883079442</v>
       </c>
       <c r="L49" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N49" s="5">
         <v>0.11175413997466027</v>
@@ -25176,22 +25176,22 @@
         <v>44485</v>
       </c>
       <c r="F50" s="5">
-        <v>0.36495411134695899</v>
+        <v>0.56194171980187246</v>
       </c>
       <c r="G50" s="5">
-        <v>0.38939053616676628</v>
+        <v>0.21346925417069054</v>
       </c>
       <c r="H50" s="5">
-        <v>0.237448620720044</v>
+        <v>0.21203735449699207</v>
       </c>
       <c r="J50" s="5">
-        <v>0.15326284565651999</v>
+        <v>0.64718959673274445</v>
       </c>
       <c r="K50" s="5">
-        <v>0.84671834762027298</v>
+        <v>0.34654072308701322</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N50" s="5">
         <v>0.36495411134695899</v>
@@ -25226,19 +25226,19 @@
         <v>44485</v>
       </c>
       <c r="F51" s="5">
-        <v>0.32346010682294418</v>
+        <v>0.39618605930387563</v>
       </c>
       <c r="G51" s="5">
-        <v>0.32284269395866549</v>
+        <v>0.30727619667718054</v>
       </c>
       <c r="H51" s="5">
-        <v>0.33095341379286847</v>
+        <v>0.27998360664834665</v>
       </c>
       <c r="J51" s="5">
-        <v>0.28402112844236221</v>
+        <v>0.32189053050410804</v>
       </c>
       <c r="K51" s="5">
-        <v>0.71587275290490049</v>
+        <v>0.67792221605889658</v>
       </c>
       <c r="L51" t="s">
         <v>20</v>
@@ -25276,22 +25276,22 @@
         <v>44485</v>
       </c>
       <c r="F52" s="5">
-        <v>0.80222585755090503</v>
+        <v>0.53295442685488459</v>
       </c>
       <c r="G52" s="5">
-        <v>0.1291158768235339</v>
+        <v>0.31588291026865595</v>
       </c>
       <c r="H52" s="5">
-        <v>5.3926498279988473E-2</v>
+        <v>0.14775494109398282</v>
       </c>
       <c r="J52" s="5">
-        <v>0.65891323917873768</v>
+        <v>0.22991819951484208</v>
       </c>
       <c r="K52" s="5">
-        <v>0.31220962312047645</v>
+        <v>0.76986243917959019</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N52" s="5">
         <v>0.80222585755090503</v>
@@ -25326,22 +25326,22 @@
         <v>44485</v>
       </c>
       <c r="F53" s="5">
-        <v>9.5284142231627771E-3</v>
+        <v>0.21986474253086621</v>
       </c>
       <c r="G53" s="5">
-        <v>5.8317083096674889E-2</v>
+        <v>0.28113948799852606</v>
       </c>
       <c r="H53" s="5">
-        <v>0.70432111015063403</v>
+        <v>0.45049625552874401</v>
       </c>
       <c r="J53" s="5">
-        <v>0.61203541644127513</v>
+        <v>0.36046780665628603</v>
       </c>
       <c r="K53" s="5">
-        <v>0.34419131956309879</v>
+        <v>0.63901412648506573</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N53" s="5">
         <v>9.5284142231627771E-3</v>
@@ -25376,22 +25376,22 @@
         <v>44485</v>
       </c>
       <c r="F54" s="5">
-        <v>4.2442415233864675E-2</v>
+        <v>0.43789204639958296</v>
       </c>
       <c r="G54" s="5">
-        <v>0.19066325081530522</v>
+        <v>0.25201156753499221</v>
       </c>
       <c r="H54" s="5">
-        <v>0.63671340254507147</v>
+        <v>0.28998146214264359</v>
       </c>
       <c r="J54" s="5">
-        <v>0.33431088376488172</v>
+        <v>0.52596452921480408</v>
       </c>
       <c r="K54" s="5">
-        <v>0.66302746921533862</v>
+        <v>0.47265675257619411</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N54" s="5">
         <v>4.2442415233864675E-2</v>
@@ -25426,22 +25426,22 @@
         <v>44485</v>
       </c>
       <c r="F55" s="5">
-        <v>0.66019045661124642</v>
+        <v>0.48292264054694906</v>
       </c>
       <c r="G55" s="5">
-        <v>0.2811080645850258</v>
+        <v>0.29742586164434437</v>
       </c>
       <c r="H55" s="5">
-        <v>5.8248191850493618E-2</v>
+        <v>0.21068561689608528</v>
       </c>
       <c r="J55" s="5">
-        <v>0.19942195737003751</v>
+        <v>0.3166449622347568</v>
       </c>
       <c r="K55" s="5">
-        <v>0.80013450036827538</v>
+        <v>0.6830352935088978</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N55" s="5">
         <v>0.66019045661124642</v>
@@ -25476,22 +25476,22 @@
         <v>44485</v>
       </c>
       <c r="F56" s="5">
-        <v>0.47761383062683871</v>
+        <v>0.25334190269234869</v>
       </c>
       <c r="G56" s="5">
-        <v>0.34993556340002935</v>
+        <v>0.34904048668837678</v>
       </c>
       <c r="H56" s="5">
-        <v>0.16837495669053862</v>
+        <v>0.37083163331149377</v>
       </c>
       <c r="J56" s="5">
-        <v>0.18693527234394089</v>
+        <v>0.21645566024426774</v>
       </c>
       <c r="K56" s="5">
-        <v>0.81297819640795232</v>
+        <v>0.78348553713148239</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N56" s="5">
         <v>0.47761383062683871</v>
@@ -25526,22 +25526,22 @@
         <v>44485</v>
       </c>
       <c r="F57" s="5">
-        <v>0.72048589888253101</v>
+        <v>0.45976380653038063</v>
       </c>
       <c r="G57" s="5">
-        <v>0.1963381822443068</v>
+        <v>0.26746839851778176</v>
       </c>
       <c r="H57" s="5">
-        <v>8.0824254959638825E-2</v>
+        <v>0.25730923334265238</v>
       </c>
       <c r="J57" s="5">
-        <v>0.43270905339621379</v>
+        <v>0.44396969300425088</v>
       </c>
       <c r="K57" s="5">
-        <v>0.5634221911020254</v>
+        <v>0.55524259679896448</v>
       </c>
       <c r="L57" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N57" s="5">
         <v>0.72048589888253101</v>
@@ -25576,22 +25576,22 @@
         <v>44485</v>
       </c>
       <c r="F58" s="5">
-        <v>0.27157164490315261</v>
+        <v>0.27218101923113036</v>
       </c>
       <c r="G58" s="5">
-        <v>0.30084314920594163</v>
+        <v>0.24342402440769534</v>
       </c>
       <c r="H58" s="5">
-        <v>0.39273918499380239</v>
+        <v>0.438565034438753</v>
       </c>
       <c r="J58" s="5">
-        <v>0.33185619144101475</v>
+        <v>0.53737139682615864</v>
       </c>
       <c r="K58" s="5">
-        <v>0.66789744540505147</v>
+        <v>0.46078260074044708</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N58" s="5">
         <v>0.27157164490315261</v>
@@ -25626,22 +25626,22 @@
         <v>44485</v>
       </c>
       <c r="F59" s="5">
-        <v>0.16001914177398988</v>
+        <v>0.32094732034162171</v>
       </c>
       <c r="G59" s="5">
-        <v>0.34751429258476657</v>
+        <v>0.30271050309511416</v>
       </c>
       <c r="H59" s="5">
-        <v>0.45143853448870624</v>
+        <v>0.34928563614186808</v>
       </c>
       <c r="J59" s="5">
-        <v>0.18430246225773303</v>
+        <v>0.33907819493092789</v>
       </c>
       <c r="K59" s="5">
-        <v>0.81560120908690648</v>
+        <v>0.66071468619599971</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N59" s="5">
         <v>0.16001914177398988</v>
@@ -25676,19 +25676,19 @@
         <v>44485</v>
       </c>
       <c r="F60" s="5">
-        <v>0.52162739065969033</v>
+        <v>0.227186236472049</v>
       </c>
       <c r="G60" s="5">
-        <v>0.29374814137465743</v>
+        <v>0.28126992838433212</v>
       </c>
       <c r="H60" s="5">
-        <v>0.17851250537763105</v>
+        <v>0.44445859980259528</v>
       </c>
       <c r="J60" s="5">
-        <v>0.30143336022508843</v>
+        <v>0.36535491874418086</v>
       </c>
       <c r="K60" s="5">
-        <v>0.69818748225878646</v>
+        <v>0.63413410565098294</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -25726,22 +25726,22 @@
         <v>44485</v>
       </c>
       <c r="F61" s="5">
-        <v>0.27267836561724784</v>
+        <v>0.49306727229485847</v>
       </c>
       <c r="G61" s="5">
-        <v>0.72732158454769191</v>
+        <v>0.25139684164420123</v>
       </c>
       <c r="H61" s="5">
-        <v>0</v>
+        <v>0.24147135271612447</v>
       </c>
       <c r="J61" s="5">
-        <v>4.2446583658954651E-3</v>
+        <v>0.49746054666078304</v>
       </c>
       <c r="K61" s="5">
-        <v>0.99575529179904421</v>
+        <v>0.50109742722406092</v>
       </c>
       <c r="L61" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="N61" s="5">
         <v>0.27267836561724784</v>
@@ -25776,22 +25776,22 @@
         <v>44485</v>
       </c>
       <c r="F62" s="5">
-        <v>0.83296499391601198</v>
+        <v>0.40176332981279661</v>
       </c>
       <c r="G62" s="5">
-        <v>0.132220348332905</v>
+        <v>0.28131312270587444</v>
       </c>
       <c r="H62" s="5">
-        <v>2.8962402241575331E-2</v>
+        <v>0.29674729187762772</v>
       </c>
       <c r="J62" s="5">
-        <v>0.46759010489246527</v>
+        <v>0.40927145579526325</v>
       </c>
       <c r="K62" s="5">
-        <v>0.5224934714040087</v>
+        <v>0.59028350111627037</v>
       </c>
       <c r="L62" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N62" s="5">
         <v>0.83296499391601198</v>
@@ -25826,19 +25826,19 @@
         <v>44485</v>
       </c>
       <c r="F63" s="5">
-        <v>0.33205857842809744</v>
+        <v>0.37923946433867717</v>
       </c>
       <c r="G63" s="5">
-        <v>0.33669432180849307</v>
+        <v>0.29403133872633819</v>
       </c>
       <c r="H63" s="5">
-        <v>0.31215661454888338</v>
+        <v>0.30586958254564717</v>
       </c>
       <c r="J63" s="5">
-        <v>0.25132864405650768</v>
+        <v>0.36733918097014734</v>
       </c>
       <c r="K63" s="5">
-        <v>0.7486029506942351</v>
+        <v>0.6323822697694782</v>
       </c>
       <c r="L63" t="s">
         <v>20</v>
@@ -25876,22 +25876,22 @@
         <v>44485</v>
       </c>
       <c r="F64" s="5">
-        <v>0.30913684568345773</v>
+        <v>0.13735696385125842</v>
       </c>
       <c r="G64" s="5">
-        <v>0.21440845156595192</v>
+        <v>0.31131446185315875</v>
       </c>
       <c r="H64" s="5">
-        <v>0.43500964819340587</v>
+        <v>0.49569745507347246</v>
       </c>
       <c r="J64" s="5">
-        <v>0.70075298094687855</v>
+        <v>0.22702495516779764</v>
       </c>
       <c r="K64" s="5">
-        <v>0.29283862533050059</v>
+        <v>0.77272729297272003</v>
       </c>
       <c r="L64" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N64" s="5">
         <v>0.30913684568345773</v>
@@ -25926,22 +25926,22 @@
         <v>44485</v>
       </c>
       <c r="F65" s="5">
-        <v>0.26865106689448048</v>
+        <v>0.59729615957564619</v>
       </c>
       <c r="G65" s="5">
-        <v>0.2623479096523938</v>
+        <v>0.20258958789887371</v>
       </c>
       <c r="H65" s="5">
-        <v>0.42551600459379313</v>
+        <v>0.18864934254183804</v>
       </c>
       <c r="J65" s="5">
-        <v>0.45757868127735918</v>
+        <v>0.670327890173677</v>
       </c>
       <c r="K65" s="5">
-        <v>0.5415000441244765</v>
+        <v>0.32069598455960974</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N65" s="5">
         <v>0.26865106689448048</v>
@@ -25976,22 +25976,22 @@
         <v>44485</v>
       </c>
       <c r="F66" s="5">
-        <v>0.24496983079188683</v>
+        <v>0.53882625742011947</v>
       </c>
       <c r="G66" s="5">
-        <v>0.23682350976848307</v>
+        <v>0.27151980843229451</v>
       </c>
       <c r="H66" s="5">
-        <v>0.46601493662213289</v>
+        <v>0.18253375444172118</v>
       </c>
       <c r="J66" s="5">
-        <v>0.54305610726215858</v>
+        <v>0.36635784564398682</v>
       </c>
       <c r="K66" s="5">
-        <v>0.45464220818771017</v>
+        <v>0.63291608438653413</v>
       </c>
       <c r="L66" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N66" s="5">
         <v>0.24496983079188683</v>
@@ -26025,23 +26025,23 @@
       <c r="D67" s="4">
         <v>44485</v>
       </c>
-      <c r="F67" s="5">
-        <v>0.75983746124095797</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0.1997630244591222</v>
-      </c>
-      <c r="H67" s="5">
-        <v>3.918452626923883E-2</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0.30880633862547724</v>
-      </c>
-      <c r="K67" s="5">
-        <v>0.6890340463021164</v>
-      </c>
-      <c r="L67" t="s">
-        <v>37</v>
+      <c r="F67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N67" s="5">
         <v>0.75983746124095797</v>
@@ -26076,22 +26076,22 @@
         <v>44485</v>
       </c>
       <c r="F68" s="5">
-        <v>9.6575905918552848E-2</v>
+        <v>0.27048959798326466</v>
       </c>
       <c r="G68" s="5">
-        <v>0.23811259859447609</v>
+        <v>0.24628171071845001</v>
       </c>
       <c r="H68" s="5">
-        <v>0.57442880631193005</v>
+        <v>0.43746009377786971</v>
       </c>
       <c r="J68" s="5">
-        <v>0.33244028667158471</v>
+        <v>0.52380856345063509</v>
       </c>
       <c r="K68" s="5">
-        <v>0.66620521969788504</v>
+        <v>0.47453512484214055</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N68" s="5">
         <v>9.6575905918552848E-2</v>
@@ -26126,22 +26126,22 @@
         <v>44485</v>
       </c>
       <c r="F69" s="5">
-        <v>9.7252003546893548E-2</v>
+        <v>0.28645345858651533</v>
       </c>
       <c r="G69" s="5">
-        <v>0.41962085348964651</v>
+        <v>0.30783401715338393</v>
       </c>
       <c r="H69" s="5">
-        <v>0.45083322729012337</v>
+        <v>0.37470429699361146</v>
       </c>
       <c r="J69" s="5">
-        <v>8.8862231479739706E-2</v>
+        <v>0.31727556444931282</v>
       </c>
       <c r="K69" s="5">
-        <v>0.91111356883206618</v>
+        <v>0.68253673877808274</v>
       </c>
       <c r="L69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N69" s="5">
         <v>9.7252003546893548E-2</v>
@@ -26175,23 +26175,23 @@
       <c r="D70" s="4">
         <v>44485</v>
       </c>
-      <c r="F70" s="5">
-        <v>0.51334812868651358</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0.31773727053192524</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0.16446290298219093</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0.2386077974877073</v>
-      </c>
-      <c r="K70" s="5">
-        <v>0.7611899783888374</v>
-      </c>
-      <c r="L70" t="s">
-        <v>20</v>
+      <c r="F70" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H70" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J70" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K70" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N70" s="5">
         <v>0.51334812868651358</v>
@@ -26226,22 +26226,22 @@
         <v>44485</v>
       </c>
       <c r="F71" s="5">
-        <v>0.50685445008626773</v>
+        <v>0.32941659171117915</v>
       </c>
       <c r="G71" s="5">
-        <v>0.25769198162525392</v>
+        <v>0.29765918564415156</v>
       </c>
       <c r="H71" s="5">
-        <v>0.22363816391352173</v>
+        <v>0.34606436246698757</v>
       </c>
       <c r="J71" s="5">
-        <v>0.45582733506206413</v>
+        <v>0.35565093046614665</v>
       </c>
       <c r="K71" s="5">
-        <v>0.54302608808968589</v>
+        <v>0.6441052603582359</v>
       </c>
       <c r="L71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N71" s="5">
         <v>0.50685445008626773</v>
@@ -26276,19 +26276,19 @@
         <v>44485</v>
       </c>
       <c r="F72" s="5">
-        <v>0.1715151700811883</v>
+        <v>0.23399741989268308</v>
       </c>
       <c r="G72" s="5">
-        <v>0.30615594098507787</v>
+        <v>0.3174870928826346</v>
       </c>
       <c r="H72" s="5">
-        <v>0.47155665950264836</v>
+        <v>0.41160172898375402</v>
       </c>
       <c r="J72" s="5">
-        <v>0.26243958365234499</v>
+        <v>0.27422005691477419</v>
       </c>
       <c r="K72" s="5">
-        <v>0.73728946403694284</v>
+        <v>0.72561466546995368</v>
       </c>
       <c r="L72" t="s">
         <v>20</v>
@@ -26326,22 +26326,22 @@
         <v>44485</v>
       </c>
       <c r="F73" s="5">
-        <v>2.1693892745655034E-2</v>
+        <v>0.25814924135459505</v>
       </c>
       <c r="G73" s="5">
-        <v>8.0497336354659624E-2</v>
+        <v>0.24904348020217812</v>
       </c>
       <c r="H73" s="5">
-        <v>0.70308687170226447</v>
+        <v>0.44505514251407619</v>
       </c>
       <c r="J73" s="5">
-        <v>0.6156144402144591</v>
+        <v>0.50293548446629488</v>
       </c>
       <c r="K73" s="5">
-        <v>0.35021241019252158</v>
+        <v>0.49557450946592374</v>
       </c>
       <c r="L73" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N73" s="5">
         <v>2.1693892745655034E-2</v>
@@ -26375,23 +26375,23 @@
       <c r="D74" s="4">
         <v>44485</v>
       </c>
-      <c r="F74" s="5">
-        <v>0.46025540972949996</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0.17707692264231376</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0.30802768171282829</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0.86738225282841097</v>
-      </c>
-      <c r="K74" s="5">
-        <v>7.8948413073571491E-2</v>
-      </c>
-      <c r="L74" t="s">
-        <v>410</v>
+      <c r="F74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N74" s="5">
         <v>0.46025540972949996</v>
@@ -26425,23 +26425,23 @@
       <c r="D75" s="4">
         <v>44485</v>
       </c>
-      <c r="F75" s="5">
-        <v>0.43482344776683607</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0.39226703114172262</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0.16946871250850135</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0.13425284010704561</v>
-      </c>
-      <c r="K75" s="5">
-        <v>0.86571796612002672</v>
-      </c>
-      <c r="L75" t="s">
-        <v>17</v>
+      <c r="F75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N75" s="5">
         <v>0.43482344776683607</v>
@@ -26476,22 +26476,22 @@
         <v>44485</v>
       </c>
       <c r="F76" s="5">
-        <v>0.75059086920621665</v>
+        <v>0.79460958271504689</v>
       </c>
       <c r="G76" s="5">
-        <v>0.12772476802508687</v>
+        <v>0.15277890053764362</v>
       </c>
       <c r="H76" s="5">
-        <v>6.5561548807454406E-2</v>
+        <v>4.8437446485384221E-2</v>
       </c>
       <c r="J76" s="5">
-        <v>0.77847957896432385</v>
+        <v>0.48441187032453048</v>
       </c>
       <c r="K76" s="5">
-        <v>0.13387147640974739</v>
+        <v>0.50702965621418117</v>
       </c>
       <c r="L76" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N76" s="5">
         <v>0.75059086920621665</v>
@@ -26526,22 +26526,22 @@
         <v>44485</v>
       </c>
       <c r="F77" s="5">
-        <v>0.87239989377994542</v>
+        <v>0.77409317078851547</v>
       </c>
       <c r="G77" s="5">
-        <v>6.7929649085793159E-2</v>
+        <v>0.13989694736721328</v>
       </c>
       <c r="H77" s="5">
-        <v>1.1429582550092273E-2</v>
+        <v>7.0482766610872563E-2</v>
       </c>
       <c r="J77" s="5">
-        <v>0.66134103609771711</v>
+        <v>0.69106422295235981</v>
       </c>
       <c r="K77" s="5">
-        <v>0.27436410847454323</v>
+        <v>0.27845059777197806</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N77" s="5">
         <v>0.87239989377994542</v>
@@ -26576,22 +26576,22 @@
         <v>44485</v>
       </c>
       <c r="F78" s="5">
-        <v>0.80564221545639803</v>
+        <v>0.24006126608918285</v>
       </c>
       <c r="G78" s="5">
-        <v>0.19279072592719615</v>
+        <v>0.38537274851743381</v>
       </c>
       <c r="H78" s="5">
-        <v>0</v>
+        <v>0.35332630109444857</v>
       </c>
       <c r="J78" s="5">
-        <v>0.22706666056913521</v>
+        <v>0.15757389421596793</v>
       </c>
       <c r="K78" s="5">
-        <v>0.77136628081445902</v>
+        <v>0.84240419261557542</v>
       </c>
       <c r="L78" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N78" s="5">
         <v>0.80564221545639803</v>
@@ -26626,19 +26626,19 @@
         <v>44485</v>
       </c>
       <c r="F79" s="5">
-        <v>0.38614533661305661</v>
+        <v>0.50968633776857752</v>
       </c>
       <c r="G79" s="5">
-        <v>0.29246658558383859</v>
+        <v>0.28893782920464606</v>
       </c>
       <c r="H79" s="5">
-        <v>0.30112902075578823</v>
+        <v>0.19376225170317529</v>
       </c>
       <c r="J79" s="5">
-        <v>0.37171286051976132</v>
+        <v>0.32669631777119229</v>
       </c>
       <c r="K79" s="5">
-        <v>0.62799069817460595</v>
+        <v>0.67287658838960096</v>
       </c>
       <c r="L79" t="s">
         <v>20</v>
@@ -26676,22 +26676,22 @@
         <v>44485</v>
       </c>
       <c r="F80" s="5">
-        <v>0.60588893540388444</v>
+        <v>8.0442106880731015E-2</v>
       </c>
       <c r="G80" s="5">
-        <v>0.2689292789527184</v>
+        <v>0.13521864550972307</v>
       </c>
       <c r="H80" s="5">
-        <v>0.12248399944629908</v>
+        <v>0.66080246855515379</v>
       </c>
       <c r="J80" s="5">
-        <v>0.30175474276829595</v>
+        <v>0.66409295168808735</v>
       </c>
       <c r="K80" s="5">
-        <v>0.69752894962737699</v>
+        <v>0.31328180855449494</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N80" s="5">
         <v>0.60588893540388444</v>
@@ -26726,22 +26726,22 @@
         <v>44485</v>
       </c>
       <c r="F81" s="5">
-        <v>0.56793306926136566</v>
+        <v>0.51762004182676158</v>
       </c>
       <c r="G81" s="5">
-        <v>0.37072221135640737</v>
+        <v>0.31030910154717362</v>
       </c>
       <c r="H81" s="5">
-        <v>6.1099476336124642E-2</v>
+        <v>0.16725900249843342</v>
       </c>
       <c r="J81" s="5">
-        <v>0.10941609093547787</v>
+        <v>0.25524827564558217</v>
       </c>
       <c r="K81" s="5">
-        <v>0.89050867505358322</v>
+        <v>0.74450696651417647</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N81" s="5">
         <v>0.56793306926136566</v>
@@ -26776,22 +26776,22 @@
         <v>44485</v>
       </c>
       <c r="F82" s="5">
-        <v>0.49771999453612614</v>
+        <v>0.18192050944536853</v>
       </c>
       <c r="G82" s="5">
-        <v>0.21003186506019939</v>
+        <v>0.22428385970621434</v>
       </c>
       <c r="H82" s="5">
-        <v>0.27281740900332457</v>
+        <v>0.52434633621819637</v>
       </c>
       <c r="J82" s="5">
-        <v>0.72826512221442175</v>
+        <v>0.51858280729934514</v>
       </c>
       <c r="K82" s="5">
-        <v>0.26282339539818322</v>
+        <v>0.47839399053854914</v>
       </c>
       <c r="L82" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N82" s="5">
         <v>0.49771999453612614</v>
@@ -26826,22 +26826,22 @@
         <v>44485</v>
       </c>
       <c r="F83" s="5">
-        <v>0.47681677818658064</v>
+        <v>0.6126694784818798</v>
       </c>
       <c r="G83" s="5">
-        <v>0.31326132084446595</v>
+        <v>0.31234717084496216</v>
       </c>
       <c r="H83" s="5">
-        <v>0.20230757650330572</v>
+        <v>7.4403916618711749E-2</v>
       </c>
       <c r="J83" s="5">
-        <v>0.27256704047986841</v>
+        <v>0.17488088876496419</v>
       </c>
       <c r="K83" s="5">
-        <v>0.72722793785190809</v>
+        <v>0.82487719758314249</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N83" s="5">
         <v>0.47681677818658064</v>
@@ -26976,22 +26976,22 @@
         <v>44485</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>0.69880382183991407</v>
       </c>
       <c r="G86" s="5">
-        <v>0.22992548518672384</v>
+        <v>0.2035266279384802</v>
       </c>
       <c r="H86" s="5">
-        <v>0.64752249156971631</v>
+        <v>9.4904572792831945E-2</v>
       </c>
       <c r="J86" s="5">
-        <v>0.18283630320553446</v>
+        <v>0.4454881881749696</v>
       </c>
       <c r="K86" s="5">
-        <v>0.81633893888120379</v>
+        <v>0.5508456543753868</v>
       </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N86" s="5">
         <v>0</v>
@@ -27126,22 +27126,22 @@
         <v>44486</v>
       </c>
       <c r="F89" s="5">
-        <v>0.41599151399144796</v>
+        <v>0.64831701946333031</v>
       </c>
       <c r="G89" s="5">
-        <v>0.25948271695577835</v>
+        <v>0.19850096586515373</v>
       </c>
       <c r="H89" s="5">
-        <v>0.30277294847949549</v>
+        <v>0.14584255944095167</v>
       </c>
       <c r="J89" s="5">
-        <v>0.49757745338694637</v>
+        <v>0.60319498346408518</v>
       </c>
       <c r="K89" s="5">
-        <v>0.50141142828462948</v>
+        <v>0.38931700013696596</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N89" s="5">
         <v>0.41599151399144796</v>
@@ -27176,22 +27176,22 @@
         <v>44486</v>
       </c>
       <c r="F90" s="5">
-        <v>0.651010488485257</v>
+        <v>0.41667702309301402</v>
       </c>
       <c r="G90" s="5">
-        <v>0.22297663519628555</v>
+        <v>0.33414961250549513</v>
       </c>
       <c r="H90" s="5">
-        <v>0.12228116855266737</v>
+        <v>0.23877541446174377</v>
       </c>
       <c r="J90" s="5">
-        <v>0.43797540213051167</v>
+        <v>0.24432751342288281</v>
       </c>
       <c r="K90" s="5">
-        <v>0.55944559206514943</v>
+        <v>0.75557818293832568</v>
       </c>
       <c r="L90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N90" s="5">
         <v>0.651010488485257</v>
@@ -27225,23 +27225,23 @@
       <c r="D91" s="4">
         <v>44486</v>
       </c>
-      <c r="F91" s="5">
-        <v>0.13516597650977666</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0.22248125237043262</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0.55843426067675672</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0.44748761034557466</v>
-      </c>
-      <c r="K91" s="5">
-        <v>0.54995482677414942</v>
-      </c>
-      <c r="L91" t="s">
-        <v>28</v>
+      <c r="F91" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G91" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H91" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J91" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K91" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N91" s="5">
         <v>0.13516597650977666</v>
@@ -27276,22 +27276,22 @@
         <v>44486</v>
       </c>
       <c r="F92" s="5">
-        <v>0.18410281553360799</v>
+        <v>0.60616327688609473</v>
       </c>
       <c r="G92" s="5">
-        <v>0.25542988422045254</v>
+        <v>0.21798869528920392</v>
       </c>
       <c r="H92" s="5">
-        <v>0.49802642628903387</v>
+        <v>0.16806271451586074</v>
       </c>
       <c r="J92" s="5">
-        <v>0.40715735070010967</v>
+        <v>0.5517628282216207</v>
       </c>
       <c r="K92" s="5">
-        <v>0.59170627962866584</v>
+        <v>0.44409225028091498</v>
       </c>
       <c r="L92" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N92" s="5">
         <v>0.18410281553360799</v>
@@ -27325,23 +27325,23 @@
       <c r="D93" s="4">
         <v>44486</v>
       </c>
-      <c r="F93" s="5">
-        <v>0.66824338331787791</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0.20211895632180518</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0.12467130032021664</v>
-      </c>
-      <c r="J93" s="5">
-        <v>0.53098521691304446</v>
-      </c>
-      <c r="K93" s="5">
-        <v>0.46375705784725663</v>
-      </c>
-      <c r="L93" t="s">
-        <v>16</v>
+      <c r="F93" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G93" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H93" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J93" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K93" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N93" s="5">
         <v>0.66824338331787791</v>
@@ -27375,23 +27375,23 @@
       <c r="D94" s="4">
         <v>44486</v>
       </c>
-      <c r="F94" s="5">
-        <v>0.18637696415881941</v>
-      </c>
-      <c r="G94" s="5">
-        <v>0.19105165735274982</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0.55160203165406596</v>
-      </c>
-      <c r="J94" s="5">
-        <v>0.67384248044100792</v>
-      </c>
-      <c r="K94" s="5">
-        <v>0.31613279228535868</v>
-      </c>
-      <c r="L94" t="s">
-        <v>28</v>
+      <c r="F94" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H94" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J94" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K94" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N94" s="5">
         <v>0.18637696415881941</v>
@@ -27426,22 +27426,22 @@
         <v>44486</v>
       </c>
       <c r="F95" s="5">
-        <v>0.12477723173823177</v>
+        <v>0.83278687433401821</v>
       </c>
       <c r="G95" s="5">
-        <v>0.2574312259551893</v>
+        <v>0.10393545183669353</v>
       </c>
       <c r="H95" s="5">
-        <v>0.54145500753495479</v>
+        <v>3.3441749709009455E-2</v>
       </c>
       <c r="J95" s="5">
-        <v>0.32664985590932372</v>
+        <v>0.68893578442547654</v>
       </c>
       <c r="K95" s="5">
-        <v>0.67241193890702222</v>
+        <v>0.26086631942396249</v>
       </c>
       <c r="L95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N95" s="5">
         <v>0.12477723173823177</v>
@@ -27476,22 +27476,22 @@
         <v>44486</v>
       </c>
       <c r="F96" s="5">
-        <v>0.44351781586497785</v>
+        <v>0.57688763830516454</v>
       </c>
       <c r="G96" s="5">
-        <v>0.38710992163322056</v>
+        <v>0.22968034003117271</v>
       </c>
       <c r="H96" s="5">
-        <v>0.16603807753041447</v>
+        <v>0.1846557280011959</v>
       </c>
       <c r="J96" s="5">
-        <v>0.13873697581866512</v>
+        <v>0.52566937182629614</v>
       </c>
       <c r="K96" s="5">
-        <v>0.86122896386660164</v>
+        <v>0.47141810023279546</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N96" s="5">
         <v>0.44351781586497785</v>
@@ -27526,19 +27526,19 @@
         <v>44486</v>
       </c>
       <c r="F97" s="5">
-        <v>0.71935178063988225</v>
+        <v>0.49391278490819662</v>
       </c>
       <c r="G97" s="5">
-        <v>0.17476795939997827</v>
+        <v>0.23175598388790122</v>
       </c>
       <c r="H97" s="5">
-        <v>9.9910198394282751E-2</v>
+        <v>0.25786707070773118</v>
       </c>
       <c r="J97" s="5">
-        <v>0.59576122438545587</v>
+        <v>0.60251557719347792</v>
       </c>
       <c r="K97" s="5">
-        <v>0.39338403761988794</v>
+        <v>0.39429124873030524</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -27576,22 +27576,22 @@
         <v>44486</v>
       </c>
       <c r="F98" s="5">
-        <v>0.58293027039824319</v>
+        <v>0.27098993540373617</v>
       </c>
       <c r="G98" s="5">
-        <v>0.23275634344621188</v>
+        <v>0.23677029327715554</v>
       </c>
       <c r="H98" s="5">
-        <v>0.17645649689765106</v>
+        <v>0.44538816851171453</v>
       </c>
       <c r="J98" s="5">
-        <v>0.49926605082455122</v>
+        <v>0.5659893162958467</v>
       </c>
       <c r="K98" s="5">
-        <v>0.49820898384409573</v>
+        <v>0.43163144936540659</v>
       </c>
       <c r="L98" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N98" s="5">
         <v>0.58293027039824319</v>
@@ -27626,22 +27626,22 @@
         <v>44486</v>
       </c>
       <c r="F99" s="5">
-        <v>0.63527490892179816</v>
+        <v>0.21928123007434813</v>
       </c>
       <c r="G99" s="5">
-        <v>0.19991696640943035</v>
+        <v>0.19947204063743795</v>
       </c>
       <c r="H99" s="5">
-        <v>0.15651476094105904</v>
+        <v>0.52009182224358119</v>
       </c>
       <c r="J99" s="5">
-        <v>0.62067722061258657</v>
+        <v>0.68469724796831322</v>
       </c>
       <c r="K99" s="5">
-        <v>0.37150943023516042</v>
+        <v>0.30651599190796797</v>
       </c>
       <c r="L99" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N99" s="5">
         <v>0.63527490892179816</v>
@@ -27676,22 +27676,22 @@
         <v>44486</v>
       </c>
       <c r="F100" s="5">
-        <v>0.21513568647322512</v>
+        <v>0.31662987264187348</v>
       </c>
       <c r="G100" s="5">
-        <v>0.24704452276659628</v>
+        <v>0.29983243245603092</v>
       </c>
       <c r="H100" s="5">
-        <v>0.48065768124083763</v>
+        <v>0.35528714825317798</v>
       </c>
       <c r="J100" s="5">
-        <v>0.47118114885895385</v>
+        <v>0.34710361741275192</v>
       </c>
       <c r="K100" s="5">
-        <v>0.52727165297397316</v>
+        <v>0.65266644458519751</v>
       </c>
       <c r="L100" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N100" s="5">
         <v>0.21513568647322512</v>
@@ -27726,22 +27726,22 @@
         <v>44486</v>
       </c>
       <c r="F101" s="5">
-        <v>0.27714349442046304</v>
+        <v>0.40677323074673943</v>
       </c>
       <c r="G101" s="5">
-        <v>0.33177500714250208</v>
+        <v>0.22222657745409569</v>
       </c>
       <c r="H101" s="5">
-        <v>0.36389802431608531</v>
+        <v>0.34396063437065771</v>
       </c>
       <c r="J101" s="5">
-        <v>0.2563508142637978</v>
+        <v>0.68919692741041338</v>
       </c>
       <c r="K101" s="5">
-        <v>0.74355945108090538</v>
+        <v>0.30575993242980781</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N101" s="5">
         <v>0.27714349442046304</v>
@@ -27776,19 +27776,19 @@
         <v>44486</v>
       </c>
       <c r="F102" s="5">
-        <v>0.41528603610482689</v>
+        <v>0.35041457331550463</v>
       </c>
       <c r="G102" s="5">
-        <v>0.25310972127417664</v>
+        <v>0.33221498515308817</v>
       </c>
       <c r="H102" s="5">
-        <v>0.30889843532311961</v>
+        <v>0.29967383614139992</v>
       </c>
       <c r="J102" s="5">
-        <v>0.52769482274880508</v>
+        <v>0.26112624304449067</v>
       </c>
       <c r="K102" s="5">
-        <v>0.47100482906314012</v>
+        <v>0.73879431114698246</v>
       </c>
       <c r="L102" t="s">
         <v>20</v>
@@ -27826,19 +27826,19 @@
         <v>44486</v>
       </c>
       <c r="F103" s="5">
-        <v>0.42136572184724458</v>
+        <v>0.42650552675344111</v>
       </c>
       <c r="G103" s="5">
-        <v>0.23512366523012274</v>
+        <v>0.2316325848093132</v>
       </c>
       <c r="H103" s="5">
-        <v>0.31947095879817577</v>
+        <v>0.31807443474182678</v>
       </c>
       <c r="J103" s="5">
-        <v>0.61776637367782916</v>
+        <v>0.63541937083264588</v>
       </c>
       <c r="K103" s="5">
-        <v>0.3794405675801909</v>
+        <v>0.36130822969849619</v>
       </c>
       <c r="L103" t="s">
         <v>11</v>
@@ -27876,19 +27876,19 @@
         <v>44486</v>
       </c>
       <c r="F104" s="5">
-        <v>0.60950899837448291</v>
+        <v>0.70726002431138224</v>
       </c>
       <c r="G104" s="5">
-        <v>0.21788565834277929</v>
+        <v>0.17420402229739312</v>
       </c>
       <c r="H104" s="5">
-        <v>0.16509402042520965</v>
+        <v>0.11077120455255957</v>
       </c>
       <c r="J104" s="5">
-        <v>0.54665355206871447</v>
+        <v>0.63933753682204442</v>
       </c>
       <c r="K104" s="5">
-        <v>0.44925956926247845</v>
+        <v>0.34715056429631774</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -27926,19 +27926,19 @@
         <v>44486</v>
       </c>
       <c r="F105" s="5">
-        <v>0.48876077308823512</v>
+        <v>0.19480270436288175</v>
       </c>
       <c r="G105" s="5">
-        <v>0.31415390937329762</v>
+        <v>0.27887034217263673</v>
       </c>
       <c r="H105" s="5">
-        <v>0.19053600438419396</v>
+        <v>0.47232268912279435</v>
       </c>
       <c r="J105" s="5">
-        <v>0.26330796575852378</v>
+        <v>0.34687507211065299</v>
       </c>
       <c r="K105" s="5">
-        <v>0.73648444216935749</v>
+        <v>0.65255762982492305</v>
       </c>
       <c r="L105" t="s">
         <v>20</v>
@@ -27976,19 +27976,19 @@
         <v>44486</v>
       </c>
       <c r="F106" s="5">
-        <v>0.29424222426047403</v>
+        <v>0.38385642974157858</v>
       </c>
       <c r="G106" s="5">
-        <v>0.20422915562076605</v>
+        <v>0.21521710199459371</v>
       </c>
       <c r="H106" s="5">
-        <v>0.45666998569732092</v>
+        <v>0.3703435440192564</v>
       </c>
       <c r="J106" s="5">
-        <v>0.74018125619072683</v>
+        <v>0.72534012596934039</v>
       </c>
       <c r="K106" s="5">
-        <v>0.25007533091841061</v>
+        <v>0.26770119968717559</v>
       </c>
       <c r="L106" t="s">
         <v>11</v>
@@ -28026,22 +28026,22 @@
         <v>44486</v>
       </c>
       <c r="F107" s="5">
-        <v>0.56357103939439401</v>
+        <v>0.80156209826566005</v>
       </c>
       <c r="G107" s="5">
-        <v>0.27955049221434902</v>
+        <v>0.13455188864861353</v>
       </c>
       <c r="H107" s="5">
-        <v>0.15245591821122034</v>
+        <v>5.3712011012291179E-2</v>
       </c>
       <c r="J107" s="5">
-        <v>0.31160893046578841</v>
+        <v>0.6143807932998897</v>
       </c>
       <c r="K107" s="5">
-        <v>0.68782340990681146</v>
+        <v>0.36490629725793783</v>
       </c>
       <c r="L107" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N107" s="5">
         <v>0.56357103939439401</v>
@@ -28076,22 +28076,22 @@
         <v>44486</v>
       </c>
       <c r="F108" s="5">
-        <v>0.73986736939514675</v>
+        <v>0.29827543064286605</v>
       </c>
       <c r="G108" s="5">
-        <v>0.16443474940212557</v>
+        <v>0.27829801161479906</v>
       </c>
       <c r="H108" s="5">
-        <v>8.8836306547268748E-2</v>
+        <v>0.38805544924051855</v>
       </c>
       <c r="J108" s="5">
-        <v>0.61244929330591447</v>
+        <v>0.4132880371627396</v>
       </c>
       <c r="K108" s="5">
-        <v>0.37382355805946388</v>
+        <v>0.58620853610898838</v>
       </c>
       <c r="L108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N108" s="5">
         <v>0.73986736939514675</v>
@@ -28126,22 +28126,22 @@
         <v>44486</v>
       </c>
       <c r="F109" s="5">
-        <v>2.0197143673851326E-2</v>
+        <v>0.49375610833650702</v>
       </c>
       <c r="G109" s="5">
-        <v>0.14345143180362241</v>
+        <v>0.25977551437670093</v>
       </c>
       <c r="H109" s="5">
-        <v>0.66931208551414834</v>
+        <v>0.23359311114078318</v>
       </c>
       <c r="J109" s="5">
-        <v>0.38066102828662984</v>
+        <v>0.4565488177336951</v>
       </c>
       <c r="K109" s="5">
-        <v>0.6137191639123899</v>
+        <v>0.54238861436805919</v>
       </c>
       <c r="L109" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N109" s="5">
         <v>2.0197143673851326E-2</v>
@@ -28176,22 +28176,22 @@
         <v>44486</v>
       </c>
       <c r="F110" s="5">
-        <v>0.13337871946571059</v>
+        <v>0.31080490307259528</v>
       </c>
       <c r="G110" s="5">
-        <v>0.20694373355796677</v>
+        <v>0.28277886857798895</v>
       </c>
       <c r="H110" s="5">
-        <v>0.57174520131999429</v>
+        <v>0.3738916869288772</v>
       </c>
       <c r="J110" s="5">
-        <v>0.50168845714581956</v>
+        <v>0.40147930915395774</v>
       </c>
       <c r="K110" s="5">
-        <v>0.49428122275649311</v>
+        <v>0.59809945577465795</v>
       </c>
       <c r="L110" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N110" s="5">
         <v>0.13337871946571059</v>
@@ -28226,22 +28226,22 @@
         <v>44486</v>
       </c>
       <c r="F111" s="5">
-        <v>0.11543975368895416</v>
+        <v>0.44930090507904491</v>
       </c>
       <c r="G111" s="5">
-        <v>0.16576762185311308</v>
+        <v>0.22640911731128277</v>
       </c>
       <c r="H111" s="5">
-        <v>0.61823952576571528</v>
+        <v>0.30251280977023748</v>
       </c>
       <c r="J111" s="5">
-        <v>0.63504770135025523</v>
+        <v>0.65748487086557039</v>
       </c>
       <c r="K111" s="5">
-        <v>0.35194314347707795</v>
+        <v>0.33834901421649233</v>
       </c>
       <c r="L111" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N111" s="5">
         <v>0.11543975368895416</v>
@@ -28276,22 +28276,22 @@
         <v>44486</v>
       </c>
       <c r="F112" s="5">
-        <v>0.33584199803130399</v>
+        <v>0.28698157885299141</v>
       </c>
       <c r="G112" s="5">
-        <v>0.20021672931095236</v>
+        <v>0.2221626541407774</v>
       </c>
       <c r="H112" s="5">
-        <v>0.42457900840622054</v>
+        <v>0.44590217101782414</v>
       </c>
       <c r="J112" s="5">
-        <v>0.78413429630860332</v>
+        <v>0.64713031637204665</v>
       </c>
       <c r="K112" s="5">
-        <v>0.20254417857141302</v>
+        <v>0.34848891554381883</v>
       </c>
       <c r="L112" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N112" s="5">
         <v>0.33584199803130399</v>
@@ -28326,22 +28326,22 @@
         <v>44486</v>
       </c>
       <c r="F113" s="5">
-        <v>0.28795102945099271</v>
+        <v>0.70902818399379075</v>
       </c>
       <c r="G113" s="5">
-        <v>0.21133374214359762</v>
+        <v>0.17214448912270919</v>
       </c>
       <c r="H113" s="5">
-        <v>0.45531421458079491</v>
+        <v>0.11043723770321408</v>
       </c>
       <c r="J113" s="5">
-        <v>0.70086991546683552</v>
+        <v>0.65113467465304165</v>
       </c>
       <c r="K113" s="5">
-        <v>0.29215616728497185</v>
+        <v>0.33404455162897462</v>
       </c>
       <c r="L113" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N113" s="5">
         <v>0.28795102945099271</v>
@@ -28376,22 +28376,22 @@
         <v>44486</v>
       </c>
       <c r="F114" s="5">
-        <v>0.43543741278453679</v>
+        <v>0.24583017469849464</v>
       </c>
       <c r="G114" s="5">
-        <v>0.18598309077126221</v>
+        <v>0.24907472764542807</v>
       </c>
       <c r="H114" s="5">
-        <v>0.33777100460700504</v>
+        <v>0.454879226642668</v>
       </c>
       <c r="J114" s="5">
-        <v>0.85485132100126471</v>
+        <v>0.49270407469759081</v>
       </c>
       <c r="K114" s="5">
-        <v>0.11143831921117603</v>
+        <v>0.5058147148517449</v>
       </c>
       <c r="L114" t="s">
-        <v>408</v>
+        <v>28</v>
       </c>
       <c r="N114" s="5">
         <v>0.43543741278453679</v>
@@ -28426,22 +28426,22 @@
         <v>44486</v>
       </c>
       <c r="F115" s="5">
-        <v>0.86815410438222174</v>
+        <v>0.42239409277209022</v>
       </c>
       <c r="G115" s="5">
-        <v>8.5252781873053199E-2</v>
+        <v>0.27520889517994646</v>
       </c>
       <c r="H115" s="5">
-        <v>1.8406683727926223E-2</v>
+        <v>0.28377153698555507</v>
       </c>
       <c r="J115" s="5">
-        <v>0.63248408307160764</v>
+        <v>0.42764911450424908</v>
       </c>
       <c r="K115" s="5">
-        <v>0.32590367520292668</v>
+        <v>0.57178208387680773</v>
       </c>
       <c r="L115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N115" s="5">
         <v>0.86815410438222174</v>
@@ -28476,22 +28476,22 @@
         <v>44486</v>
       </c>
       <c r="F116" s="5">
-        <v>0.62579710485793827</v>
+        <v>0.72992122111454016</v>
       </c>
       <c r="G116" s="5">
-        <v>0.31371623934836507</v>
+        <v>0.15785659068725991</v>
       </c>
       <c r="H116" s="5">
-        <v>6.013273309709171E-2</v>
+        <v>9.8965427928443581E-2</v>
       </c>
       <c r="J116" s="5">
-        <v>0.16103727913079477</v>
+        <v>0.70319413375846196</v>
       </c>
       <c r="K116" s="5">
-        <v>0.83873150108384653</v>
+        <v>0.27189926756645588</v>
       </c>
       <c r="L116" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N116" s="5">
         <v>0.62579710485793827</v>
@@ -28526,22 +28526,22 @@
         <v>44486</v>
       </c>
       <c r="F117" s="5">
-        <v>0.56190293487995191</v>
+        <v>0.28788828350288997</v>
       </c>
       <c r="G117" s="5">
-        <v>0.25413859780813736</v>
+        <v>0.2418960130393652</v>
       </c>
       <c r="H117" s="5">
-        <v>0.17682080523792168</v>
+        <v>0.4271368074244698</v>
       </c>
       <c r="J117" s="5">
-        <v>0.41666363416758567</v>
+        <v>0.55493355794525456</v>
       </c>
       <c r="K117" s="5">
-        <v>0.58209812913279102</v>
+        <v>0.44309310210530034</v>
       </c>
       <c r="L117" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N117" s="5">
         <v>0.56190293487995191</v>
@@ -28576,22 +28576,22 @@
         <v>44486</v>
       </c>
       <c r="F118" s="5">
-        <v>0.67358013705416664</v>
+        <v>0.34057142606960544</v>
       </c>
       <c r="G118" s="5">
-        <v>0.1824690964955219</v>
+        <v>0.3779289382112288</v>
       </c>
       <c r="H118" s="5">
-        <v>0.13474468122787037</v>
+        <v>0.26980366063791683</v>
       </c>
       <c r="J118" s="5">
-        <v>0.6660052676522118</v>
+        <v>0.17311475249269076</v>
       </c>
       <c r="K118" s="5">
-        <v>0.32063824582995037</v>
+        <v>0.82686351128403768</v>
       </c>
       <c r="L118" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N118" s="5">
         <v>0.67358013705416664</v>
@@ -28626,22 +28626,22 @@
         <v>44486</v>
       </c>
       <c r="F119" s="5">
-        <v>0</v>
+        <v>0.5935604591928676</v>
       </c>
       <c r="G119" s="5">
-        <v>1</v>
+        <v>0.21547523689903045</v>
       </c>
       <c r="H119" s="5">
-        <v>0</v>
+        <v>0.18168598588351764</v>
       </c>
       <c r="J119" s="5">
-        <v>0</v>
+        <v>0.58888790027261706</v>
       </c>
       <c r="K119" s="5">
-        <v>1</v>
+        <v>0.40616457365152164</v>
       </c>
       <c r="L119" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="N119" s="5">
         <v>0</v>
@@ -28676,22 +28676,22 @@
         <v>44486</v>
       </c>
       <c r="F120" s="5">
-        <v>0.53517269352544494</v>
+        <v>0.38221479209771808</v>
       </c>
       <c r="G120" s="5">
-        <v>0.22368777842491669</v>
+        <v>0.24045787226877116</v>
       </c>
       <c r="H120" s="5">
-        <v>0.22767465137411175</v>
+        <v>0.34887547533162377</v>
       </c>
       <c r="J120" s="5">
-        <v>0.61356094423756935</v>
+        <v>0.59360045905067249</v>
       </c>
       <c r="K120" s="5">
-        <v>0.3821796525405044</v>
+        <v>0.40422490624366825</v>
       </c>
       <c r="L120" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N120" s="5">
         <v>0.53517269352544494</v>
@@ -28726,22 +28726,22 @@
         <v>44486</v>
       </c>
       <c r="F121" s="5">
-        <v>0.1461064916176365</v>
+        <v>0.5975372785221198</v>
       </c>
       <c r="G121" s="5">
-        <v>0.4010227990467149</v>
+        <v>0.22855309278858271</v>
       </c>
       <c r="H121" s="5">
-        <v>0.42292994247836041</v>
+        <v>0.16677892178422796</v>
       </c>
       <c r="J121" s="5">
-        <v>0.11784153703550826</v>
+        <v>0.50135766769814738</v>
       </c>
       <c r="K121" s="5">
-        <v>0.88213057076666912</v>
+        <v>0.49583712291658621</v>
       </c>
       <c r="L121" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N121" s="5">
         <v>0.1461064916176365</v>
@@ -28775,23 +28775,23 @@
       <c r="D122" s="4">
         <v>44486</v>
       </c>
-      <c r="F122" s="5">
-        <v>0.28712079798555401</v>
-      </c>
-      <c r="G122" s="5">
-        <v>0.43447541692199737</v>
-      </c>
-      <c r="H122" s="5">
-        <v>0.26902616541544727</v>
-      </c>
-      <c r="J122" s="5">
-        <v>0.10587800132303506</v>
-      </c>
-      <c r="K122" s="5">
-        <v>0.89411750692836922</v>
-      </c>
-      <c r="L122" t="s">
-        <v>20</v>
+      <c r="F122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N122" s="5">
         <v>0.28712079798555401</v>
@@ -28826,22 +28826,22 @@
         <v>44486</v>
       </c>
       <c r="F123" s="5">
-        <v>0.40350815324169048</v>
+        <v>0.51658376431233266</v>
       </c>
       <c r="G123" s="5">
-        <v>0.34950963625138265</v>
+        <v>0.23966517758905312</v>
       </c>
       <c r="H123" s="5">
-        <v>0.2373495628519362</v>
+        <v>0.23057417515807441</v>
       </c>
       <c r="J123" s="5">
-        <v>0.2142508437957604</v>
+        <v>0.53912852598113536</v>
       </c>
       <c r="K123" s="5">
-        <v>0.78568906531961857</v>
+        <v>0.4586295578875611</v>
       </c>
       <c r="L123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N123" s="5">
         <v>0.40350815324169048</v>
@@ -28876,22 +28876,22 @@
         <v>44486</v>
       </c>
       <c r="F124" s="5">
-        <v>7.7856578200658291E-2</v>
+        <v>0.33076747945051055</v>
       </c>
       <c r="G124" s="5">
-        <v>0.18596609274850334</v>
+        <v>0.26155480289384553</v>
       </c>
       <c r="H124" s="5">
-        <v>0.61994992696258144</v>
+        <v>0.37446658782829234</v>
       </c>
       <c r="J124" s="5">
-        <v>0.4444698164535596</v>
+        <v>0.48830305944240393</v>
       </c>
       <c r="K124" s="5">
-        <v>0.55105375680937696</v>
+        <v>0.5107857148185766</v>
       </c>
       <c r="L124" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N124" s="5">
         <v>7.7856578200658291E-2</v>
@@ -28926,22 +28926,22 @@
         <v>44486</v>
       </c>
       <c r="F125" s="5">
-        <v>0.6356047763949676</v>
+        <v>0.75521124461344435</v>
       </c>
       <c r="G125" s="5">
-        <v>0.19305613456276452</v>
+        <v>0.15354230235265823</v>
       </c>
       <c r="H125" s="5">
-        <v>0.16122700401139614</v>
+        <v>8.1640617028971241E-2</v>
       </c>
       <c r="J125" s="5">
-        <v>0.67038025758195841</v>
+        <v>0.65022097328536066</v>
       </c>
       <c r="K125" s="5">
-        <v>0.31852512942540151</v>
+        <v>0.33018307436144767</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N125" s="5">
         <v>0.6356047763949676</v>
@@ -28976,22 +28976,22 @@
         <v>44486</v>
       </c>
       <c r="F126" s="5">
-        <v>0.16470613933655151</v>
+        <v>0.26995030389378738</v>
       </c>
       <c r="G126" s="5">
-        <v>0.53224212878940891</v>
+        <v>0.22432236470555836</v>
       </c>
       <c r="H126" s="5">
-        <v>0.29463693218406056</v>
+        <v>0.45757629271183331</v>
       </c>
       <c r="J126" s="5">
-        <v>4.2193740608185093E-2</v>
+        <v>0.62290302577260026</v>
       </c>
       <c r="K126" s="5">
-        <v>0.95780550420960997</v>
+        <v>0.37321642357964085</v>
       </c>
       <c r="L126" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="N126" s="5">
         <v>0.16470613933655151</v>
@@ -29026,19 +29026,19 @@
         <v>44486</v>
       </c>
       <c r="F127" s="5">
-        <v>0.20959875642968834</v>
+        <v>0.16612677927842712</v>
       </c>
       <c r="G127" s="5">
-        <v>0.23940572403777619</v>
+        <v>0.25097646959947234</v>
       </c>
       <c r="H127" s="5">
-        <v>0.49117080023300658</v>
+        <v>0.51499771594508004</v>
       </c>
       <c r="J127" s="5">
-        <v>0.49466650177257754</v>
+        <v>0.39971018728048924</v>
       </c>
       <c r="K127" s="5">
-        <v>0.50335275895205411</v>
+        <v>0.59903545713090967</v>
       </c>
       <c r="L127" t="s">
         <v>28</v>
@@ -29076,22 +29076,22 @@
         <v>44486</v>
       </c>
       <c r="F128" s="5">
-        <v>0.48403679217065659</v>
+        <v>0.75401927373241151</v>
       </c>
       <c r="G128" s="5">
-        <v>0.29360821361323142</v>
+        <v>0.16086863963872644</v>
       </c>
       <c r="H128" s="5">
-        <v>0.21301289139711693</v>
+        <v>7.8948556265766079E-2</v>
       </c>
       <c r="J128" s="5">
-        <v>0.32857658406710344</v>
+        <v>0.58920282602206864</v>
       </c>
       <c r="K128" s="5">
-        <v>0.67106610100186204</v>
+        <v>0.39794182508910503</v>
       </c>
       <c r="L128" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N128" s="5">
         <v>0.48403679217065659</v>
@@ -29126,22 +29126,22 @@
         <v>44486</v>
       </c>
       <c r="F129" s="5">
-        <v>0.76017192059880634</v>
+        <v>0.53453615055196502</v>
       </c>
       <c r="G129" s="5">
-        <v>0.17894073159274101</v>
+        <v>0.24806663595557207</v>
       </c>
       <c r="H129" s="5">
-        <v>5.8562532113774934E-2</v>
+        <v>0.20705121859961445</v>
       </c>
       <c r="J129" s="5">
-        <v>0.42413685366165604</v>
+        <v>0.47689866213456072</v>
       </c>
       <c r="K129" s="5">
-        <v>0.57115945068171026</v>
+        <v>0.52150809084390026</v>
       </c>
       <c r="L129" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N129" s="5">
         <v>0.76017192059880634</v>
@@ -29176,22 +29176,22 @@
         <v>44486</v>
       </c>
       <c r="F130" s="5">
-        <v>0.38522972715706838</v>
+        <v>0.61821620503674568</v>
       </c>
       <c r="G130" s="5">
-        <v>0.43677188441875914</v>
+        <v>0.25421009138421807</v>
       </c>
       <c r="H130" s="5">
-        <v>0.17488522867751535</v>
+        <v>0.12449579489595637</v>
       </c>
       <c r="J130" s="5">
-        <v>9.5190666413655853E-2</v>
+        <v>0.34219142454413742</v>
       </c>
       <c r="K130" s="5">
-        <v>0.90480048683863268</v>
+        <v>0.65674501491005832</v>
       </c>
       <c r="L130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N130" s="5">
         <v>0.38522972715706838</v>
@@ -29226,22 +29226,22 @@
         <v>44486</v>
       </c>
       <c r="F131" s="5">
-        <v>0.78038360546533903</v>
+        <v>0.31994119175132163</v>
       </c>
       <c r="G131" s="5">
-        <v>0.21861601122222807</v>
+        <v>0.28371516873092006</v>
       </c>
       <c r="H131" s="5">
-        <v>0</v>
+        <v>0.36538891206484636</v>
       </c>
       <c r="J131" s="5">
-        <v>0.19530047735354825</v>
+        <v>0.40043956771287714</v>
       </c>
       <c r="K131" s="5">
-        <v>0.80369913933401882</v>
+        <v>0.59915786477556721</v>
       </c>
       <c r="L131" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N131" s="5">
         <v>0.78038360546533903</v>
@@ -29276,22 +29276,22 @@
         <v>44486</v>
       </c>
       <c r="F132" s="5">
-        <v>0.87564178694631667</v>
+        <v>0.65895194514826039</v>
       </c>
       <c r="G132" s="5">
-        <v>4.1162731526624086E-2</v>
+        <v>0.195324018418364</v>
       </c>
       <c r="H132" s="5">
-        <v>3.3954686565209023E-3</v>
+        <v>0.13871968555935563</v>
       </c>
       <c r="J132" s="5">
-        <v>0.65989061946866256</v>
+        <v>0.60242046073176436</v>
       </c>
       <c r="K132" s="5">
-        <v>0.24981747188468698</v>
+        <v>0.38965262940245543</v>
       </c>
       <c r="L132" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N132" s="5">
         <v>0.87564178694631667</v>
@@ -29326,22 +29326,22 @@
         <v>44486</v>
       </c>
       <c r="F133" s="5">
-        <v>0.68249959383393377</v>
+        <v>0.50463624193328194</v>
       </c>
       <c r="G133" s="5">
-        <v>0.20146894992309683</v>
+        <v>0.2660990472175519</v>
       </c>
       <c r="H133" s="5">
-        <v>0.1120309414802588</v>
+        <v>0.21833501641651681</v>
       </c>
       <c r="J133" s="5">
-        <v>0.50031601606487297</v>
+        <v>0.41954047884684859</v>
       </c>
       <c r="K133" s="5">
-        <v>0.49497306725960932</v>
+        <v>0.57960038187414264</v>
       </c>
       <c r="L133" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N133" s="5">
         <v>0.68249959383393377</v>
@@ -29426,22 +29426,22 @@
         <v>44486</v>
       </c>
       <c r="F135" s="5">
-        <v>0.26834575019491763</v>
+        <v>0.15522623935480476</v>
       </c>
       <c r="G135" s="5">
-        <v>0.22099892836083909</v>
+        <v>0.30741086214181212</v>
       </c>
       <c r="H135" s="5">
-        <v>0.4619611762767793</v>
+        <v>0.4839077733160273</v>
       </c>
       <c r="J135" s="5">
-        <v>0.63734553418472395</v>
+        <v>0.24783675230990382</v>
       </c>
       <c r="K135" s="5">
-        <v>0.35823111387674184</v>
+        <v>0.7518950142467189</v>
       </c>
       <c r="L135" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N135" s="5">
         <v>0.26834575019491763</v>
@@ -29576,22 +29576,22 @@
         <v>44486</v>
       </c>
       <c r="F138" s="5">
-        <v>0.26120278938996294</v>
+        <v>0.35405886994956004</v>
       </c>
       <c r="G138" s="5">
-        <v>0.59027395582648268</v>
+        <v>0.25656482672725672</v>
       </c>
       <c r="H138" s="5">
-        <v>0.14737467180846817</v>
+        <v>0.35891294958885966</v>
       </c>
       <c r="J138" s="5">
-        <v>2.4537169099802712E-2</v>
+        <v>0.51459130173061052</v>
       </c>
       <c r="K138" s="5">
-        <v>0.97546266008538596</v>
+        <v>0.48430419500359528</v>
       </c>
       <c r="L138" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="N138" s="5">
         <v>0.26120278938996294</v>
@@ -29626,22 +29626,22 @@
         <v>44486</v>
       </c>
       <c r="F139" s="5">
-        <v>0.42431916263885133</v>
+        <v>0.57166736006752428</v>
       </c>
       <c r="G139" s="5">
-        <v>0.27816573709302211</v>
+        <v>0.29337302448677494</v>
       </c>
       <c r="H139" s="5">
-        <v>0.27957874871367727</v>
+        <v>0.13210383806534653</v>
       </c>
       <c r="J139" s="5">
-        <v>0.41515481266211923</v>
+        <v>0.25921170347463768</v>
       </c>
       <c r="K139" s="5">
-        <v>0.58433064713248251</v>
+        <v>0.74039790950758233</v>
       </c>
       <c r="L139" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N139" s="5">
         <v>0.42431916263885133</v>
@@ -29675,23 +29675,23 @@
       <c r="D140" s="4">
         <v>44486</v>
       </c>
-      <c r="F140" s="5">
-        <v>0.6059607132652336</v>
-      </c>
-      <c r="G140" s="5">
-        <v>0.3174477010770449</v>
-      </c>
-      <c r="H140" s="5">
-        <v>7.6001431575254255E-2</v>
-      </c>
-      <c r="J140" s="5">
-        <v>0.17003364443128047</v>
-      </c>
-      <c r="K140" s="5">
-        <v>0.82974845942139186</v>
-      </c>
-      <c r="L140" t="s">
-        <v>17</v>
+      <c r="F140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N140" s="5">
         <v>0.6059607132652336</v>
@@ -29776,22 +29776,22 @@
         <v>44486</v>
       </c>
       <c r="F142" s="5">
-        <v>0.48018554948326203</v>
+        <v>0.53310068727400062</v>
       </c>
       <c r="G142" s="5">
-        <v>0.25384269035818918</v>
+        <v>0.27854007859662994</v>
       </c>
       <c r="H142" s="5">
-        <v>0.25086388210196503</v>
+        <v>0.18154341268262916</v>
       </c>
       <c r="J142" s="5">
-        <v>0.49457936293813859</v>
+        <v>0.34459946043392681</v>
       </c>
       <c r="K142" s="5">
-        <v>0.50410791677031375</v>
+        <v>0.65481248351193155</v>
       </c>
       <c r="L142" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N142" s="5">
         <v>0.48018554948326203</v>
@@ -29826,22 +29826,22 @@
         <v>44486</v>
       </c>
       <c r="F143" s="5">
-        <v>0.37759160787533474</v>
+        <v>0.6189614481990634</v>
       </c>
       <c r="G143" s="5">
-        <v>0.3792981226719877</v>
+        <v>0.27248333171602912</v>
       </c>
       <c r="H143" s="5">
-        <v>0.23479687909609012</v>
+        <v>0.10669540649784655</v>
       </c>
       <c r="J143" s="5">
-        <v>0.16634647634230942</v>
+        <v>0.2734744139956492</v>
       </c>
       <c r="K143" s="5">
-        <v>0.83362789266302306</v>
+        <v>0.72589792554450083</v>
       </c>
       <c r="L143" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N143" s="5">
         <v>0.37759160787533474</v>
@@ -29876,22 +29876,22 @@
         <v>44486</v>
       </c>
       <c r="F144" s="5">
-        <v>0.62143180572491019</v>
+        <v>0.34463594399641778</v>
       </c>
       <c r="G144" s="5">
-        <v>0.37849849519541306</v>
+        <v>0.33463246486981502</v>
       </c>
       <c r="H144" s="5">
-        <v>0</v>
+        <v>0.30277409995388299</v>
       </c>
       <c r="J144" s="5">
-        <v>7.5072536408493165E-2</v>
+        <v>0.25576613612181287</v>
       </c>
       <c r="K144" s="5">
-        <v>0.9248577645118301</v>
+        <v>0.74416052015535283</v>
       </c>
       <c r="L144" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N144" s="5">
         <v>0.62143180572491019</v>
@@ -29975,23 +29975,23 @@
       <c r="D146" s="4">
         <v>44486</v>
       </c>
-      <c r="F146" s="5">
-        <v>0.26116647275229421</v>
-      </c>
-      <c r="G146" s="5">
-        <v>0.47652241561627945</v>
-      </c>
-      <c r="H146" s="5">
-        <v>0.25522889309105162</v>
-      </c>
-      <c r="J146" s="5">
-        <v>7.2964391106712781E-2</v>
-      </c>
-      <c r="K146" s="5">
-        <v>0.927034083484232</v>
-      </c>
-      <c r="L146" t="s">
-        <v>133</v>
+      <c r="F146" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G146" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H146" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J146" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K146" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N146" s="5">
         <v>0.26116647275229421</v>
@@ -30026,22 +30026,22 @@
         <v>44486</v>
       </c>
       <c r="F147" s="5">
-        <v>0.52909340854477716</v>
+        <v>0.39954478542678257</v>
       </c>
       <c r="G147" s="5">
-        <v>0.24608102853547964</v>
+        <v>0.26220875511320135</v>
       </c>
       <c r="H147" s="5">
-        <v>0.21370351923821521</v>
+        <v>0.31480496627962329</v>
       </c>
       <c r="J147" s="5">
-        <v>0.49269512533823784</v>
+        <v>0.48875726528972668</v>
       </c>
       <c r="K147" s="5">
-        <v>0.50557957686397226</v>
+        <v>0.51034478494023316</v>
       </c>
       <c r="L147" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N147" s="5">
         <v>0.52909340854477716</v>
@@ -30076,22 +30076,22 @@
         <v>44486</v>
       </c>
       <c r="F148" s="5">
-        <v>0.30102529871733541</v>
+        <v>0.68547509510808524</v>
       </c>
       <c r="G148" s="5">
-        <v>0.40540454443177687</v>
+        <v>0.19230774018644642</v>
       </c>
       <c r="H148" s="5">
-        <v>0.2818769360657446</v>
+        <v>0.11703908303083209</v>
       </c>
       <c r="J148" s="5">
-        <v>0.13675808116956914</v>
+        <v>0.55794830021910125</v>
       </c>
       <c r="K148" s="5">
-        <v>0.86323224528597553</v>
+        <v>0.43511471632637944</v>
       </c>
       <c r="L148" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N148" s="5">
         <v>0.30102529871733541</v>
@@ -30126,22 +30126,22 @@
         <v>44486</v>
       </c>
       <c r="F149" s="5">
-        <v>0.27287945328766677</v>
+        <v>0.1505987111803066</v>
       </c>
       <c r="G149" s="5">
-        <v>0.3195428697089458</v>
+        <v>0.21534491505546738</v>
       </c>
       <c r="H149" s="5">
-        <v>0.37712450364805372</v>
+        <v>0.55360855088467142</v>
       </c>
       <c r="J149" s="5">
-        <v>0.28343478654124421</v>
+        <v>0.50226057875044616</v>
       </c>
       <c r="K149" s="5">
-        <v>0.71643108135716493</v>
+        <v>0.49427341903619071</v>
       </c>
       <c r="L149" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N149" s="5">
         <v>0.27287945328766677</v>
@@ -30176,22 +30176,22 @@
         <v>44486</v>
       </c>
       <c r="F150" s="5">
-        <v>0.51768935826493123</v>
+        <v>0.66364712239544743</v>
       </c>
       <c r="G150" s="5">
-        <v>0.29551579519085569</v>
+        <v>0.2141665850590217</v>
       </c>
       <c r="H150" s="5">
-        <v>0.18055949349174905</v>
+        <v>0.11838698634062816</v>
       </c>
       <c r="J150" s="5">
-        <v>0.29880751864764743</v>
+        <v>0.46313762302391259</v>
       </c>
       <c r="K150" s="5">
-        <v>0.70083290269343246</v>
+        <v>0.53356535949861694</v>
       </c>
       <c r="L150" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N150" s="5">
         <v>0.51768935826493123</v>
@@ -30226,22 +30226,22 @@
         <v>44486</v>
       </c>
       <c r="F151" s="5">
-        <v>0.77284923488391477</v>
+        <v>0.40750275999600505</v>
       </c>
       <c r="G151" s="5">
-        <v>0.22627312311750505</v>
+        <v>0.37779688536069223</v>
       </c>
       <c r="H151" s="5">
-        <v>0</v>
+        <v>0.20847475479345323</v>
       </c>
       <c r="J151" s="5">
-        <v>0.18677263978853273</v>
+        <v>0.1624852225691453</v>
       </c>
       <c r="K151" s="5">
-        <v>0.81234971821288715</v>
+        <v>0.83748241178369465</v>
       </c>
       <c r="L151" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N151" s="5">
         <v>0.77284923488391477</v>
@@ -30275,23 +30275,23 @@
       <c r="D152" s="4">
         <v>44486</v>
       </c>
-      <c r="F152" s="5">
-        <v>0.76731579883775558</v>
-      </c>
-      <c r="G152" s="5">
-        <v>0.20147280279332588</v>
-      </c>
-      <c r="H152" s="5">
-        <v>3.0056799984208633E-2</v>
-      </c>
-      <c r="J152" s="5">
-        <v>0.28288837419280471</v>
-      </c>
-      <c r="K152" s="5">
-        <v>0.71523524647496128</v>
-      </c>
-      <c r="L152" t="s">
-        <v>37</v>
+      <c r="F152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N152" s="5">
         <v>0.76731579883775558</v>
@@ -30326,22 +30326,22 @@
         <v>44486</v>
       </c>
       <c r="F153" s="5">
-        <v>0.51276251392047689</v>
+        <v>0.20175416458831641</v>
       </c>
       <c r="G153" s="5">
-        <v>0.34152118987200841</v>
+        <v>0.19252756099938451</v>
       </c>
       <c r="H153" s="5">
-        <v>0.14295461602573495</v>
+        <v>0.53943343647901432</v>
       </c>
       <c r="J153" s="5">
-        <v>0.18562405186257439</v>
+        <v>0.69194212864819693</v>
       </c>
       <c r="K153" s="5">
-        <v>0.81425838908082449</v>
+        <v>0.29759569980498846</v>
       </c>
       <c r="L153" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N153" s="5">
         <v>0.51276251392047689</v>
@@ -30375,23 +30375,23 @@
       <c r="D154" s="4">
         <v>44486</v>
       </c>
-      <c r="F154" s="5">
-        <v>0.72982407479720601</v>
-      </c>
-      <c r="G154" s="5">
-        <v>0.17791329967853381</v>
-      </c>
-      <c r="H154" s="5">
-        <v>8.8084107712461057E-2</v>
-      </c>
-      <c r="J154" s="5">
-        <v>0.5347663755143951</v>
-      </c>
-      <c r="K154" s="5">
-        <v>0.45740772225126197</v>
-      </c>
-      <c r="L154" t="s">
-        <v>16</v>
+      <c r="F154" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G154" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H154" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J154" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K154" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L154" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N154" s="5">
         <v>0.72982407479720601</v>
@@ -30426,22 +30426,22 @@
         <v>44487</v>
       </c>
       <c r="F155" s="5">
-        <v>0.79608684723976464</v>
+        <v>0.55145772018961536</v>
       </c>
       <c r="G155" s="5">
-        <v>0.1473863400973793</v>
+        <v>0.24476623572580311</v>
       </c>
       <c r="H155" s="5">
-        <v>5.1227863961525323E-2</v>
+        <v>0.1945980762483715</v>
       </c>
       <c r="J155" s="5">
-        <v>0.52349321784277547</v>
+        <v>0.47512760529351655</v>
       </c>
       <c r="K155" s="5">
-        <v>0.46547285331350696</v>
+        <v>0.52312089801646044</v>
       </c>
       <c r="L155" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N155" s="5">
         <v>0.79608684723976464</v>
@@ -30460,6 +30460,506 @@
       </c>
       <c r="T155" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>0.5975372785221198</v>
+      </c>
+      <c r="G156">
+        <v>0.22855309278858271</v>
+      </c>
+      <c r="H156">
+        <v>0.16677892178422796</v>
+      </c>
+      <c r="J156">
+        <v>0.50135766769814738</v>
+      </c>
+      <c r="K156">
+        <v>0.49583712291658621</v>
+      </c>
+      <c r="L156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0.28712079798555401</v>
+      </c>
+      <c r="G157">
+        <v>0.43447541692199737</v>
+      </c>
+      <c r="H157">
+        <v>0.26902616541544727</v>
+      </c>
+      <c r="J157">
+        <v>0.10587800132303506</v>
+      </c>
+      <c r="K157">
+        <v>0.89411750692836922</v>
+      </c>
+      <c r="L157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>0.38221479209771808</v>
+      </c>
+      <c r="G158">
+        <v>0.24045787226877116</v>
+      </c>
+      <c r="H158">
+        <v>0.34887547533162377</v>
+      </c>
+      <c r="J158">
+        <v>0.59360045905067249</v>
+      </c>
+      <c r="K158">
+        <v>0.40422490624366825</v>
+      </c>
+      <c r="L158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>0.51658376431233266</v>
+      </c>
+      <c r="G159">
+        <v>0.23966517758905312</v>
+      </c>
+      <c r="H159">
+        <v>0.23057417515807441</v>
+      </c>
+      <c r="J159">
+        <v>0.53912852598113536</v>
+      </c>
+      <c r="K159">
+        <v>0.4586295578875611</v>
+      </c>
+      <c r="L159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>0.65895194514826039</v>
+      </c>
+      <c r="G160">
+        <v>0.195324018418364</v>
+      </c>
+      <c r="H160">
+        <v>0.13871968555935563</v>
+      </c>
+      <c r="J160">
+        <v>0.60242046073176436</v>
+      </c>
+      <c r="K160">
+        <v>0.38965262940245543</v>
+      </c>
+      <c r="L160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>0.26995030389378738</v>
+      </c>
+      <c r="G161">
+        <v>0.22432236470555836</v>
+      </c>
+      <c r="H161">
+        <v>0.45757629271183331</v>
+      </c>
+      <c r="J161">
+        <v>0.62290302577260026</v>
+      </c>
+      <c r="K161">
+        <v>0.37321642357964085</v>
+      </c>
+      <c r="L161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>0.50463624193328194</v>
+      </c>
+      <c r="G162">
+        <v>0.2660990472175519</v>
+      </c>
+      <c r="H162">
+        <v>0.21833501641651681</v>
+      </c>
+      <c r="J162">
+        <v>0.41954047884684859</v>
+      </c>
+      <c r="K162">
+        <v>0.57960038187414264</v>
+      </c>
+      <c r="L162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0.75521124461344435</v>
+      </c>
+      <c r="G163">
+        <v>0.15354230235265823</v>
+      </c>
+      <c r="H163">
+        <v>8.1640617028971241E-2</v>
+      </c>
+      <c r="J163">
+        <v>0.65022097328536066</v>
+      </c>
+      <c r="K163">
+        <v>0.33018307436144767</v>
+      </c>
+      <c r="L163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>0.5031093798122791</v>
+      </c>
+      <c r="G164">
+        <v>0.31322954679287429</v>
+      </c>
+      <c r="H164">
+        <v>0.17810036963875953</v>
+      </c>
+      <c r="J164">
+        <v>0.25700688360089935</v>
+      </c>
+      <c r="K164">
+        <v>0.74277250712845322</v>
+      </c>
+      <c r="L164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>0.6189614481990634</v>
+      </c>
+      <c r="G165">
+        <v>0.27248333171602912</v>
+      </c>
+      <c r="H165">
+        <v>0.10669540649784655</v>
+      </c>
+      <c r="J165">
+        <v>0.2734744139956492</v>
+      </c>
+      <c r="K165">
+        <v>0.72589792554450083</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>0.6059607132652336</v>
+      </c>
+      <c r="G166">
+        <v>0.3174477010770449</v>
+      </c>
+      <c r="H166">
+        <v>7.6001431575254255E-2</v>
+      </c>
+      <c r="J166">
+        <v>0.17003364443128047</v>
+      </c>
+      <c r="K166">
+        <v>0.82974845942139186</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>0.21322310206847891</v>
+      </c>
+      <c r="G167">
+        <v>0.34912156573509728</v>
+      </c>
+      <c r="H167">
+        <v>0.40520987738572928</v>
+      </c>
+      <c r="J167">
+        <v>0.204451667022918</v>
+      </c>
+      <c r="K167">
+        <v>0.79547580690178799</v>
+      </c>
+      <c r="L167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>0.35405886994956004</v>
+      </c>
+      <c r="G168">
+        <v>0.25656482672725672</v>
+      </c>
+      <c r="H168">
+        <v>0.35891294958885966</v>
+      </c>
+      <c r="J168">
+        <v>0.51459130173061052</v>
+      </c>
+      <c r="K168">
+        <v>0.48430419500359528</v>
+      </c>
+      <c r="L168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>0.39954478542678257</v>
+      </c>
+      <c r="G169">
+        <v>0.26220875511320135</v>
+      </c>
+      <c r="H169">
+        <v>0.31480496627962329</v>
+      </c>
+      <c r="J169">
+        <v>0.48875726528972668</v>
+      </c>
+      <c r="K169">
+        <v>0.51034478494023316</v>
+      </c>
+      <c r="L169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>0.72982407479720601</v>
+      </c>
+      <c r="G170">
+        <v>0.17791329967853381</v>
+      </c>
+      <c r="H170">
+        <v>8.8084107712461057E-2</v>
+      </c>
+      <c r="J170">
+        <v>0.5347663755143951</v>
+      </c>
+      <c r="K170">
+        <v>0.45740772225126197</v>
+      </c>
+      <c r="L170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>0.68547509510808524</v>
+      </c>
+      <c r="G171">
+        <v>0.19230774018644642</v>
+      </c>
+      <c r="H171">
+        <v>0.11703908303083209</v>
+      </c>
+      <c r="J171">
+        <v>0.55794830021910125</v>
+      </c>
+      <c r="K171">
+        <v>0.43511471632637944</v>
+      </c>
+      <c r="L171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>0.1505987111803066</v>
+      </c>
+      <c r="G172">
+        <v>0.21534491505546738</v>
+      </c>
+      <c r="H172">
+        <v>0.55360855088467142</v>
+      </c>
+      <c r="J172">
+        <v>0.50226057875044616</v>
+      </c>
+      <c r="K172">
+        <v>0.49427341903619071</v>
+      </c>
+      <c r="L172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>0.55145772018961536</v>
+      </c>
+      <c r="G173">
+        <v>0.24476623572580311</v>
+      </c>
+      <c r="H173">
+        <v>0.1945980762483715</v>
+      </c>
+      <c r="J173">
+        <v>0.47512760529351655</v>
+      </c>
+      <c r="K173">
+        <v>0.52312089801646044</v>
+      </c>
+      <c r="L173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>0.37923946433867717</v>
+      </c>
+      <c r="G174">
+        <v>0.29403133872633819</v>
+      </c>
+      <c r="H174">
+        <v>0.30586958254564717</v>
+      </c>
+      <c r="J174">
+        <v>0.36733918097014734</v>
+      </c>
+      <c r="K174">
+        <v>0.6323822697694782</v>
+      </c>
+      <c r="L174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>0.10427606587729879</v>
+      </c>
+      <c r="G175">
+        <v>0.2607713465025146</v>
+      </c>
+      <c r="H175">
+        <v>0.55462644071996647</v>
+      </c>
+      <c r="J175">
+        <v>0.29112893350182112</v>
+      </c>
+      <c r="K175">
+        <v>0.70806451097710932</v>
+      </c>
+      <c r="L175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>0.5935604591928676</v>
+      </c>
+      <c r="G176">
+        <v>0.21547523689903045</v>
+      </c>
+      <c r="H176">
+        <v>0.18168598588351764</v>
+      </c>
+      <c r="J176">
+        <v>0.58888790027261706</v>
+      </c>
+      <c r="K176">
+        <v>0.40616457365152164</v>
+      </c>
+      <c r="L176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>0.33076747945051055</v>
+      </c>
+      <c r="G177">
+        <v>0.26155480289384553</v>
+      </c>
+      <c r="H177">
+        <v>0.37446658782829234</v>
+      </c>
+      <c r="J177">
+        <v>0.48830305944240393</v>
+      </c>
+      <c r="K177">
+        <v>0.5107857148185766</v>
+      </c>
+      <c r="L177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>0.75401927373241151</v>
+      </c>
+      <c r="G178">
+        <v>0.16086863963872644</v>
+      </c>
+      <c r="H178">
+        <v>7.8948556265766079E-2</v>
+      </c>
+      <c r="J178">
+        <v>0.58920282602206864</v>
+      </c>
+      <c r="K178">
+        <v>0.39794182508910503</v>
+      </c>
+      <c r="L178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>0.66364712239544743</v>
+      </c>
+      <c r="G179">
+        <v>0.2141665850590217</v>
+      </c>
+      <c r="H179">
+        <v>0.11838698634062816</v>
+      </c>
+      <c r="J179">
+        <v>0.46313762302391259</v>
+      </c>
+      <c r="K179">
+        <v>0.53356535949861694</v>
+      </c>
+      <c r="L179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>0.49164383423605573</v>
+      </c>
+      <c r="G180">
+        <v>0.25387675147930172</v>
+      </c>
+      <c r="H180">
+        <v>0.24059392935896284</v>
+      </c>
+      <c r="J180">
+        <v>0.48627218283396079</v>
+      </c>
+      <c r="K180">
+        <v>0.51241327434104966</v>
+      </c>
+      <c r="L180" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
     <sheet name="2909-1005" sheetId="2" r:id="rId2"/>
     <sheet name="1008-1010" sheetId="3" r:id="rId3"/>
     <sheet name="1510-1810" sheetId="4" r:id="rId4"/>
+    <sheet name="1910" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="419">
   <si>
     <t>Div</t>
   </si>
@@ -1266,6 +1267,30 @@
   </si>
   <si>
     <t>3-3</t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>20/10/2021</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
   </si>
 </sst>
 </file>
@@ -22702,11 +22727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30965,4 +30990,2421 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.22843916556835359</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.371913850047427</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.37433676148291128</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.17372878471465458</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.82623638550321532</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5">
+        <v>9.1480772448390577E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.31698342571997645</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.52898686091730174</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.1822713690375585</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.81750811756908914</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.36262182880594818</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.34952974007208421</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.27428474277531795</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.22187725266443017</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.77807294517012204</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.38311525192033707</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.3908273012209813</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.21935461078679888</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.14830348584835398</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.85167579862906384</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.34556167844224411</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.26353905745234757</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.36022353615949626</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.48306063396825721</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.51609961842013241</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.55410008034383729</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.23845756807253873</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.19771911594333227</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.50566535749187036</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.49212833641130904</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.19548285244204233</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.33375858131742719</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.43177758503864638</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.22357453052460063</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.77630510306367495</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.52040698424791809</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.27277191744044627</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.19823571744272861</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.37826914834093611</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.62103330795092115</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.2195150830111765</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.2448760856684622</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.47903350101170361</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.4841738295810713</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.51415250749934949</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.10936889981958393</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.52298244941608729</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.35414387252344576</v>
+      </c>
+      <c r="R6" s="5">
+        <v>4.1359320348368804E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.95863865138169935</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.68705132587435835</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.19383327737002173</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.11433750853024348</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.54237673911374118</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.45128608364198514</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.3385223309881123</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.29380471904995537</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.34134693417710782</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.36895415192138176</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.63076909579622065</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.45491195760052516</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.25114356603172944</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.27568449427566494</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.52272199708956246</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.4758371807551226</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.44061568639780824</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.2682286886812163</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.27362934036142311</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.44998954969170141</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.54926212422975695</v>
+      </c>
+      <c r="T8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.49864409541643251</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.23106814959392652</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.25421876260766857</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.60290684553275298</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.39381814434419865</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.3769707571699874</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.25396510570693853</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.34147893226006854</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.52809933881501503</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.47066879104423587</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.1660983485526222</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.2381044470172195</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.52467929707830085</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.44273514318683305</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.55542335130740439</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.43984927629500303</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.26760215745048832</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.27484090682012446</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.45303229448917653</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.54620306167739208</v>
+      </c>
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.44997226179233479</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.31330624865441142</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.2267215905057948</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.28586645620831563</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.71394629251778996</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.64638898725418958</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.24728315474486337</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.10422965055746543</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.32848721706393202</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.67034526752509993</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.42593731430760512</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.25156957436047728</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.30089336551558837</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.53225877042919101</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.46634827049084759</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.67812659620958116</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.23419522996184644</v>
+      </c>
+      <c r="P12" s="5">
+        <v>8.6136022238912618E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.32991342273457486</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.66862361670117443</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.51744029182706897</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.21716073781669704</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.24925094414796709</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.67067472143129814</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.32331441639512748</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.45744761782419902</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.25651076312477433</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.26878561057364725</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.49526462024693219</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.50356267605009197</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.54712899498008427</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.27315012189969995</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.17346012495538088</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.35179906100106861</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.64751159241710421</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.74010514307741704</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.19953369310537095</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5.8876756216713254E-2</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.36078003432909772</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.63649163456947078</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.21717527291118191</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.20547466950747173</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.51591631714519914</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.65344440742825893</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.33967539409468761</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.46995624255985841</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.28377725875408655</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.23423000668043026</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.37213383371082731</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.62740001468445927</v>
+      </c>
+      <c r="T15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.44836166798430388</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.31123072701670584</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.22998098389058597</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.29253963988092629</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.70726331008276988</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.70730713100009945</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.19174403198478895</v>
+      </c>
+      <c r="P16" s="5">
+        <v>9.735538780304491E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.50100564287913174</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.49348500792961275</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.39950607713487157</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.2285392289686928</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.34462453296934903</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.65553578619077602</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.34072916569433542</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.4423206828297721</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.2823176751990385</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.26014029204436928</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.39191149780148876</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.60762611639861397</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.27167353008288653</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.23577089853998459</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.44573212644500232</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.57105151500318718</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.42647359011017183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.52677853439674327</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.26850351695395375</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.19619147466168879</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.39006917877769737</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.60913214176129293</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.53141978656748645</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.24017338223163287</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.21675466383418529</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.52176079989615709</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.47608414218905148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.77610585673812249</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.1458078813926153</v>
+      </c>
+      <c r="P19" s="5">
+        <v>6.8614019228104506E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.6321480388399181</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.34810075802789997</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.28191170103431212</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.3399125489365728</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.35333808116660925</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.23998906554046884</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.75994256908483149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.83196923926996347</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.13379545392110673</v>
+      </c>
+      <c r="P20" s="5">
+        <v>2.867185538091049E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.45980917616336048</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.53081063205648116</v>
+      </c>
+      <c r="T20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.62550438485263937</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.23531852635998038</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.1349402881994099</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.41825820806784053</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.57982740119223197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.22188711771511735</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.3660725016885531</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.38463718314777773</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.18059106413783702</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.81936608692796487</v>
+      </c>
+      <c r="T21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.33495419103605817</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.24824829567137588</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.38237920975506379</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.54811759995771958</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.450337150340966</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.3969453699153957</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.28983317203887815</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.29385822929780364</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.37894252714203186</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.62072791317067944</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.2983180513207328</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.28465701104949881</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.38293087155463684</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.3913072051353379</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.60829094900139791</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.39440570983693313</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.52350066340051449</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8.1815426133974162E-2</v>
+      </c>
+      <c r="R23" s="5">
+        <v>3.8357956140677336E-2</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.96163934322842792</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.34728535182058801</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.28000287022556436</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.34506290635842862</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.41798435843563486</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.58156429346941962</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.19834380231562859</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.481293397458606</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.30920529224016952</v>
+      </c>
+      <c r="R24" s="5">
+        <v>6.7790612582234011E-2</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.93220728660565388</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.37789480638655393</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.23644255671682607</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.35623724516627375</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.6137133416575441</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.38370026913684829</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.23332008679590222</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.24605012838431234</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.46729049618832386</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.49344553888463072</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.50492175682163221</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.4482519754778036</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.3305980678505539</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.21312239318590442</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.24144065825323396</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.75844043075877166</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.77249054231675929</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.16727025198663056</v>
+      </c>
+      <c r="P26" s="5">
+        <v>5.7138645652350252E-2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.46246628300686227</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.531052930890342</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.2900448436191887</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.42645830688272263</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.27344738142450692</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.11363186721742644</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.88636259994503053</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.61117420729049654</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.26238016887324622</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.12357502650215281</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.31928481243632861</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.67986291003092592</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.25506718462553668</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.23133339791080773</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.46294497692361064</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.57693189625297403</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.42019760266306772</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.37015411313495461</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.36042868651367699</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.25814396469151457</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.19965877505259594</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.80030263127754442</v>
+      </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
+        <v>411</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.62365322586633132</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.22596367973566744</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.14503824225193554</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.47244882128052873</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.52482674670365581</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.60689789705015951</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.22997447745306798</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.15693585160593751</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.47813656610617017</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.51931825016468203</v>
+      </c>
+      <c r="T29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.79899342564308529</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.12944817693882943</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5.5644425072547264E-2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.67073185667104696</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.29827758022987455</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.27970280509473988</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.24108241376351644</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.43452368519503959</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.55309350373567201</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.44487864112128833</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.31814184496995745</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.32371979675247287</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.33486802076004041</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.2814306287489155</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.71846551353556665</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.58433069476106958</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.21096662288319168</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.19380307861055113</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.63303451444725034</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.36057796526052999</v>
+      </c>
+      <c r="T31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.31263295915398259</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.35203251955296433</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.31665762488647387</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.21897494061805328</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.78098160971530661</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.73936280240269592</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.18248484224662559</v>
+      </c>
+      <c r="P32" s="5">
+        <v>7.5299898095024728E-2</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.46856175173721332</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.52596694848913716</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" t="s">
+        <v>411</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.57722543853073327</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.28987667872291289</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.13010113855785818</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.26430550122352403</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.73526875514951195</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.51913051360364659</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.25497779483996247</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.21494048157859089</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.45789805755526053</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.54084333146597485</v>
+      </c>
+      <c r="T33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="5">
+        <v>9.2264911759641757E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.27296075625410143</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.55614651227462564</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.2513636326127926</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.74805302518378303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.81211579463683303</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.11410642533638957</v>
+      </c>
+      <c r="P34" s="5">
+        <v>4.3642941337130273E-2</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.7121560253185063</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.23533444629836908</v>
+      </c>
+      <c r="T34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.40039810693972783</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.32614121105064869</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.260327380736118</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.26844310891949741</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.73144781727126906</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.43616559172575181</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.25321505051658094</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.29045839699028297</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.52075055211485144</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.477936543566439</v>
+      </c>
+      <c r="T35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>413</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.46032948054570844</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.34721704738647213</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.18705305201649222</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.19981042757358516</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.80010455687243764</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.60656883438573928</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.27221055775265313</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.11877418147814184</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.28940645816939825</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.70994098551468987</v>
+      </c>
+      <c r="T36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.36903239545694255</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.26927409740489483</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.33526667156751139</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.4609671971493049</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.53835928867045713</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.66800858325606494</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.22289110565951376</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.10636768727088841</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.40425806375380402</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.59344537074514492</v>
+      </c>
+      <c r="T37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>413</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.46050315192819785</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.29504024834635378</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.23302385316501917</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.33733526660552421</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.66234057228310517</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.61171686396648339</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.25680629205007766</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.12822029886376923</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.34060831434104155</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.65838706256956381</v>
+      </c>
+      <c r="T38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>413</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.65223887852647822</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.23258772675552816</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.11235080636391201</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.38502237299553232</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.61316054405166209</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.24420893795979193</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.44401643488899056</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.29998307639683708</v>
+      </c>
+      <c r="R39" s="5">
+        <v>9.646064137621628E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.90353539740279765</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>413</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.30050341942121245</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.29017311811391738</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.37669798754679035</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.37376775327628059</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.62590213832701636</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.5642967814185269</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.21242756148757136</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.21075544461130563</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.65099953758937901</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.34247235386252239</v>
+      </c>
+      <c r="T40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" t="s">
+        <v>414</v>
+      </c>
+      <c r="D41" t="s">
+        <v>413</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.71344802636087423</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.21369479711066391</v>
+      </c>
+      <c r="H41" s="5">
+        <v>7.1412602467740685E-2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.35309482870708442</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.64472813289561015</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.71344802636087423</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.21369479711066391</v>
+      </c>
+      <c r="P41" s="5">
+        <v>7.1412602467740685E-2</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.35309482870708442</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.64472813289561015</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" t="s">
+        <v>413</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.69634101214161948</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.20158638669169066</v>
+      </c>
+      <c r="H42" s="5">
+        <v>9.8974595456204989E-2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.46412864172730406</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.53180091010191666</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.69634101214161948</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.20158638669169066</v>
+      </c>
+      <c r="P42" s="5">
+        <v>9.8974595456204989E-2</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.46412864172730406</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.53180091010191666</v>
+      </c>
+      <c r="T42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D43" t="s">
+        <v>413</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.27619711960974119</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.31957178500068179</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.37427168345158107</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.28427402379263966</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.71559351765840773</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.12342012376979312</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.21260592608417919</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.5736878310338831</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.45995111014513534</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.53687667460848054</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.52562717766651368</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.32030449287070267</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.1505656308965552</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.22413178457316693</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.77567307206366964</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.43777509061378095</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.34702965042400025</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.20813309750104123</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.20892027989630307</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.79100331333363261</v>
+      </c>
+      <c r="T44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
+        <v>416</v>
+      </c>
+      <c r="D45" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.463543608598667</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.30596026136920518</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.22081879614467306</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.30085186995521751</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.69890882141265387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.463543608598667</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.30596026136920518</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.22081879614467306</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.30085186995521751</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.69890882141265387</v>
+      </c>
+      <c r="T45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.44207529194590517</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.33674791808800786</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.21333635994655822</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.22955898056142293</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.77034150345765429</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.14740974594367856</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.67815294054854358</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.17305745586344068</v>
+      </c>
+      <c r="R46" s="5">
+        <v>9.9262931259680581E-3</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.99007369848168014</v>
+      </c>
+      <c r="T46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.3005347041630213</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.30251238339402353</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.36690383861741366</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.33587122713212542</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.66391239313565509</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.77759395832240408</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.16431173248123615</v>
+      </c>
+      <c r="P47" s="5">
+        <v>5.4839461828274205E-2</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.46492838211987242</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.52827389531968227</v>
+      </c>
+      <c r="T47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.54377853725182079</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.38360218886596836</v>
+      </c>
+      <c r="H48" s="5">
+        <v>7.2265377123325467E-2</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.10506700496133037</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.89487621123405825</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.54377853725182079</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.38360218886596836</v>
+      </c>
+      <c r="P48" s="5">
+        <v>7.2265377123325467E-2</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.10506700496133037</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.89487621123405825</v>
+      </c>
+      <c r="T48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043E891-FF88-41EA-A487-4997436E99B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="1008-1010" sheetId="3" r:id="rId3"/>
     <sheet name="1510-1810" sheetId="4" r:id="rId4"/>
     <sheet name="1910" sheetId="5" r:id="rId5"/>
+    <sheet name="2110" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="419">
   <si>
     <t>Div</t>
   </si>
@@ -1296,7 +1298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1625,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10741,7 +10743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -20358,7 +20360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22724,7 +22726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -30993,11 +30995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33407,4 +33409,9570 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5275F-EB59-4229-8180-1958106C042A}">
+  <dimension ref="A1:T191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.63404280854232542</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.19020317483606719</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.16440574769848301</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.69433797166293876</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.29252472511376137</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.41621211240403577</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.31110678297319638</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.25896529062866347</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.30510747208926725</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.69471545255049205</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.15838873269282208</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.27839010997946478</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.50146786863652837</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.31388934330274454</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.68553647887781832</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.21454832295955972</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.24397080533583801</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.4836159417393735</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.48236239052289365</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.51592412295693546</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.12074044206443175</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.20001275797949705</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.58518849420713936</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.50137913919732846</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.49409823691032861</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5">
+        <v>9.0134700857280287E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.32313915179764147</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.5260457440794668</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.1734035649108441</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.82640323810486427</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.21981831500078752</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.2108798861539638</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.50883854033792941</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.63163633391895768</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.36270367968660711</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.50282541506349121</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.26414358023611978</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.22166336447320345</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.42960853408252186</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.56947471182067588</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.30469432039157779</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.37225937187627017</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.30689041115870719</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.18307895667702956</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.81689684397659523</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.55194867494548228</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.41888117731156638</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2.9131043268597168E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>6.7657433407798798E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.93230997500886104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.38752403178532108</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.28112108088413185</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.30934400379224891</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.41259513782379609</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.58696464669334625</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.56314206222640051</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.16561247014575439</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.20738186588617655</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.85081690695728018</v>
+      </c>
+      <c r="S7" s="5">
+        <v>7.3412356830677983E-2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.58460532984350488</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.27757810863531862</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.13455650489997339</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.29621491727431642</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.70319849104681686</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.19490976825386172</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.43247331785632759</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.35446127251860887</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.1011806209941946</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.89881090887883386</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.40447037111617007</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.28991508576140357</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2871822906145734</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.37693551342200105</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.62273137877607465</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.54839832313650572</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5.1251443411703908E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1.7965220815366562E-3</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.52102881857097694</v>
+      </c>
+      <c r="S9" s="5">
+        <v>3.6406918619838684E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.76511519783043502</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.12753027161816363</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.3502985477509002E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.76625853078484707</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.16165876867950438</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.76656820135889747</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.1335069951051327</v>
+      </c>
+      <c r="P10" s="5">
+        <v>6.9851975906034286E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.74957860925540687</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.19758948809424259</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.29958457495163904</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.30118343984513934</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.36876275054013447</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.33953784897667766</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.66023536397922145</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.64712096693848031</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.20673979767646175</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.1401646778966667</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.54728510486706794</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.44757065205023111</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.2387277997521999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.22549866824041037</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.48097556565807142</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.58695456567020932</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.40958189785186044</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.50738761795086973</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.31581302188484095</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.17178184219047249</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.24741052218752169</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.75238043526781828</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.67169769874645879</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.20707091880734432</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.11717684446306634</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.48945203360506723</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.50643716323274857</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.73113435925529335</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.11967767284199951</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5.4724860896069809E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.77266757175083034</v>
+      </c>
+      <c r="S13" s="5">
+        <v>9.284905753165236E-2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.40689332464465561</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.2287948945348707</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.33791451398509537</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.65377215178299908</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.34252408291135372</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.10090273048260009</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.16784308849029572</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.62315227781892302</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.58348592209458228</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.40638308122233002</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.4574934076491331</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.25145818322928176</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.27312181609360969</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.5198478510803396</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.47872721635617499</v>
+      </c>
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.49923707774861054</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.23465402471416155</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.25054723258076805</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.58196315162246015</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.41523179088676493</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.75810877087960715</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.19574928619890811</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4.4777296502566358E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.33270639780618183</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.66476471241294288</v>
+      </c>
+      <c r="T16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.29984896041316944</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.27263643460957132</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.39131015420419119</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.43443490230290915</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.56494905622755243</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.5569427568660007</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.21928727042280904</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.21171327950070862</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.61604671738153427</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.37908218717023467</v>
+      </c>
+      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.50412645410777568</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.24020975484519938</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.24129953721910383</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.54711774668132818</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.45066267550423683</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.15014837509465997</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.39168983331672752</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.42667851094494774</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.12788991616103026</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.87207597320098318</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.27731348884194695</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.24636774262572372</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.43185105269879137</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.52823213943526381</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.4701134471888026</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.19598961900489348</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.32275139434336847</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.43945951372325087</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.24442637577964926</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.75541107330867541</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.16412493534334432</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.21646207098572817</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.54347669191984238</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.52180393119553103</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.47459515429795268</v>
+      </c>
+      <c r="T20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.36797524209759991</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.20476195135559852</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.39299117296853975</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.77471438593357744</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.21385445034944345</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.6277539735427794</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.18339488560915984</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.1728055198286215</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.75235438163537449</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.22718445165048501</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.3184818097808948</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.26287752648559398</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.38372083010748298</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.47920532123873621</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.51992329012831973</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.91642337935113938</v>
+      </c>
+      <c r="O22" s="5">
+        <v>4.6459235815473322E-2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.55501173701302442</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.40787087815358836</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.33371416769728762</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.26918594616856972</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.36557816921984432</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.45772841156505967</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.54159224598930777</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.80047225066590144</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.14846474258669387</v>
+      </c>
+      <c r="P23" s="5">
+        <v>4.642459573499802E-2</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.49339249885158759</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.49720647972398602</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.25107735517267299</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.30681307755544873</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.4053657649526774</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.30748616698054843</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.69229753102566527</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.70140477869406614</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.22071901373790689</v>
+      </c>
+      <c r="P24" s="5">
+        <v>7.642636658376771E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.34538837229548752</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.65270494134759405</v>
+      </c>
+      <c r="T24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.58961408439155205</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.25553778557976792</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.15003136567386596</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.37571985710837602</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.62316565984496075</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="5">
+        <v>9.9599520838313763E-2</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.21559257291424827</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.58693542896875661</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.40078243521185108</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.5967562766169856</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.51824032645222096</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.25132057229609023</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.21892788379875555</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.47660157795514441</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.52196274603101744</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.45088580715592164</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.43335833241443839</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.11474297068504825</v>
+      </c>
+      <c r="R26" s="5">
+        <v>8.4935759556423795E-2</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.91504829382019914</v>
+      </c>
+      <c r="T26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.13273341643283693</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.22008659676458933</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.56188544979996469</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.4514467665187949</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.54584802492644569</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.27008711506482314</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.45994173823024237</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.26196042557039478</v>
+      </c>
+      <c r="R27" s="5">
+        <v>8.4557269682308339E-2</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.91544040465213594</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.74961859384721297</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.19586857875379096</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.3035806275779245E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.35492533686791095</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.64228620714682438</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.29267164666888695</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.46267276071001889</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.23838711238370533</v>
+      </c>
+      <c r="R28" s="5">
+        <v>8.2149173856020941E-2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.91784849138047409</v>
+      </c>
+      <c r="T28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.11241730303664954</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.20491966259448505</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.58644038497683715</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.46418104209758726</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.53216408623273015</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.19728098422767912</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.29820529242600724</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.45626565834450694</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.29858001827968217</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.7010971762626792</v>
+      </c>
+      <c r="T29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.43102865472063417</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.25374886950957071</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.29452046148100491</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.52002087082224879</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.47869819109534756</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.75536835235248589</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.14388667819101703</v>
+      </c>
+      <c r="P30" s="5">
+        <v>8.1332640050535948E-2</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.72568712983549577</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.23801418299971666</v>
+      </c>
+      <c r="T30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.50958306681615428</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.28286539005366451</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.19921310534923298</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.34838200690522775</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.65110856343602497</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.28239728686811694</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.39737577470016688</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.30563923919037655</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.14637830773977109</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.85360934499140961</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.74358931356117997</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.15142721776739304</v>
+      </c>
+      <c r="H32" s="5">
+        <v>8.9893594438659949E-2</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.70946353757780711</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.26178673831333321</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.43424749993288775</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.28409191375177045</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.26579691882684742</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.38859511705912769</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.61097580131623097</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.46485947696267121</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.25228084646989712</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.26586685387861969</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.51177504967997334</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.48684012531162385</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.28471593109368448</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.42187350350436531</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.28236563177704133</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.11830265591218325</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.88169109798698031</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.5698013808673198</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.26898006435301069</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.15626050531827015</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.34410022422768188</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.65513395593891788</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.70526407757793919</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.26315848937800784</v>
+      </c>
+      <c r="P34" s="5">
+        <v>3.1205422682930296E-2</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.18960973607634068</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.80982999686082779</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.19173228794636549</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.24571523335088899</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.49966206920732514</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.4495225463012732</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.54892165907547885</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.68748943620341352</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.20320613258570611</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.10584462658075383</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.47619968272312635</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.51963751219354781</v>
+      </c>
+      <c r="T35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.32511134985580403</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.33205354664847109</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.3220469980356287</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.26181137801920945</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.73810948459119963</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.40568970739809218</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.31579048496139578</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.26438376544075903</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.29473631542326245</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.70511449335072462</v>
+      </c>
+      <c r="T36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.36879885992869699</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.34857013791181946</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.26955795644009323</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.22303123308259273</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.77691648500162502</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.13576375841715665</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.16578709322575466</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.60750520487240822</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.68789305984441007</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.29562786107872724</v>
+      </c>
+      <c r="T37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.6538888744799578</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.20573843103775002</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.13480124257480758</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.53927237031123343</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.45564161611628368</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.51656383933002292</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.2048258491844793</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.25959997316437938</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.74621026480959429</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.24254335921918571</v>
+      </c>
+      <c r="T38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.19170511733038478</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.22413095327986784</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.51740745677990541</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.53361364782836129</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.46323156165066659</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.62697715262250553</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.21480010506868846</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.15175323626757276</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.53460909675443757</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.46119823056414555</v>
+      </c>
+      <c r="T39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.1917162343871415</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.19350149251087512</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.54557531945734361</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.67134354522192607</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.31919516980210555</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.29136878112553249</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.28151411020806733</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.39127590142125496</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.39952543475699381</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.60002043272958294</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.25115919213185922</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.29004232292980181</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.41810616871790651</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.35389968244464409</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.64573104490462918</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.82872096238772308</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.12474634131190136</v>
+      </c>
+      <c r="P41" s="5">
+        <v>3.7367424351889209E-2</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.55770293584332487</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.42520947891512845</v>
+      </c>
+      <c r="T41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.25967421775304389</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.28087760464367068</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.41814811265622626</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.38693556656304662</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.61257341314904346</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.47126715232164773</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.31432770135542415</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.20644415403810032</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.27259648461618285</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.72720756883634485</v>
+      </c>
+      <c r="T42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.24436591363176602</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.29986476832552872</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.41625635127132798</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.32266153528764141</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.67706389476984585</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.82434729747390634</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.13694921954431283</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3.3299026745635153E-2</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.47298365546707977</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.51733615130347343</v>
+      </c>
+      <c r="T43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.44400556865901952</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.33858204679765003</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.2099335838642597</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.22469303536612886</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.77521087785483234</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.49963526977126765</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.18213912520208575</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.27813319353389737</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.85338612290949656</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.10642896499975314</v>
+      </c>
+      <c r="T44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.35195407048151733</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.27171071747734155</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.34791248397270264</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.45033709645593278</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.54904944848128401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.30185530881303552</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.31353399154347622</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.35705910666754659</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.30544961324598835</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.6944009758652917</v>
+      </c>
+      <c r="T45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.23132798522691408</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.33192632367592628</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.402916463129881</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.24239172608761389</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.75749946112879951</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.50609231000627375</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.30785348278980029</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.18018758579079283</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.26994848985947179</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.72979699449774449</v>
+      </c>
+      <c r="T46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.24969172034391707</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.1954368584755391</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.50058773906430787</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.74088416419483938</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.24706415522487135</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.59142546156160525</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.24105687216939858</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.16134275641527421</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.44205095683758167</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.55614677586364081</v>
+      </c>
+      <c r="T47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.65680914699899395</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.1908063809784637</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.14399965437733089</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.64165327829127339</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.34813295400857269</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.33717660325346249</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.24044498689655308</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.38743849383133039</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.58557543592658123</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.41228859686485447</v>
+      </c>
+      <c r="T48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.21637836328159785</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.20942101013086215</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.51275638220786657</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.63383904732246954</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.36026429460241355</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.54990993565157231</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.28774731277581195</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.15771981414485023</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.29696021366844927</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0.70258531167656391</v>
+      </c>
+      <c r="T49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.47360449050997366</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.27776874264040163</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.23612809802623977</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.39307449806204842</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.60635786398571567</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.19175062728278439</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.39997421052876908</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.38396288779381282</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.13086036472433366</v>
+      </c>
+      <c r="S50" s="5">
+        <v>0.86911879051062491</v>
+      </c>
+      <c r="T50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.47337213182017346</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.25757221369697142</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.25371281375156873</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.48103268570866653</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.51782833677624274</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="5">
+        <v>7.2772638958293903E-2</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.1391880395771147</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.65920797177277912</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0.61612150063932603</v>
+      </c>
+      <c r="S51" s="5">
+        <v>0.36677646262332175</v>
+      </c>
+      <c r="T51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.29024886633862423</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.32903687249084768</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.35476680344482098</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.2650680431018822</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.73483849171699611</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.40161983828640752</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.26689570538177271</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.30900614815793392</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0.46786108211382477</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0.53138709477447876</v>
+      </c>
+      <c r="T52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.30754074099620521</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.2580504565986072</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.39695161066500434</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.49511897763439622</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.50382662769083375</v>
+      </c>
+      <c r="L53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.3738173229222268</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.40307599417836559</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.21690474690844497</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0.13358458132077758</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0.86640043225004226</v>
+      </c>
+      <c r="T53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.59339834401256075</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.27238176473019121</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.13108002657358792</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.30440245072589323</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.69492953216555331</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.48678249154136605</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.29060493585918878</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.21314543667574057</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.33707734567474162</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0.66253068498573342</v>
+      </c>
+      <c r="T54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.33839282978263296</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.27618466980728301</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.35581043323952571</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.43130426513093617</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.56817431624582715</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.16734636014688017</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.27382610489628068</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.49764527817234971</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0.33466615266864203</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0.66467944588333405</v>
+      </c>
+      <c r="T55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.52011688744480666</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.25770534380097482</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.21167356582964061</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.44405079250621116</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.55480555605102166</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.55817306513305109</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.28396550203565279</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.15346381124905936</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0.30177450461478739</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.69772201438399695</v>
+      </c>
+      <c r="T56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.46455888482986224</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.30816565430450477</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.21797308165486509</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.29373091060278006</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.70604311346146398</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.30367320931019282</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.23707376101964983</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.41848181634158826</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.58666635441574078</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0.41091869470435005</v>
+      </c>
+      <c r="T57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.49528521752991383</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.27874243182194502</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.21578487736710217</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.37471790158198515</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.62471442648537623</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.75351796103333712</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.19816534116954712</v>
+      </c>
+      <c r="P58" s="5">
+        <v>4.6994531924318822E-2</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.33267425992773109</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0.66487214134142358</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.21239079651558976</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.27115699169404561</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.46401965223648556</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.38493838023082666</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.61435071018037701</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.42590159313949827</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.26297535541731376</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.29108271170391881</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.47876685262461993</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0.52034048223763441</v>
+      </c>
+      <c r="T59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.62200178592893296</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.23398236440401132</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.13940389419639337</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.43110623747204152</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.56685158484233422</v>
+      </c>
+      <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.49940531548003736</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.41045394980041294</v>
+      </c>
+      <c r="P60" s="5">
+        <v>8.9578320243999671E-2</v>
+      </c>
+      <c r="R60" s="5">
+        <v>9.2760638368835663E-2</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0.90720881790570218</v>
+      </c>
+      <c r="T60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.47903184147976202</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.20809034063603768</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.29113886347636991</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.74940821178852657</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.24047434939541945</v>
+      </c>
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.3898137826539943</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.37062474907677151</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.23126450324100004</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.17812046915122315</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.82184580302566435</v>
+      </c>
+      <c r="T61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.34413771219006339</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.33822765510643493</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.30023683137285373</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.2476158365587611</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.75231834501820405</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.5620879189695327</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.22996451025774994</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.19786868177045908</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.54402766648522882</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0.45294889365771834</v>
+      </c>
+      <c r="T62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.1362704687953421</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.22210498401577441</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.55796750856530497</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.45082120932385461</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.54657674555746782</v>
+      </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.17234491599934559</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.50235202870698381</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.31445812210182716</v>
+      </c>
+      <c r="R63" s="5">
+        <v>5.5043417640939001E-2</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0.94495498909938236</v>
+      </c>
+      <c r="T63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.22810240364464862</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.2198023112677803</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.49430991935923291</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0.60079450835984671</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.39504066004853716</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.12003502750547258</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0.21156010301060318</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.57665594668991049</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.45673480609893141</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0.54007155843908217</v>
+      </c>
+      <c r="T64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F65" s="5">
+        <v>6.0988566666915642E-2</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.13758179578101401</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.66317042726099995</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0.57510787884175874</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.4104376757673685</v>
+      </c>
+      <c r="L65" t="s">
+        <v>72</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.1822280356871083</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0.22353952587805304</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.52475620660244138</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.5220894339896538</v>
+      </c>
+      <c r="S65" s="5">
+        <v>0.47480808431752441</v>
+      </c>
+      <c r="T65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.37646627836506963</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.31889456862804699</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.28772161528023105</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.29223244258812803</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.70764262752499729</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.46538323963288863</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.22328745988356258</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.29089076444572015</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.66851365905429372</v>
+      </c>
+      <c r="S66" s="5">
+        <v>0.32668849282249413</v>
+      </c>
+      <c r="T66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>379</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.55386889361147285</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.29204504563793421</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.15009333702673641</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.27962469253162631</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.71997008106781812</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.80409889889369879</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0.13575257282530301</v>
+      </c>
+      <c r="P67" s="5">
+        <v>5.1403372111747898E-2</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0.59013099012127335</v>
+      </c>
+      <c r="S67" s="5">
+        <v>0.39200087859089816</v>
+      </c>
+      <c r="T67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.55066868281324888</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.31057058396600695</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.13594559484116314</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.23011209400527435</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.76963370407934795</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0.46096379218215427</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0.21931863298179671</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.29830380018974961</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.69323653948282149</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0.30094317080024463</v>
+      </c>
+      <c r="T68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.29910612412982318</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.25330051684639909</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.40800115599480657</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0.51131081433955472</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.48742002853800503</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.60286234414726081</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0.21299126138579935</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.17531110543730657</v>
+      </c>
+      <c r="R69" s="5">
+        <v>0.59005348800158386</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0.40468391311851692</v>
+      </c>
+      <c r="T69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.45749434232808223</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.25477618343719149</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.27024382760638566</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.50358054551568721</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.49516653656394705</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0.11898075891786228</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0.13828326936463842</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.63930515195113258</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.76672984198374172</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0.19492861632880615</v>
+      </c>
+      <c r="T70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.23580705858270065</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.27429077546965686</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.44278821008252672</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.39330864239127195</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.60605938735478759</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.29007570492833079</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.29909246638328518</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.37848243009164467</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.34313179184886899</v>
+      </c>
+      <c r="S71" s="5">
+        <v>0.65661942141422147</v>
+      </c>
+      <c r="T71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.48176060382220032</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.27459368730968664</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0.23155087345229081</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.4005985657097364</v>
+      </c>
+      <c r="K72" s="5">
+        <v>0.59876489619962037</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0.4211034947568662</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0.26656420266218606</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.29223513457561978</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.46442628572335665</v>
+      </c>
+      <c r="S72" s="5">
+        <v>0.53479723195083206</v>
+      </c>
+      <c r="T72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.79859573950956708</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.1238068058596305</v>
+      </c>
+      <c r="H73" s="5">
+        <v>5.3496466119717589E-2</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.70924424430996069</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0.24665239241897607</v>
+      </c>
+      <c r="L73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0.34287127798873013</v>
+      </c>
+      <c r="O73" s="5">
+        <v>0.17646597561298535</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.42218526059832873</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.86564041541134329</v>
+      </c>
+      <c r="S73" s="5">
+        <v>8.9362871778652805E-2</v>
+      </c>
+      <c r="T73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.61037918141097613</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.22153941541091587</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.1611377640495682</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.52220295475098144</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0.47430604764357309</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0.59352599589165933</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0.22755847856490505</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.17132040515724561</v>
+      </c>
+      <c r="R74" s="5">
+        <v>0.51348146738183764</v>
+      </c>
+      <c r="S74" s="5">
+        <v>0.48354939395764795</v>
+      </c>
+      <c r="T74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.83389091759411993</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.12093393701999916</v>
+      </c>
+      <c r="P75" s="5">
+        <v>3.5110177750103631E-2</v>
+      </c>
+      <c r="R75" s="5">
+        <v>0.56275169420992388</v>
+      </c>
+      <c r="S75" s="5">
+        <v>0.4189223071067677</v>
+      </c>
+      <c r="T75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.49777356875577583</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.28005407196743581</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0.21239346176936796</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.36785743040207891</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.63159571431108008</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0.20729453261690178</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0.34365659026353601</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0.41440649581510364</v>
+      </c>
+      <c r="R76" s="5">
+        <v>0.21142653712772164</v>
+      </c>
+      <c r="S76" s="5">
+        <v>0.78848644675997159</v>
+      </c>
+      <c r="T76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.83288328732331296</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.11381277791345529</v>
+      </c>
+      <c r="H77" s="5">
+        <v>3.7071725328078252E-2</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.63046021215483505</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.34017994882798708</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0.76839833340560659</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0.1613548609058254</v>
+      </c>
+      <c r="P77" s="5">
+        <v>6.5843594995470003E-2</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.52602693952638013</v>
+      </c>
+      <c r="S77" s="5">
+        <v>0.46457187781580689</v>
+      </c>
+      <c r="T77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.4448709043964631</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.29781629429904072</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.24466800248555193</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.33564648293926086</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.66406728478160948</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0.20907188125445603</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0.2306493243149583</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0.49895965168547946</v>
+      </c>
+      <c r="R78" s="5">
+        <v>0.52969190822962509</v>
+      </c>
+      <c r="S78" s="5">
+        <v>0.46764082861593853</v>
+      </c>
+      <c r="T78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.3443591467914881</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.29131011015408609</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.33834634534743291</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.37768259955041905</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.62201618379396872</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0.71453107789479753</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0.24009939749562501</v>
+      </c>
+      <c r="P79" s="5">
+        <v>4.4768080585779219E-2</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0.24289333283771553</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0.75614777370320496</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.34848220861029677</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.31250092988584577</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.31755527916738074</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.31224121029113444</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.68761175292085941</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0.5534691277700643</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.30764916419257776</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.13602036636485548</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.23543266269888566</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0.76429408875730576</v>
+      </c>
+      <c r="T80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F81" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H81" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J81" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K81" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.40520874368935234</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0.4375638024905763</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0.15497489665335254</v>
+      </c>
+      <c r="R81" s="5">
+        <v>9.0990929741736268E-2</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.9089986167769023</v>
+      </c>
+      <c r="T81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.297481154083237</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.32436235339157166</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.35223638649197692</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.27728042976229417</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.7226133314267591</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0.71697894591109679</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0.20735560404264791</v>
+      </c>
+      <c r="P82" s="5">
+        <v>7.3979757901814311E-2</v>
+      </c>
+      <c r="R82" s="5">
+        <v>0.3776099548168414</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0.61975696299161487</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.43056090758840204</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.25118405012085337</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.29716223269192471</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.53266831711449869</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.46591289352047222</v>
+      </c>
+      <c r="L83" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0.13889058152966002</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0.27765025169493746</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.51720452306505404</v>
+      </c>
+      <c r="R83" s="5">
+        <v>0.2953123290429272</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0.70411269673353338</v>
+      </c>
+      <c r="T83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.42127142287207714</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.31035297614324137</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.25508626096970916</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.30568733053693609</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.69412860524327424</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0.12553013523822742</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0.32256741745829898</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.49763150127159039</v>
+      </c>
+      <c r="R84" s="5">
+        <v>0.20017127034270574</v>
+      </c>
+      <c r="S84" s="5">
+        <v>0.79963715898756127</v>
+      </c>
+      <c r="T84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.48993594409066499</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.23342342439136532</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.25997347955854228</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.59588852947707927</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.4011312975577227</v>
+      </c>
+      <c r="L85" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0.70367563313457526</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0.1997557801672537</v>
+      </c>
+      <c r="P85" s="5">
+        <v>9.3697478058030692E-2</v>
+      </c>
+      <c r="R85" s="5">
+        <v>0.45670081997931455</v>
+      </c>
+      <c r="S85" s="5">
+        <v>0.5392365675383276</v>
+      </c>
+      <c r="T85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.6004874566879741</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.25890148745150454</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.13683477202230679</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.34715894655832302</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.65186613728313014</v>
+      </c>
+      <c r="L86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0.12646825815561769</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.37698992088750816</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.45810181923238924</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0.13380678943396343</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.86613886154852548</v>
+      </c>
+      <c r="T86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K87" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0.68256934986191142</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0.20175388686216697</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.11171746889287369</v>
+      </c>
+      <c r="R87" s="5">
+        <v>0.49821392080268134</v>
+      </c>
+      <c r="S87" s="5">
+        <v>0.49713612478717073</v>
+      </c>
+      <c r="T87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" t="s">
+        <v>314</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.2948565174281958</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.29508765805466575</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0.37758672657722209</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.35662008996579181</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.64309802381795667</v>
+      </c>
+      <c r="L88" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0.59930036576436896</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0.2987456857118852</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.10059462852547538</v>
+      </c>
+      <c r="R88" s="5">
+        <v>0.21829763454948925</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0.78136767982268551</v>
+      </c>
+      <c r="T88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F89" s="5">
+        <v>4.7968605795942733E-2</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.17850204011157789</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.64004467419771294</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.38105250084910053</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.61516568032280294</v>
+      </c>
+      <c r="L89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0.21092312016492853</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.30350171766458089</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.44121620655727534</v>
+      </c>
+      <c r="R89" s="5">
+        <v>0.29478504035854536</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.7049460745775985</v>
+      </c>
+      <c r="T89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.63193022761048367</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.18125791525075935</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.16988807510897844</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.75923510974830077</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.21843678805476241</v>
+      </c>
+      <c r="L90" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0.90662143978525878</v>
+      </c>
+      <c r="O90" s="5">
+        <v>5.7379880397493324E-2</v>
+      </c>
+      <c r="P90" s="5">
+        <v>3.4281345076881018E-3</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0.56593130878286801</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.39817013801171763</v>
+      </c>
+      <c r="T90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.22217441614887135</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.30897835238099836</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.42785532110483948</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.28817601070519172</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.71160220629007276</v>
+      </c>
+      <c r="L91" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.34861647387339817</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.30198900929661765</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.32599277212043398</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0.34330010027294011</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.65649157941642922</v>
+      </c>
+      <c r="T91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.77878041549956367</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.14206881282928407</v>
+      </c>
+      <c r="H92" s="5">
+        <v>6.7645762018338551E-2</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.65393780594243733</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.32253894946463357</v>
+      </c>
+      <c r="L92" t="s">
+        <v>29</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.4787687796320314</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.49945353108620039</v>
+      </c>
+      <c r="P92" s="5">
+        <v>2.1766628057878511E-2</v>
+      </c>
+      <c r="R92" s="5">
+        <v>3.7052441658619394E-2</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0.96294016632707791</v>
+      </c>
+      <c r="T92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.35567715662832278</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.29188894979718544</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.32810646100745666</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.3760710541284476</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.6236340727140105</v>
+      </c>
+      <c r="L93" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0.37533413618341538</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0.45644217079649108</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.16572239711395925</v>
+      </c>
+      <c r="R93" s="5">
+        <v>7.9896474574793944E-2</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0.92009772659883293</v>
+      </c>
+      <c r="T93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.24752821176800682</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.22785494991867014</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.47200707368900197</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.58543717396422879</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.41133138151610343</v>
+      </c>
+      <c r="L94" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0.54179698451735414</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0.24535280699549322</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.20284891335858493</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0.48305026244835114</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0.51520706555678542</v>
+      </c>
+      <c r="T94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S95" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S96" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T96" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S97" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.65094611962932081</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.16969491420534896</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.15425146203440324</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.79407179447006981</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.1693321636486107</v>
+      </c>
+      <c r="L98" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0.50278284009463903</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0.24297283481084642</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.24009465318372511</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.53331076642709407</v>
+      </c>
+      <c r="S98" s="5">
+        <v>0.46469985054743473</v>
+      </c>
+      <c r="T98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44492</v>
+      </c>
+      <c r="F99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S99" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T99" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.47136142180593993</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.21390964601641568</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0.2935133157167869</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.7198062323823623</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.27263488120645268</v>
+      </c>
+      <c r="L100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" s="5">
+        <v>7.0266217052700433E-2</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0.11635440165094901</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.6797205800686914</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.71186953271419884</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0.25082103854419946</v>
+      </c>
+      <c r="T100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.60997900829290008</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0.21371593700490779</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.16822055450298018</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0.57296668078243063</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0.42214586339588483</v>
+      </c>
+      <c r="T101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.35430295596396189</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.20868167529408799</v>
+      </c>
+      <c r="H102" s="5">
+        <v>0.40177001284882435</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.75131197032812325</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.23950807150560455</v>
+      </c>
+      <c r="L102" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0.23668072837863924</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0.25314803629429067</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.45879456971644489</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0.46877779512317247</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0.529942100628638</v>
+      </c>
+      <c r="T102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.40519467538596876</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.26013669734996531</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0.31165223152140276</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.49705720965979078</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.50196543821758022</v>
+      </c>
+      <c r="L103" t="s">
+        <v>20</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0.76047761235367184</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0.14987613875263525</v>
+      </c>
+      <c r="P103" s="5">
+        <v>7.88001709074551E-2</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0.66165347733959901</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0.31631101595893191</v>
+      </c>
+      <c r="T103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0.74232928729214809</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0.18016928834452225</v>
+      </c>
+      <c r="P104" s="5">
+        <v>7.4523342488272096E-2</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0.47540826183549373</v>
+      </c>
+      <c r="S104" s="5">
+        <v>0.51877272442910694</v>
+      </c>
+      <c r="T104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.43657878971729208</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.25190824260693678</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0.29122961807132369</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.52697220920890864</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0.47164451017813575</v>
+      </c>
+      <c r="L105" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0.59147127441046754</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0.34939825154708998</v>
+      </c>
+      <c r="P105" s="5">
+        <v>5.8872990737169069E-2</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0.12535064265021842</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0.87453486788746693</v>
+      </c>
+      <c r="T105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F106" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G106" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J106" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K106" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N106" s="5">
+        <v>0.44266584280058607</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0.27576498867457983</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.26540077116087818</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0.41753899759869201</v>
+      </c>
+      <c r="S106" s="5">
+        <v>0.58188463374327926</v>
+      </c>
+      <c r="T106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.40442555011838094</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.2275154863947613</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.34124198680608647</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.66080714110088723</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0.33526720032380652</v>
+      </c>
+      <c r="L107" t="s">
+        <v>11</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0.2113902117179608</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0.18418895487733702</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.5400220216153464</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.744701942744317</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0.23973719859348686</v>
+      </c>
+      <c r="T107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.51946059925239463</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.23231330636843911</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0.23439312788164676</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.57788138583573878</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0.41909770646494443</v>
+      </c>
+      <c r="L108" t="s">
+        <v>16</v>
+      </c>
+      <c r="N108" s="5">
+        <v>6.2553069076406231E-2</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0.16191292680814728</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.64378937558934868</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.48221756350708866</v>
+      </c>
+      <c r="S108" s="5">
+        <v>0.51063545132761412</v>
+      </c>
+      <c r="T108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.36486584256324717</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.24866150768976558</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0.35653386358657846</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0.5522960262879486</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0.44617748358783016</v>
+      </c>
+      <c r="L109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0.5216956295626487</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0.22587536526919247</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.23796897269957687</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.61374295541502666</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0.38227807647358086</v>
+      </c>
+      <c r="T109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.41049264791707013</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.2380458907908905</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0.32640195270943162</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.60430381152213652</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0.39325099452028178</v>
+      </c>
+      <c r="L110" t="s">
+        <v>16</v>
+      </c>
+      <c r="N110" s="5">
+        <v>0.61556632627524055</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0.18352607845969898</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.18277800220180745</v>
+      </c>
+      <c r="R110" s="5">
+        <v>0.76943721629792261</v>
+      </c>
+      <c r="S110" s="5">
+        <v>0.20809164880262243</v>
+      </c>
+      <c r="T110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.29346039557380482</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.20278368263339744</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0.45859442375941473</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0.74648307298297467</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0.24313891656324982</v>
+      </c>
+      <c r="L111" t="s">
+        <v>11</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0.19314511102612122</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0.18941996504323996</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.54846872331881236</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0.69281397354062968</v>
+      </c>
+      <c r="S111" s="5">
+        <v>0.29601621371020365</v>
+      </c>
+      <c r="T111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.34264005890334093</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.2675019290545067</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0.3593851202920415</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0.46615907911997939</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0.53311947332254483</v>
+      </c>
+      <c r="L112" t="s">
+        <v>20</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0.64524647625271792</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0.21745163231781539</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.13259144725073374</v>
+      </c>
+      <c r="R112" s="5">
+        <v>0.48186358293710685</v>
+      </c>
+      <c r="S112" s="5">
+        <v>0.51481601983511471</v>
+      </c>
+      <c r="T112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.72176468296335416</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.2040769321987265</v>
+      </c>
+      <c r="H113" s="5">
+        <v>7.2429518653599506E-2</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0.38357024712171395</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0.61360357105430074</v>
+      </c>
+      <c r="L113" t="s">
+        <v>37</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0.58728767889054456</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0.22865689063968472</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.17606222518122813</v>
+      </c>
+      <c r="R113" s="5">
+        <v>0.51653239986271693</v>
+      </c>
+      <c r="S113" s="5">
+        <v>0.48055081352049628</v>
+      </c>
+      <c r="T113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.54971645189528684</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.21170668599839604</v>
+      </c>
+      <c r="H114" s="5">
+        <v>0.22452806897744201</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0.67314783741723094</v>
+      </c>
+      <c r="K114" s="5">
+        <v>0.31970165476940976</v>
+      </c>
+      <c r="L114" t="s">
+        <v>16</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0.73974297238100439</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0.18811437024413935</v>
+      </c>
+      <c r="P114" s="5">
+        <v>6.9882675816264964E-2</v>
+      </c>
+      <c r="R114" s="5">
+        <v>0.42912876408261058</v>
+      </c>
+      <c r="S114" s="5">
+        <v>0.56660303085724906</v>
+      </c>
+      <c r="T114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>291</v>
+      </c>
+      <c r="C115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.16309456146029641</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.21198722335860118</v>
+      </c>
+      <c r="H115" s="5">
+        <v>0.5480011529297073</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0.53847709362387142</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0.45737842079795515</v>
+      </c>
+      <c r="L115" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0.42498949435445249</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0.22096734652821756</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0.32897406697074622</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0.69419629997195165</v>
+      </c>
+      <c r="S115" s="5">
+        <v>0.30040906805943252</v>
+      </c>
+      <c r="T115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.63125849184611182</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.19662355961140474</v>
+      </c>
+      <c r="H116" s="5">
+        <v>0.16259816133674618</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0.65279747418300837</v>
+      </c>
+      <c r="K116" s="5">
+        <v>0.33765774342611499</v>
+      </c>
+      <c r="L116" t="s">
+        <v>16</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0.56257434035209619</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0.24016747650840339</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.18852058227225774</v>
+      </c>
+      <c r="R116" s="5">
+        <v>0.4858869353718116</v>
+      </c>
+      <c r="S116" s="5">
+        <v>0.51208651379775172</v>
+      </c>
+      <c r="T116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" t="s">
+        <v>289</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.13430633230532898</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.21836448748628767</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0.56214031759285288</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.46055466368507542</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.53657257116102808</v>
+      </c>
+      <c r="L117" t="s">
+        <v>28</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0.76663243462191011</v>
+      </c>
+      <c r="O117" s="5">
+        <v>0.15794022174845135</v>
+      </c>
+      <c r="P117" s="5">
+        <v>6.9922128051275179E-2</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.5630770012687194</v>
+      </c>
+      <c r="S117" s="5">
+        <v>0.42517043900699231</v>
+      </c>
+      <c r="T117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s">
+        <v>191</v>
+      </c>
+      <c r="C118" t="s">
+        <v>194</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.14078313077401949</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.17803250263697248</v>
+      </c>
+      <c r="H118" s="5">
+        <v>0.5930144117293914</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.64304005763390948</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.34582076073634926</v>
+      </c>
+      <c r="L118" t="s">
+        <v>28</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0.73850823788503328</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0.19866739099725059</v>
+      </c>
+      <c r="P118" s="5">
+        <v>6.1257896090457245E-2</v>
+      </c>
+      <c r="R118" s="5">
+        <v>0.36970695396388203</v>
+      </c>
+      <c r="S118" s="5">
+        <v>0.6274248186027247</v>
+      </c>
+      <c r="T118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0.16543741788841901</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.25451704681446585</v>
+      </c>
+      <c r="H119" s="5">
+        <v>0.51292834738715098</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.38776004383879675</v>
+      </c>
+      <c r="K119" s="5">
+        <v>0.61111032661359821</v>
+      </c>
+      <c r="L119" t="s">
+        <v>28</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0.54752135707359517</v>
+      </c>
+      <c r="O119" s="5">
+        <v>0.26613329265284419</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0.17935084448683553</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0.37965534365855774</v>
+      </c>
+      <c r="S119" s="5">
+        <v>0.61949023720271956</v>
+      </c>
+      <c r="T119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0.44038627675946335</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0.25663291356271584</v>
+      </c>
+      <c r="H120" s="5">
+        <v>0.28377643649805961</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.50267088427297468</v>
+      </c>
+      <c r="K120" s="5">
+        <v>0.49617691791894131</v>
+      </c>
+      <c r="L120" t="s">
+        <v>20</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0.79865666443931915</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0.14411281198701048</v>
+      </c>
+      <c r="P120" s="5">
+        <v>5.1226141132300583E-2</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.54028470227378222</v>
+      </c>
+      <c r="S120" s="5">
+        <v>0.44724128129137847</v>
+      </c>
+      <c r="T120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0.37392900205950791</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.27649181273896573</v>
+      </c>
+      <c r="H121" s="5">
+        <v>0.3250037273406759</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.43180074670753438</v>
+      </c>
+      <c r="K121" s="5">
+        <v>0.56768411935733032</v>
+      </c>
+      <c r="L121" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" s="5">
+        <v>0.15470658862670408</v>
+      </c>
+      <c r="O121" s="5">
+        <v>0.31592718334564079</v>
+      </c>
+      <c r="P121" s="5">
+        <v>0.47839599173105585</v>
+      </c>
+      <c r="R121" s="5">
+        <v>0.23166977439892797</v>
+      </c>
+      <c r="S121" s="5">
+        <v>0.76811411676038921</v>
+      </c>
+      <c r="T121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" t="s">
+        <v>310</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.70397512852529609</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.15384625551854303</v>
+      </c>
+      <c r="H122" s="5">
+        <v>0.11230312142799789</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.78462725677838996</v>
+      </c>
+      <c r="K122" s="5">
+        <v>0.16694031313370475</v>
+      </c>
+      <c r="L122" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" s="5">
+        <v>0.30253895690324317</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0.29354099274638368</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0.37230059879494098</v>
+      </c>
+      <c r="R122" s="5">
+        <v>0.36357709293752477</v>
+      </c>
+      <c r="S122" s="5">
+        <v>0.63613026100585968</v>
+      </c>
+      <c r="T122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.10407227041581253</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.14592220521666632</v>
+      </c>
+      <c r="H123" s="5">
+        <v>0.64208510966982291</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.69377742854379587</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0.28350465275513004</v>
+      </c>
+      <c r="L123" t="s">
+        <v>72</v>
+      </c>
+      <c r="N123" s="5">
+        <v>0.43053914901031315</v>
+      </c>
+      <c r="O123" s="5">
+        <v>0.27951890572044175</v>
+      </c>
+      <c r="P123" s="5">
+        <v>0.27294676405310631</v>
+      </c>
+      <c r="R123" s="5">
+        <v>0.40758336813694124</v>
+      </c>
+      <c r="S123" s="5">
+        <v>0.59192010792844052</v>
+      </c>
+      <c r="T123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" t="s">
+        <v>311</v>
+      </c>
+      <c r="C124" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0.38627192830244567</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.29331737617085152</v>
+      </c>
+      <c r="H124" s="5">
+        <v>0.30031332856986426</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.36877242784409892</v>
+      </c>
+      <c r="K124" s="5">
+        <v>0.63093946283619895</v>
+      </c>
+      <c r="L124" t="s">
+        <v>20</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0.57986613297221623</v>
+      </c>
+      <c r="O124" s="5">
+        <v>0.21334542907428053</v>
+      </c>
+      <c r="P124" s="5">
+        <v>0.19589886733409087</v>
+      </c>
+      <c r="R124" s="5">
+        <v>0.62375246515696814</v>
+      </c>
+      <c r="S124" s="5">
+        <v>0.37041255330150974</v>
+      </c>
+      <c r="T124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.34782574111020381</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.29102677540513205</v>
+      </c>
+      <c r="H125" s="5">
+        <v>0.33558983711942447</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.37882312838052168</v>
+      </c>
+      <c r="K125" s="5">
+        <v>0.62087292139889783</v>
+      </c>
+      <c r="L125" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0.65837043754664515</v>
+      </c>
+      <c r="O125" s="5">
+        <v>0.18257256057576376</v>
+      </c>
+      <c r="P125" s="5">
+        <v>0.14764097553063776</v>
+      </c>
+      <c r="R125" s="5">
+        <v>0.70081236654022461</v>
+      </c>
+      <c r="S125" s="5">
+        <v>0.28334775544811031</v>
+      </c>
+      <c r="T125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>293</v>
+      </c>
+      <c r="B126" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.49208708647785271</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.23319868674968686</v>
+      </c>
+      <c r="H126" s="5">
+        <v>0.25824087616769975</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.59561899714425171</v>
+      </c>
+      <c r="K126" s="5">
+        <v>0.40137688929047766</v>
+      </c>
+      <c r="L126" t="s">
+        <v>16</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0.76568081950464417</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0.12885364676357272</v>
+      </c>
+      <c r="P126" s="5">
+        <v>6.5035730329542393E-2</v>
+      </c>
+      <c r="R126" s="5">
+        <v>0.76353015296720717</v>
+      </c>
+      <c r="S126" s="5">
+        <v>0.16904398535294493</v>
+      </c>
+      <c r="T126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.42820123068127264</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.25397985309331483</v>
+      </c>
+      <c r="H127" s="5">
+        <v>0.29680778250068601</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.51985706821946709</v>
+      </c>
+      <c r="K127" s="5">
+        <v>0.47887616611239292</v>
+      </c>
+      <c r="L127" t="s">
+        <v>16</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0.23028056888016349</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0.36859028590010057</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.37537321916390215</v>
+      </c>
+      <c r="R127" s="5">
+        <v>0.17897846444194165</v>
+      </c>
+      <c r="S127" s="5">
+        <v>0.820983683627724</v>
+      </c>
+      <c r="T127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0.39412862595312542</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.26118781346848069</v>
+      </c>
+      <c r="H128" s="5">
+        <v>0.32039174313662355</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0.4941119396794163</v>
+      </c>
+      <c r="K128" s="5">
+        <v>0.50495714789427992</v>
+      </c>
+      <c r="L128" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="5">
+        <v>0.10574882782408555</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0.35614112324888686</v>
+      </c>
+      <c r="P128" s="5">
+        <v>0.4906727129530471</v>
+      </c>
+      <c r="R128" s="5">
+        <v>0.14551255658495674</v>
+      </c>
+      <c r="S128" s="5">
+        <v>0.85439460866416517</v>
+      </c>
+      <c r="T128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0.57665328658681969</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.21135329338123898</v>
+      </c>
+      <c r="H129" s="5">
+        <v>0.20044172601791435</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0.64153397742507157</v>
+      </c>
+      <c r="K129" s="5">
+        <v>0.35195654340730403</v>
+      </c>
+      <c r="L129" t="s">
+        <v>16</v>
+      </c>
+      <c r="N129" s="5">
+        <v>0.49401379925986721</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0.2019316592984467</v>
+      </c>
+      <c r="P129" s="5">
+        <v>0.28173618580535581</v>
+      </c>
+      <c r="R129" s="5">
+        <v>0.77612388136119381</v>
+      </c>
+      <c r="S129" s="5">
+        <v>0.21012211992727509</v>
+      </c>
+      <c r="T129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" t="s">
+        <v>312</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0.29765354992937426</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0.23805358281491423</v>
+      </c>
+      <c r="H130" s="5">
+        <v>0.42255748316766462</v>
+      </c>
+      <c r="J130" s="5">
+        <v>0.57857373021347702</v>
+      </c>
+      <c r="K130" s="5">
+        <v>0.41911470299363546</v>
+      </c>
+      <c r="L130" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" s="5">
+        <v>0</v>
+      </c>
+      <c r="O130" s="5">
+        <v>1</v>
+      </c>
+      <c r="P130" s="5">
+        <v>0</v>
+      </c>
+      <c r="R130" s="5">
+        <v>0</v>
+      </c>
+      <c r="S130" s="5">
+        <v>1</v>
+      </c>
+      <c r="T130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+      <c r="B131" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.34736929120888971</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.2734652467638729</v>
+      </c>
+      <c r="H131" s="5">
+        <v>0.35038241543871346</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.44294926443592986</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0.55647586244506742</v>
+      </c>
+      <c r="L131" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0.66349551059973888</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0.20803326843086595</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0.12395362007470316</v>
+      </c>
+      <c r="R131" s="5">
+        <v>0.50217129890352863</v>
+      </c>
+      <c r="S131" s="5">
+        <v>0.49358652240183781</v>
+      </c>
+      <c r="T131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" t="s">
+        <v>317</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F132" s="5">
+        <v>7.3522081835473291E-2</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0.23664923433559185</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0.5915632785147088</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.29642334773936929</v>
+      </c>
+      <c r="K132" s="5">
+        <v>0.70235114982425473</v>
+      </c>
+      <c r="L132" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0.22008267836294457</v>
+      </c>
+      <c r="O132" s="5">
+        <v>0.40158572962023409</v>
+      </c>
+      <c r="P132" s="5">
+        <v>0.35770129984226812</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0.13469962532872778</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0.86528438261875007</v>
+      </c>
+      <c r="T132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F133" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G133" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H133" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J133" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K133" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0.2610645288623098</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0.20281998017508812</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.48487349133073271</v>
+      </c>
+      <c r="R133" s="5">
+        <v>0.71798217270804254</v>
+      </c>
+      <c r="S133" s="5">
+        <v>0.27279308315690232</v>
+      </c>
+      <c r="T133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N134" s="5">
+        <v>0.57597886382534258</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0.23091587074681824</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0.18440688055113597</v>
+      </c>
+      <c r="R134" s="5">
+        <v>0.51973449994375887</v>
+      </c>
+      <c r="S134" s="5">
+        <v>0.47748421953921971</v>
+      </c>
+      <c r="T134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" t="s">
+        <v>229</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0.44471339628951223</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0.22675572961621887</v>
+      </c>
+      <c r="H135" s="5">
+        <v>0.30629176726571267</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0.65715162037129882</v>
+      </c>
+      <c r="K135" s="5">
+        <v>0.33874669306631416</v>
+      </c>
+      <c r="L135" t="s">
+        <v>11</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0.7739733440245814</v>
+      </c>
+      <c r="O135" s="5">
+        <v>0.18535592360778103</v>
+      </c>
+      <c r="P135" s="5">
+        <v>3.9025587273887982E-2</v>
+      </c>
+      <c r="R135" s="5">
+        <v>0.3423021496753641</v>
+      </c>
+      <c r="S135" s="5">
+        <v>0.65470090342437226</v>
+      </c>
+      <c r="T135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>323</v>
+      </c>
+      <c r="B136" t="s">
+        <v>326</v>
+      </c>
+      <c r="C136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N136" s="5">
+        <v>0.6904720326420104</v>
+      </c>
+      <c r="O136" s="5">
+        <v>0.19652412776397185</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0.10890205666344856</v>
+      </c>
+      <c r="R136" s="5">
+        <v>0.51381608852204241</v>
+      </c>
+      <c r="S136" s="5">
+        <v>0.48079220428399005</v>
+      </c>
+      <c r="T136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" t="s">
+        <v>327</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0.35025604030859975</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0.37357992751063512</v>
+      </c>
+      <c r="H137" s="5">
+        <v>0.26478887250216715</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0.17922845144150049</v>
+      </c>
+      <c r="K137" s="5">
+        <v>0.82074629420592971</v>
+      </c>
+      <c r="L137" t="s">
+        <v>20</v>
+      </c>
+      <c r="N137" s="5">
+        <v>0.79958442073111768</v>
+      </c>
+      <c r="O137" s="5">
+        <v>0.16918471894683459</v>
+      </c>
+      <c r="P137" s="5">
+        <v>2.8949913928607414E-2</v>
+      </c>
+      <c r="R137" s="5">
+        <v>0.3512022265427106</v>
+      </c>
+      <c r="S137" s="5">
+        <v>0.64503403727305408</v>
+      </c>
+      <c r="T137" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>329</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F138" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G138" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H138" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J138" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K138" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N138" s="5">
+        <v>6.3464495106076588E-2</v>
+      </c>
+      <c r="O138" s="5">
+        <v>0.16027676992100998</v>
+      </c>
+      <c r="P138" s="5">
+        <v>0.64461860173730301</v>
+      </c>
+      <c r="R138" s="5">
+        <v>0.49156933127638602</v>
+      </c>
+      <c r="S138" s="5">
+        <v>0.50083995337312159</v>
+      </c>
+      <c r="T138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>323</v>
+      </c>
+      <c r="B139" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139" t="s">
+        <v>331</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0.14988941592476257</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.25108953204450452</v>
+      </c>
+      <c r="H139" s="5">
+        <v>0.52707189558199019</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.3779988965903408</v>
+      </c>
+      <c r="K139" s="5">
+        <v>0.62080197181349595</v>
+      </c>
+      <c r="L139" t="s">
+        <v>28</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0.18513298802281777</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0.24354888116559439</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.50634315501015437</v>
+      </c>
+      <c r="R139" s="5">
+        <v>0.44913935374711939</v>
+      </c>
+      <c r="S139" s="5">
+        <v>0.54921829941408495</v>
+      </c>
+      <c r="T139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>323</v>
+      </c>
+      <c r="B140" t="s">
+        <v>336</v>
+      </c>
+      <c r="C140" t="s">
+        <v>333</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K140" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L140" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N140" s="5">
+        <v>9.3026002317079776E-2</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0.33589056905637443</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0.51519171434577504</v>
+      </c>
+      <c r="R140" s="5">
+        <v>0.16024772135957463</v>
+      </c>
+      <c r="S140" s="5">
+        <v>0.83960538572688859</v>
+      </c>
+      <c r="T140" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>323</v>
+      </c>
+      <c r="B141" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0.53345927729413467</v>
+      </c>
+      <c r="G141" s="5">
+        <v>0.24224598637446773</v>
+      </c>
+      <c r="H141" s="5">
+        <v>0.21310494593307355</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0.5084197244213543</v>
+      </c>
+      <c r="K141" s="5">
+        <v>0.48959711213872648</v>
+      </c>
+      <c r="L141" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="5">
+        <v>0.34687526254062057</v>
+      </c>
+      <c r="O141" s="5">
+        <v>0.22414758332389162</v>
+      </c>
+      <c r="P141" s="5">
+        <v>0.39417061254810709</v>
+      </c>
+      <c r="R141" s="5">
+        <v>0.67009272162045941</v>
+      </c>
+      <c r="S141" s="5">
+        <v>0.32552243784966428</v>
+      </c>
+      <c r="T141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>323</v>
+      </c>
+      <c r="B142" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" t="s">
+        <v>339</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0.39839945413308425</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0.24980083805889808</v>
+      </c>
+      <c r="H142" s="5">
+        <v>0.32653399132057404</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.5466762632532256</v>
+      </c>
+      <c r="K142" s="5">
+        <v>0.45184929877356489</v>
+      </c>
+      <c r="L142" t="s">
+        <v>20</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0.42488727411675209</v>
+      </c>
+      <c r="O142" s="5">
+        <v>0.36295067214046167</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.20574985378115798</v>
+      </c>
+      <c r="R142" s="5">
+        <v>0.18260733971089774</v>
+      </c>
+      <c r="S142" s="5">
+        <v>0.81734293713355743</v>
+      </c>
+      <c r="T142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>323</v>
+      </c>
+      <c r="B143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" t="s">
+        <v>324</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0.72918581165871443</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.20001698971372001</v>
+      </c>
+      <c r="H143" s="5">
+        <v>6.9051492421005167E-2</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0.38702246042362343</v>
+      </c>
+      <c r="K143" s="5">
+        <v>0.60994462596269383</v>
+      </c>
+      <c r="L143" t="s">
+        <v>37</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0.88092857804863167</v>
+      </c>
+      <c r="O143" s="5">
+        <v>9.4897347635396936E-2</v>
+      </c>
+      <c r="P143" s="5">
+        <v>1.1233084267834386E-2</v>
+      </c>
+      <c r="R143" s="5">
+        <v>0.49366963477384257</v>
+      </c>
+      <c r="S143" s="5">
+        <v>0.48975591987198025</v>
+      </c>
+      <c r="T143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0.10548592844620248</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0.18254571756025725</v>
+      </c>
+      <c r="H144" s="5">
+        <v>0.60814624912365289</v>
+      </c>
+      <c r="J144" s="5">
+        <v>0.53367236405790819</v>
+      </c>
+      <c r="K144" s="5">
+        <v>0.45963340660163032</v>
+      </c>
+      <c r="L144" t="s">
+        <v>28</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.25355588206989366</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.2222446448136193</v>
+      </c>
+      <c r="P144" s="5">
+        <v>0.47245949702897799</v>
+      </c>
+      <c r="R144" s="5">
+        <v>0.6174378606184252</v>
+      </c>
+      <c r="S144" s="5">
+        <v>0.37849504804730782</v>
+      </c>
+      <c r="T144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" t="s">
+        <v>265</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0.32432259103745292</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.2591376224096803</v>
+      </c>
+      <c r="H145" s="5">
+        <v>0.38195471196553016</v>
+      </c>
+      <c r="J145" s="5">
+        <v>0.49667063030781167</v>
+      </c>
+      <c r="K145" s="5">
+        <v>0.50232589756593637</v>
+      </c>
+      <c r="L145" t="s">
+        <v>20</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0.30221720049320777</v>
+      </c>
+      <c r="O145" s="5">
+        <v>0.53275395092642974</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.16320471913494267</v>
+      </c>
+      <c r="R145" s="5">
+        <v>4.2023513092875893E-2</v>
+      </c>
+      <c r="S145" s="5">
+        <v>0.9579757463320846</v>
+      </c>
+      <c r="T145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" t="s">
+        <v>346</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.54879307641666042</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.27470209236618526</v>
+      </c>
+      <c r="H146" s="5">
+        <v>0.17053814872266906</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0.34418732676682884</v>
+      </c>
+      <c r="K146" s="5">
+        <v>0.65515484795504675</v>
+      </c>
+      <c r="L146" t="s">
+        <v>20</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0.58988274743156632</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0.24213210498327442</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.16180566131890578</v>
+      </c>
+      <c r="R146" s="5">
+        <v>0.4387607003870202</v>
+      </c>
+      <c r="S146" s="5">
+        <v>0.55949530014420046</v>
+      </c>
+      <c r="T146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" t="s">
+        <v>344</v>
+      </c>
+      <c r="C147" t="s">
+        <v>264</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0.30983529584121278</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0.24085236835084409</v>
+      </c>
+      <c r="H147" s="5">
+        <v>0.40998219795761498</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0.57227825097624108</v>
+      </c>
+      <c r="K147" s="5">
+        <v>0.42564433739721808</v>
+      </c>
+      <c r="L147" t="s">
+        <v>28</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0.58660429645475953</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0.18396714449530305</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.20639902731229795</v>
+      </c>
+      <c r="R147" s="5">
+        <v>0.8002777049843427</v>
+      </c>
+      <c r="S147" s="5">
+        <v>0.17299572188599513</v>
+      </c>
+      <c r="T147" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" t="s">
+        <v>348</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0.35979469446524576</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0.27495684889015903</v>
+      </c>
+      <c r="H148" s="5">
+        <v>0.33848032473737044</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0.43797373369565079</v>
+      </c>
+      <c r="K148" s="5">
+        <v>0.56148325569460367</v>
+      </c>
+      <c r="L148" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" s="5">
+        <v>0.59133342148491697</v>
+      </c>
+      <c r="O148" s="5">
+        <v>0.28279045364750299</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0.12334246295172011</v>
+      </c>
+      <c r="R148" s="5">
+        <v>0.27177859687121791</v>
+      </c>
+      <c r="S148" s="5">
+        <v>0.72771671611623567</v>
+      </c>
+      <c r="T148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" t="s">
+        <v>376</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0.33252012454308327</v>
+      </c>
+      <c r="G149" s="5">
+        <v>0.35200889972361116</v>
+      </c>
+      <c r="H149" s="5">
+        <v>0.2990661179511187</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0.2191383950132175</v>
+      </c>
+      <c r="K149" s="5">
+        <v>0.78081823727253441</v>
+      </c>
+      <c r="L149" t="s">
+        <v>20</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0.2106800914029659</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0.3519586075609169</v>
+      </c>
+      <c r="P149" s="5">
+        <v>0.40521212208644258</v>
+      </c>
+      <c r="R149" s="5">
+        <v>0.19892621520958242</v>
+      </c>
+      <c r="S149" s="5">
+        <v>0.80100588088922997</v>
+      </c>
+      <c r="T149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0.35588059393821658</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0.29199906158129291</v>
+      </c>
+      <c r="H150" s="5">
+        <v>0.32784052148476966</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0.37569753070088197</v>
+      </c>
+      <c r="K150" s="5">
+        <v>0.62400871660365409</v>
+      </c>
+      <c r="L150" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0.53549136672714048</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0.46449276240442317</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0</v>
+      </c>
+      <c r="R150" s="5">
+        <v>4.2753934943578403E-2</v>
+      </c>
+      <c r="S150" s="5">
+        <v>0.95723019418798505</v>
+      </c>
+      <c r="T150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" t="s">
+        <v>343</v>
+      </c>
+      <c r="C151" t="s">
+        <v>377</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0.48232570318849405</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0.24106921049787075</v>
+      </c>
+      <c r="H151" s="5">
+        <v>0.26007958321292213</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0.55887304655496339</v>
+      </c>
+      <c r="K151" s="5">
+        <v>0.43895886901509423</v>
+      </c>
+      <c r="L151" t="s">
+        <v>16</v>
+      </c>
+      <c r="N151" s="5">
+        <v>0.41368192075486288</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0.4587946305924957</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0.12633215434948869</v>
+      </c>
+      <c r="R151" s="5">
+        <v>7.2068828091853984E-2</v>
+      </c>
+      <c r="S151" s="5">
+        <v>0.92792313513864133</v>
+      </c>
+      <c r="T151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>257</v>
+      </c>
+      <c r="B152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>345</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0.61116973574787392</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.26268586500090402</v>
+      </c>
+      <c r="H152" s="5">
+        <v>0.1232954011468019</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0.31812331270202632</v>
+      </c>
+      <c r="K152" s="5">
+        <v>0.68103197556893957</v>
+      </c>
+      <c r="L152" t="s">
+        <v>20</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0.89918885811762439</v>
+      </c>
+      <c r="O152" s="5">
+        <v>7.0693180114673654E-2</v>
+      </c>
+      <c r="P152" s="5">
+        <v>6.2737743395202186E-3</v>
+      </c>
+      <c r="R152" s="5">
+        <v>0.54566913139087736</v>
+      </c>
+      <c r="S152" s="5">
+        <v>0.42636433458840456</v>
+      </c>
+      <c r="T152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>257</v>
+      </c>
+      <c r="B153" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" t="s">
+        <v>342</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0.2979021571835363</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0.27340031226249356</v>
+      </c>
+      <c r="H153" s="5">
+        <v>0.39232034156501322</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0.43085710793951137</v>
+      </c>
+      <c r="K153" s="5">
+        <v>0.56854223999355658</v>
+      </c>
+      <c r="L153" t="s">
+        <v>20</v>
+      </c>
+      <c r="N153" s="5">
+        <v>0.85057977007141017</v>
+      </c>
+      <c r="O153" s="5">
+        <v>0.11321803957618937</v>
+      </c>
+      <c r="P153" s="5">
+        <v>2.5868314419925386E-2</v>
+      </c>
+      <c r="R153" s="5">
+        <v>0.53186188945199997</v>
+      </c>
+      <c r="S153" s="5">
+        <v>0.45125384161722698</v>
+      </c>
+      <c r="T153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" t="s">
+        <v>347</v>
+      </c>
+      <c r="C154" t="s">
+        <v>380</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F154" s="5">
+        <v>9.357141504894094E-2</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.1816237354641228</v>
+      </c>
+      <c r="H154" s="5">
+        <v>0.61503306159781657</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0.50451948293827087</v>
+      </c>
+      <c r="K154" s="5">
+        <v>0.48943697890890203</v>
+      </c>
+      <c r="L154" t="s">
+        <v>28</v>
+      </c>
+      <c r="N154" s="5">
+        <v>0.45337549937738797</v>
+      </c>
+      <c r="O154" s="5">
+        <v>0.45780195273785013</v>
+      </c>
+      <c r="P154" s="5">
+        <v>8.8378990568776281E-2</v>
+      </c>
+      <c r="R154" s="5">
+        <v>6.5109185246634518E-2</v>
+      </c>
+      <c r="S154" s="5">
+        <v>0.93487968618839212</v>
+      </c>
+      <c r="T154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" t="s">
+        <v>384</v>
+      </c>
+      <c r="C155" t="s">
+        <v>394</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0.46740961396789293</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.30502402469077233</v>
+      </c>
+      <c r="H155" s="5">
+        <v>0.21812915686335774</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0.30166389266862897</v>
+      </c>
+      <c r="K155" s="5">
+        <v>0.69808769329708775</v>
+      </c>
+      <c r="L155" t="s">
+        <v>20</v>
+      </c>
+      <c r="N155" s="5">
+        <v>0.71557848059397988</v>
+      </c>
+      <c r="O155" s="5">
+        <v>0.20071121508628098</v>
+      </c>
+      <c r="P155" s="5">
+        <v>8.1509879582794834E-2</v>
+      </c>
+      <c r="R155" s="5">
+        <v>0.41910173519308214</v>
+      </c>
+      <c r="S155" s="5">
+        <v>0.57746412343668363</v>
+      </c>
+      <c r="T155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>381</v>
+      </c>
+      <c r="B156" t="s">
+        <v>387</v>
+      </c>
+      <c r="C156" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S156" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T156" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>381</v>
+      </c>
+      <c r="B157" t="s">
+        <v>400</v>
+      </c>
+      <c r="C157" t="s">
+        <v>385</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0.26332331395077169</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0.38140840355372063</v>
+      </c>
+      <c r="H157" s="5">
+        <v>0.33603628954648473</v>
+      </c>
+      <c r="J157" s="5">
+        <v>0.16625151305467573</v>
+      </c>
+      <c r="K157" s="5">
+        <v>0.83372716625940957</v>
+      </c>
+      <c r="L157" t="s">
+        <v>20</v>
+      </c>
+      <c r="N157" s="5">
+        <v>0.73413628788633245</v>
+      </c>
+      <c r="O157" s="5">
+        <v>0.16504781539021476</v>
+      </c>
+      <c r="P157" s="5">
+        <v>9.3303952722305183E-2</v>
+      </c>
+      <c r="R157" s="5">
+        <v>0.62807854509483241</v>
+      </c>
+      <c r="S157" s="5">
+        <v>0.35719957778108252</v>
+      </c>
+      <c r="T157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>381</v>
+      </c>
+      <c r="B158" t="s">
+        <v>401</v>
+      </c>
+      <c r="C158" t="s">
+        <v>389</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S158" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>381</v>
+      </c>
+      <c r="B159" t="s">
+        <v>386</v>
+      </c>
+      <c r="C159" t="s">
+        <v>398</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K159" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L159" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N159" s="5">
+        <v>0.45090337833559585</v>
+      </c>
+      <c r="O159" s="5">
+        <v>0.35993087831528636</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0.18425156803008957</v>
+      </c>
+      <c r="R159" s="5">
+        <v>0.17931648986155213</v>
+      </c>
+      <c r="S159" s="5">
+        <v>0.82062202757615765</v>
+      </c>
+      <c r="T159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" t="s">
+        <v>388</v>
+      </c>
+      <c r="C160" t="s">
+        <v>391</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0.42403438861221493</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0.27288147530246559</v>
+      </c>
+      <c r="H160" s="5">
+        <v>0.28429691157516979</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0.4366415868984857</v>
+      </c>
+      <c r="K160" s="5">
+        <v>0.56273915543833419</v>
+      </c>
+      <c r="L160" t="s">
+        <v>20</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0.60195427310955796</v>
+      </c>
+      <c r="O160" s="5">
+        <v>0.3334653078616443</v>
+      </c>
+      <c r="P160" s="5">
+        <v>6.4228011559187531E-2</v>
+      </c>
+      <c r="R160" s="5">
+        <v>0.14356671441886881</v>
+      </c>
+      <c r="S160" s="5">
+        <v>0.85627672913653152</v>
+      </c>
+      <c r="T160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>381</v>
+      </c>
+      <c r="B161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" t="s">
+        <v>393</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0.37733342329176206</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0.28685875487486956</v>
+      </c>
+      <c r="H161" s="5">
+        <v>0.31345528758215607</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0.39259983230828127</v>
+      </c>
+      <c r="K161" s="5">
+        <v>0.60704429702935869</v>
+      </c>
+      <c r="L161" t="s">
+        <v>20</v>
+      </c>
+      <c r="N161" s="5">
+        <v>0.6030175571855918</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0.28741062270581785</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0.10782990460779836</v>
+      </c>
+      <c r="R161" s="5">
+        <v>0.24541975949408809</v>
+      </c>
+      <c r="S161" s="5">
+        <v>0.75414034321609824</v>
+      </c>
+      <c r="T161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" t="s">
+        <v>395</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S162" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T162" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>381</v>
+      </c>
+      <c r="B163" t="s">
+        <v>390</v>
+      </c>
+      <c r="C163" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0.56708125464101089</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0.31049102454771255</v>
+      </c>
+      <c r="H163" s="5">
+        <v>0.12038363471081918</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0.21722736071278129</v>
+      </c>
+      <c r="K163" s="5">
+        <v>0.7825156936591422</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="N163" s="5">
+        <v>0.18905137421871257</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0.33590697875979963</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0.4355876514353153</v>
+      </c>
+      <c r="R163" s="5">
+        <v>0.21671545369362627</v>
+      </c>
+      <c r="S163" s="5">
+        <v>0.78316807525268861</v>
+      </c>
+      <c r="T163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>381</v>
+      </c>
+      <c r="B164" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" t="s">
+        <v>403</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S164" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>381</v>
+      </c>
+      <c r="B165" t="s">
+        <v>382</v>
+      </c>
+      <c r="C165" t="s">
+        <v>392</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F165" s="5">
+        <v>0.51609385697382204</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0.32929322207991729</v>
+      </c>
+      <c r="H165" s="5">
+        <v>0.15122001392056703</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0.20937268033066164</v>
+      </c>
+      <c r="K165" s="5">
+        <v>0.7904719691946015</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="N165" s="5">
+        <v>0.34635199477817469</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0.32112171518182492</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0.3123763608478346</v>
+      </c>
+      <c r="R165" s="5">
+        <v>0.28889617189666938</v>
+      </c>
+      <c r="S165" s="5">
+        <v>0.71099239122378299</v>
+      </c>
+      <c r="T165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>352</v>
+      </c>
+      <c r="B166" t="s">
+        <v>368</v>
+      </c>
+      <c r="C166" t="s">
+        <v>355</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F166" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G166" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H166" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J166" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K166" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N166" s="5">
+        <v>0.71329334050826354</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0.26604873553964875</v>
+      </c>
+      <c r="P166" s="5">
+        <v>2.0293392855809028E-2</v>
+      </c>
+      <c r="R166" s="5">
+        <v>0.17239993665787556</v>
+      </c>
+      <c r="S166" s="5">
+        <v>0.82709859649351647</v>
+      </c>
+      <c r="T166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>352</v>
+      </c>
+      <c r="B167" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S167" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" t="s">
+        <v>359</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0.49385018881539439</v>
+      </c>
+      <c r="G168" s="5">
+        <v>0.25644844884060453</v>
+      </c>
+      <c r="H168" s="5">
+        <v>0.2363895634990692</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0.47216267687571944</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0.52664039472362045</v>
+      </c>
+      <c r="L168" t="s">
+        <v>16</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0.73023479471421682</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0.16173933133045762</v>
+      </c>
+      <c r="P168" s="5">
+        <v>9.7922998111393086E-2</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0.67040648991183149</v>
+      </c>
+      <c r="S168" s="5">
+        <v>0.31022270496166848</v>
+      </c>
+      <c r="T168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" t="s">
+        <v>371</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F169" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G169" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H169" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J169" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K169" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0.19560207343181843</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0.1635001951404596</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0.56633384300011991</v>
+      </c>
+      <c r="R169" s="5">
+        <v>0.80694384301217814</v>
+      </c>
+      <c r="S169" s="5">
+        <v>0.160114321458772</v>
+      </c>
+      <c r="T169" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" t="s">
+        <v>363</v>
+      </c>
+      <c r="C170" t="s">
+        <v>369</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0.37078489092149131</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0.30223445722263914</v>
+      </c>
+      <c r="H170" s="5">
+        <v>0.30649426931835194</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0.34154056057659227</v>
+      </c>
+      <c r="K170" s="5">
+        <v>0.65824985803300995</v>
+      </c>
+      <c r="L170" t="s">
+        <v>20</v>
+      </c>
+      <c r="N170" s="5">
+        <v>0.66142685464192685</v>
+      </c>
+      <c r="O170" s="5">
+        <v>0.20836770409800076</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.12557895006935932</v>
+      </c>
+      <c r="R170" s="5">
+        <v>0.50467741660039411</v>
+      </c>
+      <c r="S170" s="5">
+        <v>0.49106565060253504</v>
+      </c>
+      <c r="T170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171" t="s">
+        <v>367</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F171" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G171" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H171" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J171" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K171" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0.66379720537496734</v>
+      </c>
+      <c r="O171" s="5">
+        <v>0.18314759045505044</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0.14274203462116258</v>
+      </c>
+      <c r="R171" s="5">
+        <v>0.6842742378467771</v>
+      </c>
+      <c r="S171" s="5">
+        <v>0.30130584900454738</v>
+      </c>
+      <c r="T171" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" t="s">
+        <v>358</v>
+      </c>
+      <c r="C172" t="s">
+        <v>356</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0.51206260507042611</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0.30626831977207358</v>
+      </c>
+      <c r="H172" s="5">
+        <v>0.17608899984164006</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.27040184229969599</v>
+      </c>
+      <c r="K172" s="5">
+        <v>0.72932986290884816</v>
+      </c>
+      <c r="L172" t="s">
+        <v>20</v>
+      </c>
+      <c r="N172" s="5">
+        <v>0.75253817414686497</v>
+      </c>
+      <c r="O172" s="5">
+        <v>0.14720803747048869</v>
+      </c>
+      <c r="P172" s="5">
+        <v>8.3900924487325973E-2</v>
+      </c>
+      <c r="R172" s="5">
+        <v>0.7118523680134331</v>
+      </c>
+      <c r="S172" s="5">
+        <v>0.25689944225778771</v>
+      </c>
+      <c r="T172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s">
+        <v>354</v>
+      </c>
+      <c r="C173" t="s">
+        <v>362</v>
+      </c>
+      <c r="D173" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0.48993880696803799</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0.27996905265363908</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0.21954534264762815</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0.37378181441791025</v>
+      </c>
+      <c r="K173" s="5">
+        <v>0.62567557399814744</v>
+      </c>
+      <c r="L173" t="s">
+        <v>20</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0.66083906171955875</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0.25183541731981351</v>
+      </c>
+      <c r="P173" s="5">
+        <v>8.602975688889182E-2</v>
+      </c>
+      <c r="R173" s="5">
+        <v>0.28811069710803339</v>
+      </c>
+      <c r="S173" s="5">
+        <v>0.7109392212927137</v>
+      </c>
+      <c r="T173" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" t="s">
+        <v>360</v>
+      </c>
+      <c r="C174" t="s">
+        <v>361</v>
+      </c>
+      <c r="D174" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0.24538052377775355</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0.31245288252824277</v>
+      </c>
+      <c r="H174" s="5">
+        <v>0.40585350121813679</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0.29094792577976508</v>
+      </c>
+      <c r="K174" s="5">
+        <v>0.7088671402314044</v>
+      </c>
+      <c r="L174" t="s">
+        <v>20</v>
+      </c>
+      <c r="N174" s="5">
+        <v>4.8675421065639733E-2</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0.2099161588666191</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0.62304978418233803</v>
+      </c>
+      <c r="R174" s="5">
+        <v>0.30574982310866194</v>
+      </c>
+      <c r="S174" s="5">
+        <v>0.69240269591017412</v>
+      </c>
+      <c r="T174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" t="s">
+        <v>370</v>
+      </c>
+      <c r="C175" t="s">
+        <v>357</v>
+      </c>
+      <c r="D175" s="4">
+        <v>44493</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0.39986381452997255</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0.25602418151152034</v>
+      </c>
+      <c r="H175" s="5">
+        <v>0.31984176646533397</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0.51689181119622052</v>
+      </c>
+      <c r="K175" s="5">
+        <v>0.48196246973182788</v>
+      </c>
+      <c r="L175" t="s">
+        <v>20</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0.38724133376423331</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0.386438393514905</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0.21948625814385095</v>
+      </c>
+      <c r="R175" s="5">
+        <v>0.15381480967788522</v>
+      </c>
+      <c r="S175" s="5">
+        <v>0.84616177571000273</v>
+      </c>
+      <c r="T175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>163</v>
+      </c>
+      <c r="B176" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" t="s">
+        <v>169</v>
+      </c>
+      <c r="D176" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F176" s="5">
+        <v>0.4409933411921384</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0.25224539888132397</v>
+      </c>
+      <c r="H176" s="5">
+        <v>0.287041100449764</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0.52358775037601601</v>
+      </c>
+      <c r="K176" s="5">
+        <v>0.47504365141288718</v>
+      </c>
+      <c r="L176" t="s">
+        <v>16</v>
+      </c>
+      <c r="N176" s="5">
+        <v>0.2434881921040877</v>
+      </c>
+      <c r="O176" s="5">
+        <v>0.28380192807463395</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0.42921348536884685</v>
+      </c>
+      <c r="R176" s="5">
+        <v>0.36834653981098048</v>
+      </c>
+      <c r="S176" s="5">
+        <v>0.63119439070257799</v>
+      </c>
+      <c r="T176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177" t="s">
+        <v>177</v>
+      </c>
+      <c r="D177" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0.39263322248640004</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0.27210703811512371</v>
+      </c>
+      <c r="H177" s="5">
+        <v>0.31243559957040112</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0.4474814949036553</v>
+      </c>
+      <c r="K177" s="5">
+        <v>0.55190474304414472</v>
+      </c>
+      <c r="L177" t="s">
+        <v>20</v>
+      </c>
+      <c r="N177" s="5">
+        <v>0.66676081241602725</v>
+      </c>
+      <c r="O177" s="5">
+        <v>0.21656648379134866</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0.11331232557644806</v>
+      </c>
+      <c r="R177" s="5">
+        <v>0.44211693754878095</v>
+      </c>
+      <c r="S177" s="5">
+        <v>0.55495278408413096</v>
+      </c>
+      <c r="T177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0.50871099577761447</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0.26470360805249665</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0.21587423688885607</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0.42230154939189668</v>
+      </c>
+      <c r="K178" s="5">
+        <v>0.57679696798290492</v>
+      </c>
+      <c r="L178" t="s">
+        <v>20</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0.78653543361451372</v>
+      </c>
+      <c r="O178" s="5">
+        <v>0.14454184230077258</v>
+      </c>
+      <c r="P178" s="5">
+        <v>6.1115275507732061E-2</v>
+      </c>
+      <c r="R178" s="5">
+        <v>0.59555302588840664</v>
+      </c>
+      <c r="S178" s="5">
+        <v>0.38796429784212244</v>
+      </c>
+      <c r="T178" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F179" s="5">
+        <v>0.3597365390289024</v>
+      </c>
+      <c r="G179" s="5">
+        <v>0.26057903478330346</v>
+      </c>
+      <c r="H179" s="5">
+        <v>0.35061433491822969</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0.49751640064439528</v>
+      </c>
+      <c r="K179" s="5">
+        <v>0.50154166352462903</v>
+      </c>
+      <c r="L179" t="s">
+        <v>20</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0.58338371174289494</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0.26273465191701467</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0.14930146661715407</v>
+      </c>
+      <c r="R179" s="5">
+        <v>0.35317355240957909</v>
+      </c>
+      <c r="S179" s="5">
+        <v>0.64592272844557674</v>
+      </c>
+      <c r="T179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" t="s">
+        <v>171</v>
+      </c>
+      <c r="D180" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0.18757539395603881</v>
+      </c>
+      <c r="G180" s="5">
+        <v>0.24475686330468335</v>
+      </c>
+      <c r="H180" s="5">
+        <v>0.50355875569455699</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.44787153779340683</v>
+      </c>
+      <c r="K180" s="5">
+        <v>0.55053859365547386</v>
+      </c>
+      <c r="L180" t="s">
+        <v>28</v>
+      </c>
+      <c r="N180" s="5">
+        <v>6.5974851811136409E-2</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0.27045378215277149</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0.57768771870006286</v>
+      </c>
+      <c r="R180" s="5">
+        <v>0.22323494003274641</v>
+      </c>
+      <c r="S180" s="5">
+        <v>0.77620171186147568</v>
+      </c>
+      <c r="T180" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0.23647850348924457</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0.21789191396670041</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0.48971854867874004</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.61948358737338605</v>
+      </c>
+      <c r="K181" s="5">
+        <v>0.37592057528576917</v>
+      </c>
+      <c r="L181" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" s="5">
+        <v>0.35262047798365848</v>
+      </c>
+      <c r="O181" s="5">
+        <v>0.21046830261452049</v>
+      </c>
+      <c r="P181" s="5">
+        <v>0.40169195579862566</v>
+      </c>
+      <c r="R181" s="5">
+        <v>0.74181989959024064</v>
+      </c>
+      <c r="S181" s="5">
+        <v>0.24978854453657909</v>
+      </c>
+      <c r="T181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" t="s">
+        <v>167</v>
+      </c>
+      <c r="C182" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F182" s="5">
+        <v>0.39243954934818315</v>
+      </c>
+      <c r="G182" s="5">
+        <v>0.27145879591535593</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0.31314957728942466</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.45017947462551883</v>
+      </c>
+      <c r="K182" s="5">
+        <v>0.54919192530755212</v>
+      </c>
+      <c r="L182" t="s">
+        <v>20</v>
+      </c>
+      <c r="N182" s="5">
+        <v>0.4655550936866607</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0.20269914174019113</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0.30693162726988921</v>
+      </c>
+      <c r="R182" s="5">
+        <v>0.78348105546936753</v>
+      </c>
+      <c r="S182" s="5">
+        <v>0.20289027926982153</v>
+      </c>
+      <c r="T182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F183" s="5">
+        <v>0.61460010743375426</v>
+      </c>
+      <c r="G183" s="5">
+        <v>0.25145917303233772</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0.13042964158792422</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0.35905322338795498</v>
+      </c>
+      <c r="K183" s="5">
+        <v>0.63977325587528699</v>
+      </c>
+      <c r="L183" t="s">
+        <v>16</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0.60569607397583847</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0.21266033020204544</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0.17300981340448687</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0.5874370370078692</v>
+      </c>
+      <c r="S183" s="5">
+        <v>0.40730738496472019</v>
+      </c>
+      <c r="T183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" t="s">
+        <v>168</v>
+      </c>
+      <c r="D184" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0.78421679536344657</v>
+      </c>
+      <c r="G184" s="5">
+        <v>0.14679196058247446</v>
+      </c>
+      <c r="H184" s="5">
+        <v>6.1830466195097834E-2</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0.58563611235639379</v>
+      </c>
+      <c r="K184" s="5">
+        <v>0.39915656036155456</v>
+      </c>
+      <c r="L184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N184" s="5">
+        <v>0.30574415076081013</v>
+      </c>
+      <c r="O184" s="5">
+        <v>0.27110542244841834</v>
+      </c>
+      <c r="P184" s="5">
+        <v>0.38761562925569804</v>
+      </c>
+      <c r="R184" s="5">
+        <v>0.44236514929925935</v>
+      </c>
+      <c r="S184" s="5">
+        <v>0.55698772224463644</v>
+      </c>
+      <c r="T184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>163</v>
+      </c>
+      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0.41602447254884967</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0.2110681155327207</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0.34542595741518523</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0.74865359776673146</v>
+      </c>
+      <c r="K185" s="5">
+        <v>0.24255725190355679</v>
+      </c>
+      <c r="L185" t="s">
+        <v>11</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0.23181192551159346</v>
+      </c>
+      <c r="O185" s="5">
+        <v>0.34690449566186476</v>
+      </c>
+      <c r="P185" s="5">
+        <v>0.39101999365332701</v>
+      </c>
+      <c r="R185" s="5">
+        <v>0.21441289786371726</v>
+      </c>
+      <c r="S185" s="5">
+        <v>0.78551701502587556</v>
+      </c>
+      <c r="T185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" t="s">
+        <v>182</v>
+      </c>
+      <c r="D186" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0.58099382068481464</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0.23724930146228587</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0.1742793118819162</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0.47707523870590318</v>
+      </c>
+      <c r="K186" s="5">
+        <v>0.52078138187545453</v>
+      </c>
+      <c r="L186" t="s">
+        <v>16</v>
+      </c>
+      <c r="N186" s="5">
+        <v>7.2171738414602615E-2</v>
+      </c>
+      <c r="O186" s="5">
+        <v>0.20630050877239289</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0.61021587762582497</v>
+      </c>
+      <c r="R186" s="5">
+        <v>0.36760115087351281</v>
+      </c>
+      <c r="S186" s="5">
+        <v>0.62990524076440302</v>
+      </c>
+      <c r="T186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187" t="s">
+        <v>255</v>
+      </c>
+      <c r="C187" t="s">
+        <v>251</v>
+      </c>
+      <c r="D187" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L187" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S187" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T187" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+      <c r="B188" t="s">
+        <v>246</v>
+      </c>
+      <c r="C188" t="s">
+        <v>252</v>
+      </c>
+      <c r="D188" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L188" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>245</v>
+      </c>
+      <c r="B189" t="s">
+        <v>247</v>
+      </c>
+      <c r="C189" t="s">
+        <v>254</v>
+      </c>
+      <c r="D189" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L189" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T189" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>245</v>
+      </c>
+      <c r="B190" t="s">
+        <v>249</v>
+      </c>
+      <c r="C190" t="s">
+        <v>256</v>
+      </c>
+      <c r="D190" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L190" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T190" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>245</v>
+      </c>
+      <c r="B191" t="s">
+        <v>248</v>
+      </c>
+      <c r="C191" t="s">
+        <v>253</v>
+      </c>
+      <c r="D191" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L191" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T191" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043E891-FF88-41EA-A487-4997436E99B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DEC19-0187-41B0-81EB-F057DBDD8661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="425">
   <si>
     <t>Div</t>
   </si>
@@ -1294,6 +1294,24 @@
   <si>
     <t>Mirandes</t>
   </si>
+  <si>
+    <t>ov25</t>
+  </si>
+  <si>
+    <t>BTTS</t>
+  </si>
+  <si>
+    <t>OV25</t>
+  </si>
+  <si>
+    <t>OV2</t>
+  </si>
+  <si>
+    <t>ov2</t>
+  </si>
+  <si>
+    <t>ov2.25</t>
+  </si>
 </sst>
 </file>
 
@@ -1315,12 +1333,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1336,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1347,6 +1371,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33413,10 +33440,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5275F-EB59-4229-8180-1958106C042A}">
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33425,7 +33452,7 @@
     <col min="3" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33472,7 +33499,7 @@
       </c>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -33522,7 +33549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -33572,7 +33599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -33622,7 +33649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -33672,57 +33699,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>44491</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>0.30469432039157779</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>0.37225937187627017</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <v>0.30689041115870719</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <v>0.18307895667702956</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="8">
         <v>0.81689684397659523</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="L6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="8">
         <v>0.55194867494548228</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="8">
         <v>0.41888117731156638</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="8">
         <v>2.9131043268597168E-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="8">
         <v>6.7657433407798798E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="8">
         <v>0.93230997500886104</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -33772,7 +33799,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33822,7 +33849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -33872,7 +33899,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -33922,107 +33949,113 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>44491</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>0.29958457495163904</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>0.30118343984513934</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <v>0.36876275054013447</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="8">
         <v>0.33953784897667766</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="8">
         <v>0.66023536397922145</v>
       </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="L11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8">
         <v>0.64712096693848031</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="8">
         <v>0.20673979767646175</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="8">
         <v>0.1401646778966667</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="8">
         <v>0.54728510486706794</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="8">
         <v>0.44757065205023111</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="U11" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>44491</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="8">
         <v>0.2387277997521999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="8">
         <v>0.22549866824041037</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
         <v>0.48097556565807142</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="8">
         <v>0.58695456567020932</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="8">
         <v>0.40958189785186044</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="8">
         <v>0.50738761795086973</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="8">
         <v>0.31581302188484095</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="8">
         <v>0.17178184219047249</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="8">
         <v>0.24741052218752169</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="8">
         <v>0.75238043526781828</v>
       </c>
-      <c r="T12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -34072,57 +34105,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>44492</v>
       </c>
-      <c r="F14" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="F14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="8">
         <v>0.40689332464465561</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="8">
         <v>0.2287948945348707</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="8">
         <v>0.33791451398509537</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="8">
         <v>0.65377215178299908</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="8">
         <v>0.34252408291135372</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -34172,7 +34208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -38222,7 +38258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>245</v>
       </c>
@@ -38272,7 +38308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>245</v>
       </c>
@@ -38322,7 +38358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -38372,7 +38408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -38422,7 +38458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -38472,57 +38508,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="7">
         <v>44493</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="8">
         <v>0.35430295596396189</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="8">
         <v>0.20868167529408799</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="8">
         <v>0.40177001284882435</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="8">
         <v>0.75131197032812325</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="8">
         <v>0.23950807150560455</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N102" s="5">
+      <c r="N102" s="8">
         <v>0.23668072837863924</v>
       </c>
-      <c r="O102" s="5">
+      <c r="O102" s="8">
         <v>0.25314803629429067</v>
       </c>
-      <c r="P102" s="5">
+      <c r="P102" s="8">
         <v>0.45879456971644489</v>
       </c>
-      <c r="R102" s="5">
+      <c r="R102" s="8">
         <v>0.46877779512317247</v>
       </c>
-      <c r="S102" s="5">
+      <c r="S102" s="8">
         <v>0.529942100628638</v>
       </c>
-      <c r="T102" t="s">
+      <c r="T102" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -38572,7 +38611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -38622,7 +38661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -38672,57 +38711,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="7">
         <v>44493</v>
       </c>
-      <c r="F106" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G106" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H106" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J106" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K106" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N106" s="5">
+      <c r="F106" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G106" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J106" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K106" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L106" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N106" s="8">
         <v>0.44266584280058607</v>
       </c>
-      <c r="O106" s="5">
+      <c r="O106" s="8">
         <v>0.27576498867457983</v>
       </c>
-      <c r="P106" s="5">
+      <c r="P106" s="8">
         <v>0.26540077116087818</v>
       </c>
-      <c r="R106" s="5">
+      <c r="R106" s="8">
         <v>0.41753899759869201</v>
       </c>
-      <c r="S106" s="5">
+      <c r="S106" s="8">
         <v>0.58188463374327926</v>
       </c>
-      <c r="T106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U106" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -38772,7 +38814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -38822,7 +38864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -38872,7 +38914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>75</v>
       </c>
@@ -38922,7 +38964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
@@ -38972,7 +39014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>189</v>
       </c>
@@ -39422,53 +39464,53 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="7">
         <v>44493</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="8">
         <v>0.37392900205950791</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="8">
         <v>0.27649181273896573</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="8">
         <v>0.3250037273406759</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="8">
         <v>0.43180074670753438</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121" s="8">
         <v>0.56768411935733032</v>
       </c>
-      <c r="L121" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" s="5">
+      <c r="L121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" s="8">
         <v>0.15470658862670408</v>
       </c>
-      <c r="O121" s="5">
+      <c r="O121" s="8">
         <v>0.31592718334564079</v>
       </c>
-      <c r="P121" s="5">
+      <c r="P121" s="8">
         <v>0.47839599173105585</v>
       </c>
-      <c r="R121" s="5">
+      <c r="R121" s="8">
         <v>0.23166977439892797</v>
       </c>
-      <c r="S121" s="5">
+      <c r="S121" s="8">
         <v>0.76811411676038921</v>
       </c>
-      <c r="T121" t="s">
+      <c r="T121" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -39822,57 +39864,60 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="7">
         <v>44493</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="8">
         <v>0.57665328658681969</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="8">
         <v>0.21135329338123898</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="8">
         <v>0.20044172601791435</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="8">
         <v>0.64153397742507157</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129" s="8">
         <v>0.35195654340730403</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N129" s="5">
+      <c r="N129" s="8">
         <v>0.49401379925986721</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="8">
         <v>0.2019316592984467</v>
       </c>
-      <c r="P129" s="5">
+      <c r="P129" s="8">
         <v>0.28173618580535581</v>
       </c>
-      <c r="R129" s="5">
+      <c r="R129" s="8">
         <v>0.77612388136119381</v>
       </c>
-      <c r="S129" s="5">
+      <c r="S129" s="8">
         <v>0.21012211992727509</v>
       </c>
-      <c r="T129" t="s">
+      <c r="T129" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>293</v>
       </c>
@@ -39922,57 +39967,60 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="7">
         <v>44493</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="8">
         <v>0.34736929120888971</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="8">
         <v>0.2734652467638729</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="8">
         <v>0.35038241543871346</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131" s="8">
         <v>0.44294926443592986</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131" s="8">
         <v>0.55647586244506742</v>
       </c>
-      <c r="L131" t="s">
-        <v>20</v>
-      </c>
-      <c r="N131" s="5">
+      <c r="L131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="8">
         <v>0.66349551059973888</v>
       </c>
-      <c r="O131" s="5">
+      <c r="O131" s="8">
         <v>0.20803326843086595</v>
       </c>
-      <c r="P131" s="5">
+      <c r="P131" s="8">
         <v>0.12395362007470316</v>
       </c>
-      <c r="R131" s="5">
+      <c r="R131" s="8">
         <v>0.50217129890352863</v>
       </c>
-      <c r="S131" s="5">
+      <c r="S131" s="8">
         <v>0.49358652240183781</v>
       </c>
-      <c r="T131" t="s">
+      <c r="T131" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -40022,7 +40070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -40072,7 +40120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -40122,7 +40170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -40172,7 +40220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>323</v>
       </c>
@@ -40222,7 +40270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>323</v>
       </c>
@@ -40272,7 +40320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>323</v>
       </c>
@@ -40322,7 +40370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>323</v>
       </c>
@@ -40372,7 +40420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>323</v>
       </c>
@@ -40422,7 +40470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>323</v>
       </c>
@@ -40472,7 +40520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>323</v>
       </c>
@@ -40522,7 +40570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>323</v>
       </c>
@@ -40572,7 +40620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>323</v>
       </c>
@@ -40622,7 +40670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>257</v>
       </c>
@@ -40672,7 +40720,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -40722,7 +40770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>257</v>
       </c>
@@ -40772,7 +40820,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>257</v>
       </c>
@@ -40822,7 +40870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>257</v>
       </c>
@@ -40872,7 +40920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>257</v>
       </c>
@@ -40922,57 +40970,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="7">
         <v>44493</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="8">
         <v>0.48232570318849405</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="8">
         <v>0.24106921049787075</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="8">
         <v>0.26007958321292213</v>
       </c>
-      <c r="J151" s="5">
+      <c r="J151" s="8">
         <v>0.55887304655496339</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151" s="8">
         <v>0.43895886901509423</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N151" s="5">
+      <c r="N151" s="8">
         <v>0.41368192075486288</v>
       </c>
-      <c r="O151" s="5">
+      <c r="O151" s="8">
         <v>0.4587946305924957</v>
       </c>
-      <c r="P151" s="5">
+      <c r="P151" s="8">
         <v>0.12633215434948869</v>
       </c>
-      <c r="R151" s="5">
+      <c r="R151" s="8">
         <v>7.2068828091853984E-2</v>
       </c>
-      <c r="S151" s="5">
+      <c r="S151" s="8">
         <v>0.92792313513864133</v>
       </c>
-      <c r="T151" t="s">
+      <c r="T151" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>257</v>
       </c>
@@ -41022,7 +41073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>257</v>
       </c>
@@ -41072,7 +41123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>257</v>
       </c>
@@ -41122,7 +41173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>381</v>
       </c>
@@ -41172,7 +41223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>381</v>
       </c>
@@ -41222,7 +41273,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>381</v>
       </c>
@@ -41272,7 +41323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -41322,7 +41373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>381</v>
       </c>
@@ -41372,7 +41423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>381</v>
       </c>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DEC19-0187-41B0-81EB-F057DBDD8661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F2FC68-1F70-4CDF-A083-AD3E6D9D04F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="1510-1810" sheetId="4" r:id="rId4"/>
     <sheet name="1910" sheetId="5" r:id="rId5"/>
     <sheet name="2110" sheetId="6" r:id="rId6"/>
+    <sheet name="2710-3110" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="425">
   <si>
     <t>Div</t>
   </si>
@@ -33442,8 +33443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5275F-EB59-4229-8180-1958106C042A}">
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43026,4 +43027,6439 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4ECD40-D907-447C-8C2E-49B921014FEB}">
+  <dimension ref="A1:T200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.3009055507013067</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2134301962976968</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.44273545897070654</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.70014877527401398</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.29328027796094025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N3" s="5">
+        <v>9.6472402877384983E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.11601890866648203</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.66169919520396803</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.78976802395454559</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.14447415728504615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.46705697256636275</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.26874740415852211</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.24972245859518263</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.43429981253296396</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.56494013281388922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.66399687166761601</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.1878089243325867</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.13971080994437529</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.64777900728966453</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.341111892310756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.68982244332209741</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.23798716520544572</v>
+      </c>
+      <c r="P6" s="5">
+        <v>7.1161923021202347E-2</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.29310071899610213</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.70569435427031901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.888281188534076</v>
+      </c>
+      <c r="O7" s="5">
+        <v>8.3681667556691278E-2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1.0107150445913874E-2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.53098000036379933</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.44634686162247117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N8" s="5">
+        <v>7.874078311471662E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.13150013970736057</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.66466737962207345</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.67508166482725618</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.29983023983005247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.44760777810303032</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.23745516106094419</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.29418638404647113</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.59714568700027559</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.40032049281281284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.36512714455963569</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.23842222985963485</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.36544654234086843</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.60223208245930759</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.39541058419027908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.12704444707003634</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.39808387088359098</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.44168456554965602</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.11443721713207361</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.88552940690693571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.45100544441348078</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.31996278739748096</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.21997296301788685</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.26712291087668777</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.73271958661060899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.12426837943897535</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.20634295451383844</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.57798089040325962</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.48482565746070438</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.51133305908987126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.59094797645190589</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.20024478262077633</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.19601887824200306</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.69604926475691864</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.29341720752487499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.70583872984923601</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.22407728863280785</v>
+      </c>
+      <c r="P16" s="5">
+        <v>6.8909998439848921E-2</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.32071763127007002</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.67763549121926148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.72320216539944582</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.19313482816942976</v>
+      </c>
+      <c r="P17" s="5">
+        <v>8.1142575246068147E-2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.44554815037739171</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.55017826663373837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.21315806096847897</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.42150400921704767</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.34733940720019052</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.11338928186284694</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.88660101260098789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.52191669078769609</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.22893243023118554</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.23511931126076177</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.59531818086053789</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.4012046181746618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.16607159817212858</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.23141903742912129</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.52990118626990235</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.46680492626140385</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.53093428931437692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.18572658824782526</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.58177415126119614</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.22869417028246078</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2.7353905624044491E-2</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.97264597165381539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.69251115418018305</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.25268037346895078</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5.4229370449143402E-2</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.23706378688524071</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.76215263887292595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.15992765938360082</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.67698973497215598</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.16192727346010757</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1.00807452205339E-2</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.98991924692854694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.1634895639498801</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.24306749542110304</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.52283274922229828</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.42200729860099001</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.57641951800437008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.61583170848031576</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.16688759928412789</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.17475343805187513</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.83266962510879583</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.11119119609366679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.85127615453730077</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.12903652088974246</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1.4212858131565051E-2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.3984438744894061</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.59430721486098903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44496</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.75355146438163967</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.16924188862713208</v>
+      </c>
+      <c r="P27" s="5">
+        <v>7.3241236375979499E-2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.51943546608251323</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.47234123736140865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.16209374509008889</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.45781543239087197</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.362536403875165</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="5">
+        <v>7.8156439365247798E-2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.92183761012260734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.29623934219557169</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.41461495394407916</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.27819845078233291</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.12611300542987677</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.8738794311928002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.77091900540942038</v>
+      </c>
+      <c r="O30" s="5">
+        <v>9.6259063372976877E-2</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2.550222541694909E-2</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.7378387051921631</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.11155187084080259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.86933100989393697</v>
+      </c>
+      <c r="O31" s="5">
+        <v>8.1474335769265313E-2</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1.6939371568664478E-2</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.64228860004521438</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.31106143311498924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.83278600886037468</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.14180940041025461</v>
+      </c>
+      <c r="P32" s="5">
+        <v>2.1200113093478377E-2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.39527231434511184</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.59846424278791566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.28451505189351217</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.38950524610865567</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.31041206501965413</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.15680247253960392</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.84318216559782699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.44934642684275911</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.22766645155584839</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.30135445053971055</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.65040755460198862</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.34566285370016026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.2685685659366579</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.56521201472189997</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.16454338053853074</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="5">
+        <v>3.1503969568754828E-2</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.96849575532207011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44498</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.74406558266464595</v>
+      </c>
+      <c r="O36" s="5">
+        <v>9.5098285810955557E-2</v>
+      </c>
+      <c r="P36" s="5">
+        <v>2.319662488751572E-2</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.72543329742428031</v>
+      </c>
+      <c r="S36" s="5">
+        <v>8.8822655961851446E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.10005483594107138</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.18868602885064076</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.60607726942198425</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.49475894023195327</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.49998747374178343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.21087816077579979</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.23979888396541213</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.489869097584821</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.49459601069056497</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.50344444022935719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.24972988849693753</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.26648673610013091</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.43759913674451062</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.42976112854681042</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.56943008589393096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.30970938576018631</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.19928590126520784</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.44784606373936181</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.77407433885752286</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.21304600641229623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.30470833833422106</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.29874059282773446</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.36633375741567664</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.3480453672191916</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.65171085023172426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.5017260585068537</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.24801383229491203</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.23665194269961665</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.50776492774074811</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.49059861752429457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.77856495447335272</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.12489270839390065</v>
+      </c>
+      <c r="P43" s="5">
+        <v>5.8541251686899803E-2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.75236800198530362</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.18322756465645806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.42630628071937193</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.52962733242304638</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="5">
+        <v>5.5249497496605508E-2</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.94471954354835508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.43801363296779589</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.22091789202883222</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.31743333755336861</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.69177855020940682</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.3028058683283314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.80794357423158014</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.16008606095323502</v>
+      </c>
+      <c r="P46" s="5">
+        <v>2.9154770677221036E-2</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.37620848170493637</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.61909756429002039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N47" s="5">
+        <v>7.2007819356097208E-2</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.42660847292436138</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.46731816610639043</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="5">
+        <v>7.7184044652667524E-2</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.9227922199665719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.33816677643585658</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.42672529189739816</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.22865434814609814</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.11102776594921518</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.88896528567404764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.7667595998050849</v>
+      </c>
+      <c r="O49" s="5">
+        <v>7.3137762220808165E-3</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.64234249727277137</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0.13173087875439443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1.9723541404084201E-2</v>
+      </c>
+      <c r="O50" s="5">
+        <v>8.4186201770464333E-2</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.69937219555555741</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.58390579954268895</v>
+      </c>
+      <c r="S50" s="5">
+        <v>0.38827195986886692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.30513597208117083</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.24129261482007475</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.41348469004641714</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0.56780270968725688</v>
+      </c>
+      <c r="S51" s="5">
+        <v>0.43016057203535868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.34687139504839176</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.31044317961102641</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.32063456517288158</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0.31811041475162122</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0.68173239465346003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.3341963128288436</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.44270191241298579</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.21773651672554459</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="5">
+        <v>9.6084696933614572E-2</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0.90391042130758115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.43207034096629293</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.37146894466900021</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.19131543551357252</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.16587523366468401</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0.8340814590155885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.56638880527286917</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.25089329887397582</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.17558930170271783</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0.42659444577683403</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0.57203543249292188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.39734829069020938</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.30711410321777149</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.27909135005714303</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0.32211981242108778</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.67769142961675199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.38883235236179614</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.34406286970027689</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.25538403976360707</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.22905448502361928</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0.77088138522458993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.48195520731838304</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.30399548423115302</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.20579652042290253</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.29658734589610208</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0.70314663246398401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.37161654022232599</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.26837526047679988</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.33379280594754224</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.46467196648392106</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0.53463053610356537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.31342754853821819</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.28717269910128085</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.36813939838990289</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0.38707780251762636</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0.61256322687664255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N61" s="5">
+        <v>5.847054581477773E-2</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.2961900510214161</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.56834553338187366</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.17935356036127739</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.82032121704606875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.48344171551122322</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.2170603468224509</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.28001804449588502</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.69537792304852397</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0.29823763865312508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.72713581969628427</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.19019810712813348</v>
+      </c>
+      <c r="P63" s="5">
+        <v>8.0044660791644656E-2</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.45343304131087475</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0.54196082912108645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.76712585359339625</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0.18399573285565499</v>
+      </c>
+      <c r="P64" s="5">
+        <v>4.7083420284419843E-2</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.37043926142218053</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0.62609457815718772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.3984549843800787</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0.25666559650049703</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.32051441002784159</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.51411601441501775</v>
+      </c>
+      <c r="S65" s="5">
+        <v>0.48476818018755996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.38574532589351918</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.2390570008443155</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.3470756206118451</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.60076380950900998</v>
+      </c>
+      <c r="S66" s="5">
+        <v>0.39692146067754397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.42764295459498702</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0.23846655837589834</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.31094683941283519</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0.5985025826236744</v>
+      </c>
+      <c r="S67" s="5">
+        <v>0.39908249617060465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0.51441475233873402</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0.36461221540334604</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.11944353738313469</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.14430773594671581</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0.85561850022657637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.71616035855626425</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0.21422679072730322</v>
+      </c>
+      <c r="P69" s="5">
+        <v>6.8268266984021414E-2</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" s="5">
+        <v>0.34430002879521115</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0.65361542740975809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0.57938105178145827</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0.25467103679061798</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.16028259128420813</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.39276710305845214</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0.60605809895054663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.16334745809080847</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.18993358325317608</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.56792438804896461</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.63654994662086917</v>
+      </c>
+      <c r="S71" s="5">
+        <v>0.35459858577208836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0.72954150360746806</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0.15694680390524629</v>
+      </c>
+      <c r="P72" s="5">
+        <v>9.9252196616828534E-2</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.71133533936501969</v>
+      </c>
+      <c r="S72" s="5">
+        <v>0.26208303325188909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0.38791838382416516</v>
+      </c>
+      <c r="O73" s="5">
+        <v>0.33378775172616815</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.2649993076694801</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.25245926594399393</v>
+      </c>
+      <c r="S73" s="5">
+        <v>0.74745659346535842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0.53876427889169554</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0.34535820022776897</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.114385365330998</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" s="5">
+        <v>0.16355818975061165</v>
+      </c>
+      <c r="S74" s="5">
+        <v>0.83632609058185914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.52331969061162897</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.23785709369279789</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.22608227653849133</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R75" s="5">
+        <v>0.54270108042570819</v>
+      </c>
+      <c r="S75" s="5">
+        <v>0.45490889303047477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0.30418127997594879</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0.32006392530206534</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0.34987491966455181</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="5">
+        <v>0.28893382346524921</v>
+      </c>
+      <c r="S76" s="5">
+        <v>0.71094615224871616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0.71689212163791161</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0.15798121838402152</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0.10753468659535532</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.73862086481640843</v>
+      </c>
+      <c r="S77" s="5">
+        <v>0.23020200369640248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0.73706287918330538</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0.17990859198206374</v>
+      </c>
+      <c r="P78" s="5">
+        <v>7.9705182326715529E-2</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R78" s="5">
+        <v>0.49497330259133299</v>
+      </c>
+      <c r="S78" s="5">
+        <v>0.49865731442362604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0.43557554862575909</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0.34869904439600086</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0.20866863033819699</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0.20628080712981964</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0.79364650699710237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0.10580010854005337</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.20234712375059255</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.59239435807264385</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.45836939627322038</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0.53790403817893251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.70545037908715336</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0.24060491507105136</v>
+      </c>
+      <c r="P81" s="5">
+        <v>5.3268899671784373E-2</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" s="5">
+        <v>0.25642495229668122</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.74256892717863354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0.30239205576546679</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0.2684297643949432</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.39261583609995143</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="5">
+        <v>0.4513385553491121</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0.54794483942727601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0.41602675260833977</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0.23559915712798998</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.32374164865267124</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" s="5">
+        <v>0.61627205687865905</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0.38099806567633093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0.39077612603375211</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0.38520936164235053</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.21731457182629957</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="5">
+        <v>0.15492372787887423</v>
+      </c>
+      <c r="S84" s="5">
+        <v>0.84505162784497168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0.76183764809583032</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0.17318643040113893</v>
+      </c>
+      <c r="P85" s="5">
+        <v>6.2121042494513286E-2</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R85" s="5">
+        <v>0.45839343319215542</v>
+      </c>
+      <c r="S85" s="5">
+        <v>0.5356999413674105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N86" s="5">
+        <v>6.3098700812316375E-2</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.16049532026594479</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.6445967781007067</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0.48944455432998707</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.50305374928211699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0.273145504817917</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0.48563927039284832</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.23560647992257525</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R87" s="5">
+        <v>6.7109851124639103E-2</v>
+      </c>
+      <c r="S87" s="5">
+        <v>0.93288888978280582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0.62160078363442828</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0.20767758354051771</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.16267898934882913</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R88" s="5">
+        <v>0.59261303330194448</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0.40141699139325304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0.13031837054090242</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.21136910716272958</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.57018085640027705</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R89" s="5">
+        <v>0.47848782430104386</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.51806272636694395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>379</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0.72292286950386231</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0.25083988145368391</v>
+      </c>
+      <c r="P90" s="5">
+        <v>2.577382942106354E-2</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0.19756512229801731</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.80175048655276093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.66180528393803906</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.24262036243579627</v>
+      </c>
+      <c r="P91" s="5">
+        <v>9.3863882256405864E-2</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0.32268625930834377</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.67607094719900518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.25028479634653783</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.23009218167466655</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.4678252840931475</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0.57800605656914394</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0.41900964458372369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0.10680683181864224</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0.49109460309929148</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.38409118264580572</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R93" s="5">
+        <v>5.3102259831831131E-2</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0.94689323157313965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0.67694963763254534</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0.20862410074552609</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.11089540431197453</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0.46718275351477012</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0.52913861027269038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0.63295593541987616</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0.2193328584497391</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.14230374311570243</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R95" s="5">
+        <v>0.49460696521635067</v>
+      </c>
+      <c r="S95" s="5">
+        <v>0.50204932510294731</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0.45535474470018689</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0.24952053590132242</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.27670458582533752</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0.53061701116140947</v>
+      </c>
+      <c r="S96" s="5">
+        <v>0.46784620289014356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0.43780778682924104</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0.2311768445155778</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.30847826932432593</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0.63486315519435144</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0.3617902682640608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0.45228083215610604</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0.26661246773379788</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.26468463049012314</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.4516178148576393</v>
+      </c>
+      <c r="S98" s="5">
+        <v>0.54757752673310489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0.57650115563513504</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0.29896885748324709</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.12226536859686979</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0.23889600497435046</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0.7607653713218091</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N100" s="5">
+        <v>0.38123856451073518</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0.35149748060442904</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.25583354400706138</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.21505303704490689</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0.78489588368974794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.4469453455773964</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0.36500855671595683</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.18330289658939969</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0.17182357261459583</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0.82812236898517577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0.17763170613292051</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0.20214163462980309</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.54702058161107325</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0.60728562913236939</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0.38640124508152146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0.76432744521817098</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0.17790020157236464</v>
+      </c>
+      <c r="P103" s="5">
+        <v>5.5489612327573101E-2</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0.41708502248017465</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0.57829881101186453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0.71088768095740162</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0.18239658186191351</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.10180877922258541</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0.56069259748655331</v>
+      </c>
+      <c r="S104" s="5">
+        <v>0.4310823743905382</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0.11322870065457993</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0.37198183626563258</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0.47301382078815579</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0.13305409068651497</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0.86688188208257599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N106" s="5">
+        <v>0.31440992808192236</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0.34885688089037026</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.31770333962151748</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0.2252589579912897</v>
+      </c>
+      <c r="S106" s="5">
+        <v>0.77469333296084109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0.37356228493924348</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0.25576691265094026</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.34285859481391034</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.51975939595558562</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0.47909655733090872</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N108" s="5">
+        <v>0.20633882931264108</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0.35237802831932763</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.40859857049968329</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.19672329301583052</v>
+      </c>
+      <c r="S108" s="5">
+        <v>0.80320802737089125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N109" s="5">
+        <v>6.2121491608729089E-2</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0.15703625500830726</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.64746683566451391</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.49910376356071162</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0.49273620247598204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N110" s="5">
+        <v>2.9990194931574819E-2</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0.16536583954953349</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.65558945566724169</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R110" s="5">
+        <v>0.35964005656612841</v>
+      </c>
+      <c r="S110" s="5">
+        <v>0.63634980611320002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0.60342705504212479</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0.28230007849674216</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.11227915613157118</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0.26021259395212581</v>
+      </c>
+      <c r="S111" s="5">
+        <v>0.73928620854525839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0.52068603947289638</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0.19656852127404226</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.26055667634826096</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="R112" s="5">
+        <v>0.78943169790395173</v>
+      </c>
+      <c r="S112" s="5">
+        <v>0.19315841615583609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0.30108123481767751</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0.30236913626665224</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.36655133582207844</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" s="5">
+        <v>0.33641645155598282</v>
+      </c>
+      <c r="S113" s="5">
+        <v>0.66336638114019042</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0.80226775659191729</v>
+      </c>
+      <c r="O114" s="5">
+        <v>5.1301170900786702E-2</v>
+      </c>
+      <c r="P114" s="5">
+        <v>4.9502329488129203E-3</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R114" s="5">
+        <v>0.68766843262641097</v>
+      </c>
+      <c r="S114" s="5">
+        <v>0.14287731883114232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0.70583872984923601</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0.22407728863280785</v>
+      </c>
+      <c r="P115" s="5">
+        <v>6.8909998439848921E-2</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0.32071763127007002</v>
+      </c>
+      <c r="S115" s="5">
+        <v>0.67763549121926148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0.25257858893289259</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0.34150178834866707</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.3773981611407301</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R116" s="5">
+        <v>0.23037690245604048</v>
+      </c>
+      <c r="S116" s="5">
+        <v>0.76954906778475529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0.30097499598979427</v>
+      </c>
+      <c r="O117" s="5">
+        <v>0.21743085215490826</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0.43892581713407286</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.68041861599622022</v>
+      </c>
+      <c r="S117" s="5">
+        <v>0.31406946946466296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0.31439336042903282</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0.63129380294593873</v>
+      </c>
+      <c r="P118" s="5">
+        <v>5.4252835564901174E-2</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R118" s="5">
+        <v>1.3944915492014891E-2</v>
+      </c>
+      <c r="S118" s="5">
+        <v>0.98605481339081635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0.84914846219163465</v>
+      </c>
+      <c r="O119" s="5">
+        <v>3.6108692389558793E-2</v>
+      </c>
+      <c r="P119" s="5">
+        <v>2.6293848433465018E-3</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0.67370876465880603</v>
+      </c>
+      <c r="S119" s="5">
+        <v>0.20103735601094383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0.24662894482638328</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0.26189287544780865</v>
+      </c>
+      <c r="P120" s="5">
+        <v>0.44377140136584697</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.44411876476150425</v>
+      </c>
+      <c r="S120" s="5">
+        <v>0.55493329011859194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q121" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q122" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S122" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N123" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O123" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P123" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q123" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R123" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S123" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q124" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S124" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44499</v>
+      </c>
+      <c r="N125" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O125" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P125" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q125" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R125" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S125" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0.18814320660706951</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0.25934542613730849</v>
+      </c>
+      <c r="P126" s="5">
+        <v>0.49197507478842878</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R126" s="5">
+        <v>0.39898291234139549</v>
+      </c>
+      <c r="S126" s="5">
+        <v>0.60000271996064924</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0.32625909273291237</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0.39527339414489221</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.26772794324126725</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R127" s="5">
+        <v>0.14888466764147398</v>
+      </c>
+      <c r="S127" s="5">
+        <v>0.85110204753236374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N128" s="5">
+        <v>0.51169984458761797</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0.22773230508588885</v>
+      </c>
+      <c r="P128" s="5">
+        <v>0.24537656252267936</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R128" s="5">
+        <v>0.61171297260274782</v>
+      </c>
+      <c r="S128" s="5">
+        <v>0.3845587512374633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N129" s="5">
+        <v>7.5245328156272662E-2</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0.25428211737410483</v>
+      </c>
+      <c r="P129" s="5">
+        <v>0.58011455381021515</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R129" s="5">
+        <v>0.26355113362934163</v>
+      </c>
+      <c r="S129" s="5">
+        <v>0.7356176030775734</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N130" s="5">
+        <v>0.74841905444113577</v>
+      </c>
+      <c r="O130" s="5">
+        <v>0.17212038900861173</v>
+      </c>
+      <c r="P130" s="5">
+        <v>7.5646904626519365E-2</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R130" s="5">
+        <v>0.51538373524461023</v>
+      </c>
+      <c r="S130" s="5">
+        <v>0.47685009249441029</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0.1276197835245968</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0.18541117474936991</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0.59363311286942044</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R131" s="5">
+        <v>0.57825730317884494</v>
+      </c>
+      <c r="S131" s="5">
+        <v>0.41411428525476973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0.59868677974596185</v>
+      </c>
+      <c r="O132" s="5">
+        <v>0.24072503933268599</v>
+      </c>
+      <c r="P132" s="5">
+        <v>0.15494775746184292</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0.4331032357053059</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0.56511962266754912</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0.18169547587449503</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0.30213504164727434</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.46612934125408162</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="5">
+        <v>0.27841214572821371</v>
+      </c>
+      <c r="S133" s="5">
+        <v>0.72129073796350429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N134" s="5">
+        <v>0.37708894335223136</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0.24674683533387554</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0.34770105926663902</v>
+      </c>
+      <c r="Q134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="5">
+        <v>0.5623491120869637</v>
+      </c>
+      <c r="S134" s="5">
+        <v>0.43599106794227271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0.23797384385986084</v>
+      </c>
+      <c r="O135" s="5">
+        <v>0.34093310800440046</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0.39035734680885636</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="5">
+        <v>0.22722166555400022</v>
+      </c>
+      <c r="S135" s="5">
+        <v>0.77269744349462566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N136" s="5">
+        <v>0.30872230166920811</v>
+      </c>
+      <c r="O136" s="5">
+        <v>0.29631548288129883</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0.36484099218176913</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R136" s="5">
+        <v>0.3563882739771923</v>
+      </c>
+      <c r="S136" s="5">
+        <v>0.64334880867943744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N137" s="5">
+        <v>0.12253145499757344</v>
+      </c>
+      <c r="O137" s="5">
+        <v>0.29049948844956791</v>
+      </c>
+      <c r="P137" s="5">
+        <v>0.52148694673200657</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R137" s="5">
+        <v>0.25173929904713116</v>
+      </c>
+      <c r="S137" s="5">
+        <v>0.74785049013567251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N138" s="5">
+        <v>0.25563701528906529</v>
+      </c>
+      <c r="O138" s="5">
+        <v>0.37820545770964814</v>
+      </c>
+      <c r="P138" s="5">
+        <v>0.34545155729161436</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R138" s="5">
+        <v>0.16979757458794337</v>
+      </c>
+      <c r="S138" s="5">
+        <v>0.83017796325358939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0.25285385605310112</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0.25621104681724904</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.44335704123369185</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R139" s="5">
+        <v>0.47024658035863354</v>
+      </c>
+      <c r="S139" s="5">
+        <v>0.52860071522077834</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N140" s="5">
+        <v>0.31916951532763421</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0.33273596763132879</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0.32668758525684699</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R140" s="5">
+        <v>0.25995627344956113</v>
+      </c>
+      <c r="S140" s="5">
+        <v>0.73996582578280901</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" t="s">
+        <v>292</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N141" s="5">
+        <v>0.44311049717130091</v>
+      </c>
+      <c r="O141" s="5">
+        <v>0.24833064961991491</v>
+      </c>
+      <c r="P141" s="5">
+        <v>0.2885832046623909</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R141" s="5">
+        <v>0.54218675619268819</v>
+      </c>
+      <c r="S141" s="5">
+        <v>0.4562100428701017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0.48802280379048063</v>
+      </c>
+      <c r="O142" s="5">
+        <v>0.23098180391004516</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.26383317069487999</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R142" s="5">
+        <v>0.61113744509388057</v>
+      </c>
+      <c r="S142" s="5">
+        <v>0.38554205432101996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0.50464483688149187</v>
+      </c>
+      <c r="O143" s="5">
+        <v>0.24229816367164009</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.23901164002829212</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R143" s="5">
+        <v>0.53537552225859419</v>
+      </c>
+      <c r="S143" s="5">
+        <v>0.46258369647545788</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.78664891991644637</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.14521175910160258</v>
+      </c>
+      <c r="P144" s="5">
+        <v>6.0686250316586268E-2</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R144" s="5">
+        <v>0.58876620649525824</v>
+      </c>
+      <c r="S144" s="5">
+        <v>0.39546318878991688</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" t="s">
+        <v>195</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0.73632365485161733</v>
+      </c>
+      <c r="O145" s="5">
+        <v>0.1684332806609796</v>
+      </c>
+      <c r="P145" s="5">
+        <v>8.9346509652561912E-2</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R145" s="5">
+        <v>0.59061392380351996</v>
+      </c>
+      <c r="S145" s="5">
+        <v>0.39775147088995572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" t="s">
+        <v>282</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0.31536681792446775</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0.3727889270040346</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.29690743675743925</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R146" s="5">
+        <v>0.1823426646826137</v>
+      </c>
+      <c r="S146" s="5">
+        <v>0.81763361749586838</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" t="s">
+        <v>302</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0.53673932854777306</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0.26405909588904164</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.19103496935233738</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R147" s="5">
+        <v>0.39943875479117658</v>
+      </c>
+      <c r="S147" s="5">
+        <v>0.59964259231661887</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>305</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N148" s="5">
+        <v>0.81544861136785152</v>
+      </c>
+      <c r="O148" s="5">
+        <v>0.10900811681148098</v>
+      </c>
+      <c r="P148" s="5">
+        <v>3.9121607625450784E-2</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R148" s="5">
+        <v>0.71954456134017653</v>
+      </c>
+      <c r="S148" s="5">
+        <v>0.21929650779869023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>311</v>
+      </c>
+      <c r="C149" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0.7383768865294037</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0.15055633054052089</v>
+      </c>
+      <c r="P149" s="5">
+        <v>9.2766567811775003E-2</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R149" s="5">
+        <v>0.73100929650979507</v>
+      </c>
+      <c r="S149" s="5">
+        <v>0.23529189594946368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0</v>
+      </c>
+      <c r="O150" s="5">
+        <v>1</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R150" s="5">
+        <v>0</v>
+      </c>
+      <c r="S150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N151" s="5">
+        <v>0.50510645339093641</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0.20835772850182799</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0.26741427679505247</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R151" s="5">
+        <v>0.7333715075659698</v>
+      </c>
+      <c r="S151" s="5">
+        <v>0.25704278480081377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0.72429166886167673</v>
+      </c>
+      <c r="O152" s="5">
+        <v>0.17581895858519578</v>
+      </c>
+      <c r="P152" s="5">
+        <v>9.4747045783878395E-2</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R152" s="5">
+        <v>0.57045154926587016</v>
+      </c>
+      <c r="S152" s="5">
+        <v>0.42005438377022081</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N153" s="5">
+        <v>0.50058255287665243</v>
+      </c>
+      <c r="O153" s="5">
+        <v>0.33233363431323826</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0.16301919256261646</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R153" s="5">
+        <v>0.21169121784892989</v>
+      </c>
+      <c r="S153" s="5">
+        <v>0.78816986971986436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N154" s="5">
+        <v>1.3864164347433774E-2</v>
+      </c>
+      <c r="O154" s="5">
+        <v>7.1125870209361397E-2</v>
+      </c>
+      <c r="P154" s="5">
+        <v>0.70281510517603774</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R154" s="5">
+        <v>0.59501550693478011</v>
+      </c>
+      <c r="S154" s="5">
+        <v>0.37076527293961792</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" t="s">
+        <v>294</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N155" s="5">
+        <v>0.23749184721341737</v>
+      </c>
+      <c r="O155" s="5">
+        <v>0.3824844223313274</v>
+      </c>
+      <c r="P155" s="5">
+        <v>0.35793490919079579</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R155" s="5">
+        <v>0.16095870368049564</v>
+      </c>
+      <c r="S155" s="5">
+        <v>0.83901706441963952</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>293</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N156" s="5">
+        <v>0.49105374825417064</v>
+      </c>
+      <c r="O156" s="5">
+        <v>0.25731475020814149</v>
+      </c>
+      <c r="P156" s="5">
+        <v>0.23814380786769437</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R156" s="5">
+        <v>0.47013519300338952</v>
+      </c>
+      <c r="S156" s="5">
+        <v>0.52870564165313472</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N157" s="5">
+        <v>0.66753368480451269</v>
+      </c>
+      <c r="O157" s="5">
+        <v>0.20824488280941833</v>
+      </c>
+      <c r="P157" s="5">
+        <v>0.12001839614527075</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R157" s="5">
+        <v>0.49153270377538305</v>
+      </c>
+      <c r="S157" s="5">
+        <v>0.50440679373950292</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N158" s="5">
+        <v>0.13475653990565586</v>
+      </c>
+      <c r="O158" s="5">
+        <v>0.17933504339425935</v>
+      </c>
+      <c r="P158" s="5">
+        <v>0.59522168129111896</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R158" s="5">
+        <v>0.62279468514234981</v>
+      </c>
+      <c r="S158" s="5">
+        <v>0.36717015588440749</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" t="s">
+        <v>224</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N159" s="5">
+        <v>0.30550463909139686</v>
+      </c>
+      <c r="O159" s="5">
+        <v>0.39284083540372378</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0.28868197561795128</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="5">
+        <v>0.15276657095494156</v>
+      </c>
+      <c r="S159" s="5">
+        <v>0.84721984385947391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="s">
+        <v>228</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0.58156036099784947</v>
+      </c>
+      <c r="O160" s="5">
+        <v>0.23290916089443897</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0.17757372138883923</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R160" s="5">
+        <v>0.50037213698186445</v>
+      </c>
+      <c r="S160" s="5">
+        <v>0.49710544841261134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" t="s">
+        <v>329</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N161" s="5">
+        <v>4.7033353008589754E-2</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0.16939624045530488</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0.6455691466052812</v>
+      </c>
+      <c r="Q161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R161" s="5">
+        <v>0.40444589304579415</v>
+      </c>
+      <c r="S161" s="5">
+        <v>0.59088312410274868</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" t="s">
+        <v>341</v>
+      </c>
+      <c r="C162" t="s">
+        <v>332</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N162" s="5">
+        <v>0.71886962493129458</v>
+      </c>
+      <c r="O162" s="5">
+        <v>3.4095715242744122E-2</v>
+      </c>
+      <c r="P162" s="5">
+        <v>1.4735488363302105E-3</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R162" s="5">
+        <v>0.63596495292832678</v>
+      </c>
+      <c r="S162" s="5">
+        <v>9.4598195505711816E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" t="s">
+        <v>337</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N163" s="5">
+        <v>0.57018335024370492</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0.29149534934475679</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0.13525549977567822</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R163" s="5">
+        <v>0.2662066279628631</v>
+      </c>
+      <c r="S163" s="5">
+        <v>0.73338341099252435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" t="s">
+        <v>339</v>
+      </c>
+      <c r="C164" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N164" s="5">
+        <v>0.21350034735773404</v>
+      </c>
+      <c r="O164" s="5">
+        <v>0.35155845279874659</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0.40310853170516509</v>
+      </c>
+      <c r="Q164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R164" s="5">
+        <v>0.20054727341355522</v>
+      </c>
+      <c r="S164" s="5">
+        <v>0.79938508442240486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" t="s">
+        <v>326</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N165" s="5">
+        <v>0.57096587737890048</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0.21669069963948076</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0.20118540550407796</v>
+      </c>
+      <c r="Q165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R165" s="5">
+        <v>0.61440345486961168</v>
+      </c>
+      <c r="S165" s="5">
+        <v>0.38039744875604803</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N166" s="5">
+        <v>7.0457349594022209E-2</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0.25764925834486851</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0.58170967397510709</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R166" s="5">
+        <v>0.25051102961698896</v>
+      </c>
+      <c r="S166" s="5">
+        <v>0.74873420559433967</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" t="s">
+        <v>327</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N167" s="5">
+        <v>0.4995067380863531</v>
+      </c>
+      <c r="O167" s="5">
+        <v>0.31513317157730231</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0.17972096188294007</v>
+      </c>
+      <c r="Q167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R167" s="5">
+        <v>0.25417512629687633</v>
+      </c>
+      <c r="S167" s="5">
+        <v>0.74561636881154369</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>323</v>
+      </c>
+      <c r="B168" t="s">
+        <v>325</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0.38536197027000357</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0.22813300375242276</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0.35734058373095345</v>
+      </c>
+      <c r="Q168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0.65739038538321326</v>
+      </c>
+      <c r="S168" s="5">
+        <v>0.3388341472414485</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169" t="s">
+        <v>328</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0.5505837102920057</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0.38895641644280765</v>
+      </c>
+      <c r="P169" s="5">
+        <v>6.0247088478868754E-2</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R169" s="5">
+        <v>9.606883147302564E-2</v>
+      </c>
+      <c r="S169" s="5">
+        <v>0.90387846416565898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>257</v>
+      </c>
+      <c r="B170" t="s">
+        <v>259</v>
+      </c>
+      <c r="C170" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N170" s="5">
+        <v>0.39393052183991456</v>
+      </c>
+      <c r="O170" s="5">
+        <v>0.32296101895017798</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.26880547102444269</v>
+      </c>
+      <c r="Q170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R170" s="5">
+        <v>0.27817045617776903</v>
+      </c>
+      <c r="S170" s="5">
+        <v>0.72171297147731517</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" t="s">
+        <v>258</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0.76554167965863351</v>
+      </c>
+      <c r="O171" s="5">
+        <v>0.17044197678220291</v>
+      </c>
+      <c r="P171" s="5">
+        <v>6.099480735058814E-2</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R171" s="5">
+        <v>0.46502244012448901</v>
+      </c>
+      <c r="S171" s="5">
+        <v>0.52867438033849012</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>257</v>
+      </c>
+      <c r="B172" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>263</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N172" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O172" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P172" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q172" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R172" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S172" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" t="s">
+        <v>342</v>
+      </c>
+      <c r="D173" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0.33453356996784628</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0.35476927529523378</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0.29496417760015425</v>
+      </c>
+      <c r="Q173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R173" s="5">
+        <v>0.21371812616644625</v>
+      </c>
+      <c r="S173" s="5">
+        <v>0.78624172994021291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174" t="s">
+        <v>377</v>
+      </c>
+      <c r="D174" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0.49557420998382795</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0.34949690986690818</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0.15181158075572643</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R174" s="5">
+        <v>0.17926937395844653</v>
+      </c>
+      <c r="S174" s="5">
+        <v>0.82063685360804295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0.13312731432458841</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0.86687268546270724</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R175" s="5">
+        <v>4.3676042746405917E-4</v>
+      </c>
+      <c r="S175" s="5">
+        <v>0.9995632393598316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" t="s">
+        <v>262</v>
+      </c>
+      <c r="C176" t="s">
+        <v>343</v>
+      </c>
+      <c r="D176" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N176" s="5">
+        <v>0.57891900268655561</v>
+      </c>
+      <c r="O176" s="5">
+        <v>0.18021457855366632</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0.21181347958637659</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="R176" s="5">
+        <v>0.82249607470876385</v>
+      </c>
+      <c r="S176" s="5">
+        <v>0.14306179315143658</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" t="s">
+        <v>265</v>
+      </c>
+      <c r="D177" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N177" s="5">
+        <v>0.46127062078267544</v>
+      </c>
+      <c r="O177" s="5">
+        <v>0.36962933142321924</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0.16553008218230075</v>
+      </c>
+      <c r="Q177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R177" s="5">
+        <v>0.15895960023745334</v>
+      </c>
+      <c r="S177" s="5">
+        <v>0.84098725484468473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0.86344714345618534</v>
+      </c>
+      <c r="O178" s="5">
+        <v>8.3579296525808866E-2</v>
+      </c>
+      <c r="P178" s="5">
+        <v>1.8646412934145932E-2</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R178" s="5">
+        <v>0.65665268254673548</v>
+      </c>
+      <c r="S178" s="5">
+        <v>0.29261104454253573</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179" t="s">
+        <v>347</v>
+      </c>
+      <c r="C179" t="s">
+        <v>264</v>
+      </c>
+      <c r="D179" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0.28460313547744748</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0.2850628444944972</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0.39413041039559488</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R179" s="5">
+        <v>0.38499783277822397</v>
+      </c>
+      <c r="S179" s="5">
+        <v>0.61459590221456495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180" t="s">
+        <v>399</v>
+      </c>
+      <c r="C180" t="s">
+        <v>386</v>
+      </c>
+      <c r="D180" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N180" s="5">
+        <v>0.42862221192361316</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0.37084112616544329</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0.19511308626090901</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R180" s="5">
+        <v>0.16795017843110779</v>
+      </c>
+      <c r="S180" s="5">
+        <v>0.83200686547259883</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>381</v>
+      </c>
+      <c r="B181" t="s">
+        <v>392</v>
+      </c>
+      <c r="C181" t="s">
+        <v>387</v>
+      </c>
+      <c r="D181" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N181" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O181" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P181" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q181" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R181" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S181" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>381</v>
+      </c>
+      <c r="B182" t="s">
+        <v>403</v>
+      </c>
+      <c r="C182" t="s">
+        <v>400</v>
+      </c>
+      <c r="D182" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N182" s="5">
+        <v>0.43152793747940049</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0.2917219809354834</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0.26175147004077137</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R182" s="5">
+        <v>0.36196436338003807</v>
+      </c>
+      <c r="S182" s="5">
+        <v>0.63770228304549315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>381</v>
+      </c>
+      <c r="B183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" t="s">
+        <v>382</v>
+      </c>
+      <c r="D183" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0.50538252544234086</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0.3374920084177902</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0.15371898700440606</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0.19790346909834253</v>
+      </c>
+      <c r="S183" s="5">
+        <v>0.80197096393909884</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" t="s">
+        <v>395</v>
+      </c>
+      <c r="C184" t="s">
+        <v>384</v>
+      </c>
+      <c r="D184" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N184" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O184" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P184" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q184" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R184" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S184" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" t="s">
+        <v>390</v>
+      </c>
+      <c r="D185" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0.76242396067949048</v>
+      </c>
+      <c r="O185" s="5">
+        <v>0.14698888224633877</v>
+      </c>
+      <c r="P185" s="5">
+        <v>7.7877640676847701E-2</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R185" s="5">
+        <v>0.67870346554059346</v>
+      </c>
+      <c r="S185" s="5">
+        <v>0.29588462498953949</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>381</v>
+      </c>
+      <c r="B186" t="s">
+        <v>393</v>
+      </c>
+      <c r="C186" t="s">
+        <v>388</v>
+      </c>
+      <c r="D186" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N186" s="5">
+        <v>0.59297465484498424</v>
+      </c>
+      <c r="O186" s="5">
+        <v>0.27382215450818154</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0.13014486598792999</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R186" s="5">
+        <v>0.29980947250889356</v>
+      </c>
+      <c r="S186" s="5">
+        <v>0.6995484130946874</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>385</v>
+      </c>
+      <c r="C187" t="s">
+        <v>402</v>
+      </c>
+      <c r="D187" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0.66693416897906599</v>
+      </c>
+      <c r="O187" s="5">
+        <v>0.21700189711963405</v>
+      </c>
+      <c r="P187" s="5">
+        <v>0.11275557951990396</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R187" s="5">
+        <v>0.43921631446552123</v>
+      </c>
+      <c r="S187" s="5">
+        <v>0.55790561745639278</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>381</v>
+      </c>
+      <c r="B188" t="s">
+        <v>398</v>
+      </c>
+      <c r="C188" t="s">
+        <v>396</v>
+      </c>
+      <c r="D188" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q188" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S188" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" t="s">
+        <v>391</v>
+      </c>
+      <c r="C189" t="s">
+        <v>397</v>
+      </c>
+      <c r="D189" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q189" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S189" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>394</v>
+      </c>
+      <c r="C190" t="s">
+        <v>401</v>
+      </c>
+      <c r="D190" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q190" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S190" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>352</v>
+      </c>
+      <c r="B191" t="s">
+        <v>353</v>
+      </c>
+      <c r="C191" t="s">
+        <v>372</v>
+      </c>
+      <c r="D191" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q191" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S191" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" t="s">
+        <v>355</v>
+      </c>
+      <c r="C192" t="s">
+        <v>363</v>
+      </c>
+      <c r="D192" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N192" s="5">
+        <v>0.36006194422109389</v>
+      </c>
+      <c r="O192" s="5">
+        <v>0.50285587402926868</v>
+      </c>
+      <c r="P192" s="5">
+        <v>0.1358505225907935</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R192" s="5">
+        <v>5.1759513857140713E-2</v>
+      </c>
+      <c r="S192" s="5">
+        <v>0.94823804605723261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>352</v>
+      </c>
+      <c r="B193" t="s">
+        <v>357</v>
+      </c>
+      <c r="C193" t="s">
+        <v>364</v>
+      </c>
+      <c r="D193" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N193" s="5">
+        <v>0.38445884909479644</v>
+      </c>
+      <c r="O193" s="5">
+        <v>0.35848424236703219</v>
+      </c>
+      <c r="P193" s="5">
+        <v>0.24684805992862371</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R193" s="5">
+        <v>0.20084153369882782</v>
+      </c>
+      <c r="S193" s="5">
+        <v>0.79911489849182593</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>352</v>
+      </c>
+      <c r="B194" t="s">
+        <v>359</v>
+      </c>
+      <c r="C194" t="s">
+        <v>368</v>
+      </c>
+      <c r="D194" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N194" s="5">
+        <v>0.74105567718876353</v>
+      </c>
+      <c r="O194" s="5">
+        <v>0.19361863028398302</v>
+      </c>
+      <c r="P194" s="5">
+        <v>6.3526213109888097E-2</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R194" s="5">
+        <v>0.39132035737082949</v>
+      </c>
+      <c r="S194" s="5">
+        <v>0.60531307274453294</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>352</v>
+      </c>
+      <c r="B195" t="s">
+        <v>361</v>
+      </c>
+      <c r="C195" t="s">
+        <v>370</v>
+      </c>
+      <c r="D195" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N195" s="5">
+        <v>0.84604200163144905</v>
+      </c>
+      <c r="O195" s="5">
+        <v>8.710135336909125E-2</v>
+      </c>
+      <c r="P195" s="5">
+        <v>2.1692729706225027E-2</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R195" s="5">
+        <v>0.69514844794416009</v>
+      </c>
+      <c r="S195" s="5">
+        <v>0.23668972720941275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>352</v>
+      </c>
+      <c r="B196" t="s">
+        <v>362</v>
+      </c>
+      <c r="C196" t="s">
+        <v>360</v>
+      </c>
+      <c r="D196" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N196" s="5">
+        <v>0.57587374897165766</v>
+      </c>
+      <c r="O196" s="5">
+        <v>0.19397214568606189</v>
+      </c>
+      <c r="P196" s="5">
+        <v>0.21306487642252719</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="R196" s="5">
+        <v>0.75638279746744519</v>
+      </c>
+      <c r="S196" s="5">
+        <v>0.22748459117828099</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197" t="s">
+        <v>366</v>
+      </c>
+      <c r="D197" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N197" s="5">
+        <v>0.68876048450902094</v>
+      </c>
+      <c r="O197" s="5">
+        <v>0.2185046539724623</v>
+      </c>
+      <c r="P197" s="5">
+        <v>9.0684845713190909E-2</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R197" s="5">
+        <v>0.3836455002931447</v>
+      </c>
+      <c r="S197" s="5">
+        <v>0.61406900025554256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>352</v>
+      </c>
+      <c r="B198" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" t="s">
+        <v>354</v>
+      </c>
+      <c r="D198" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N198" s="5">
+        <v>0.55341781396714351</v>
+      </c>
+      <c r="O198" s="5">
+        <v>0.26076138985497521</v>
+      </c>
+      <c r="P198" s="5">
+        <v>0.1787176106515618</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R198" s="5">
+        <v>0.39637681197182667</v>
+      </c>
+      <c r="S198" s="5">
+        <v>0.60261504859281778</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>352</v>
+      </c>
+      <c r="B199" t="s">
+        <v>369</v>
+      </c>
+      <c r="C199" t="s">
+        <v>367</v>
+      </c>
+      <c r="D199" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N199" s="5">
+        <v>0.67665361339403673</v>
+      </c>
+      <c r="O199" s="5">
+        <v>0.20252587532003627</v>
+      </c>
+      <c r="P199" s="5">
+        <v>0.11654354995304997</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R199" s="5">
+        <v>0.50771588262431611</v>
+      </c>
+      <c r="S199" s="5">
+        <v>0.48751839935416597</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>352</v>
+      </c>
+      <c r="B200" t="s">
+        <v>371</v>
+      </c>
+      <c r="C200" t="s">
+        <v>365</v>
+      </c>
+      <c r="D200" s="4">
+        <v>44500</v>
+      </c>
+      <c r="N200" s="5">
+        <v>0.46882117862429534</v>
+      </c>
+      <c r="O200" s="5">
+        <v>0.3231435358107636</v>
+      </c>
+      <c r="P200" s="5">
+        <v>0.20086496034266543</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R200" s="5">
+        <v>0.25047850605142485</v>
+      </c>
+      <c r="S200" s="5">
+        <v>0.7493662294364164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F2FC68-1F70-4CDF-A083-AD3E6D9D04F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,7 @@
     <sheet name="1910" sheetId="5" r:id="rId5"/>
     <sheet name="2110" sheetId="6" r:id="rId6"/>
     <sheet name="2710-3110" sheetId="7" r:id="rId7"/>
+    <sheet name="0511-07-11" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="425">
   <si>
     <t>Div</t>
   </si>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1655,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10771,7 +10771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -20388,7 +20388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22754,7 +22754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -31023,7 +31023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -33440,7 +33440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5275F-EB59-4229-8180-1958106C042A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -43030,11 +43030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4ECD40-D907-447C-8C2E-49B921014FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49462,4 +49462,7022 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.4580443101742554</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.213674716761349</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.30568422354179053</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.72641948914067112</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.26586464789098491</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.17392210576869352</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.32000216834345485</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.45973623333671521</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.23689224651743876</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.76292097551911842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.72585174844856537</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.16980583434579991</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.7531923866523318E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.61595555259130319</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.37114481647551728</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.56145694864878848</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.28303537535463624</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.15124807716212516</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.30171353409904222</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.69777060116800482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.25247357889262773</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.28411225105055044</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.42158070820952526</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.37264260685903533</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.62691049398092258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.63699782113000647</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.19285448903767874</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.16013116794082982</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.66907619319916001</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.31984711562822349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.16465995989575333</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.28656391188019614</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.49082537489802808</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.30017282820263069</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.6993660964938303</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.12582985832195309</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.21110119794201207</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.57328411555051795</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.47034740597368058</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.52628106607400682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.20242479617305981</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.23512683973384119</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.50015788110519677</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.50301447741483796</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.4947348247469312</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.75149196415819175</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.20003854983371933</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4.7194500696129862E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.32861811639520294</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.66902837281788785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.60554143044958608</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.23914553279664558</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.15002773981678483</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.43079912839672863</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.56737105103402985</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.65374726122016924</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.21200861095474072</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.12950850971203665</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.49807108448835163</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.49803861465791788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.6063163792887869</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.27619093776271325</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.11527956726383795</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.2763401290998786</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.72307407060597284</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.45361493388440999</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.4294273003385019</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.11589946308942038</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5">
+        <v>8.7801296241528437E-2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.9121814003802089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.50596920121780742</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.25413906871347569</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.22751933516792119</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.47359343783599112</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.52510468405737076</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.7525340094261852</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.13621381922087752</v>
+      </c>
+      <c r="P9" s="5">
+        <v>7.6300333994706676E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.76633558900399734</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.17447613532255205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.76477407684814269</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.14887506338950346</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7.59715389587826E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.65309919384450621</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.32561266463569738</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.54121549168645822</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.28832048951888295</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.16528188991872123</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.30288496803021714</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.69666849845015522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.61458136520029782</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.22609354822298769</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.15329023595593519</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.48759463248343987</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.50955935798883667</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.61372960225677164</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.25670947030913399</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.1264147297859963</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.33822405886064966</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.6607749844223002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.37773987420319743</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.23960576672956535</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.35351242556451279</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.59767523562152769</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.40007269202785878</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.41206251841672847</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.29189679617679815</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.27883641589088731</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.36792049532711074</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.63176264376779967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.33857480448695937</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.20545529265604986</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.41808593615509199</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.76077719810761379</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.22883172370239629</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.71780314695085146</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.16636386762564062</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.10596497680868386</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.67212652769256842</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.30970739473665709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.69385938052386431</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.19217300717962033</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.10945695179285982</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.53598751731993355</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.45767340101891424</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.51708144089895725</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.22964804654731177</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.23885873743443817</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.5956272040130639</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.40097391169395374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.45773919357912274</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.2315759030970784</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.29039837976252725</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.62503864896331296</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.37167845895471524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.43858553439984921</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.31056241876811636</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.23937633501802166</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.29865529244802991</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.70115061934754952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.39612473183401553</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.31064194795104144</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.27722033050664108</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.31186817991771421</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.68796295655822537</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.51043998685457403</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.24253248318243167</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.23360092129881727</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.52912917996942654</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.46885775420167747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.50348666460422664</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.21594760677852795</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.26286640500185809</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.68908234386006229</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.30436502772255003</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.54802182861961135</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.24452870121800083</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.19792561028178896</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.48033991539632453</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.51788213602469813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.5286273082861509</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.25185337991565721</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.2090885510878884</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.46397964670351344</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.53462233505399304</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.66858314645135253</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.21471759670658483</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.11327097003153153</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.44902246847459332</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.54787593770836074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.29984317977864899</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.20786183214166451</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.44875962683625448</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.72672729620751686</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.26486659236621657</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.38248524506455256</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.22798428921547784</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.35997773243235415</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.65794327665831409</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.33826235562117346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.30596637734328114</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.34591990758208063</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.32752933773675219</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.23066983196682159</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.76927730528009519</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.46855986272132816</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.2381247347833578</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.27495582889690079</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.5833505117950698</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.41418939463513504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.31269669884349532</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.24187453067312312</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.40669082161189801</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.56893224373351414</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.42907270187563751</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.90111872884298394</v>
+      </c>
+      <c r="O22" s="5">
+        <v>8.5926757720936317E-2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.4314468455762912</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.55559864098762901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.45757158930434511</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.28330838184340251</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.24571651343044681</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.38077126773823289</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.61876700564066789</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.5075070664363337</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.28069221426934887</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.20301019203582829</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.35807570303762393</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.64138191569013037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.62830907842070016</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.22854428495589152</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.13842697418664415</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.44955712263987418</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.54803392794140326</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.76653709831416805</v>
+      </c>
+      <c r="O24" s="5">
+        <v>4.588097413154342E-2</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3.3003895225558852E-3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.67009146682229659</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.11677474141758387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.37982291088724635</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.29949623032354983</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.30084580431401237</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.34919173552194033</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.65057601713687463</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.31942697539822984</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.3614956728917168</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.30278065146145694</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.20152718715164347</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.79844006620321495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.24451216348645027</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.22340496114158787</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.47842411279655034</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.60274472935158119</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.3934517618871185</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.6605517801842139</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.185290602178978</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.14431334206646856</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.67532371482881592</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.31142502442658127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.29456595344137787</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.25890935420261946</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.40702142358989923</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.48564934764831352</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.51332305740869044</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.29637126699743072</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.23301039789804595</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.42818389424975445</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.60147963550934003</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.39568641969117807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.1799144094566163</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.19043475118590997</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.55657964439732377</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.66542033735532802</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.32476696358078672</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.20701554201891509</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.21638564077909991</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.5131381658155475</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.5889786499596863</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.40663576309515936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.3033080069138811</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.27209291076855069</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.38885348238685524</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.43775887921837486</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.56161530342554733</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.52614326401140121</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.30711625948901655</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.16222015475550877</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.25793445714692764</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.74179660684245163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.31415255976105916</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.23138542331946602</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.41499723748488582</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.61965052620643934</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.37726419585647897</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="5">
+        <v>3.8093716951926794E-2</v>
+      </c>
+      <c r="O30" s="5">
+        <v>7.6720334651454558E-2</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.7073590445345207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>170</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.73546084002246992</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.18772954168570749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.24398000654645832</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.25327671811557123</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.45287876106524866</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.47454448985378878</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.52417846649351629</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.35819243695939418</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.4103904400548169</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.22482511026641572</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.12686880405429363</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.87311978976203664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.16341344019113072</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.2418780977497367</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.523781948486437</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.4259048542690988</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.57246559091014304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.35090519477374266</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.3288309696468249</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.30203966513151409</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.26923995804775763</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.73067196439996451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.79477732339889517</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.15298604632063401</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4.8112547284821124E-2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.4819680852326349</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.50959395309061462</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.73235440960280174</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.16515573483477269</v>
+      </c>
+      <c r="P33" s="5">
+        <v>9.4727290206801179E-2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.63351339456541333</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.35137463711105094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.48162812089704371</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.30914484536640374</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.20154775611578157</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.28152058400800478</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.71824782376869734</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.36554245520585787</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.26329963594132411</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.34331417288244642</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.48609267478451162</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.51306017571328277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.40225403733528775</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.26195786796386117</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.31265793315889484</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.48940618114491768</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.50968527291215415</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.77584128349961801</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.13803135306187655</v>
+      </c>
+      <c r="P35" s="5">
+        <v>6.9148390768346571E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.69849254743062417</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.26858320979229328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.70487752885901755</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.16823898617535149</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.11545599257751618</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.69551716802694152</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.28446279087700288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.1743771757043984</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.30464082392212805</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.47030045804984483</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.26768276676403274</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.73203635195209638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.51658324008401768</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.24058875574110064</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.22976927879337034</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.53407967014526347</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.46375931052169167</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.7772097032439037</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.14793564243949311</v>
+      </c>
+      <c r="P37" s="5">
+        <v>6.6908333035600592E-2</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.60755828112568877</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.37563420773962392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.3453474248546976</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.33219292380333287</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.3041619117994413</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.26143531754009658</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.73848566232432877</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.62835055039261922</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.21895880039409069</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.14687863137945123</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.50567264243290622</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.49083237614626568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.47075916750014457</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.3111554886392377</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.20970644228379612</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.28178557298999934</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.71800180831311877</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.39696011455772423</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.44246392906551157</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.15824035740429077</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" s="5">
+        <v>8.8115615883143164E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.91187542244077546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.30870112825396423</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.28845015711578437</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.37112725070175817</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.38164153638702653</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.61801282192010831</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.30584472068121471</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.32026712786159212</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.34827824476037345</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.28866842206351634</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0.71121279234446211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.71841135827976865</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.1905202959613875</v>
+      </c>
+      <c r="H41" s="5">
+        <v>8.8013780045801779E-2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.47717553503497512</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.51775155863898348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.2827153919921071</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.22058538885186732</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.4508370144212232</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.6514862611198976</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.34387343206877841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.15699014153306792</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.24044375413580141</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.52956610421651984</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.42154092428444501</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.57679402363283816</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.60710737858769592</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.30682502739124978</v>
+      </c>
+      <c r="P42" s="5">
+        <v>8.522452652080155E-2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.19168806594384061</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0.8080368523868815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F43" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H43" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.64801595010835356</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.22293954335767568</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.12511352952225627</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.44408041310843122</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.55328480939683788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.43324528979673582</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.36160793982049289</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.19920076630272307</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.18240713885860685</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.81753909063064401</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.30523326618767926</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.32317857110967058</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.3464852439963097</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.2813340368243506</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.71855771011232239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.65364513221293929</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.22694902231670205</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.11620063680059074</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.41119038807758318</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.58661709111580274</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.74281168703742784</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.21463686055845299</v>
+      </c>
+      <c r="P45" s="5">
+        <v>4.1632485409934264E-2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.28336726159588832</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.71503360883685652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.75625239565750635</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.1758168913732383</v>
+      </c>
+      <c r="H46" s="5">
+        <v>6.5128708156472287E-2</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.45920035745154858</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.53506765292530356</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.53429330599877922</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.21893314735257949</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.23252241467664325</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.64387022513477965</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.35082384746750928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.54175678185789689</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.26046980308572087</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.18962560363760433</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.41012918668578946</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.58884144989278531</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.48236621425334303</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.33600920911049925</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.17671017543217196</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.21327114650255971</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.78660875033392819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.19871573057319766</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.24491485396382409</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.49498611993813196</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.46078695799112956</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.53759547153450504</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.68888306012015998</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.23810572128037319</v>
+      </c>
+      <c r="P48" s="5">
+        <v>7.1964258190992558E-2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.29429154018158954</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.70450031792267409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.71848304593616896</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.17577730544013076</v>
+      </c>
+      <c r="H49" s="5">
+        <v>9.996566709096151E-2</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.59019488264461351</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.399391974326397</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.71940927020185275</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.21536825032468385</v>
+      </c>
+      <c r="P49" s="5">
+        <v>6.4006488133064504E-2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.331536778147699</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0.66651662520038912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.56879354801215321</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.25860359053614546</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.16652204770188508</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.38827357158224296</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.61066946662592303</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.45612041791246566</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.26119164421069202</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.26592931603152009</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.47402052336903761</v>
+      </c>
+      <c r="S50" s="5">
+        <v>0.52499598087281474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F51" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K51" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N51" s="5">
+        <v>5.2823972103164175E-2</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.12809353849202065</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.67234627580083517</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>72</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0.58090003309643767</v>
+      </c>
+      <c r="S51" s="5">
+        <v>0.40247755277190655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.2865134152174808</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.24953660348012499</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.42160740291990695</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.5204895352906862</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.47804207811968075</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.48534054418161326</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.35865697751816811</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.15295410868060866</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0.16752604732314863</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0.83239951468420192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F53" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.28709934359374872</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.40670132644143164</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.29339817338723345</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0.13512198787372792</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0.86486860700391677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F54" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J54" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K54" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.46617065435810773</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1.4524346552645085E-2</v>
+      </c>
+      <c r="P54" s="5">
+        <v>1.238901860634706E-4</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>406</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.43767157944496782</v>
+      </c>
+      <c r="S54" s="5">
+        <v>3.0266881103677895E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K55" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.34859691634294582</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.44281752480876518</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.20404388731747911</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="5">
+        <v>9.4593432311123396E-2</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0.90540098452807305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.24254990286376463</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.25503380111622598</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.45258465083755817</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.46658181056817394</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.53221703220765249</v>
+      </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.62412147741985202</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.28923944302778282</v>
+      </c>
+      <c r="P56" s="5">
+        <v>8.5679776208400629E-2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0.21813628719350578</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.78145985013456198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.18575201163448829</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.40339719492337744</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.3864718192430831</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.12599175331058141</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.87398831796955745</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.36287521180621207</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.22309751090414981</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.38143386280777353</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.68019236462946731</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0.31512814802916894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.45025045766053795</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.29861546660201543</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.2391603630714268</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.33054987363044236</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.66916635236539745</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.49891423621675118</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.31015386874886181</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.18475387148694306</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.2681398091887548</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0.73162412354871909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.81685232156666943</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.12550392456227158</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4.5534109122917936E-2</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.61710619265408673</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.35936706743880797</v>
+      </c>
+      <c r="L59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.40573423210414294</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.42766409445118109</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.16388203461325007</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.10026437883656129</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0.89972321918598608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.86884794748640559</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4.3204136892415715E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3.9403403158791341E-3</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.66737158493442672</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.23586510225002155</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.67810099861133821</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.20129109704270223</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.11626999759680429</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0.51256093738189634</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0.48247935698596295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.2187340147265171</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.21468788096245375</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.50607186694468209</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.61253654978416661</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.38258045415545944</v>
+      </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.14647931101843675</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.22471521472453193</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.54896819694220045</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>28</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.45955682531598419</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.53790072000860922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.13766071659254683</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.24305213686302687</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.54175056977842262</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.38463784727598432</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.61392131523099502</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.27912611531348824</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.31772327811381246</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.37321488065561836</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.28958436945982258</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0.71027648414032929</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S63" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S64" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S65" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S66" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F68" s="5">
+        <v>6.321496473569875E-2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.12352924946774017</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.67524966231977546</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.64926996691207961</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.32636507537819376</v>
+      </c>
+      <c r="L68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0.58479619395979276</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0.19594608418786022</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.20420730688551628</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>16</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.73315230136801579</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0.25308833027706867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K69" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.26773253671207531</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0.30901055681533951</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.38965882088066106</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="5">
+        <v>0.30828315632262432</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0.69152568519023949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.29264752186945303</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.26142104926362258</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.40651711191264306</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.47456332665290102</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.52449993791628668</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0.22568450524214029</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0.22594111051156165</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.49055697301282675</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>28</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.57021647339868808</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0.42648738205140696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.54736971990543193</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.22257442308071629</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.21758916684879612</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.60692702665048182</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.38874123616369849</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.61786118328921269</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.2014148044363222</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.17104872457378728</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>16</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.64365364654787749</v>
+      </c>
+      <c r="S71" s="5">
+        <v>0.34804827966084773</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F72" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H72" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J72" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K72" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0.75028192893627321</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0.15022265679176866</v>
+      </c>
+      <c r="P72" s="5">
+        <v>8.5618973533177239E-2</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.69659379427650814</v>
+      </c>
+      <c r="S72" s="5">
+        <v>0.27639692641034369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.48742429688212796</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.2187870636826493</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0.27496966652718074</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.68284874912592253</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0.31131005511209309</v>
+      </c>
+      <c r="L73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0.31211287530967896</v>
+      </c>
+      <c r="O73" s="5">
+        <v>0.31681104072255328</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.34562566383515786</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.2984121243623597</v>
+      </c>
+      <c r="S73" s="5">
+        <v>0.70145660883979644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K74" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0.75968695388007323</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0.15652716082212154</v>
+      </c>
+      <c r="P74" s="5">
+        <v>7.6742276489040195E-2</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>29</v>
+      </c>
+      <c r="R74" s="5">
+        <v>0.60507157403776246</v>
+      </c>
+      <c r="S74" s="5">
+        <v>0.38014534729730304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.70768865120928148</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.1803883435976211</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0.10623105837318741</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.5867709342320675</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0.40368463217018291</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.83311405482501588</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.11635306467000968</v>
+      </c>
+      <c r="P75" s="5">
+        <v>3.6877050267804259E-2</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="5">
+        <v>0.60829084484019103</v>
+      </c>
+      <c r="S75" s="5">
+        <v>0.36677617245312638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.38856136033579625</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.25930020631187928</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0.32684429804927428</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.5031974045112827</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.49580317554259529</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0.76545141746861156</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0.20356057656587287</v>
+      </c>
+      <c r="P76" s="5">
+        <v>2.988015783772829E-2</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" s="5">
+        <v>0.2784789216533059</v>
+      </c>
+      <c r="S76" s="5">
+        <v>0.71972830872765403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.10247446725012657</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.21562674503574514</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0.5850507203875065</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.40664461287950138</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.59084390824015443</v>
+      </c>
+      <c r="L77" t="s">
+        <v>28</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0.17786570064024024</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0.24171585979781351</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0.51320755502340698</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>28</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.44624491703147556</v>
+      </c>
+      <c r="S77" s="5">
+        <v>0.55204748573719764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.23866777695059666</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.22224877226604547</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.48399881518536492</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.60175587421587795</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.39432845306529474</v>
+      </c>
+      <c r="L78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0.62865087274248865</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0.2402742469772611</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0.12749532753220666</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>16</v>
+      </c>
+      <c r="R78" s="5">
+        <v>0.38842946764383657</v>
+      </c>
+      <c r="S78" s="5">
+        <v>0.60997965242543373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.68658846115820205</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.22275640714487399</v>
+      </c>
+      <c r="H79" s="5">
+        <v>8.8789478303058944E-2</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.36662249745194131</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.63137188011760392</v>
+      </c>
+      <c r="L79" t="s">
+        <v>37</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0.31410865537987975</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0.29841646616682499</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0.35857297240066355</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0.35099028850458369</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0.648767365821737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.59233653086943916</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.21538843063550431</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.18287214325761864</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.5913991248658117</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.40360285494449527</v>
+      </c>
+      <c r="L80" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0.61328439812315372</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.28652569546964984</v>
+      </c>
+      <c r="P80" s="5">
+        <v>9.8792026609232544E-2</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>17</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.23706521215748552</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0.76249321077243326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.42078915273510792</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.26494097567832242</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0.29389421465680532</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.47164050990493239</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.5275348129589994</v>
+      </c>
+      <c r="L81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.79009851080358884</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0.12608780043796314</v>
+      </c>
+      <c r="P81" s="5">
+        <v>5.7399930701833191E-2</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>29</v>
+      </c>
+      <c r="R81" s="5">
+        <v>0.72349111435504265</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.22876145083596389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.2794564792502312</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.24349371005248269</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.43260624738455572</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.54222709335509334</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.45592532757854209</v>
+      </c>
+      <c r="L82" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0.64989055003885798</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0.2401647103623106</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.10755227300167744</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" s="5">
+        <v>0.35346958185075683</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0.64509698630946255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.32242342409162827</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.24524208257208105</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.39557584143376479</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.55760070169388132</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.44065529640034723</v>
+      </c>
+      <c r="L83" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0.76459359259739179</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0.15114825940758703</v>
+      </c>
+      <c r="P83" s="5">
+        <v>7.5371727401373434E-2</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>29</v>
+      </c>
+      <c r="R83" s="5">
+        <v>0.63342709179744738</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0.34808433975281733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.17642187397234446</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.27420717955117901</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.49025619198757114</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.34275778317035571</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.65659190914404042</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0.39576438915522194</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0.27786865211138184</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.30487348170273948</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="5">
+        <v>0.4238241874899803</v>
+      </c>
+      <c r="S84" s="5">
+        <v>0.57567680224040418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.23442016592244813</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.24384070576957409</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.46827507374370669</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.50340746724149998</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.49482673445843411</v>
+      </c>
+      <c r="L85" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0.77546947285906231</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0.17549446911548786</v>
+      </c>
+      <c r="P85" s="5">
+        <v>4.6850048412886904E-2</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>37</v>
+      </c>
+      <c r="R85" s="5">
+        <v>0.39499063827287806</v>
+      </c>
+      <c r="S85" s="5">
+        <v>0.60071134531347015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.12714865178794457</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.21688100535103189</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.56802459589519283</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.45213729307750378</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.54499215193155826</v>
+      </c>
+      <c r="L86" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0.47258983225861567</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.24947319186887792</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.26142817604054575</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>16</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0.52123878485382202</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.47721255748324931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.10494710071016662</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.15667661296693647</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.63170530761209664</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.64655193345332151</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.33784707422619242</v>
+      </c>
+      <c r="L87" t="s">
+        <v>72</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0.10260119101318098</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0.15165245135572133</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.6374513977207501</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>72</v>
+      </c>
+      <c r="R87" s="5">
+        <v>0.66270747342609926</v>
+      </c>
+      <c r="S87" s="5">
+        <v>0.3192589800418103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.72449823255392476</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.17759590484672555</v>
+      </c>
+      <c r="H88" s="5">
+        <v>9.3200883931216144E-2</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.55522827079883852</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.4361466219381977</v>
+      </c>
+      <c r="L88" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0.27190908433633298</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0.21046132572882015</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.46908051052759786</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>28</v>
+      </c>
+      <c r="R88" s="5">
+        <v>0.69152547134074549</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0.30155927469068727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.71161368998129704</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.17897908094425158</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.10376112889845247</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.58596063975854584</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.40431883719986661</v>
+      </c>
+      <c r="L89" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0.35329980174247538</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.36216333399524414</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.27187871272621228</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>20</v>
+      </c>
+      <c r="R89" s="5">
+        <v>0.1986026202384715</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.80136304245583578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="s">
+        <v>307</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.47659281116007446</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.24905311293415067</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.25822631393930523</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.52084328021884296</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.47758121386108532</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0.80592844762366755</v>
+      </c>
+      <c r="O90" s="5">
+        <v>9.7316066604616475E-2</v>
+      </c>
+      <c r="P90" s="5">
+        <v>2.8365335772919671E-2</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>47</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0.73757298060760601</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.15974609530207898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.20017102096000716</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.24194798385707331</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.49626002493680726</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.47364078174429636</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.52457287465172642</v>
+      </c>
+      <c r="L91" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.63718827955136004</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.21778393986699204</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.13975679766738272</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0.49590320259216891</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.50063470246239716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.65123278013563213</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.20142209247721418</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.1408430751201416</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.57549366679568048</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.41816604085591358</v>
+      </c>
+      <c r="L92" t="s">
+        <v>16</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.85511177049342457</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.11814439599033943</v>
+      </c>
+      <c r="P92" s="5">
+        <v>1.9105872964699268E-2</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>37</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0.46199939679423124</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0.52684294986135061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.56873881843668284</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.2374659436203613</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.18527513954083236</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.49259580134312447</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.50519719029195154</v>
+      </c>
+      <c r="L93" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0.61184216001930802</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0.20370206935726703</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.17470994229149131</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>16</v>
+      </c>
+      <c r="R93" s="5">
+        <v>0.63827536975015298</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0.35400006902057168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>308</v>
+      </c>
+      <c r="C94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.37511453133925743</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.23662542537446721</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.35847371585261217</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.61253884403612147</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.38489903192501645</v>
+      </c>
+      <c r="L94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0.33857755209165979</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0.40268776041129262</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.24990510288036211</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>20</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0.13837474699547095</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0.86161347486390061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.21057992400828604</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.3018783514053146</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.4426932019642893</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.29849066745596803</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.70122713078920906</v>
+      </c>
+      <c r="L95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0.29503392339314866</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0.24610050723193053</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.41758118563483543</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>28</v>
+      </c>
+      <c r="R95" s="5">
+        <v>0.54047117343780471</v>
+      </c>
+      <c r="S95" s="5">
+        <v>0.45785092537692051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.5839319615542673</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.20684067448983845</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0.19745103245002321</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.66141974934521175</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0.33075734495538461</v>
+      </c>
+      <c r="L96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <v>1</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>133</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0</v>
+      </c>
+      <c r="S96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.15896018765987516</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.25097560750983694</v>
+      </c>
+      <c r="H97" s="5">
+        <v>0.52037746049779088</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0.3904184196085273</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0.60834891127012458</v>
+      </c>
+      <c r="L97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0.69618071668534787</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0.16211330084053516</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.12167368835263505</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>29</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0.75949216778508633</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0.2071598466855028</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.14431050647595098</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.15533416515257767</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.61120476153328607</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.75393055131185205</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.21889301413861639</v>
+      </c>
+      <c r="L98" t="s">
+        <v>72</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0.20194972718481219</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0.22107974341690198</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.51260968014137487</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>28</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.56114360305399258</v>
+      </c>
+      <c r="S98" s="5">
+        <v>0.43521672273755041</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.53677481342880706</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.33378955937403681</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.12732818735222762</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.18689702656610477</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0.81295587347107701</v>
+      </c>
+      <c r="L99" t="s">
+        <v>17</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0.42078897008166882</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0.37302084201141117</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.20043747723565086</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>20</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0.16664335772708178</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0.83331758172447279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F100" s="5">
+        <v>6.3097447368624701E-2</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.12134151756748426</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0.6772157204569017</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.65904139116987293</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.31466087476587179</v>
+      </c>
+      <c r="L100" t="s">
+        <v>72</v>
+      </c>
+      <c r="N100" s="5">
+        <v>0.20101848097027153</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0.30859834125594898</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.44564001495372024</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.27692952498497836</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0.72283241189762659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K101" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.61619154505575913</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0.24164086596611459</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.13789512847757357</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0.40177170379012206</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0.59662172621205189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.44046683064639364</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.36368869775147528</v>
+      </c>
+      <c r="H102" s="5">
+        <v>0.19057591835471807</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.17633606130357549</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.82361034560204749</v>
+      </c>
+      <c r="L102" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0.24156430460973263</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0.56498225638893618</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.19095650031193206</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>133</v>
+      </c>
+      <c r="R102" s="5">
+        <v>3.2170659730069238E-2</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0.96782915262363756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.45150515066243913</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.25512282526522168</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0.27525171682899402</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.50491569661165203</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.49385285793086281</v>
+      </c>
+      <c r="L103" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0.32308632211010752</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0.35248292936958758</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.30704185876874157</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>20</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0.21832117772684528</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0.78163622629573337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" t="s">
+        <v>337</v>
+      </c>
+      <c r="C104" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K104" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0.10863898679698739</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0.25145492562835747</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.55729442370711391</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>12</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0.31863795433566411</v>
+      </c>
+      <c r="S104" s="5">
+        <v>0.68033191680375105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.30014962616538732</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.26667732667346333</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0.39593012299098007</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.45721955403718134</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0.54201427783118761</v>
+      </c>
+      <c r="L105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0.73050438172587573</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0.19472160496256455</v>
+      </c>
+      <c r="P105" s="5">
+        <v>7.2703013230533117E-2</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>37</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0.41462457066297076</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0.58170917755541451</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" t="s">
+        <v>339</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.40948599010603065</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.27864433157795238</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0.2922172010944446</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.41774591983329423</v>
+      </c>
+      <c r="K106" s="5">
+        <v>0.58175979895617524</v>
+      </c>
+      <c r="L106" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" s="5">
+        <v>0.42926725310662089</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0.25748545624754315</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.2928384727192343</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>20</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0.50284248749508098</v>
+      </c>
+      <c r="S106" s="5">
+        <v>0.49605273962752577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.3764845539250099</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.29093451207596904</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.31082833068064319</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.37827563233658412</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0.62141572165217807</v>
+      </c>
+      <c r="L107" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0.72319771447242431</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0.19688852131160944</v>
+      </c>
+      <c r="P107" s="5">
+        <v>7.7725963490005281E-2</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>37</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.42175662552325638</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0.57457693294464363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>330</v>
+      </c>
+      <c r="C108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.22871111902696917</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.24615477905223554</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0.47081662336390218</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.48854218881749711</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0.50983834637222747</v>
+      </c>
+      <c r="L108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N108" s="5">
+        <v>5.8218468269220898E-2</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0.12338237071995818</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.67596797870611602</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>72</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.62750027534802355</v>
+      </c>
+      <c r="S108" s="5">
+        <v>0.35057149871179594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.1258553629433323</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.2228777302085051</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0.56445389759933007</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0.42902184979047514</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0.56858150750646552</v>
+      </c>
+      <c r="L109" t="s">
+        <v>28</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0.18381762270101748</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0.31925648569759502</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.45210091825052978</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>20</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.24432917353732345</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0.75548523379176014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.35634677665176784</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.28387044086921343</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0.33409357506465015</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.40424233910473895</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0.59536585639495265</v>
+      </c>
+      <c r="L110" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" s="5">
+        <v>0.29669945041848766</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0.35720864505235406</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.32645284836630512</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" s="5">
+        <v>0.2083658330397278</v>
+      </c>
+      <c r="S110" s="5">
+        <v>0.79159584085972257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.55308265969601544</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.24734158688333499</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0.19086210163971837</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0.46005018869068892</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0.53835879399641318</v>
+      </c>
+      <c r="L111" t="s">
+        <v>16</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0.65588505756246573</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0.20414935957696922</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.13431544011482796</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>16</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0.54574155692008219</v>
+      </c>
+      <c r="S111" s="5">
+        <v>0.44889018985848911</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.33639730097468301</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.26797624202967435</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0.36430438209071375</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0.4631215242433866</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0.5361681905727671</v>
+      </c>
+      <c r="L112" t="s">
+        <v>20</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0.35386796266684517</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0.3955461304636621</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.24217915775994872</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" s="5">
+        <v>0.14615359291231997</v>
+      </c>
+      <c r="S112" s="5">
+        <v>0.85383117654476859</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.10689209085908201</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.13720385666252724</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0.64775183510426249</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0.74067690799542396</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0.22618024922071431</v>
+      </c>
+      <c r="L113" t="s">
+        <v>72</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0.25388945251636746</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0.59240091699334407</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.15245804793280621</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>133</v>
+      </c>
+      <c r="R113" s="5">
+        <v>2.4177840190282941E-2</v>
+      </c>
+      <c r="S113" s="5">
+        <v>0.97582201462171114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>342</v>
+      </c>
+      <c r="C114" t="s">
+        <v>347</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.75194227142977166</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.16926101275561142</v>
+      </c>
+      <c r="H114" s="5">
+        <v>7.4707582919803811E-2</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0.52536432570125435</v>
+      </c>
+      <c r="K114" s="5">
+        <v>0.46618528487876959</v>
+      </c>
+      <c r="L114" t="s">
+        <v>16</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0.56589769022323777</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0.33213481539307005</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0.10083203717333618</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>17</v>
+      </c>
+      <c r="R114" s="5">
+        <v>0.17099584890260092</v>
+      </c>
+      <c r="S114" s="5">
+        <v>0.82884542811668926</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.8034438623318968</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.11351480443813508</v>
+      </c>
+      <c r="H115" s="5">
+        <v>4.4123390025924157E-2</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0.73352298210770384</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0.20113867581781927</v>
+      </c>
+      <c r="L115" t="s">
+        <v>47</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0.49528946479479702</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0.35469137161369518</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0.14721299898453311</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>17</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0.16991679653788727</v>
+      </c>
+      <c r="S115" s="5">
+        <v>0.82999915925036949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.19341644937767716</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.27547349995145193</v>
+      </c>
+      <c r="H116" s="5">
+        <v>0.47591118001422933</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0.35526858799262045</v>
+      </c>
+      <c r="K116" s="5">
+        <v>0.64410398134079283</v>
+      </c>
+      <c r="L116" t="s">
+        <v>20</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0.13035105305819461</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0.20459252297609587</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.57556780387439954</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>28</v>
+      </c>
+      <c r="R116" s="5">
+        <v>0.50455880657310714</v>
+      </c>
+      <c r="S116" s="5">
+        <v>0.49120267761056752</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.54338498348987563</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.26567751210878787</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0.18354080596602854</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.38582511758565935</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.6133057225353824</v>
+      </c>
+      <c r="L117" t="s">
+        <v>20</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0.84844392864995533</v>
+      </c>
+      <c r="O117" s="5">
+        <v>9.1300029686116738E-2</v>
+      </c>
+      <c r="P117" s="5">
+        <v>2.4075256503185531E-2</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>21</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.68170140658975942</v>
+      </c>
+      <c r="S117" s="5">
+        <v>0.26190646959685487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.2500726878825415</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.26538016440256024</v>
+      </c>
+      <c r="H118" s="5">
+        <v>0.43820106673919407</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.43396513698884243</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.56519517289410126</v>
+      </c>
+      <c r="L118" t="s">
+        <v>20</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0.4870093197633254</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0.26327122235912259</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0.23661508199912665</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="5">
+        <v>0.44550220911933647</v>
+      </c>
+      <c r="S118" s="5">
+        <v>0.55356121824435867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0.61920295838554795</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.23119405601800416</v>
+      </c>
+      <c r="H119" s="5">
+        <v>0.14449839050542032</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.45081161265702197</v>
+      </c>
+      <c r="K119" s="5">
+        <v>0.54689711246441375</v>
+      </c>
+      <c r="L119" t="s">
+        <v>16</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0.81087030646725788</v>
+      </c>
+      <c r="O119" s="5">
+        <v>0.14731983282287794</v>
+      </c>
+      <c r="P119" s="5">
+        <v>3.760734223424534E-2</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>37</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0.45432430035245996</v>
+      </c>
+      <c r="S119" s="5">
+        <v>0.53779689794177299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>381</v>
+      </c>
+      <c r="B120" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" t="s">
+        <v>386</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F120" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H120" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J120" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K120" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0.81826822245066233</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0.13555220233237111</v>
+      </c>
+      <c r="P120" s="5">
+        <v>3.9804373076453306E-2</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>37</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.51683689720349935</v>
+      </c>
+      <c r="S120" s="5">
+        <v>0.4709218972787193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>381</v>
+      </c>
+      <c r="B121" t="s">
+        <v>403</v>
+      </c>
+      <c r="C121" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S121" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>381</v>
+      </c>
+      <c r="B122" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.4728161128609627</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.29430728554616076</v>
+      </c>
+      <c r="H122" s="5">
+        <v>0.22256032941115278</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.33301780662243224</v>
+      </c>
+      <c r="K122" s="5">
+        <v>0.66664076921065862</v>
+      </c>
+      <c r="L122" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" s="5">
+        <v>0.39090578877292526</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0.27775908112785941</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0.30920210875245602</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R122" s="5">
+        <v>0.42506900247183288</v>
+      </c>
+      <c r="S122" s="5">
+        <v>0.57443264772810843</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>381</v>
+      </c>
+      <c r="B123" t="s">
+        <v>399</v>
+      </c>
+      <c r="C123" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.40687761689763174</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.31377611375573211</v>
+      </c>
+      <c r="H123" s="5">
+        <v>0.26502893520175519</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.3001149663196685</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0.69972619181105289</v>
+      </c>
+      <c r="L123" t="s">
+        <v>20</v>
+      </c>
+      <c r="N123" s="5">
+        <v>0.60128609295800362</v>
+      </c>
+      <c r="O123" s="5">
+        <v>0.2821369564263746</v>
+      </c>
+      <c r="P123" s="5">
+        <v>0.11447890470342009</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>17</v>
+      </c>
+      <c r="R123" s="5">
+        <v>0.26306084084082226</v>
+      </c>
+      <c r="S123" s="5">
+        <v>0.73643387296610419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>381</v>
+      </c>
+      <c r="B124" t="s">
+        <v>393</v>
+      </c>
+      <c r="C124" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0.59570945334819525</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.2495791409692541</v>
+      </c>
+      <c r="H124" s="5">
+        <v>0.1497562517773767</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.39433140413937018</v>
+      </c>
+      <c r="K124" s="5">
+        <v>0.60434033716479796</v>
+      </c>
+      <c r="L124" t="s">
+        <v>16</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0.47305711252637367</v>
+      </c>
+      <c r="O124" s="5">
+        <v>0.34343031670890112</v>
+      </c>
+      <c r="P124" s="5">
+        <v>0.17862743201700754</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>20</v>
+      </c>
+      <c r="R124" s="5">
+        <v>0.20195565584099795</v>
+      </c>
+      <c r="S124" s="5">
+        <v>0.79794645538439113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>381</v>
+      </c>
+      <c r="B125" t="s">
+        <v>398</v>
+      </c>
+      <c r="C125" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.25629585619563128</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.36008214122120519</v>
+      </c>
+      <c r="H125" s="5">
+        <v>0.35951285118841436</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.19789005658369568</v>
+      </c>
+      <c r="K125" s="5">
+        <v>0.80206830743184088</v>
+      </c>
+      <c r="L125" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0.50187408342906747</v>
+      </c>
+      <c r="O125" s="5">
+        <v>0.30636208987541352</v>
+      </c>
+      <c r="P125" s="5">
+        <v>0.18542354811621733</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>20</v>
+      </c>
+      <c r="R125" s="5">
+        <v>0.27703695646464366</v>
+      </c>
+      <c r="S125" s="5">
+        <v>0.72270093011066272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>381</v>
+      </c>
+      <c r="B126" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.42116032217994276</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.27377589833017774</v>
+      </c>
+      <c r="H126" s="5">
+        <v>0.28606817538875751</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.43389777071500168</v>
+      </c>
+      <c r="K126" s="5">
+        <v>0.56550486524823929</v>
+      </c>
+      <c r="L126" t="s">
+        <v>20</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0.77452643748361705</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0.15509698452718268</v>
+      </c>
+      <c r="P126" s="5">
+        <v>6.4933908549681049E-2</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>16</v>
+      </c>
+      <c r="R126" s="5">
+        <v>0.55420915831901774</v>
+      </c>
+      <c r="S126" s="5">
+        <v>0.43411798283233966</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>381</v>
+      </c>
+      <c r="B127" t="s">
+        <v>391</v>
+      </c>
+      <c r="C127" t="s">
+        <v>402</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.36813641533077995</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.33886643198146255</v>
+      </c>
+      <c r="H127" s="5">
+        <v>0.27838413459309647</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.24402971791596226</v>
+      </c>
+      <c r="K127" s="5">
+        <v>0.75590215311748621</v>
+      </c>
+      <c r="L127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0.41268127292275547</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0.37111335054925282</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.20970776862250168</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>20</v>
+      </c>
+      <c r="R127" s="5">
+        <v>0.17196941932981105</v>
+      </c>
+      <c r="S127" s="5">
+        <v>0.82799196350097126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>381</v>
+      </c>
+      <c r="B128" t="s">
+        <v>394</v>
+      </c>
+      <c r="C128" t="s">
+        <v>396</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S128" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" t="s">
+        <v>397</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S129" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>381</v>
+      </c>
+      <c r="B130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" t="s">
+        <v>401</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S130" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" t="s">
+        <v>357</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.58264368671412003</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.22001970395099671</v>
+      </c>
+      <c r="H131" s="5">
+        <v>0.18775908377751993</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.576368811458282</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0.41936852628383603</v>
+      </c>
+      <c r="L131" t="s">
+        <v>16</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0.78993725446960017</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0.18285790014106065</v>
+      </c>
+      <c r="P131" s="5">
+        <v>2.5510158874975288E-2</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>37</v>
+      </c>
+      <c r="R131" s="5">
+        <v>0.30871071839781555</v>
+      </c>
+      <c r="S131" s="5">
+        <v>0.68865677757406796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" t="s">
+        <v>359</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0.3429292346118854</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0.25368508369684523</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0.37088234815384158</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.52546908243883439</v>
+      </c>
+      <c r="K132" s="5">
+        <v>0.47329096477255</v>
+      </c>
+      <c r="L132" t="s">
+        <v>20</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0.72853348526279438</v>
+      </c>
+      <c r="O132" s="5">
+        <v>0.16606373557208437</v>
+      </c>
+      <c r="P132" s="5">
+        <v>9.7413611843102973E-2</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>29</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0.63904191131643473</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0.34562362457653945</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0.46639585106321835</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0.33319592669176862</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0.19410337928413199</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.22734132997431628</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0.77253816848639889</v>
+      </c>
+      <c r="L133" t="s">
+        <v>20</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0.33143638716199558</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0.30656485736352834</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.337158050828131</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="5">
+        <v>0.3287987065425913</v>
+      </c>
+      <c r="S133" s="5">
+        <v>0.67102157448774169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" t="s">
+        <v>364</v>
+      </c>
+      <c r="C134" t="s">
+        <v>369</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0.44881706519726711</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0.30585887274414952</v>
+      </c>
+      <c r="H134" s="5">
+        <v>0.23421559064091299</v>
+      </c>
+      <c r="J134" s="5">
+        <v>0.30831550204308561</v>
+      </c>
+      <c r="K134" s="5">
+        <v>0.691455259183827</v>
+      </c>
+      <c r="L134" t="s">
+        <v>20</v>
+      </c>
+      <c r="N134" s="5">
+        <v>0.40560405405058203</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0.25014167665687376</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0.31995374924459208</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>16</v>
+      </c>
+      <c r="R134" s="5">
+        <v>0.54400496606084592</v>
+      </c>
+      <c r="S134" s="5">
+        <v>0.45453583946070458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F135" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G135" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H135" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J135" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K135" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0.4286763480370453</v>
+      </c>
+      <c r="O135" s="5">
+        <v>0.21126188905594057</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0.33397437730866192</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>11</v>
+      </c>
+      <c r="R135" s="5">
+        <v>0.74654376033038961</v>
+      </c>
+      <c r="S135" s="5">
+        <v>0.24470710063028409</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N136" s="5">
+        <v>0.57060103413281993</v>
+      </c>
+      <c r="O136" s="5">
+        <v>0.30165918573786032</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0.12535648921840239</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>17</v>
+      </c>
+      <c r="R136" s="5">
+        <v>0.23689524692453634</v>
+      </c>
+      <c r="S136" s="5">
+        <v>0.762787273479962</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" t="s">
+        <v>353</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S137" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138" t="s">
+        <v>356</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0.5485632405375187</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0.26009539215236399</v>
+      </c>
+      <c r="H138" s="5">
+        <v>0.1837467949822377</v>
+      </c>
+      <c r="J138" s="5">
+        <v>0.40460091972177475</v>
+      </c>
+      <c r="K138" s="5">
+        <v>0.59436345217281128</v>
+      </c>
+      <c r="L138" t="s">
+        <v>16</v>
+      </c>
+      <c r="N138" s="5">
+        <v>0.74714362386990008</v>
+      </c>
+      <c r="O138" s="5">
+        <v>0.16744318922013376</v>
+      </c>
+      <c r="P138" s="5">
+        <v>8.0463365613584595E-2</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>16</v>
+      </c>
+      <c r="R138" s="5">
+        <v>0.55875976266809479</v>
+      </c>
+      <c r="S138" s="5">
+        <v>0.43111007025221937</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" t="s">
+        <v>360</v>
+      </c>
+      <c r="C139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0.47731115642087502</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.24195125131659423</v>
+      </c>
+      <c r="H139" s="5">
+        <v>0.2637860227953282</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.5574249779918774</v>
+      </c>
+      <c r="K139" s="5">
+        <v>0.44048167021359169</v>
+      </c>
+      <c r="L139" t="s">
+        <v>16</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0.10547146859755696</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0.50533472118689515</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.37308524651372299</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>34</v>
+      </c>
+      <c r="R139" s="5">
+        <v>4.7262611168820322E-2</v>
+      </c>
+      <c r="S139" s="5">
+        <v>0.9527341322206111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>352</v>
+      </c>
+      <c r="B140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44507</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0.36891669092862445</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.30156844648539582</v>
+      </c>
+      <c r="H140" s="5">
+        <v>0.30867389017989527</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.34380753706759815</v>
+      </c>
+      <c r="K140" s="5">
+        <v>0.65597867746716254</v>
+      </c>
+      <c r="L140" t="s">
+        <v>20</v>
+      </c>
+      <c r="N140" s="5">
+        <v>0.29288463320684605</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0.32258945276594431</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0.35760101905003761</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>20</v>
+      </c>
+      <c r="R140" s="5">
+        <v>0.28075324775872851</v>
+      </c>
+      <c r="S140" s="5">
+        <v>0.71913281308346422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7D8D3-3FBC-4787-AAF3-B46CE0B6240C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2409-2809" sheetId="1" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <sheet name="2110" sheetId="6" r:id="rId6"/>
     <sheet name="2710-3110" sheetId="7" r:id="rId7"/>
     <sheet name="0511-07-11" sheetId="8" r:id="rId8"/>
+    <sheet name="1111-16-11" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="425">
   <si>
     <t>Div</t>
   </si>
@@ -1317,7 +1319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1655,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10771,7 +10773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -20388,7 +20390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22754,7 +22756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -31023,7 +31025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -33440,7 +33442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -43030,7 +43032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -49465,11 +49467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56480,4 +56482,786 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABF4A7E-CC06-45D5-A906-DD9FB5976445}">
+  <dimension ref="A1:T52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" t="s">
+        <v>403</v>
+      </c>
+      <c r="C45" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C47" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" t="s">
+        <v>399</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2622FD2-4AA5-4C2A-81FB-70453CE3F04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1611-2311" sheetId="1" r:id="rId1"/>
+    <sheet name="0312-0712" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="417">
   <si>
     <t>Div</t>
   </si>
@@ -1173,12 +1175,120 @@
   </si>
   <si>
     <t>2,un25,BTTS-N</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>5-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1507,11 +1617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T192" sqref="T192"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11355,4 +11465,7717 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57061C06-A639-4707-9723-4C28021E27E5}">
+  <dimension ref="A1:Q175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.5013106132630003</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.40448759331069856</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9.3550362085610281E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9.8279242867909039E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.90168670717313171</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O2">
+        <v>-3</v>
+      </c>
+      <c r="P2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.77762647945761321</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.18017900669929829</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.0334906628663361E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.35981774158756363</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.63672648557121792</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.41859966551622041</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.30012188948129292</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.26613359550862481</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.33821606987834307</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.66153594656722603</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.54523904581480276</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.21882778497903074</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.22270425516530992</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.63278091005967907</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.36205117053204994</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>372</v>
+      </c>
+      <c r="N5" t="s">
+        <v>375</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.81307360025148223</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.11772641849610502</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.5813181876727789E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.69241852396200787</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.2651790560249267</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>372</v>
+      </c>
+      <c r="N6" t="s">
+        <v>373</v>
+      </c>
+      <c r="O6">
+        <v>-4</v>
+      </c>
+      <c r="P6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.38151627881274819</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.30100196325765544</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.29811725209062695</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.34412059242083542</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.65565776764052197</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>375</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.51040483647117452</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.38264778572149166</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.10593387012343984</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.12050277013335862</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.8794453922965948</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>372</v>
+      </c>
+      <c r="N8" t="s">
+        <v>375</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.84696415025637239</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9.9338799337859662E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.8325668583854564E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.65696077490947746</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.30125449556950279</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>372</v>
+      </c>
+      <c r="N9" t="s">
+        <v>379</v>
+      </c>
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.20380294697972484</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.14463347042995259</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.54654134911443164</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.84815150072613421</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6.9693801038215292E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>415</v>
+      </c>
+      <c r="M10" t="s">
+        <v>371</v>
+      </c>
+      <c r="N10" t="s">
+        <v>379</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.42554918441199369</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.34102890616657167</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.22468516051917323</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.22587173117383899</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.77404545304660144</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>378</v>
+      </c>
+      <c r="O11">
+        <v>-2</v>
+      </c>
+      <c r="P11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.2574314411193081</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.42807628488074606</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.30182756096083357</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.11131285507006991</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.88868140526222705</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>373</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.39066773287536588</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.27418571850012308</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.31240075471316076</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.43931025412920388</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.56012228100889128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>375</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.33013199667934701</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.2754647889375062</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.36343996949643165</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.43260243667285458</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.56685918691669823</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>374</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.32033230609143359</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.26753114630223868</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.37828299142733768</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.46098800103504989</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.53828251518428982</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>377</v>
+      </c>
+      <c r="O15">
+        <v>-12</v>
+      </c>
+      <c r="P15">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.45825489635806965</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.19619896071091336</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.31666960093273816</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.8162910496310134</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.16425143008399698</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>377</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.3296816281565913</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.38078056420663869</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.27720187443860539</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.16940533869222832</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.83057517789256707</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>374</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.71152598707236425</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.15971247233427263</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.11129175480451854</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.74043098117566353</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.22898293065523906</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>372</v>
+      </c>
+      <c r="N18" t="s">
+        <v>379</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.13330425899844223</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.2001415938543262</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.57742204731886393</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.52878466527057943</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.46623590177451724</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>371</v>
+      </c>
+      <c r="N19" t="s">
+        <v>374</v>
+      </c>
+      <c r="O19">
+        <v>-4</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.46358915146685842</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.19052279620027712</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.31285734668271376</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.83773003204922436</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.13578116360044826</v>
+      </c>
+      <c r="L20" t="s">
+        <v>370</v>
+      </c>
+      <c r="M20" t="s">
+        <v>372</v>
+      </c>
+      <c r="N20" t="s">
+        <v>379</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.50891312412089718</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.21369409374548454</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.25981392441655993</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.69870863751470935</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.2940402371898424</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>374</v>
+      </c>
+      <c r="O21">
+        <v>-4</v>
+      </c>
+      <c r="P21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.70752800852851827</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.19031646488527712</v>
+      </c>
+      <c r="G22" s="5">
+        <v>9.8376027855034798E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.51063631059572734</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.48349981856118834</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>372</v>
+      </c>
+      <c r="N22" t="s">
+        <v>376</v>
+      </c>
+      <c r="O22">
+        <v>-11</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.39311282476132409</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.33857660503092563</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.25624115589396929</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.24026462736805637</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.75965985652011192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>375</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.60626965589733217</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.19291156703397422</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.18706915413813907</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.72298776782393614</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.26286709605572089</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>372</v>
+      </c>
+      <c r="N24" t="s">
+        <v>373</v>
+      </c>
+      <c r="O24">
+        <v>-6</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.61847377580891083</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.22808744057008556</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.14793831061688481</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.46938717765338661</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.52802966289596187</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N25" t="s">
+        <v>373</v>
+      </c>
+      <c r="O25">
+        <v>-5</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.3275754119500825</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.40959339882225365</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.2538940568680555</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.13075943003210566</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.86923113025263465</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>375</v>
+      </c>
+      <c r="O26">
+        <v>-3</v>
+      </c>
+      <c r="P26">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.75949714175075766</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.19058295004464881</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4.8349799698197041E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.355976092541547</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.6410298714914221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>372</v>
+      </c>
+      <c r="N27" t="s">
+        <v>377</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.18482137262695167</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.29905919028124217</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.46578739845164924</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.28762534322409034</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.71205281564665168</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>374</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4.455179373530159E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.14489455991644679</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.6612532107143726</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.47610628150153994</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.51536935944450901</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>371</v>
+      </c>
+      <c r="N29" t="s">
+        <v>374</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.12191666917559532</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.26448106771555158</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.53897012050073256</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.30584239135532776</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.69338016459338303</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>371</v>
+      </c>
+      <c r="N30" t="s">
+        <v>376</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.35115365414250538</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.46470931416359645</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.18107336441651881</v>
+      </c>
+      <c r="I31" s="5">
+        <v>7.6549860511097093E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.9234462148447693</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>372</v>
+      </c>
+      <c r="N31" t="s">
+        <v>380</v>
+      </c>
+      <c r="O31">
+        <v>-7</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.64549057868636994</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.18570030794887837</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.15701754509416008</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.70467853595826702</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.28015414935742472</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>372</v>
+      </c>
+      <c r="N32" t="s">
+        <v>379</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.3742194614151913</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.42273542678426473</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.19847150364847413</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.11081778452003747</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.88917195042996799</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>372</v>
+      </c>
+      <c r="N33" t="s">
+        <v>378</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.34459154564041294</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.52360669154438444</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.13077078245451168</v>
+      </c>
+      <c r="I34" s="5">
+        <v>4.3147671248417209E-2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.95685081350542223</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>372</v>
+      </c>
+      <c r="N34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O34">
+        <v>-4</v>
+      </c>
+      <c r="P34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.40798411194545703</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.41383291313349707</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.17477453401728998</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.11439201031571089</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.88559188460112059</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>372</v>
+      </c>
+      <c r="N35" t="s">
+        <v>375</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.44340342620408613</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.25437810827978707</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.28306217222341951</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.51220023604326137</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.48653933801034643</v>
+      </c>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>372</v>
+      </c>
+      <c r="N36" t="s">
+        <v>378</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.18123989965148385</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.23494130715967435</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.51606029995557334</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.47570743663667137</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.52215890604690007</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>379</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.57354292017904784</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.22949649071850706</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.18786145887497002</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.53143487561162761</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.46559622200772388</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>372</v>
+      </c>
+      <c r="N38" t="s">
+        <v>374</v>
+      </c>
+      <c r="O38">
+        <v>-4</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.34582042005263813</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.39940778103377955</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.24615400717537067</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.14190813017941206</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.85807860818717585</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>373</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.78794132778091763</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.16654081031360116</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4.28868571844567E-2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.40916021526434065</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.58573694293904588</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" t="s">
+        <v>372</v>
+      </c>
+      <c r="N40" t="s">
+        <v>378</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.50241569319889645</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.27374618434912723</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.21369019690145499</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.38916117454207783</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.61016979951039363</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.50495855509951715</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.30721153124070072</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.18181351086451694</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.27253851368395776</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.72720335750094833</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42">
+        <v>-2</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.3405555215012302</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.34113303093567154</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.30099495067704479</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.24135867850264578</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.75858119145401415</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43">
+        <v>-5</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.59222006643171277</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.32357373544300777</v>
+      </c>
+      <c r="G44" s="5">
+        <v>8.3484565429738242E-2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.16866249420771889</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.83114526127548827</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>372</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.61712106996432547</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.18582501346032376</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.18091766585107699</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.75317884322270512</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.22738378487049737</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.3011799621620514</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.21405714683467722</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.44192302054382487</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.6972420267296412</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.29636276633563718</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.49817521547122079</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.21077669622266801</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.27183107310702226</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.72359585758431688</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.26783340478624046</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47">
+        <v>-1</v>
+      </c>
+      <c r="P47">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.23824249239528983</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.29908958884724857</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.42192971074200025</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.32158674309146296</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.67812720694131068</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>374</v>
+      </c>
+      <c r="O48">
+        <v>-10</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.65827936697662071</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.1569927939498624</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.13777840276882028</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.82067495538718516</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.11276539945664059</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="s">
+        <v>372</v>
+      </c>
+      <c r="N49" t="s">
+        <v>378</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.2929951132305581</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.21604339873946773</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.44677344874023361</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.68160515550821543</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.31263996236424185</v>
+      </c>
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.21989445378031819</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.32774513478938855</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.41573883589240473</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.24613835920591604</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.75373253906801141</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51">
+        <v>-3</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.55098171657562478</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.29700462433787783</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.14824049022721233</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.26712650086730466</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.73251761489783485</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>379</v>
+      </c>
+      <c r="O52">
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.51828534930217574</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.27072132903845858</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.20196181691436318</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.38846885117285762</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.61078776465043738</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>375</v>
+      </c>
+      <c r="O53">
+        <v>-5</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.60117867132620539</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.23280836269372762</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.15969019901556841</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.47141331046900492</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.52624107204792125</v>
+      </c>
+      <c r="L54" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" t="s">
+        <v>372</v>
+      </c>
+      <c r="N54" t="s">
+        <v>378</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.42263139892571705</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.25786704704332736</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.29834082150855096</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.5031884769199797</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.49572892217947739</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55">
+        <v>-3</v>
+      </c>
+      <c r="P55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.61310974377406491</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.2330282030547684</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.14849766809125611</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.4510067140906463</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.54678730926100982</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" t="s">
+        <v>372</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+      <c r="O56">
+        <v>-1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.43258857305908782</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.32465644828407114</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.23260355338068525</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.26232533775671407</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.737545244534763</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>380</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.27491308485420124</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.34242372062295129</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.35740514752828878</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.23363870423204175</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.76629626774599702</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>375</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.36615885263786202</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.30420474641680889</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.30891665804147539</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.33583642017225279</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.66396820388508304</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.45472877153132746</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.37151803799880889</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.16996053004430961</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.15830191543047478</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.84164869457077407</v>
+      </c>
+      <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" t="s">
+        <v>372</v>
+      </c>
+      <c r="N60" t="s">
+        <v>380</v>
+      </c>
+      <c r="O60">
+        <v>-6</v>
+      </c>
+      <c r="P60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.50527491874294717</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.35452445699083551</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.13784250876569779</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.16536216123240871</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.83455041041707156</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>372</v>
+      </c>
+      <c r="N61" t="s">
+        <v>375</v>
+      </c>
+      <c r="O61">
+        <v>-2</v>
+      </c>
+      <c r="P61">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.1561109211591625</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.2697247257738225</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.50926466335388432</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.33351443493076849</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.66576055321253347</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>376</v>
+      </c>
+      <c r="O62">
+        <v>-3</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.39577052374858396</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.34980300425773003</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.24413224764886204</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.21550713402406402</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.78443556870627362</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>375</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.61729119975451152</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.18908091695613122</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.17948345260188178</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.73161875190295389</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0.25225986385066612</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="s">
+        <v>372</v>
+      </c>
+      <c r="N64" t="s">
+        <v>379</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.52645847053828965</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.24936434725357787</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.21321934645383842</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.47853069628410239</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0.51993688470501831</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" t="s">
+        <v>372</v>
+      </c>
+      <c r="N65" t="s">
+        <v>379</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.56039940132859478</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.12177707787868491</v>
+      </c>
+      <c r="G66" s="5">
+        <v>9.9208515627508445E-2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.72728497107020817</v>
+      </c>
+      <c r="J66" s="5">
+        <v>2.3667721432478708E-2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>416</v>
+      </c>
+      <c r="M66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N66" t="s">
+        <v>377</v>
+      </c>
+      <c r="O66">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.66194098420720648</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.27932038027500089</v>
+      </c>
+      <c r="G67" s="5">
+        <v>5.8276264393614038E-2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.20193451876197965</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.7976054023244139</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>372</v>
+      </c>
+      <c r="N67" t="s">
+        <v>375</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.56172759810638906</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.24909343804277706</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.18144206972860463</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0.44102503835526741</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.55750346615471413</v>
+      </c>
+      <c r="L68" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" t="s">
+        <v>372</v>
+      </c>
+      <c r="N68" t="s">
+        <v>378</v>
+      </c>
+      <c r="O68">
+        <v>-1</v>
+      </c>
+      <c r="P68">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.27753451622903175</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.35584819591237393</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.34437833665996931</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.20872432366888674</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0.79123300492989079</v>
+      </c>
+      <c r="L69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>373</v>
+      </c>
+      <c r="O69">
+        <v>-4</v>
+      </c>
+      <c r="P69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.50148300614514929</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.28658303207835317</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.20331818674288335</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.34105394018537816</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.65849408406324783</v>
+      </c>
+      <c r="L70" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>380</v>
+      </c>
+      <c r="O70">
+        <v>-7</v>
+      </c>
+      <c r="P70">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.36373812124289656</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.39693740282203394</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.23181926884225973</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.14303194327787114</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.85695225780178663</v>
+      </c>
+      <c r="L71" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>373</v>
+      </c>
+      <c r="O71">
+        <v>-3</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.48328105851817421</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.3252721089975244</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.18560725837638711</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.23768799343778493</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.76215697329366561</v>
+      </c>
+      <c r="L72" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>380</v>
+      </c>
+      <c r="O72">
+        <v>-3</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.81197944752742879</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.12508476081272354</v>
+      </c>
+      <c r="G73" s="5">
+        <v>4.8436883055328714E-2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.64571706838225884</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.32623947045715718</v>
+      </c>
+      <c r="L73" t="s">
+        <v>28</v>
+      </c>
+      <c r="M73" t="s">
+        <v>372</v>
+      </c>
+      <c r="N73" t="s">
+        <v>379</v>
+      </c>
+      <c r="O73">
+        <v>11</v>
+      </c>
+      <c r="P73">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.63023450062351682</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.25448685394339737</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.11286566263894807</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.32374545553163542</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.67524655712473014</v>
+      </c>
+      <c r="L74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" t="s">
+        <v>372</v>
+      </c>
+      <c r="N74" t="s">
+        <v>378</v>
+      </c>
+      <c r="O74">
+        <v>-1</v>
+      </c>
+      <c r="P74">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.40002454516872865</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.36162579604725681</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.22986790668904206</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.19167286352816268</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.80828299320011499</v>
+      </c>
+      <c r="L75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" t="s">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>373</v>
+      </c>
+      <c r="O75">
+        <v>-4</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E76" s="5">
+        <v>6.6597322219274432E-2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.21000693835127179</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.61152887524139887</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.34516434600023793</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.65266784019313073</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" t="s">
+        <v>371</v>
+      </c>
+      <c r="N76" t="s">
+        <v>373</v>
+      </c>
+      <c r="O76">
+        <v>-1</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.19714496643784954</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.32712062785378532</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.43528614340643762</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.23661337667080223</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.76324311358863262</v>
+      </c>
+      <c r="L77" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>380</v>
+      </c>
+      <c r="O77">
+        <v>-6</v>
+      </c>
+      <c r="P77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.11079617259437834</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.16194219728441192</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.62407814185925048</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.63951058421483553</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.34646402623268141</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" t="s">
+        <v>371</v>
+      </c>
+      <c r="N78" t="s">
+        <v>375</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.53950086426050581</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.20700328149768002</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.23738852422629159</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.71372863675104947</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.27688255496937686</v>
+      </c>
+      <c r="L79" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" t="s">
+        <v>372</v>
+      </c>
+      <c r="N79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O79">
+        <v>12</v>
+      </c>
+      <c r="P79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.53307249575973692</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.27118690846431792</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.18809045896502286</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.37318175169087647</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.62608411745262993</v>
+      </c>
+      <c r="L80" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>374</v>
+      </c>
+      <c r="O80">
+        <v>-3</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.20294946831353342</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.51294970235907711</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.27645735361682866</v>
+      </c>
+      <c r="I81" s="5">
+        <v>5.1807805315077171E-2</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.94819139947997311</v>
+      </c>
+      <c r="L81" t="s">
+        <v>128</v>
+      </c>
+      <c r="M81" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>380</v>
+      </c>
+      <c r="O81">
+        <v>-7</v>
+      </c>
+      <c r="P81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.51816620845876127</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.24854507955092148</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.22141143884746509</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.49064365558809886</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.50776631923414928</v>
+      </c>
+      <c r="L82" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" t="s">
+        <v>372</v>
+      </c>
+      <c r="N82" t="s">
+        <v>379</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.75476189032424257</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.18319200714240699</v>
+      </c>
+      <c r="G83" s="5">
+        <v>5.990499813106661E-2</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.414031961682848</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.5817085927308695</v>
+      </c>
+      <c r="L83" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" t="s">
+        <v>372</v>
+      </c>
+      <c r="N83" t="s">
+        <v>377</v>
+      </c>
+      <c r="O83">
+        <v>-3</v>
+      </c>
+      <c r="P83">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.30633311404159053</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.31395538902849429</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.35287863693192001</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.30510856597853481</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.69474556793818998</v>
+      </c>
+      <c r="L84" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>374</v>
+      </c>
+      <c r="O84">
+        <v>-5</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.40228668526807937</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.29553354806763055</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.28441065841168939</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.35802544104209921</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.64169893783038567</v>
+      </c>
+      <c r="L85" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" t="s">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>376</v>
+      </c>
+      <c r="O85">
+        <v>-7</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.14402707537717746</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.36579577936515728</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.45149388020925496</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.15333089938390609</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.84660347072130016</v>
+      </c>
+      <c r="L86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>371</v>
+      </c>
+      <c r="N86" t="s">
+        <v>374</v>
+      </c>
+      <c r="O86">
+        <v>-5</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.31194559450930442</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.20993560552799845</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.43679520709471953</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.72463527570839381</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.26746863864282477</v>
+      </c>
+      <c r="L87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>379</v>
+      </c>
+      <c r="O87">
+        <v>5</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.5979099339703241</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.25192785562171954</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.14559089707672021</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.38057681372343011</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.61820101261982208</v>
+      </c>
+      <c r="L88" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" t="s">
+        <v>372</v>
+      </c>
+      <c r="N88" t="s">
+        <v>374</v>
+      </c>
+      <c r="O88">
+        <v>-4</v>
+      </c>
+      <c r="P88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.2871682446513425</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.21731339989533327</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.45031883811793644</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.67095383633646255</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.32366773442988961</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="s">
+        <v>371</v>
+      </c>
+      <c r="N89" t="s">
+        <v>374</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.60664402157641817</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.27329910495815374</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.11768292990173269</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.28559904581255036</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.71376775327134778</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" t="s">
+        <v>372</v>
+      </c>
+      <c r="N90" t="s">
+        <v>378</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.46431746743960572</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.34599148862123291</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.18445070607697328</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.20059963427814495</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.79931137676185515</v>
+      </c>
+      <c r="L91" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>380</v>
+      </c>
+      <c r="O91">
+        <v>-10</v>
+      </c>
+      <c r="P91">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.54373869845548328</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.23619208489102561</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.20908709639298259</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.53042997672074998</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.46710443615716801</v>
+      </c>
+      <c r="L92" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" t="s">
+        <v>372</v>
+      </c>
+      <c r="N92" t="s">
+        <v>373</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.63630586528361277</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.21889375521276822</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.13959561923567546</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.49081620638283796</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.50585364684387446</v>
+      </c>
+      <c r="L93" t="s">
+        <v>15</v>
+      </c>
+      <c r="M93" t="s">
+        <v>372</v>
+      </c>
+      <c r="N93" t="s">
+        <v>375</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.72855647763236908</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.16067896511545943</v>
+      </c>
+      <c r="G94" s="5">
+        <v>9.9498425728409792E-2</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.68484671788485108</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.29379185216223586</v>
+      </c>
+      <c r="L94" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" t="s">
+        <v>372</v>
+      </c>
+      <c r="N94" t="s">
+        <v>375</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.5577902744232307</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.25294234775896079</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.18163975955686285</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0.42712357952100305</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.57157816547964391</v>
+      </c>
+      <c r="L95" t="s">
+        <v>15</v>
+      </c>
+      <c r="M95" t="s">
+        <v>372</v>
+      </c>
+      <c r="N95" t="s">
+        <v>380</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.37005727277490608</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.3480871398955413</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.26883961517144772</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0.22384858027436108</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.77609819683001435</v>
+      </c>
+      <c r="L96" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" t="s">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>379</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.36411963974991518</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.34535571177853114</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.27648634968905733</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0.2303711751380389</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0.76957270196746819</v>
+      </c>
+      <c r="L97" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>373</v>
+      </c>
+      <c r="O97">
+        <v>-1</v>
+      </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.49476968392967902</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.28691978796925849</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.20912182262538437</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0.34464997228794458</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.65490707270333681</v>
+      </c>
+      <c r="L98" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" t="s">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>375</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.46207127304386358</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.41229245418801896</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.12425977698510393</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0.10243892294274078</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.89753680904845978</v>
+      </c>
+      <c r="L99" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" t="s">
+        <v>372</v>
+      </c>
+      <c r="N99" t="s">
+        <v>380</v>
+      </c>
+      <c r="O99">
+        <v>-4</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.49788503987344257</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.25994030473550828</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.22974697037780481</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0.45260650560311616</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.54633558960478223</v>
+      </c>
+      <c r="L100" t="s">
+        <v>15</v>
+      </c>
+      <c r="M100" t="s">
+        <v>372</v>
+      </c>
+      <c r="N100" t="s">
+        <v>379</v>
+      </c>
+      <c r="O100">
+        <v>-1</v>
+      </c>
+      <c r="P100">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.47930913917975893</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.31884522296482676</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.19504906509267239</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0.25611720452305192</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0.74370358506783596</v>
+      </c>
+      <c r="L101" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>378</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.73053981359753684</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.16417953601747917</v>
+      </c>
+      <c r="G102" s="5">
+        <v>9.6700199977894641E-2</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0.64840397124543314</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.33502628186710037</v>
+      </c>
+      <c r="L102" t="s">
+        <v>28</v>
+      </c>
+      <c r="M102" t="s">
+        <v>372</v>
+      </c>
+      <c r="N102" t="s">
+        <v>378</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" t="s">
+        <v>287</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.16819462730233659</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.18918933786827072</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.56551276505522008</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0.64946600227289841</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.34110024176738885</v>
+      </c>
+      <c r="L103" t="s">
+        <v>27</v>
+      </c>
+      <c r="M103" t="s">
+        <v>371</v>
+      </c>
+      <c r="N103" t="s">
+        <v>374</v>
+      </c>
+      <c r="O103">
+        <v>7</v>
+      </c>
+      <c r="P103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.25401338306101312</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0.26851258920301513</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.4325077911621964</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0.42548269880281847</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0.57376532101955269</v>
+      </c>
+      <c r="L104" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" t="s">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>373</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>290</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0.69733257636551005</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.18835730039242177</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.10940839194409573</v>
+      </c>
+      <c r="I105" s="5">
+        <v>0.55483489609391534</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.43786359919027434</v>
+      </c>
+      <c r="L105" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" t="s">
+        <v>372</v>
+      </c>
+      <c r="N105" t="s">
+        <v>374</v>
+      </c>
+      <c r="O105">
+        <v>-4</v>
+      </c>
+      <c r="P105">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" t="s">
+        <v>294</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0.38039337500617332</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.2988814487135224</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.30085438003050874</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0.35110340916869792</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.64865937702047183</v>
+      </c>
+      <c r="L106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" t="s">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>376</v>
+      </c>
+      <c r="O106">
+        <v>-8</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0.50279608813591603</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.27473686615577764</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.2124838093518078</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0.38487368684928608</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.61447770573178939</v>
+      </c>
+      <c r="L107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" t="s">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>380</v>
+      </c>
+      <c r="O107">
+        <v>-5</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0.69619945527441496</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.15099118504753367</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.11265603429698508</v>
+      </c>
+      <c r="I108" s="5">
+        <v>0.80119448078675415</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.13702663660877842</v>
+      </c>
+      <c r="L108" t="s">
+        <v>28</v>
+      </c>
+      <c r="M108" t="s">
+        <v>372</v>
+      </c>
+      <c r="N108" t="s">
+        <v>379</v>
+      </c>
+      <c r="O108">
+        <v>8</v>
+      </c>
+      <c r="P108">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.41085908877123806</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.38299853066575623</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.20061410217150638</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0.15371561404742162</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0.8462546606969138</v>
+      </c>
+      <c r="L109" t="s">
+        <v>19</v>
+      </c>
+      <c r="M109" t="s">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>380</v>
+      </c>
+      <c r="O109">
+        <v>-5</v>
+      </c>
+      <c r="P109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.70427078693110101</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.16975929761661893</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.11542081229864412</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0.68507056028635227</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.29651205717442036</v>
+      </c>
+      <c r="L110" t="s">
+        <v>28</v>
+      </c>
+      <c r="M110" t="s">
+        <v>372</v>
+      </c>
+      <c r="N110" t="s">
+        <v>378</v>
+      </c>
+      <c r="O110">
+        <v>-1</v>
+      </c>
+      <c r="P110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.49963223108572041</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.22742914546240192</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.25650965389342006</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0.62332888507366169</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0.37282785662285567</v>
+      </c>
+      <c r="L111" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" t="s">
+        <v>372</v>
+      </c>
+      <c r="N111" t="s">
+        <v>375</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.45161882997471792</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.42695082800273537</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.12024729742338251</v>
+      </c>
+      <c r="I112" s="5">
+        <v>9.0601231496031082E-2</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0.90938099106961623</v>
+      </c>
+      <c r="L112" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" t="s">
+        <v>372</v>
+      </c>
+      <c r="N112" t="s">
+        <v>373</v>
+      </c>
+      <c r="O112">
+        <v>-6</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>388</v>
+      </c>
+      <c r="B113" t="s">
+        <v>391</v>
+      </c>
+      <c r="C113" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.53944917762865674</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.37942644059541292</v>
+      </c>
+      <c r="G113" s="5">
+        <v>8.0637874334796342E-2</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0.1120475143694805</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0.88789206853444558</v>
+      </c>
+      <c r="L113" t="s">
+        <v>16</v>
+      </c>
+      <c r="M113" t="s">
+        <v>372</v>
+      </c>
+      <c r="N113" t="s">
+        <v>380</v>
+      </c>
+      <c r="O113">
+        <v>-4</v>
+      </c>
+      <c r="P113">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+      <c r="B114" t="s">
+        <v>393</v>
+      </c>
+      <c r="C114" t="s">
+        <v>394</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.13579439178574379</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.17056593428443331</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.60297100689949401</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0.66580374338159354</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0.32035836228504128</v>
+      </c>
+      <c r="L114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M114" t="s">
+        <v>371</v>
+      </c>
+      <c r="N114" t="s">
+        <v>375</v>
+      </c>
+      <c r="O114">
+        <v>2</v>
+      </c>
+      <c r="P114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>388</v>
+      </c>
+      <c r="B115" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" t="s">
+        <v>396</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0.38952178604981791</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.24503288331493739</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.33845677233490529</v>
+      </c>
+      <c r="I115" s="5">
+        <v>0.57073076915901277</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0.42747619207372317</v>
+      </c>
+      <c r="L115" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" t="s">
+        <v>372</v>
+      </c>
+      <c r="N115" t="s">
+        <v>374</v>
+      </c>
+      <c r="O115">
+        <v>-1</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>388</v>
+      </c>
+      <c r="B116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" t="s">
+        <v>398</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0.56780889434677384</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.23478965919397612</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.1884643357965248</v>
+      </c>
+      <c r="I116" s="5">
+        <v>0.50870823723239456</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0.48883951859395636</v>
+      </c>
+      <c r="L116" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" t="s">
+        <v>372</v>
+      </c>
+      <c r="N116" t="s">
+        <v>374</v>
+      </c>
+      <c r="O116">
+        <v>-7</v>
+      </c>
+      <c r="P116">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117" t="s">
+        <v>399</v>
+      </c>
+      <c r="C117" t="s">
+        <v>400</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0.73625811880651604</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.16188423569582497</v>
+      </c>
+      <c r="G117" s="5">
+        <v>9.3140268160641027E-2</v>
+      </c>
+      <c r="I117" s="5">
+        <v>0.64814202551616351</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.33472383720540405</v>
+      </c>
+      <c r="L117" t="s">
+        <v>28</v>
+      </c>
+      <c r="M117" t="s">
+        <v>372</v>
+      </c>
+      <c r="N117" t="s">
+        <v>375</v>
+      </c>
+      <c r="O117">
+        <v>-1</v>
+      </c>
+      <c r="P117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" t="s">
+        <v>401</v>
+      </c>
+      <c r="C118" t="s">
+        <v>402</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0.16364399284839437</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.3992937536117378</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.40905216570763331</v>
+      </c>
+      <c r="I118" s="5">
+        <v>0.12448921633821212</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.8754848107271096</v>
+      </c>
+      <c r="L118" t="s">
+        <v>32</v>
+      </c>
+      <c r="M118" t="s">
+        <v>371</v>
+      </c>
+      <c r="N118" t="s">
+        <v>376</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" t="s">
+        <v>403</v>
+      </c>
+      <c r="C119" t="s">
+        <v>404</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.14068305463801403</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0.16507842127795774</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.60531177339120745</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0.7027898646110039</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.27933864539841491</v>
+      </c>
+      <c r="L119" t="s">
+        <v>69</v>
+      </c>
+      <c r="M119" t="s">
+        <v>371</v>
+      </c>
+      <c r="N119" t="s">
+        <v>373</v>
+      </c>
+      <c r="O119">
+        <v>14</v>
+      </c>
+      <c r="P119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" t="s">
+        <v>405</v>
+      </c>
+      <c r="C120" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.32379253053075346</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0.45776558977694892</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0.21361273006019188</v>
+      </c>
+      <c r="I120" s="5">
+        <v>8.4288377824425775E-2</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.91570830163025729</v>
+      </c>
+      <c r="L120" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" t="s">
+        <v>372</v>
+      </c>
+      <c r="N120" t="s">
+        <v>376</v>
+      </c>
+      <c r="O120">
+        <v>-5</v>
+      </c>
+      <c r="P120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0.72878498980937623</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0.16790807974116859</v>
+      </c>
+      <c r="G121" s="5">
+        <v>9.6178106258762538E-2</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0.62215666429672067</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.36415440225971252</v>
+      </c>
+      <c r="L121" t="s">
+        <v>15</v>
+      </c>
+      <c r="M121" t="s">
+        <v>372</v>
+      </c>
+      <c r="N121" t="s">
+        <v>379</v>
+      </c>
+      <c r="O121">
+        <v>7</v>
+      </c>
+      <c r="P121">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" t="s">
+        <v>318</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.37973362703000668</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.22854522089452844</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.3618525262107567</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0.65473442790995684</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.34157428597800649</v>
+      </c>
+      <c r="L122" t="s">
+        <v>10</v>
+      </c>
+      <c r="M122" t="s">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>374</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.48267034022687799</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.32217079774296936</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.18896670520752559</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0.24572790730135588</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.75410525485120983</v>
+      </c>
+      <c r="L123" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" t="s">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>375</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0.26145320489940088</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0.53715908593277428</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.19836817990207942</v>
+      </c>
+      <c r="I124" s="5">
+        <v>4.1713529483584429E-2</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.9582860748133738</v>
+      </c>
+      <c r="L124" t="s">
+        <v>128</v>
+      </c>
+      <c r="M124" t="s">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s">
+        <v>378</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.49401959143070545</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.31867444898636593</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.18160953775356875</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0.24821817486619926</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.75159361916637735</v>
+      </c>
+      <c r="L125" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" t="s">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s">
+        <v>373</v>
+      </c>
+      <c r="O125">
+        <v>-2</v>
+      </c>
+      <c r="P125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>313</v>
+      </c>
+      <c r="C126" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.30883178595992944</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.37612696653220995</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.2999372483772953</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0.17702858438542221</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.82294981940724321</v>
+      </c>
+      <c r="L126" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" t="s">
+        <v>4</v>
+      </c>
+      <c r="N126" t="s">
+        <v>380</v>
+      </c>
+      <c r="O126">
+        <v>-8</v>
+      </c>
+      <c r="P126">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.23409684061631383</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.33635427056685513</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.39718423662723912</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0.2346820394446682</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.76522363953352956</v>
+      </c>
+      <c r="L127" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" t="s">
+        <v>4</v>
+      </c>
+      <c r="N127" t="s">
+        <v>373</v>
+      </c>
+      <c r="O127">
+        <v>3</v>
+      </c>
+      <c r="P127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.62991610265713116</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0.20689799567427025</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.15575495798301559</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0.58189221377294531</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0.41227457583492261</v>
+      </c>
+      <c r="L128" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" t="s">
+        <v>372</v>
+      </c>
+      <c r="N128" t="s">
+        <v>375</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" t="s">
+        <v>316</v>
+      </c>
+      <c r="C129" t="s">
+        <v>407</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0.68098926847209695</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0.18233625821848182</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.12842099846379859</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0.6479808526568176</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0.33973910086004466</v>
+      </c>
+      <c r="L129" t="s">
+        <v>15</v>
+      </c>
+      <c r="M129" t="s">
+        <v>372</v>
+      </c>
+      <c r="N129" t="s">
+        <v>414</v>
+      </c>
+      <c r="O129" t="s">
+        <v>414</v>
+      </c>
+      <c r="P129" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0.5324381454656768</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0.29808815323998966</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0.16457935788600367</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0.27929451317495602</v>
+      </c>
+      <c r="J130" s="5">
+        <v>0.72036383396444648</v>
+      </c>
+      <c r="L130" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" t="s">
+        <v>4</v>
+      </c>
+      <c r="N130" t="s">
+        <v>374</v>
+      </c>
+      <c r="O130">
+        <v>-5</v>
+      </c>
+      <c r="P130">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>347</v>
+      </c>
+      <c r="B131" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" t="s">
+        <v>360</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0.66226316608141345</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.25037966796292821</v>
+      </c>
+      <c r="G131" s="5">
+        <v>8.6043873787286604E-2</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0.29131887753378044</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.7076973995553838</v>
+      </c>
+      <c r="L131" t="s">
+        <v>35</v>
+      </c>
+      <c r="M131" t="s">
+        <v>372</v>
+      </c>
+      <c r="N131" t="s">
+        <v>375</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" t="s">
+        <v>349</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0.21251118420948373</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0.35040450499707176</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0.4048369486261042</v>
+      </c>
+      <c r="I132" s="5">
+        <v>0.20208786965618489</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.79784190135264477</v>
+      </c>
+      <c r="L132" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" t="s">
+        <v>4</v>
+      </c>
+      <c r="N132" t="s">
+        <v>373</v>
+      </c>
+      <c r="O132">
+        <v>-5</v>
+      </c>
+      <c r="P132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" t="s">
+        <v>408</v>
+      </c>
+      <c r="C133" t="s">
+        <v>352</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0.47299916275372594</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0.43614068617032764</v>
+      </c>
+      <c r="G133" s="5">
+        <v>9.0344588767590051E-2</v>
+      </c>
+      <c r="I133" s="5">
+        <v>7.7024783133613425E-2</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.92295764950790027</v>
+      </c>
+      <c r="L133" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" t="s">
+        <v>372</v>
+      </c>
+      <c r="N133" t="s">
+        <v>380</v>
+      </c>
+      <c r="O133">
+        <v>-5</v>
+      </c>
+      <c r="P133">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" t="s">
+        <v>368</v>
+      </c>
+      <c r="C134" t="s">
+        <v>409</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0.49238465275341681</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0.26273055085295743</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0.23226614972548307</v>
+      </c>
+      <c r="I134" s="5">
+        <v>0.44403206665930645</v>
+      </c>
+      <c r="J134" s="5">
+        <v>0.5550104597090203</v>
+      </c>
+      <c r="L134" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" t="s">
+        <v>4</v>
+      </c>
+      <c r="N134" t="s">
+        <v>375</v>
+      </c>
+      <c r="O134">
+        <v>5</v>
+      </c>
+      <c r="P134">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" t="s">
+        <v>366</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0.3180057593204591</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0.48551691334136027</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0.1931166585424729</v>
+      </c>
+      <c r="I135" s="5">
+        <v>6.5285690656938816E-2</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0.93471240609697759</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" t="s">
+        <v>372</v>
+      </c>
+      <c r="N135" t="s">
+        <v>375</v>
+      </c>
+      <c r="O135">
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" t="s">
+        <v>356</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0.41519507518383325</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0.29055270962566343</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0.27719980752088269</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0.37171961417954164</v>
+      </c>
+      <c r="J136" s="5">
+        <v>0.62794705067657441</v>
+      </c>
+      <c r="L136" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" t="s">
+        <v>4</v>
+      </c>
+      <c r="N136" t="s">
+        <v>375</v>
+      </c>
+      <c r="O136">
+        <v>3</v>
+      </c>
+      <c r="P136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0.61049660766952796</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0.28667966524520855</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0.10133324548606597</v>
+      </c>
+      <c r="I137" s="5">
+        <v>0.23960717241826679</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0.75995058664789683</v>
+      </c>
+      <c r="L137" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" t="s">
+        <v>372</v>
+      </c>
+      <c r="N137" t="s">
+        <v>379</v>
+      </c>
+      <c r="O137">
+        <v>-3</v>
+      </c>
+      <c r="P137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0.67292021520815581</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0.1832942571756592</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0.13482000741282896</v>
+      </c>
+      <c r="I138" s="5">
+        <v>0.66116349705190702</v>
+      </c>
+      <c r="J138" s="5">
+        <v>0.32598302654536088</v>
+      </c>
+      <c r="L138" t="s">
+        <v>15</v>
+      </c>
+      <c r="M138" t="s">
+        <v>372</v>
+      </c>
+      <c r="N138" t="s">
+        <v>378</v>
+      </c>
+      <c r="O138">
+        <v>-3</v>
+      </c>
+      <c r="P138">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C139" t="s">
+        <v>365</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0.41571006358853579</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0.27778169103828865</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.28747865685359808</v>
+      </c>
+      <c r="I139" s="5">
+        <v>0.41941979536271062</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.58006590545516956</v>
+      </c>
+      <c r="L139" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" t="s">
+        <v>4</v>
+      </c>
+      <c r="N139" t="s">
+        <v>380</v>
+      </c>
+      <c r="O139">
+        <v>-2</v>
+      </c>
+      <c r="P139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0.46142945303002575</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0.3194704727156864</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.21089766914032362</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0.26362204406595557</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.73621210911418966</v>
+      </c>
+      <c r="L140" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" t="s">
+        <v>4</v>
+      </c>
+      <c r="N140" t="s">
+        <v>380</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141" t="s">
+        <v>364</v>
+      </c>
+      <c r="C141" t="s">
+        <v>369</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0.4515880538969696</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0.35493786776322217</v>
+      </c>
+      <c r="G141" s="5">
+        <v>0.18817433623593957</v>
+      </c>
+      <c r="I141" s="5">
+        <v>0.18824497546497471</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0.81168631893647314</v>
+      </c>
+      <c r="L141" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" t="s">
+        <v>4</v>
+      </c>
+      <c r="N141" t="s">
+        <v>380</v>
+      </c>
+      <c r="O141">
+        <v>-1</v>
+      </c>
+      <c r="P141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>320</v>
+      </c>
+      <c r="B142" t="s">
+        <v>413</v>
+      </c>
+      <c r="C142" t="s">
+        <v>337</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0.59320834269917133</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0.20107161597201589</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0.19341816040475099</v>
+      </c>
+      <c r="I142" s="5">
+        <v>0.68706166933298596</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.30298670362632918</v>
+      </c>
+      <c r="L142" t="s">
+        <v>15</v>
+      </c>
+      <c r="M142" t="s">
+        <v>372</v>
+      </c>
+      <c r="N142" t="s">
+        <v>374</v>
+      </c>
+      <c r="O142">
+        <v>-1</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.38583282174112998</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0.42494513244364351</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.18541986998489338</v>
+      </c>
+      <c r="I143" s="5">
+        <v>0.10664955878735936</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0.89333950398649931</v>
+      </c>
+      <c r="L143" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" t="s">
+        <v>372</v>
+      </c>
+      <c r="N143" t="s">
+        <v>375</v>
+      </c>
+      <c r="O143">
+        <v>6</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>320</v>
+      </c>
+      <c r="B144" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>340</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0.58780060222451025</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0.25662381680522417</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0.15073279631566414</v>
+      </c>
+      <c r="I144" s="5">
+        <v>0.37334401096814412</v>
+      </c>
+      <c r="J144" s="5">
+        <v>0.62557429111959839</v>
+      </c>
+      <c r="L144" t="s">
+        <v>15</v>
+      </c>
+      <c r="M144" t="s">
+        <v>372</v>
+      </c>
+      <c r="N144" t="s">
+        <v>377</v>
+      </c>
+      <c r="O144">
+        <v>-4</v>
+      </c>
+      <c r="P144">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" t="s">
+        <v>339</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0.53849811098617861</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0.26561407983657026</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.18806034619110085</v>
+      </c>
+      <c r="I145" s="5">
+        <v>0.39101787791548848</v>
+      </c>
+      <c r="J145" s="5">
+        <v>0.60810891164931424</v>
+      </c>
+      <c r="L145" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" t="s">
+        <v>4</v>
+      </c>
+      <c r="N145" t="s">
+        <v>378</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" t="s">
+        <v>329</v>
+      </c>
+      <c r="C146" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0.58859838522242502</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.19037831613074349</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.20354517024776711</v>
+      </c>
+      <c r="I146" s="5">
+        <v>0.76325511630520071</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0.21840829665177983</v>
+      </c>
+      <c r="L146" t="s">
+        <v>370</v>
+      </c>
+      <c r="M146" t="s">
+        <v>372</v>
+      </c>
+      <c r="N146" t="s">
+        <v>375</v>
+      </c>
+      <c r="O146">
+        <v>10</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>320</v>
+      </c>
+      <c r="B147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" t="s">
+        <v>333</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0.5882091350964862</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0.21668946087020705</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0.18552763440902192</v>
+      </c>
+      <c r="I147" s="5">
+        <v>0.58934385937761991</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0.40584382616123965</v>
+      </c>
+      <c r="L147" t="s">
+        <v>15</v>
+      </c>
+      <c r="M147" t="s">
+        <v>372</v>
+      </c>
+      <c r="N147" t="s">
+        <v>379</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0.6540638298707514</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0.22182834723706962</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0.12046091359123214</v>
+      </c>
+      <c r="I148" s="5">
+        <v>0.4383573306617744</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0.55900615001730247</v>
+      </c>
+      <c r="L148" t="s">
+        <v>15</v>
+      </c>
+      <c r="M148" t="s">
+        <v>372</v>
+      </c>
+      <c r="N148" t="s">
+        <v>374</v>
+      </c>
+      <c r="O148">
+        <v>-5</v>
+      </c>
+      <c r="P148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" t="s">
+        <v>332</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0.65115563703232282</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0.24167819800893314</v>
+      </c>
+      <c r="G149" s="5">
+        <v>0.10493601074904885</v>
+      </c>
+      <c r="I149" s="5">
+        <v>0.34460951431704284</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0.65403385335463315</v>
+      </c>
+      <c r="L149" t="s">
+        <v>35</v>
+      </c>
+      <c r="M149" t="s">
+        <v>372</v>
+      </c>
+      <c r="N149" t="s">
+        <v>378</v>
+      </c>
+      <c r="O149">
+        <v>6</v>
+      </c>
+      <c r="P149">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>320</v>
+      </c>
+      <c r="B150" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" t="s">
+        <v>338</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.84277794601850053</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0.10792352371894716</v>
+      </c>
+      <c r="G150" s="5">
+        <v>3.1932886533370945E-2</v>
+      </c>
+      <c r="I150" s="5">
+        <v>0.62305804493253369</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0.34686263778204757</v>
+      </c>
+      <c r="L150" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" t="s">
+        <v>372</v>
+      </c>
+      <c r="N150" t="s">
+        <v>374</v>
+      </c>
+      <c r="O150">
+        <v>-3</v>
+      </c>
+      <c r="P150">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" t="s">
+        <v>336</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.45670559081571549</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0.48742237281296363</v>
+      </c>
+      <c r="G151" s="5">
+        <v>5.5764401794532348E-2</v>
+      </c>
+      <c r="I151" s="5">
+        <v>4.6536349410528186E-2</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0.95345617516272008</v>
+      </c>
+      <c r="L151" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" t="s">
+        <v>372</v>
+      </c>
+      <c r="N151" t="s">
+        <v>373</v>
+      </c>
+      <c r="O151">
+        <v>-2</v>
+      </c>
+      <c r="P151">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.52259431676992385</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0.24544141626263768</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.22012497271036793</v>
+      </c>
+      <c r="I152" s="5">
+        <v>0.50246204658251747</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0.49575839545491668</v>
+      </c>
+      <c r="L152" t="s">
+        <v>15</v>
+      </c>
+      <c r="M152" t="s">
+        <v>372</v>
+      </c>
+      <c r="N152" t="s">
+        <v>374</v>
+      </c>
+      <c r="O152">
+        <v>-7</v>
+      </c>
+      <c r="P152">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" t="s">
+        <v>121</v>
+      </c>
+      <c r="C153" t="s">
+        <v>113</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0.44852842637359036</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0.2518442942999265</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0.2807292340844616</v>
+      </c>
+      <c r="I153" s="5">
+        <v>0.52230338435677359</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0.47629984823098637</v>
+      </c>
+      <c r="L153" t="s">
+        <v>15</v>
+      </c>
+      <c r="M153" t="s">
+        <v>372</v>
+      </c>
+      <c r="N153" t="s">
+        <v>374</v>
+      </c>
+      <c r="O153">
+        <v>-5</v>
+      </c>
+      <c r="P153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.6032945361468276</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0.28200604373952615</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.11268360868135989</v>
+      </c>
+      <c r="I154" s="5">
+        <v>0.26126291670807539</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0.73823190527395421</v>
+      </c>
+      <c r="L154" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" t="s">
+        <v>372</v>
+      </c>
+      <c r="N154" t="s">
+        <v>378</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.56535216622594808</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0.22451059175383872</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.19962229028214315</v>
+      </c>
+      <c r="I155" s="5">
+        <v>0.57260036796777714</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0.42364180796675094</v>
+      </c>
+      <c r="L155" t="s">
+        <v>15</v>
+      </c>
+      <c r="M155" t="s">
+        <v>372</v>
+      </c>
+      <c r="N155" t="s">
+        <v>379</v>
+      </c>
+      <c r="O155">
+        <v>2</v>
+      </c>
+      <c r="P155">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" t="s">
+        <v>123</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.5568462436560031</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0.22565250235803894</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0.20635680289525721</v>
+      </c>
+      <c r="I156" s="5">
+        <v>0.57656563077558509</v>
+      </c>
+      <c r="J156" s="5">
+        <v>0.41975449723859659</v>
+      </c>
+      <c r="L156" t="s">
+        <v>15</v>
+      </c>
+      <c r="M156" t="s">
+        <v>372</v>
+      </c>
+      <c r="N156" t="s">
+        <v>378</v>
+      </c>
+      <c r="O156">
+        <v>11</v>
+      </c>
+      <c r="P156">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" t="s">
+        <v>129</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0.38281822401944871</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0.2514423281483939</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0.33862244020993293</v>
+      </c>
+      <c r="I157" s="5">
+        <v>0.53988096324792978</v>
+      </c>
+      <c r="J157" s="5">
+        <v>0.45875052927648191</v>
+      </c>
+      <c r="L157" t="s">
+        <v>19</v>
+      </c>
+      <c r="M157" t="s">
+        <v>4</v>
+      </c>
+      <c r="N157" t="s">
+        <v>378</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+      <c r="P157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0.35064848346218191</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0.33638174004242949</v>
+      </c>
+      <c r="G158" s="5">
+        <v>0.29600911748156922</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0.25141922364160341</v>
+      </c>
+      <c r="J158" s="5">
+        <v>0.74851059719212221</v>
+      </c>
+      <c r="L158" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" t="s">
+        <v>4</v>
+      </c>
+      <c r="N158" t="s">
+        <v>380</v>
+      </c>
+      <c r="O158">
+        <v>-5</v>
+      </c>
+      <c r="P158">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0.57149481061804952</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0.18090654799800654</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0.21797120770908759</v>
+      </c>
+      <c r="I159" s="5">
+        <v>0.82521769943076029</v>
+      </c>
+      <c r="J159" s="5">
+        <v>0.14037267735973424</v>
+      </c>
+      <c r="L159" t="s">
+        <v>370</v>
+      </c>
+      <c r="M159" t="s">
+        <v>372</v>
+      </c>
+      <c r="N159" t="s">
+        <v>379</v>
+      </c>
+      <c r="O159">
+        <v>-5</v>
+      </c>
+      <c r="P159">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" t="s">
+        <v>122</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0.38344878155262174</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0.36259327027932053</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0.24417566116161277</v>
+      </c>
+      <c r="I160" s="5">
+        <v>0.19342971019164634</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0.80653108369198401</v>
+      </c>
+      <c r="L160" t="s">
+        <v>19</v>
+      </c>
+      <c r="M160" t="s">
+        <v>4</v>
+      </c>
+      <c r="N160" t="s">
+        <v>380</v>
+      </c>
+      <c r="O160">
+        <v>-9</v>
+      </c>
+      <c r="P160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0.31286944677299233</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0.24035758621676714</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0.40790352425762244</v>
+      </c>
+      <c r="I161" s="5">
+        <v>0.57609158545484551</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0.42178590786746595</v>
+      </c>
+      <c r="L161" t="s">
+        <v>27</v>
+      </c>
+      <c r="M161" t="s">
+        <v>371</v>
+      </c>
+      <c r="N161" t="s">
+        <v>379</v>
+      </c>
+      <c r="O161">
+        <v>7</v>
+      </c>
+      <c r="P161">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E162" s="5">
+        <v>0.41671049556062034</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0.26877039379683937</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0.29421515455596148</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0.45621552404203913</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0.543072433100106</v>
+      </c>
+      <c r="L162" t="s">
+        <v>19</v>
+      </c>
+      <c r="M162" t="s">
+        <v>4</v>
+      </c>
+      <c r="N162" t="s">
+        <v>379</v>
+      </c>
+      <c r="O162">
+        <v>7</v>
+      </c>
+      <c r="P162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>107</v>
+      </c>
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C163" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E163" s="5">
+        <v>0.6156628822036444</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0.27458925458756983</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0.10786163776589608</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0.27056515028876116</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0.72883659683822577</v>
+      </c>
+      <c r="L163" t="s">
+        <v>16</v>
+      </c>
+      <c r="M163" t="s">
+        <v>372</v>
+      </c>
+      <c r="N163" t="s">
+        <v>375</v>
+      </c>
+      <c r="O163">
+        <v>5</v>
+      </c>
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" t="s">
+        <v>139</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0.71731543320001345</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0.18357628742499529</v>
+      </c>
+      <c r="G164" s="5">
+        <v>9.4973757798670982E-2</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0.53134495233740031</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0.46155893419505672</v>
+      </c>
+      <c r="L164" t="s">
+        <v>15</v>
+      </c>
+      <c r="M164" t="s">
+        <v>372</v>
+      </c>
+      <c r="N164" t="s">
+        <v>378</v>
+      </c>
+      <c r="O164">
+        <v>3</v>
+      </c>
+      <c r="P164">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0.55883015133564118</v>
+      </c>
+      <c r="F165" s="5">
+        <v>0.25911635152780371</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0.17521900186189554</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0.39759211373605191</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0.60135190761529211</v>
+      </c>
+      <c r="L165" t="s">
+        <v>15</v>
+      </c>
+      <c r="M165" t="s">
+        <v>372</v>
+      </c>
+      <c r="N165" t="s">
+        <v>375</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0.53016161758467395</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0.26661581279782365</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0.19477333397814461</v>
+      </c>
+      <c r="I166" s="5">
+        <v>0.3948602347550032</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0.60429178071655343</v>
+      </c>
+      <c r="L166" t="s">
+        <v>19</v>
+      </c>
+      <c r="M166" t="s">
+        <v>4</v>
+      </c>
+      <c r="N166" t="s">
+        <v>375</v>
+      </c>
+      <c r="O166">
+        <v>-1</v>
+      </c>
+      <c r="P166">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" t="s">
+        <v>154</v>
+      </c>
+      <c r="C167" t="s">
+        <v>156</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0.1145714956665498</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0.18720613761088806</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0.59933434882755465</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0.53815673844367318</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0.45549174176949991</v>
+      </c>
+      <c r="L167" t="s">
+        <v>27</v>
+      </c>
+      <c r="M167" t="s">
+        <v>371</v>
+      </c>
+      <c r="N167" t="s">
+        <v>373</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" t="s">
+        <v>149</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0.37848615742374764</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0.29035286848534458</v>
+      </c>
+      <c r="G168" s="5">
+        <v>0.30956453673926304</v>
+      </c>
+      <c r="I168" s="5">
+        <v>0.38008425814655356</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0.61960019011133172</v>
+      </c>
+      <c r="L168" t="s">
+        <v>19</v>
+      </c>
+      <c r="M168" t="s">
+        <v>4</v>
+      </c>
+      <c r="N168" t="s">
+        <v>379</v>
+      </c>
+      <c r="O168">
+        <v>2</v>
+      </c>
+      <c r="P168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" t="s">
+        <v>153</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.34619225867719927</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0.25663448832938646</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0.36556424263919418</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0.51299009666304318</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0.48590825546103256</v>
+      </c>
+      <c r="L169" t="s">
+        <v>19</v>
+      </c>
+      <c r="M169" t="s">
+        <v>4</v>
+      </c>
+      <c r="N169" t="s">
+        <v>373</v>
+      </c>
+      <c r="O169">
+        <v>-2</v>
+      </c>
+      <c r="P169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" t="s">
+        <v>150</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0.41444920345804687</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0.24936220612365562</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0.3129016367562209</v>
+      </c>
+      <c r="I170" s="5">
+        <v>0.54610848540954171</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0.45237756040498589</v>
+      </c>
+      <c r="L170" t="s">
+        <v>15</v>
+      </c>
+      <c r="M170" t="s">
+        <v>372</v>
+      </c>
+      <c r="N170" t="s">
+        <v>374</v>
+      </c>
+      <c r="O170">
+        <v>-11</v>
+      </c>
+      <c r="P170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0.49120920681991165</v>
+      </c>
+      <c r="F171" s="5">
+        <v>0.28077889936455241</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0.2176957415199649</v>
+      </c>
+      <c r="I171" s="5">
+        <v>0.36979795136626431</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0.62967190430266129</v>
+      </c>
+      <c r="L171" t="s">
+        <v>19</v>
+      </c>
+      <c r="M171" t="s">
+        <v>4</v>
+      </c>
+      <c r="N171" t="s">
+        <v>380</v>
+      </c>
+      <c r="O171">
+        <v>-5</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0.6600471729028683</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0.23800368116847273</v>
+      </c>
+      <c r="G172" s="5">
+        <v>9.989557300634086E-2</v>
+      </c>
+      <c r="I172" s="5">
+        <v>0.34560517700204163</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.65294400282392839</v>
+      </c>
+      <c r="L172" t="s">
+        <v>35</v>
+      </c>
+      <c r="M172" t="s">
+        <v>372</v>
+      </c>
+      <c r="N172" t="s">
+        <v>376</v>
+      </c>
+      <c r="O172">
+        <v>-8</v>
+      </c>
+      <c r="P172">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" t="s">
+        <v>147</v>
+      </c>
+      <c r="C173" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0.474122473527884</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0.23444510486471634</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0.27323409891665079</v>
+      </c>
+      <c r="I173" s="5">
+        <v>0.60043201230174426</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0.39669066501849531</v>
+      </c>
+      <c r="L173" t="s">
+        <v>15</v>
+      </c>
+      <c r="M173" t="s">
+        <v>372</v>
+      </c>
+      <c r="N173" t="s">
+        <v>375</v>
+      </c>
+      <c r="O173">
+        <v>7</v>
+      </c>
+      <c r="P173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" t="s">
+        <v>140</v>
+      </c>
+      <c r="D174" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0.16231966769363612</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0.17434035893055558</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0.58337619527410978</v>
+      </c>
+      <c r="I174" s="5">
+        <v>0.70684247802454736</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0.27751850575583975</v>
+      </c>
+      <c r="L174" t="s">
+        <v>69</v>
+      </c>
+      <c r="M174" t="s">
+        <v>371</v>
+      </c>
+      <c r="N174" t="s">
+        <v>379</v>
+      </c>
+      <c r="O174">
+        <v>7</v>
+      </c>
+      <c r="P174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" t="s">
+        <v>157</v>
+      </c>
+      <c r="D175" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0.39704851473011132</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0.43234883922210976</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0.16776320465499966</v>
+      </c>
+      <c r="I175" s="5">
+        <v>9.7339118575409944E-2</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0.90265026121363756</v>
+      </c>
+      <c r="L175" t="s">
+        <v>16</v>
+      </c>
+      <c r="M175" t="s">
+        <v>372</v>
+      </c>
+      <c r="N175" t="s">
+        <v>376</v>
+      </c>
+      <c r="O175">
+        <v>-5</v>
+      </c>
+      <c r="P175">
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2622FD2-4AA5-4C2A-81FB-70453CE3F04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C1FE4-8B90-430C-A349-A7479D7788EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1611-2311" sheetId="1" r:id="rId1"/>
     <sheet name="0312-0712" sheetId="2" r:id="rId2"/>
+    <sheet name="1412-2012" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="420">
   <si>
     <t>Div</t>
   </si>
@@ -1283,6 +1284,15 @@
   </si>
   <si>
     <t>5-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
 </sst>
 </file>
@@ -11471,8 +11481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57061C06-A639-4707-9723-4C28021E27E5}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19178,4 +19188,6046 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D312FA9D-BD85-41F8-9068-0B7706AA55B0}">
+  <dimension ref="A1:Q172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.39856440660478176</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.35061105486848065</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.24088754879693211</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.21321580537940871</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.78672721148900504</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.46946248445820227</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.32442292492414393</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19913411720039301</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.24693394184116774</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.7529152883179252</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.84179669213336394</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.1174698364205074</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.0644591392654102E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.54727126989046826</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.435211604337923</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.19562120949864387</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.1712991950150228</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.56215662034525604</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.77755499562356079</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.19880554172360945</v>
+      </c>
+      <c r="K5" t="s">
+        <v>417</v>
+      </c>
+      <c r="L5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.48262891288550502</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.2474213977434318</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.25426050912842113</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.52517923784949516</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.47314069678727272</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.24666582984725083</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.331793878038179</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.38998232365908558</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.24804055671681766</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.75185745853106989</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.55059891680976691</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.19203848420959499</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.23581016714034869</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.79158280982688545</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.18816102837751997</v>
+      </c>
+      <c r="K8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.3683854568356808</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.37272586641408645</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.24903723101896338</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.17838522875483617</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.82158652482274896</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.58225577185651312</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6.6293260033472384E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.3335268442209474E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.56123301759524979</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.8257328941050335E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.4296499099833796</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.32287850628060194</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.23680597943185325</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.26799477203420502</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.73187120931045746</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.33783109825834728</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.27996414491497812</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.35319068860323016</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.41708595373983259</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.58246015696956721</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.23206298979588111</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.42918442507332633</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.32385666760316451</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.10846789700686144</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.89152546579690806</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.42842411548491266</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.27788851021337807</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.27619293900308034</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.4147977774583535</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.58467912560852175</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.61264942621316543</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.22635794369742299</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.15483515800989145</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.48935873338068181</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.50779627458883558</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.28169744946986003</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.3557456126464319</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.34081860317989343</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.20946593847211767</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.79049197328496279</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.78335419102141057</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.15752506469240668</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5.5091421396641471E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.49485145209464332</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.49664762587320449</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.44181619036117581</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.25725524718547432</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.28197692207201197</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.49912648177641777</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.49974730535160583</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.33302782048725493</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.21421391531892661</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.41512468146124831</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.71490411920173458</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.27831449574466544</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.30125877567513581</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.26461689972377317</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.39670458639671574</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.46576508790508653</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.53340867905007494</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.50265290894729675</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.23890928072629886</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.2437584594184698</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.55546527465623108</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.44219200851051671</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.37953583130311924</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.34209664235248793</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.26543837112896601</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.23509821425567384</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.76483686553754215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.28492843641694582</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.24299911381054545</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.4285825607115703</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.5480809140887215</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.45003137035194951</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.42824320322222204</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.27004166600925839</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.28300051908834345</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.44708787983083237</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.55222244492645212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.59371778790533325</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.23007246073197665</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.16894448679013377</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.4985092681931878</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.49880364189749249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.2916466015975733E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5.6642505703040129E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.67851339759702567</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.74204743016961605</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8.8175178464509493E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.85289151200464564</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9.4299559692928636E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2.4946053479664266E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.6564503451809095</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.29921419903925606</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.87864638965580777</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7.1317051778332141E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.208438729400369E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.63830792823705795</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.3107310208226155</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.85710029196189497</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.11025506729821946</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.2230900460579295E-2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.51747517242718855</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.46639198773989221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.32018327817491776</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.37132068659842049</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.29383556770745245</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.18468597901798472</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.81528924592177465</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.58855704732640057</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.27016282146786363</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.13768152640920633</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.31811406581548474</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.68116784011840958</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.68720269077983642</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.20295937431321581</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.10633187940347667</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.47853346184912482</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.51724844923175572</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.37340172194255128</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.29897871538094234</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.30688780754386408</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.35163932159058581</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.64812646359322224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.8383422859813765</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.10935269611862311</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3.4074652874069168E-2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.63576913180276473</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.33219702188274508</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.31177838575684308</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.24943181372548132</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.40080137591622128</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.53413688245685287</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.46439004717412091</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.5415817839204109</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.28641453312394916</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.16666522825715271</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.30894654758447992</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.69058277550120561</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.78424141654080315</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.16064013944232997</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5.1667977868997732E-2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.46629392551676085</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.52655414435933134</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.8055659492087297</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.13428435645639916</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5.0892802622607362E-2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.59622936884178501</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.38496865082282988</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.28174240637520875</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.24518058894978798</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.42927417472727691</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.53635922747196185</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.46190750644648337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.44676643278556177</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.2491253674658834</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.28465609098704348</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.53663082131282291</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.46181396571169153</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.34964966690701421</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.24075734162257531</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.37657539637077753</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.58762971060579616</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.41025207837460553</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.5470002709499362</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.23953744338991631</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.2032151555829752</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.50814565272230561</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.48970509777336391</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.26228293583551038</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.22120321782081628</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.46657328451667163</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.63080837898716202</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.36486488345202994</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.391272403955092</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.28113372955834792</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.30606572972994905</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.41197431018049008</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.58758385711969241</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.3779883066134353</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.20302555364691849</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.38541407273269729</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.78542213063918165</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.2018727939435655</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.28073091307524328</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.39813019088862606</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.30649603745326459</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.14535209231468293</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.85463576069809355</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.60399598472966776</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.25113513383292563</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.14064367134848865</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.37563876532890533</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.62313138838720117</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.42690587722351475</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.26708025586896095</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.28669615588405906</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.46028201894455567</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.53895102680228257</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.65163946115865679</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.21890444545971027</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.12535500210725897</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.46014604733511849</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.53685623754526424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.4660592817068126</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.22005372474893356</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.29309806067257499</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.6868174662745854</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.30758264924203477</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.56100225180091345</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.26726654250404963</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.16594555272019748</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.36063039174409273</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.63855462606249125</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.37385244459922029</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.29208476278445267</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.31217223021696444</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.37456333981200862</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.62514075538092861</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E53" s="5">
+        <v>8.2897175734495301E-2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.14461808527425926</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.6513780174409769</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.62931099586482819</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.3537277058274691</v>
+      </c>
+      <c r="K53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.38528346646808431</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.33064725151765845</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.27002176183976229</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.26052229429570684</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.73938676834088402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.12635578132731087</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.19127891702137051</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.58916619484320387</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.54993695573238977</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.44383235661105169</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.3751554108242221</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.24046938610793059</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.35496717927524357</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.593160028482415</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.4046729990299921</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.86351551925960124</v>
+      </c>
+      <c r="F57" s="5">
+        <v>8.4465935577306639E-2</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1.9005895506321528E-2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.65368518934238484</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.29727571347006448</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E58" s="5">
+        <v>7.7448497377124226E-2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.30513766129546377</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.54781475120697021</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.18586069860031834</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.81385878413902835</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.18244212293399029</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.30796931340880768</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.46134907731268365</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.26631114662051547</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.73343592827907211</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.55932393209065845</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.23571747004563076</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.19536886413069193</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.51444029655612422</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.48313788415025422</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.59913885238151987</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.29448269869610572</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.1048263381955517</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.22963103604340587</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.76999792097797914</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.33819998985926603</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.39300284720543743</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.25881314300790415</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.15116064011522426</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.84882458000695726</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.2785965833546809</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.43954036664919272</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.27237512516555834</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.10126697813242348</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.89872909065495665</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.56435733107095487</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.26571062620739822</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.16424552133095019</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.36325166040256801</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0.63589698609611145</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.78229570152579042</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.1489458054691527</v>
+      </c>
+      <c r="G65" s="5">
+        <v>6.2199731945060482E-2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.57473893296406864</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0.41127025851794125</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.19307337727540799</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.34199048474639548</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.4276910705119995</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.20828862647384577</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.79161414572879818</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.55384940602054866</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.28064316582954074</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.16050750528188765</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.3174394764362386</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.68200742398001779</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.36808462283222482</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.34905399432921791</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.26978672920126578</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0.22213656461915185</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.7778119700749403</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.63857280604201916</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.22001392958766117</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.13650836742728614</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.47962166439175252</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0.51724019969602486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.37286161110151622</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.25713298122008427</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.34228407798069865</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.51353392995404035</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.48538333462862404</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.6975831352078834</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.20774660395411298</v>
+      </c>
+      <c r="G71" s="5">
+        <v>9.2218459326011304E-2</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.42298311671819594</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.57387416098223176</v>
+      </c>
+      <c r="K71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.5083991283636613</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.28694705195490799</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.1966967264799154</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.33461161853469934</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.6649369273329192</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.53195816838732468</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.2500168621374077</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.20768005594529482</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.46973157304721713</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.52877975509586295</v>
+      </c>
+      <c r="K73" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.38927687514301984</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.37641025626618735</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.22660554245192491</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.16873280336742072</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.83123768272666876</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.62710103295607034</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.30291465187892802</v>
+      </c>
+      <c r="G75" s="5">
+        <v>6.945687470871624E-2</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.18222645765894216</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.81748150581763313</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.45431725124812339</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.21262449018709456</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.30988849867389701</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.73352178153372138</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.25832688485890098</v>
+      </c>
+      <c r="K76" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.36140356459636547</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.24184908675706882</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.36555427900966098</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.58468312307388215</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.41328584416415703</v>
+      </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.35948142490566698</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.27983920729979106</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.33470935602599278</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.41921247078545026</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.58033396969950202</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E79" s="5">
+        <v>8.1267259905679221E-2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.27813443411367544</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.56143068061194235</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.22934355566562867</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.77015317241626402</v>
+      </c>
+      <c r="K79" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.5758502308216874</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.20038248261313013</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.20940230562432946</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.71568687808367137</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.27293342816339178</v>
+      </c>
+      <c r="K80" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.31496959818583309</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.27469921203973896</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.37691495428592531</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.43180487792666566</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.56763360981953737</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.28396328487672612</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.25564590628148348</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.41851083775148351</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.49333373404696851</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.50549945117722583</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.60364899787076665</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.27601298389156542</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.11798692262805921</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.28001692405349693</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.71939109124450851</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.24545145616641878</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.42436290600537641</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.31589263431501874</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.11412583198928132</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.88586729192651115</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.28872836159699655</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.31099419581974319</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.37029064067018802</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.30935257786161791</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.69047932997782557</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.52017247012656809</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.26291763358264947</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.20707626330704601</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.42021357279588251</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.57882833141414702</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.44599445227113826</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.25213447033789127</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.28271853164446248</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.52201175803470479</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.47660942768950537</v>
+      </c>
+      <c r="K87" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.59873136134318583</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.2689410849460831</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.12923787990312022</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.31046651883704746</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.68880520650157273</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.4501557017934722</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.33337056038850849</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.20891728305822679</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.23409501768922006</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.76579295687294324</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.68217667207820487</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.2130278203314652</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.10200032878847873</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.42849235103833999</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.56855285403582112</v>
+      </c>
+      <c r="K90" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.33047187470075912</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.28701139440983825</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.35374792301476954</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.39091008836031327</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.60873604929855596</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.4882196810303564</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.30221493578535524</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.2016469801862619</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.29821811105425655</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.70149828313141527</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.7581816111501698</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.18832146616768716</v>
+      </c>
+      <c r="G93" s="5">
+        <v>5.1786724182525674E-2</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.37243395627901832</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.62425035021290531</v>
+      </c>
+      <c r="K93" t="s">
+        <v>35</v>
+      </c>
+      <c r="L93" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.32373292226655226</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.35398835715458038</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.3052176031949429</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.21541975538103436</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.78453949222275732</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.50528680095235923</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.26156225376904013</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.22168842492466254</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0.43921218463538181</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.55978590961428432</v>
+      </c>
+      <c r="K95" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.13921239501534272</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.34263111427418869</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.47235575651743839</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0.18016604057382599</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.81971787985512035</v>
+      </c>
+      <c r="K96" t="s">
+        <v>32</v>
+      </c>
+      <c r="L96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.15496196576379864</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.28414519489144002</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.50018588413462195</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0.29675284634616489</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0.70275567871518452</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.77349931536145389</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.12699353854563147</v>
+      </c>
+      <c r="G98" s="5">
+        <v>6.1633057135714424E-2</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0.75585764485229834</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.18001357294653914</v>
+      </c>
+      <c r="K98" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.1538581317420086</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.27955024226821235</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.50421961677881211</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0.30649248080713137</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.69295252827789144</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.46659013219200152</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.2673077154088338</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.25137365134649969</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0.44081627238826598</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.55838517935044196</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.3589922150326707</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.47486321866301062</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.16387995278134534</v>
+      </c>
+      <c r="I101" s="5">
+        <v>6.8548884478320235E-2</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0.93144747404541306</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.32861436844358183</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.30983662903434511</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.33696298442896533</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0.31915779254395932</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.68068070569978656</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.67432426347391117</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.20959376596531451</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.11248786937829514</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0.46724814511757273</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.52913149425707695</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>223</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.30047852516460638</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0.27171351325317844</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.39153352907044209</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0.43812037146525751</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0.56124301372420993</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" t="s">
+        <v>384</v>
+      </c>
+      <c r="C105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0.35773356341431378</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.37784081350061954</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.25427453550054413</v>
+      </c>
+      <c r="I105" s="5">
+        <v>0.17154808370798508</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.82842835444700846</v>
+      </c>
+      <c r="K105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0.60496576881096198</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.23749407557200053</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.15203644507823327</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0.44024203556076924</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.55781315029078682</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" t="s">
+        <v>381</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0.66134749876769394</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.24667252408012166</v>
+      </c>
+      <c r="G107" s="5">
+        <v>9.0462049274383755E-2</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0.30701414018910839</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.69188372383179042</v>
+      </c>
+      <c r="K107" t="s">
+        <v>35</v>
+      </c>
+      <c r="L107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" t="s">
+        <v>383</v>
+      </c>
+      <c r="C108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0.70742432396658417</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.19454012771430662</v>
+      </c>
+      <c r="G108" s="5">
+        <v>9.4806526113949768E-2</v>
+      </c>
+      <c r="I108" s="5">
+        <v>0.48112914310691235</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.5140108046426396</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" t="s">
+        <v>387</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44548</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.22959388997382288</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.36893958565196466</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.37569305908413908</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0.17830306819394512</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0.82165929381554059</v>
+      </c>
+      <c r="K109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.47790129186308905</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.19441082661742357</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.29948016332115868</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0.81904205840224187</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.15976325282032747</v>
+      </c>
+      <c r="K110" t="s">
+        <v>370</v>
+      </c>
+      <c r="L110" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.25367809156711074</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.34160420719392132</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.3763732043111781</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0.23046890459806249</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0.7694576842902191</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.61328116627785523</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.21101722058834135</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.16747945452484736</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0.58514306573261543</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0.40944855664144852</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.51017862675202663</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.27205134184916963</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.20814689520759311</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0.38986004884619962</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0.6094299430425848</v>
+      </c>
+      <c r="K113" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.27155424581227933</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.32436643184358988</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.37449775939520474</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0.2716786695446764</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0.72820563812930028</v>
+      </c>
+      <c r="K114" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0.47024407666729062</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.22795383014266016</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.28243289116569698</v>
+      </c>
+      <c r="I115" s="5">
+        <v>0.6393120723593062</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0.35683726578742719</v>
+      </c>
+      <c r="K115" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0.49457945702593475</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.28710688374729193</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.20913080934968589</v>
+      </c>
+      <c r="I116" s="5">
+        <v>0.3441150201402422</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0.65544459643756947</v>
+      </c>
+      <c r="K116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0.27675886710190389</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.25029768256759732</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.42893199171282193</v>
+      </c>
+      <c r="I117" s="5">
+        <v>0.51111548482147029</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.48745785772669586</v>
+      </c>
+      <c r="K117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0.25965275053814035</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.36563167842498817</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.35212796682620634</v>
+      </c>
+      <c r="I118" s="5">
+        <v>0.18943756441929951</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.81052776844916352</v>
+      </c>
+      <c r="K118" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>291</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.47895305085402573</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0.22681733971345522</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.27562751925104234</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0.64093385577217188</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.3550325398775967</v>
+      </c>
+      <c r="K119" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.34865761470783063</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0.27634103061240889</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0.34690067405173847</v>
+      </c>
+      <c r="I120" s="5">
+        <v>0.43193123235190728</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.56755247564595224</v>
+      </c>
+      <c r="K120" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0.42326780134087494</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0.24525647137511442</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.30877372651940044</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0.56448354915589793</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.43371295488782613</v>
+      </c>
+      <c r="K121" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" t="s">
+        <v>294</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.63749412823057494</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.17523169446617684</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.16561572742464298</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0.78540598340710022</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.18439930875843658</v>
+      </c>
+      <c r="K122" t="s">
+        <v>28</v>
+      </c>
+      <c r="L122" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" t="s">
+        <v>284</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.7481330097533696</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.14584562411718294</v>
+      </c>
+      <c r="G123" s="5">
+        <v>8.5760122550712234E-2</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0.73396211009273338</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.22872875142958571</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0.33554727315444077</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0.29556295297049728</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.34248443071242402</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0.36296827750422955</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.63677090558780947</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E125" s="5">
+        <v>3.8101851204645834E-2</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.12305850497511664</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.67705495077679589</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0.53058186286147158</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.45545252717235452</v>
+      </c>
+      <c r="K125" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>281</v>
+      </c>
+      <c r="B126" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.56391867932217277</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.25868955247511699</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.17092866165073842</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0.39363030168193558</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.60530709886586087</v>
+      </c>
+      <c r="K126" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>281</v>
+      </c>
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>282</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.21095365281097117</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.28304857447004905</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.45627815876115929</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0.34824880976191913</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.65125723818419945</v>
+      </c>
+      <c r="K127" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.65486049045339068</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0.18416061053553437</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.14982165522996152</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0.69655484258916056</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0.28841924284992232</v>
+      </c>
+      <c r="K128" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" t="s">
+        <v>215</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E129" s="5">
+        <v>8.2491069862562341E-2</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0.30899326968583091</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.54135464564024471</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0.18526296026341221</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0.81447689379486532</v>
+      </c>
+      <c r="K129" t="s">
+        <v>32</v>
+      </c>
+      <c r="L129" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" t="s">
+        <v>306</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0.33315966673998471</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0.26641517579925189</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0.36835745378599127</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0.46877368481301745</v>
+      </c>
+      <c r="J130" s="5">
+        <v>0.53047130538893617</v>
+      </c>
+      <c r="K130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" t="s">
+        <v>218</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0.54038328104270295</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.22237714764823394</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.22408343356763377</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0.61602483765656491</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.37951806508611852</v>
+      </c>
+      <c r="K131" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0.15775624014110423</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0.23669749312793495</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0.53182126772758187</v>
+      </c>
+      <c r="I132" s="5">
+        <v>0.43538068183071998</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.56275355884842759</v>
+      </c>
+      <c r="K132" t="s">
+        <v>27</v>
+      </c>
+      <c r="L132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" t="s">
+        <v>401</v>
+      </c>
+      <c r="C133" t="s">
+        <v>390</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0.33132383093161732</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0.40713958700434261</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0.2526247108143494</v>
+      </c>
+      <c r="I133" s="5">
+        <v>0.13344042324122601</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.86654937848345837</v>
+      </c>
+      <c r="K133" t="s">
+        <v>19</v>
+      </c>
+      <c r="L133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>388</v>
+      </c>
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>392</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0.80579709875679828</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0.16243404036067116</v>
+      </c>
+      <c r="G134" s="5">
+        <v>2.9105049529139306E-2</v>
+      </c>
+      <c r="I134" s="5">
+        <v>0.36953083101119105</v>
+      </c>
+      <c r="J134" s="5">
+        <v>0.62603970469068004</v>
+      </c>
+      <c r="K134" t="s">
+        <v>35</v>
+      </c>
+      <c r="L134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" t="s">
+        <v>394</v>
+      </c>
+      <c r="C135" t="s">
+        <v>396</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0.45631044449324915</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0.23452886983626739</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0.28904951417948355</v>
+      </c>
+      <c r="I135" s="5">
+        <v>0.60932177789061703</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0.38779866152401832</v>
+      </c>
+      <c r="K135" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" t="s">
+        <v>403</v>
+      </c>
+      <c r="C136" t="s">
+        <v>398</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0.73319860816430382</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0.16401838645170402</v>
+      </c>
+      <c r="G136" s="5">
+        <v>9.4615171814881549E-2</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0.64044211374556914</v>
+      </c>
+      <c r="J136" s="5">
+        <v>0.34362470184014815</v>
+      </c>
+      <c r="K136" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>388</v>
+      </c>
+      <c r="B137" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0.68335828338469962</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0.21428237986765233</v>
+      </c>
+      <c r="G137" s="5">
+        <v>9.9734239075781911E-2</v>
+      </c>
+      <c r="I137" s="5">
+        <v>0.41861526749398115</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0.57859527873161609</v>
+      </c>
+      <c r="K137" t="s">
+        <v>15</v>
+      </c>
+      <c r="L137" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0.63439363880729205</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0.20594852414694112</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0.15246142662571371</v>
+      </c>
+      <c r="I138" s="5">
+        <v>0.57949338918971616</v>
+      </c>
+      <c r="J138" s="5">
+        <v>0.41461255869210872</v>
+      </c>
+      <c r="K138" t="s">
+        <v>15</v>
+      </c>
+      <c r="L138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0.12260968181890214</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0.25900770317002464</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.54203640261634367</v>
+      </c>
+      <c r="I139" s="5">
+        <v>0.3198310598601834</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.67927396050662658</v>
+      </c>
+      <c r="K139" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" t="s">
+        <v>395</v>
+      </c>
+      <c r="C140" t="s">
+        <v>404</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0.18798746828054028</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0.26600159716121635</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.48715005990805121</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0.37802325228448225</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.62114639492957313</v>
+      </c>
+      <c r="K140" t="s">
+        <v>19</v>
+      </c>
+      <c r="L140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" t="s">
+        <v>389</v>
+      </c>
+      <c r="C141" t="s">
+        <v>406</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0.15915006093100287</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0.27519609998939359</v>
+      </c>
+      <c r="G141" s="5">
+        <v>0.50309224666405727</v>
+      </c>
+      <c r="I141" s="5">
+        <v>0.32265783021179434</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0.67671570707167505</v>
+      </c>
+      <c r="K141" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>247</v>
+      </c>
+      <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0.28804911703230313</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0.32105007616012271</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0.36297007163625755</v>
+      </c>
+      <c r="I142" s="5">
+        <v>0.28352745015121272</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.71635106552940697</v>
+      </c>
+      <c r="K142" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.71484995378826044</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0.19176291317186628</v>
+      </c>
+      <c r="G143" s="5">
+        <v>9.0272076208932892E-2</v>
+      </c>
+      <c r="I143" s="5">
+        <v>0.47901455078298932</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0.51596493017637757</v>
+      </c>
+      <c r="K143" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>247</v>
+      </c>
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C144" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0.38174574889801999</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0.34730629181264183</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0.25898689559012839</v>
+      </c>
+      <c r="I144" s="5">
+        <v>0.22355222286151952</v>
+      </c>
+      <c r="J144" s="5">
+        <v>0.77639071122686076</v>
+      </c>
+      <c r="K144" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" t="s">
+        <v>319</v>
+      </c>
+      <c r="C145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0.25564679245977912</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0.3256782225912252</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.38704838114428641</v>
+      </c>
+      <c r="I145" s="5">
+        <v>0.26404424565415224</v>
+      </c>
+      <c r="J145" s="5">
+        <v>0.73583749986068303</v>
+      </c>
+      <c r="K145" t="s">
+        <v>19</v>
+      </c>
+      <c r="L145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" t="s">
+        <v>344</v>
+      </c>
+      <c r="C146" t="s">
+        <v>310</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0.51851449721711018</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.22690796375833874</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.23994621880412209</v>
+      </c>
+      <c r="I146" s="5">
+        <v>0.61052659317479629</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0.38565026459285268</v>
+      </c>
+      <c r="K146" t="s">
+        <v>15</v>
+      </c>
+      <c r="L146" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0.26226894695125519</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0.28802598165310345</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0.41044464872449671</v>
+      </c>
+      <c r="I147" s="5">
+        <v>0.36565849880364104</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0.63395661240548817</v>
+      </c>
+      <c r="K147" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" t="s">
+        <v>317</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0.8394612423088067</v>
+      </c>
+      <c r="F148" s="5">
+        <v>9.2060262926216357E-2</v>
+      </c>
+      <c r="G148" s="5">
+        <v>2.5014181826086342E-2</v>
+      </c>
+      <c r="I148" s="5">
+        <v>0.70158842591830584</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0.23102417536504122</v>
+      </c>
+      <c r="K148" t="s">
+        <v>44</v>
+      </c>
+      <c r="L148" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" t="s">
+        <v>254</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0.33107865870941922</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0.58503279095035465</v>
+      </c>
+      <c r="G149" s="5">
+        <v>8.3648114808483387E-2</v>
+      </c>
+      <c r="I149" s="5">
+        <v>2.2985591374710141E-2</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0.97701382399242764</v>
+      </c>
+      <c r="K149" t="s">
+        <v>128</v>
+      </c>
+      <c r="L149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150" t="s">
+        <v>252</v>
+      </c>
+      <c r="C150" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.69154648595859325</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0.1667021879594871</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0.1255742161170853</v>
+      </c>
+      <c r="I150" s="5">
+        <v>0.74069674870936941</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0.23239532264879498</v>
+      </c>
+      <c r="K150" t="s">
+        <v>28</v>
+      </c>
+      <c r="L150" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="B151" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" t="s">
+        <v>248</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.83011961810849499</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0.13687299098568179</v>
+      </c>
+      <c r="G151" s="5">
+        <v>2.7956078264696198E-2</v>
+      </c>
+      <c r="I151" s="5">
+        <v>0.44447983518023226</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0.54710716102265755</v>
+      </c>
+      <c r="K151" t="s">
+        <v>35</v>
+      </c>
+      <c r="L151" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" t="s">
+        <v>360</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.60375341782800629</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0.2858839428969086</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.10857321085223151</v>
+      </c>
+      <c r="I152" s="5">
+        <v>0.24909267763133303</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0.75045059921515411</v>
+      </c>
+      <c r="K152" t="s">
+        <v>16</v>
+      </c>
+      <c r="L152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>347</v>
+      </c>
+      <c r="B153" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" t="s">
+        <v>349</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0.19286638142273679</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0.29778288753190402</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0.46016654948378921</v>
+      </c>
+      <c r="I153" s="5">
+        <v>0.29646225217350902</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0.7032084869231584</v>
+      </c>
+      <c r="K153" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>347</v>
+      </c>
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
+        <v>352</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.65952410274009121</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0.24781632498060302</v>
+      </c>
+      <c r="G154" s="5">
+        <v>9.1131745605406655E-2</v>
+      </c>
+      <c r="I154" s="5">
+        <v>0.30544219275987866</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0.69348227681128516</v>
+      </c>
+      <c r="K154" t="s">
+        <v>35</v>
+      </c>
+      <c r="L154" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>347</v>
+      </c>
+      <c r="B155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" t="s">
+        <v>409</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.57717998167954143</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0.26157822576670808</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.15610657008368817</v>
+      </c>
+      <c r="I155" s="5">
+        <v>0.3654727892867996</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0.63357937971550504</v>
+      </c>
+      <c r="K155" t="s">
+        <v>15</v>
+      </c>
+      <c r="L155" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s">
+        <v>350</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.63074725058530468</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0.2175416974659847</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0.14590986303513315</v>
+      </c>
+      <c r="I156" s="5">
+        <v>0.50992538868413517</v>
+      </c>
+      <c r="J156" s="5">
+        <v>0.48642700363872654</v>
+      </c>
+      <c r="K156" t="s">
+        <v>15</v>
+      </c>
+      <c r="L156" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" t="s">
+        <v>354</v>
+      </c>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0.56403415490137276</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0.30481072637127654</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0.12864617031056144</v>
+      </c>
+      <c r="I157" s="5">
+        <v>0.2341758117867718</v>
+      </c>
+      <c r="J157" s="5">
+        <v>0.76553022445379548</v>
+      </c>
+      <c r="K157" t="s">
+        <v>16</v>
+      </c>
+      <c r="L157" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>347</v>
+      </c>
+      <c r="B158" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" t="s">
+        <v>359</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0.33408749245124508</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0.38166351873048399</v>
+      </c>
+      <c r="G158" s="5">
+        <v>0.27244937716532586</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0.16781324323234692</v>
+      </c>
+      <c r="J158" s="5">
+        <v>0.83216746000572317</v>
+      </c>
+      <c r="K158" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" t="s">
+        <v>368</v>
+      </c>
+      <c r="C159" t="s">
+        <v>410</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0.7214427634310776</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0.20288688663050242</v>
+      </c>
+      <c r="G159" s="5">
+        <v>7.3854765660404234E-2</v>
+      </c>
+      <c r="I159" s="5">
+        <v>0.39105300678511951</v>
+      </c>
+      <c r="J159" s="5">
+        <v>0.60598249940259874</v>
+      </c>
+      <c r="K159" t="s">
+        <v>35</v>
+      </c>
+      <c r="L159" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>347</v>
+      </c>
+      <c r="B160" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" t="s">
+        <v>411</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0.47993246546830282</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0.32427098947849775</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0.18960982913734004</v>
+      </c>
+      <c r="I160" s="5">
+        <v>0.24194051417672385</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0.75790243501269872</v>
+      </c>
+      <c r="K160" t="s">
+        <v>19</v>
+      </c>
+      <c r="L160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" t="s">
+        <v>358</v>
+      </c>
+      <c r="C161" t="s">
+        <v>365</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0.24213859444391725</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0.48407332178436119</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0.26613081220586177</v>
+      </c>
+      <c r="I161" s="5">
+        <v>6.8060038949545223E-2</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0.93193865254682628</v>
+      </c>
+      <c r="K161" t="s">
+        <v>128</v>
+      </c>
+      <c r="L161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>347</v>
+      </c>
+      <c r="B162" t="s">
+        <v>408</v>
+      </c>
+      <c r="C162" t="s">
+        <v>369</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E162" s="5">
+        <v>0.25163901083491541</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0.30735875693756165</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0.40447842314046212</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0.30632342892193964</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0.69346433179111666</v>
+      </c>
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" t="s">
+        <v>339</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E163" s="5">
+        <v>0.43413000257787526</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0.31495719238139208</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0.23960416909520976</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0.28780110181813173</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0.71202985446956579</v>
+      </c>
+      <c r="K163" t="s">
+        <v>19</v>
+      </c>
+      <c r="L163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" t="s">
+        <v>333</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0.3728851489784567</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0.32214230488377815</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0.28818296143028382</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0.28408106202235478</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0.71580663409572276</v>
+      </c>
+      <c r="K164" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" t="s">
+        <v>337</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0.43030804365727715</v>
+      </c>
+      <c r="F165" s="5">
+        <v>0.28251789476961658</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0.27061564965831286</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0.39608755439627891</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0.60346389564922465</v>
+      </c>
+      <c r="K165" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>320</v>
+      </c>
+      <c r="B166" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" t="s">
+        <v>413</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0.57730380071397536</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0.25886126950882965</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0.15843914936207043</v>
+      </c>
+      <c r="I166" s="5">
+        <v>0.37687251432439245</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0.62209574387713207</v>
+      </c>
+      <c r="K166" t="s">
+        <v>15</v>
+      </c>
+      <c r="L166" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" t="s">
+        <v>335</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0.61337609443671526</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0.19623063361498755</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0.17878170722733525</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0.68849801986050363</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0.30028652240772086</v>
+      </c>
+      <c r="K167" t="s">
+        <v>15</v>
+      </c>
+      <c r="L167" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>320</v>
+      </c>
+      <c r="B168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" t="s">
+        <v>336</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0.84890040367137476</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0.11511816116169576</v>
+      </c>
+      <c r="G168" s="5">
+        <v>2.6249855293367652E-2</v>
+      </c>
+      <c r="I168" s="5">
+        <v>0.52525539219336237</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0.45876695157191838</v>
+      </c>
+      <c r="K168" t="s">
+        <v>20</v>
+      </c>
+      <c r="L168" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>320</v>
+      </c>
+      <c r="B169" t="s">
+        <v>326</v>
+      </c>
+      <c r="C169" t="s">
+        <v>331</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.77399457385722004</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0.17276797282282363</v>
+      </c>
+      <c r="G169" s="5">
+        <v>5.0793876502971902E-2</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0.41786997155946581</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0.57719585837263043</v>
+      </c>
+      <c r="K169" t="s">
+        <v>35</v>
+      </c>
+      <c r="L169" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>320</v>
+      </c>
+      <c r="B170" t="s">
+        <v>322</v>
+      </c>
+      <c r="C170" t="s">
+        <v>340</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0.68750012901461</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0.20290086816804681</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0.10610521008003244</v>
+      </c>
+      <c r="I170" s="5">
+        <v>0.47816723412627277</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0.51761680912274133</v>
+      </c>
+      <c r="K170" t="s">
+        <v>15</v>
+      </c>
+      <c r="L170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>320</v>
+      </c>
+      <c r="B171" t="s">
+        <v>328</v>
+      </c>
+      <c r="C171" t="s">
+        <v>334</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0.25226246847681849</v>
+      </c>
+      <c r="F171" s="5">
+        <v>0.33673170897780991</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0.38138312957300996</v>
+      </c>
+      <c r="I171" s="5">
+        <v>0.23968159352937596</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0.76023277561653979</v>
+      </c>
+      <c r="K171" t="s">
+        <v>19</v>
+      </c>
+      <c r="L171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
+        <v>332</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44549</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0.47805502780645859</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0.3974931404594752</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0.12302390494272659</v>
+      </c>
+      <c r="I172" s="5">
+        <v>0.11413076956927633</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.88583489233613133</v>
+      </c>
+      <c r="K172" t="s">
+        <v>16</v>
+      </c>
+      <c r="L172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>